--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="319">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -983,28 +983,10 @@
     <t>روند روزانه بهای سکه و ارز ( شنبه 14 شهریور 1400)</t>
   </si>
   <si>
-    <t>روند روزانه بهای سکه و ارز ( یکشنبه 15 شهریور 1400)</t>
-  </si>
-  <si>
-    <t>10 46</t>
-  </si>
-  <si>
-    <t>11 06</t>
-  </si>
-  <si>
     <t>15شهریور1400</t>
   </si>
   <si>
-    <t>12 24</t>
-  </si>
-  <si>
-    <t>12 36</t>
-  </si>
-  <si>
-    <t>13 56</t>
-  </si>
-  <si>
-    <t>t</t>
+    <t>روند روزانه بهای سکه و ارز ( دوشنبه 15 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -4180,11 +4162,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082635584"/>
-        <c:axId val="2082638848"/>
+        <c:axId val="1872271232"/>
+        <c:axId val="1872266336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082635584"/>
+        <c:axId val="1872271232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4227,7 +4209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082638848"/>
+        <c:crossAx val="1872266336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4235,7 +4217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082638848"/>
+        <c:axId val="1872266336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4286,7 +4268,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082635584"/>
+        <c:crossAx val="1872271232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7253,8 +7235,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082645376"/>
-        <c:axId val="2082649728"/>
+        <c:axId val="1872266880"/>
+        <c:axId val="1872259264"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7547,7 +7529,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082645376"/>
+        <c:axId val="1872266880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,7 +7572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082649728"/>
+        <c:crossAx val="1872259264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7598,7 +7580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082649728"/>
+        <c:axId val="1872259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7649,7 +7631,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082645376"/>
+        <c:crossAx val="1872266880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10624,8 +10606,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082647008"/>
-        <c:axId val="2082642656"/>
+        <c:axId val="1872263072"/>
+        <c:axId val="1872267424"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -10918,7 +10900,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082647008"/>
+        <c:axId val="1872263072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10961,7 +10943,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082642656"/>
+        <c:crossAx val="1872267424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10969,7 +10951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082642656"/>
+        <c:axId val="1872267424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11020,7 +11002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082647008"/>
+        <c:crossAx val="1872263072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14004,11 +13986,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082639936"/>
-        <c:axId val="2082647552"/>
+        <c:axId val="1872269056"/>
+        <c:axId val="2095071904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082639936"/>
+        <c:axId val="1872269056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14051,7 +14033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082647552"/>
+        <c:crossAx val="2095071904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14059,7 +14041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082647552"/>
+        <c:axId val="2095071904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14110,7 +14092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082639936"/>
+        <c:crossAx val="1872269056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17095,11 +17077,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082637216"/>
-        <c:axId val="2082636128"/>
+        <c:axId val="2095064832"/>
+        <c:axId val="2095068640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082637216"/>
+        <c:axId val="2095064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17142,7 +17124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082636128"/>
+        <c:crossAx val="2095068640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17150,7 +17132,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082636128"/>
+        <c:axId val="2095068640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17201,7 +17183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082637216"/>
+        <c:crossAx val="2095064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20175,11 +20157,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082636672"/>
-        <c:axId val="2082638304"/>
+        <c:axId val="2095065920"/>
+        <c:axId val="2095072992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082636672"/>
+        <c:axId val="2095065920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20222,7 +20204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082638304"/>
+        <c:crossAx val="2095072992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20230,7 +20212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082638304"/>
+        <c:axId val="2095072992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20281,7 +20263,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082636672"/>
+        <c:crossAx val="2095065920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20407,7 +20389,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( یکشنبه 14 شهریور 1400 )</a:t>
+              <a:t> بازارها( دوشنبه 15 شهریور 1400 )</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -20458,11 +20440,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="60"/>
-          <c:order val="60"/>
+          <c:idx val="61"/>
+          <c:order val="61"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent2">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -20512,6 +20494,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20552,21 +20535,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$62:$I$62</c:f>
+              <c:f>'price change'!$F$63:$I$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.51756007393715342</c:v>
+                  <c:v>-0.6620080912100037</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1676396997497915</c:v>
+                  <c:v>-0.65952184666117064</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.91359675272663765</c:v>
+                  <c:v>-0.70855656005210799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.25</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20583,8 +20566,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2082641568"/>
-        <c:axId val="2082639392"/>
+        <c:axId val="1870674752"/>
+        <c:axId val="1870678560"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -20661,7 +20644,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20687,7 +20670,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$2:$I$2</c15:sqref>
@@ -20781,7 +20764,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20807,7 +20790,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -20913,7 +20896,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20939,7 +20922,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -21045,7 +21028,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21071,7 +21054,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -21177,7 +21160,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21203,7 +21186,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -21309,7 +21292,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21335,7 +21318,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -21443,7 +21426,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21469,7 +21452,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -21577,7 +21560,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21603,7 +21586,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -21711,7 +21694,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21737,7 +21720,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -21845,7 +21828,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21871,7 +21854,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -21979,7 +21962,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22005,7 +21988,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22113,7 +22096,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22139,7 +22122,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -22245,7 +22228,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22271,7 +22254,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -22377,7 +22360,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22403,7 +22386,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -22512,7 +22495,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22538,7 +22521,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -22647,7 +22630,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22673,7 +22656,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -22782,7 +22765,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22808,7 +22791,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -22917,7 +22900,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22943,7 +22926,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -23051,7 +23034,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23077,7 +23060,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -23185,7 +23168,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23211,7 +23194,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -23319,7 +23302,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23345,7 +23328,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -23453,7 +23436,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23479,7 +23462,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -23587,7 +23570,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23613,7 +23596,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -23721,7 +23704,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23747,7 +23730,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -23856,7 +23839,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23882,7 +23865,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -23991,7 +23974,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24017,7 +24000,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24126,7 +24109,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24152,7 +24135,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -24261,7 +24244,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24287,7 +24270,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -24396,7 +24379,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24422,7 +24405,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -24531,7 +24514,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24557,7 +24540,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -24665,7 +24648,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24691,7 +24674,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -24799,7 +24782,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24825,7 +24808,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -24933,7 +24916,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24959,7 +24942,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25067,7 +25050,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25093,7 +25076,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -25201,7 +25184,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25227,7 +25210,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -25335,7 +25318,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25361,7 +25344,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -25470,7 +25453,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25496,7 +25479,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -25605,7 +25588,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25631,7 +25614,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -25740,7 +25723,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25766,7 +25749,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -25875,7 +25858,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25901,7 +25884,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -26010,7 +25993,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26036,7 +26019,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -26145,7 +26128,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26171,7 +26154,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -26279,7 +26262,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26305,7 +26288,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -26413,7 +26396,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26439,7 +26422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -26547,7 +26530,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26573,7 +26556,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -26681,7 +26664,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26707,7 +26690,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -26815,7 +26798,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26841,7 +26824,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -26949,7 +26932,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26975,7 +26958,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27084,7 +27067,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27110,7 +27093,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -27219,7 +27202,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27245,7 +27228,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -27354,7 +27337,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27380,7 +27363,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -27489,7 +27472,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27515,7 +27498,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -27624,7 +27607,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27650,7 +27633,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -27759,7 +27742,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27785,7 +27768,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -27891,7 +27874,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27917,7 +27900,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -28023,7 +28006,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28049,7 +28032,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -28155,7 +28138,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28181,7 +28164,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -28287,7 +28270,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28313,7 +28296,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -28419,7 +28402,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28445,7 +28428,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -28551,7 +28534,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28577,7 +28560,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -28604,11 +28587,141 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="60"/>
+                <c:order val="60"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.51756007393715342</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.1676396997497915</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.91359675272663765</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.25</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082641568"/>
+        <c:axId val="1870674752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28651,7 +28764,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082639392"/>
+        <c:crossAx val="1870678560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28659,7 +28772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082639392"/>
+        <c:axId val="1870678560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28710,7 +28823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082641568"/>
+        <c:crossAx val="1870674752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28724,6 +28837,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -33128,8 +33242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM129"/>
   <sheetViews>
-    <sheetView topLeftCell="U118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V122" sqref="V122"/>
+    <sheetView topLeftCell="G109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33217,14 +33331,14 @@
       </c>
       <c r="S1" s="9">
         <f>L120/G120</f>
-        <v>2813525.9889232242</v>
+        <v>2822186.0952511309</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
         <f>M120/K120</f>
-        <v>31417.573805152384</v>
+        <v>28207.734540676454</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -33344,7 +33458,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" hidden="1" customHeight="1">
+    <row r="2" spans="1:65" ht="21.6" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -33454,7 +33568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="18" hidden="1">
+    <row r="3" spans="1:65" ht="18">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -33564,7 +33678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="18" hidden="1">
+    <row r="4" spans="1:65" ht="18">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -33674,7 +33788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="18" hidden="1">
+    <row r="5" spans="1:65" ht="18">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -33784,7 +33898,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:65" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -33894,7 +34008,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="18" hidden="1">
+    <row r="7" spans="1:65" ht="18">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -34004,7 +34118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="18" hidden="1">
+    <row r="8" spans="1:65" ht="18">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -34114,7 +34228,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="18" hidden="1">
+    <row r="9" spans="1:65" ht="18">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -34224,7 +34338,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="18" hidden="1">
+    <row r="10" spans="1:65" ht="18">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -34334,7 +34448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="18" hidden="1">
+    <row r="11" spans="1:65" ht="18">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -34444,7 +34558,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="12" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -34566,7 +34680,7 @@
         <v>2.6256936966785389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="13" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
@@ -34743,7 +34857,7 @@
         <v>3.8371899450640921E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="14" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>58</v>
@@ -34918,7 +35032,7 @@
         <v>3.6598002238156423E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="15" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
@@ -35085,7 +35199,7 @@
         <v>3.6088474970896393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="16" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>65</v>
@@ -35220,7 +35334,7 @@
         <v>3.9324668811901879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="17" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>66</v>
@@ -35349,7 +35463,7 @@
         <v>4.4976317223456429E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="18" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>77</v>
@@ -35501,7 +35615,7 @@
         <v>4.2640063981142402E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="19" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>90</v>
@@ -35653,7 +35767,7 @@
         <v>3.4891097483611758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="20" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>91</v>
@@ -35803,7 +35917,7 @@
         <v>2.1503105065269739E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="21" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>92</v>
@@ -35953,7 +36067,7 @@
         <v>1.94008069362177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="22" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>94</v>
@@ -36101,7 +36215,7 @@
         <v>3.8086190517315828E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>95</v>
@@ -36251,7 +36365,7 @@
         <v>2.9494321371507537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="25" t="s">
         <v>99</v>
@@ -36401,7 +36515,7 @@
         <v>2.9875913355527691E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>100</v>
@@ -36551,7 +36665,7 @@
         <v>3.2037701586752565E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>101</v>
@@ -36701,7 +36815,7 @@
         <v>2.1493750810880941E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
         <v>102</v>
@@ -36853,7 +36967,7 @@
         <v>2.0628344553771792E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="25" t="s">
         <v>103</v>
@@ -37003,7 +37117,7 @@
         <v>2.5052011095700415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
         <v>106</v>
@@ -37153,7 +37267,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>109</v>
@@ -37307,7 +37421,7 @@
         <v>5.9974609289497873E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -37457,7 +37571,7 @@
         <v>-1.470983944748408E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -37581,7 +37695,7 @@
         <v>9.9138330399332897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>112</v>
@@ -37719,7 +37833,7 @@
         <v>-1.8682770334025288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>113</v>
@@ -37847,7 +37961,7 @@
         <v>3.1361612603356327E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>115</v>
@@ -37988,7 +38102,7 @@
         <v>5.0932041685013946E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>116</v>
@@ -38123,7 +38237,7 @@
         <v>3.7201877025784917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>117</v>
@@ -38253,7 +38367,7 @@
         <v>4.660045836516425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>118</v>
@@ -38375,7 +38489,7 @@
         <v>3.2269893656032271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>119</v>
@@ -38497,7 +38611,7 @@
         <v>3.0200265799000963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
         <v>121</v>
@@ -38619,7 +38733,7 @@
         <v>3.7372593431483581E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="25" t="s">
         <v>122</v>
@@ -38743,7 +38857,7 @@
         <v>4.6139995498537027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="25" t="s">
         <v>123</v>
@@ -38869,7 +38983,7 @@
         <v>2.4709628234449974E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25" t="s">
         <v>124</v>
@@ -38987,7 +39101,7 @@
         <v>4.1844961938651414E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="25" t="s">
         <v>125</v>
@@ -39109,7 +39223,7 @@
         <v>2.2023244245466467E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="25" t="s">
         <v>126</v>
@@ -39229,7 +39343,7 @@
         <v>3.4451659451659448E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="39" t="s">
         <v>128</v>
@@ -39347,7 +39461,7 @@
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39" t="s">
         <v>129</v>
@@ -39467,7 +39581,7 @@
         <v>3.3689622513868221E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="39" t="s">
         <v>130</v>
@@ -39593,7 +39707,7 @@
         <v>4.1601220661490822E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="39" t="s">
         <v>131</v>
@@ -39719,7 +39833,7 @@
         <v>3.6582615363796291E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39" t="s">
         <v>132</v>
@@ -39843,7 +39957,7 @@
         <v>4.8256649892163911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="39" t="s">
         <v>133</v>
@@ -39963,7 +40077,7 @@
         <v>3.9659421913511093E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="4" t="s">
         <v>135</v>
@@ -40087,7 +40201,7 @@
         <v>4.2074576861158244E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -40209,7 +40323,7 @@
         <v>1.6349794067479304E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="25" t="s">
         <v>137</v>
@@ -40331,7 +40445,7 @@
         <v>2.2913256955810146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="4" t="s">
         <v>138</v>
@@ -40449,7 +40563,7 @@
         <v>2.8963741686333404E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="4" t="s">
         <v>139</v>
@@ -40567,7 +40681,7 @@
         <v>3.3635187580853813E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>140</v>
@@ -40685,7 +40799,7 @@
         <v>2.8795924534818461E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
         <v>142</v>
@@ -40803,7 +40917,7 @@
         <v>2.671690357938003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="s">
         <v>143</v>
@@ -40921,7 +41035,7 @@
         <v>2.4057635404605687E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
         <v>144</v>
@@ -41039,7 +41153,7 @@
         <v>3.2539072508326931E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="s">
         <v>145</v>
@@ -41157,7 +41271,7 @@
         <v>2.8253424657534245E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="4" t="s">
         <v>147</v>
@@ -41262,7 +41376,7 @@
       </c>
       <c r="BK62" s="32">
         <f>K120/K62</f>
-        <v>121.35004610419548</v>
+        <v>136.05209774089442</v>
       </c>
       <c r="BL62">
         <f t="shared" si="5"/>
@@ -41273,7 +41387,7 @@
         <v>2.3155161220515041E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="4" t="s">
         <v>161</v>
@@ -41385,7 +41499,7 @@
         <v>2.9020348587619128E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="4" t="s">
         <v>166</v>
@@ -41497,7 +41611,7 @@
         <v>2.4806135127029689E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="4" t="s">
         <v>168</v>
@@ -41609,7 +41723,7 @@
         <v>3.0344591119492541E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="4" t="s">
         <v>171</v>
@@ -41721,7 +41835,7 @@
         <v>3.1046869654464591E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>174</v>
@@ -41833,7 +41947,7 @@
         <v>3.9105191256830603E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="34" t="s">
         <v>178</v>
@@ -41945,7 +42059,7 @@
         <v>6.2370062370062374E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="34" t="s">
         <v>180</v>
@@ -42057,7 +42171,7 @@
         <v>1.5050453223875491E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="34" t="s">
         <v>181</v>
@@ -42165,7 +42279,7 @@
         <v>2.6553987387928447E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="33"/>
       <c r="B71" s="34" t="s">
         <v>183</v>
@@ -42273,7 +42387,7 @@
         <v>3.0769885517300082E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A72" s="33"/>
       <c r="B72" s="34" t="s">
         <v>185</v>
@@ -42378,7 +42492,7 @@
         <v>2.1202759321173135E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A73" s="33"/>
       <c r="B73" s="34" t="s">
         <v>186</v>
@@ -42483,7 +42597,7 @@
         <v>2.0840393087089123E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="4" t="s">
         <v>187</v>
@@ -42591,7 +42705,7 @@
         <v>3.0037494207355606E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="4" t="s">
         <v>193</v>
@@ -42699,7 +42813,7 @@
         <v>2.4134312696747113E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="4" t="s">
         <v>195</v>
@@ -42807,7 +42921,7 @@
         <v>3.5059827629487075E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>196</v>
@@ -42911,7 +43025,7 @@
         <v>3.1143572278527758E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="4" t="s">
         <v>198</v>
@@ -42948,7 +43062,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M118" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M119" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -43015,7 +43129,7 @@
         <v>3.008315669329855E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="4" t="s">
         <v>200</v>
@@ -43119,7 +43233,7 @@
         <v>1.8148013419021058E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="33"/>
       <c r="B80" s="34" t="s">
         <v>204</v>
@@ -43223,7 +43337,7 @@
         <v>1.5234563920683539E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="33"/>
       <c r="B81" s="34" t="s">
         <v>206</v>
@@ -43327,7 +43441,7 @@
         <v>1.6552280985062576E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
         <v>208</v>
@@ -43427,7 +43541,7 @@
       <c r="BG82" s="37"/>
       <c r="BH82" s="37"/>
     </row>
-    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="34" t="s">
         <v>211</v>
@@ -43527,7 +43641,7 @@
       <c r="BG83" s="37"/>
       <c r="BH83" s="37"/>
     </row>
-    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="s">
         <v>213</v>
@@ -43627,7 +43741,7 @@
       <c r="BG84" s="37"/>
       <c r="BH84" s="37"/>
     </row>
-    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>219</v>
@@ -43727,7 +43841,7 @@
       <c r="BG85" s="31"/>
       <c r="BH85" s="31"/>
     </row>
-    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="25" t="s">
         <v>218</v>
@@ -43827,7 +43941,7 @@
       <c r="BG86" s="26"/>
       <c r="BH86" s="26"/>
     </row>
-    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="4" t="s">
         <v>220</v>
@@ -43927,7 +44041,7 @@
       <c r="BG87" s="31"/>
       <c r="BH87" s="31"/>
     </row>
-    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="4" t="s">
         <v>223</v>
@@ -44027,7 +44141,7 @@
       <c r="BG88" s="31"/>
       <c r="BH88" s="31"/>
     </row>
-    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="4" t="s">
         <v>225</v>
@@ -44060,7 +44174,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L118" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L119" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -44127,7 +44241,7 @@
       <c r="BG89" s="31"/>
       <c r="BH89" s="31"/>
     </row>
-    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>228</v>
@@ -44227,7 +44341,7 @@
       <c r="BG90" s="16"/>
       <c r="BH90" s="16"/>
     </row>
-    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>230</v>
@@ -44327,7 +44441,7 @@
       <c r="BG91" s="16"/>
       <c r="BH91" s="16"/>
     </row>
-    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>233</v>
@@ -44427,7 +44541,7 @@
       <c r="BG92" s="16"/>
       <c r="BH92" s="16"/>
     </row>
-    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="4" t="s">
         <v>264</v>
@@ -44527,7 +44641,7 @@
       <c r="BG93" s="31"/>
       <c r="BH93" s="31"/>
     </row>
-    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="4" t="s">
         <v>265</v>
@@ -44627,7 +44741,7 @@
       <c r="BG94" s="31"/>
       <c r="BH94" s="31"/>
     </row>
-    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="4" t="s">
         <v>266</v>
@@ -44727,7 +44841,7 @@
       <c r="BG95" s="31"/>
       <c r="BH95" s="31"/>
     </row>
-    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>267</v>
@@ -44827,7 +44941,7 @@
       <c r="BG96" s="16"/>
       <c r="BH96" s="16"/>
     </row>
-    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>268</v>
@@ -44927,7 +45041,7 @@
       <c r="BG97" s="16"/>
       <c r="BH97" s="16"/>
     </row>
-    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>269</v>
@@ -45027,7 +45141,7 @@
       <c r="BG98" s="16"/>
       <c r="BH98" s="16"/>
     </row>
-    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>270</v>
@@ -45127,7 +45241,7 @@
       <c r="BG99" s="16"/>
       <c r="BH99" s="16"/>
     </row>
-    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>271</v>
@@ -45227,7 +45341,7 @@
       <c r="BG100" s="16"/>
       <c r="BH100" s="16"/>
     </row>
-    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="4" t="s">
         <v>272</v>
@@ -45327,7 +45441,7 @@
       <c r="BG101" s="31"/>
       <c r="BH101" s="31"/>
     </row>
-    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="4" t="s">
         <v>273</v>
@@ -45427,7 +45541,7 @@
       <c r="BG102" s="31"/>
       <c r="BH102" s="31"/>
     </row>
-    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A103" s="30"/>
       <c r="B103" s="4" t="s">
         <v>274</v>
@@ -45527,7 +45641,7 @@
       <c r="BG103" s="31"/>
       <c r="BH103" s="31"/>
     </row>
-    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="30"/>
       <c r="B104" s="4" t="s">
         <v>275</v>
@@ -45627,7 +45741,7 @@
       <c r="BG104" s="31"/>
       <c r="BH104" s="31"/>
     </row>
-    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A105" s="30"/>
       <c r="B105" s="4" t="s">
         <v>276</v>
@@ -45727,7 +45841,7 @@
       <c r="BG105" s="31"/>
       <c r="BH105" s="31"/>
     </row>
-    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A106" s="33"/>
       <c r="B106" s="34" t="s">
         <v>283</v>
@@ -45827,7 +45941,7 @@
       <c r="BG106" s="37"/>
       <c r="BH106" s="37"/>
     </row>
-    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A107" s="33"/>
       <c r="B107" s="34" t="s">
         <v>284</v>
@@ -45927,7 +46041,7 @@
       <c r="BG107" s="37"/>
       <c r="BH107" s="37"/>
     </row>
-    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A108" s="30"/>
       <c r="B108" s="4" t="s">
         <v>286</v>
@@ -46027,7 +46141,7 @@
       <c r="BG108" s="31"/>
       <c r="BH108" s="31"/>
     </row>
-    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A109" s="30"/>
       <c r="B109" s="4" t="s">
         <v>289</v>
@@ -46127,7 +46241,7 @@
       <c r="BG109" s="31"/>
       <c r="BH109" s="31"/>
     </row>
-    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A110" s="30"/>
       <c r="B110" s="4" t="s">
         <v>292</v>
@@ -46227,7 +46341,7 @@
       <c r="BG110" s="31"/>
       <c r="BH110" s="31"/>
     </row>
-    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A111" s="30"/>
       <c r="B111" s="4" t="s">
         <v>293</v>
@@ -47030,7 +47144,7 @@
     <row r="119" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A119" s="55"/>
       <c r="B119" s="56" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C119" s="56">
         <v>15</v>
@@ -47038,17 +47152,41 @@
       <c r="D119" s="57">
         <v>26450</v>
       </c>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
+      <c r="E119" s="56">
+        <v>26328</v>
+      </c>
+      <c r="F119" s="56">
+        <v>26359</v>
+      </c>
+      <c r="G119" s="56">
+        <v>5658100</v>
+      </c>
       <c r="H119" s="56">
         <v>30950</v>
       </c>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="56"/>
-      <c r="M119" s="56"/>
+      <c r="I119" s="56">
+        <v>31104</v>
+      </c>
+      <c r="J119" s="56">
+        <v>31137</v>
+      </c>
+      <c r="K119" s="56">
+        <v>702100</v>
+      </c>
+      <c r="L119" s="56">
+        <f t="shared" si="14"/>
+        <v>149141857900</v>
+      </c>
+      <c r="M119" s="56">
+        <f t="shared" si="13"/>
+        <v>21861287700</v>
+      </c>
+      <c r="N119" s="58">
+        <v>26591</v>
+      </c>
+      <c r="O119" s="58">
+        <v>31415</v>
+      </c>
       <c r="P119" s="56">
         <v>26714</v>
       </c>
@@ -47061,6 +47199,12 @@
       <c r="U119" s="56"/>
       <c r="V119" s="59">
         <v>27070</v>
+      </c>
+      <c r="X119" s="58">
+        <v>27010</v>
+      </c>
+      <c r="Y119" s="58">
+        <v>32081</v>
       </c>
       <c r="Z119" s="56"/>
       <c r="AA119" s="56"/>
@@ -47105,23 +47249,23 @@
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
       <c r="G120" s="7">
-        <f>SUM(G2:G112)/111</f>
-        <v>5766447.7387387389</v>
+        <f>SUM(G2:G119)/118</f>
+        <v>5801599.1440677969</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7">
-        <f>SUM(K2:K107)</f>
-        <v>105283300</v>
+        <f>SUM(K2:K119)</f>
+        <v>118038800</v>
       </c>
       <c r="L120" s="7">
-        <f>SUM(L2:L118)</f>
-        <v>16224050576709</v>
+        <f>SUM(L2:L119)</f>
+        <v>16373192434609</v>
       </c>
       <c r="M120" s="4">
-        <f>SUM(M2:M118)</f>
-        <v>3307745848200</v>
+        <f>SUM(M2:M119)</f>
+        <v>3329607135900</v>
       </c>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -47131,9 +47275,7 @@
       <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
-      <c r="V120" s="49">
-        <v>27040</v>
-      </c>
+      <c r="V120" s="49"/>
       <c r="W120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
@@ -47176,9 +47318,7 @@
     </row>
     <row r="121" spans="1:62" ht="18">
       <c r="D121" s="19"/>
-      <c r="V121" s="12">
-        <v>27050</v>
-      </c>
+      <c r="V121" s="12"/>
       <c r="Z121" s="12"/>
       <c r="AB121" s="12"/>
       <c r="AS121" s="12"/>
@@ -47186,9 +47326,6 @@
     </row>
     <row r="122" spans="1:62" ht="18">
       <c r="D122" s="19"/>
-      <c r="V122">
-        <v>27040</v>
-      </c>
       <c r="Z122" s="12"/>
       <c r="AS122" s="19"/>
       <c r="AW122" s="29"/>
@@ -47211,7 +47348,7 @@
     <row r="124" spans="1:62" ht="18">
       <c r="G124">
         <f>(G110-G120)/G120</f>
-        <v>0.63230474400497427</v>
+        <v>0.62241474570412092</v>
       </c>
       <c r="V124" s="12"/>
       <c r="Z124" s="12"/>
@@ -48195,8 +48332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K678"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A664" workbookViewId="0">
-      <selection activeCell="F678" sqref="F678"/>
+    <sheetView topLeftCell="A664" workbookViewId="0">
+      <selection activeCell="E679" sqref="E679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55600,7 +55737,7 @@
         <v>11990000</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:4">
       <c r="A658" s="67" t="s">
         <v>316</v>
       </c>
@@ -55608,7 +55745,7 @@
       <c r="C658" s="67"/>
       <c r="D658" s="67"/>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
         <v>148</v>
       </c>
@@ -55622,7 +55759,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:4">
       <c r="A660" s="43">
         <v>0.45833333333333331</v>
       </c>
@@ -55636,7 +55773,7 @@
         <v>12090000</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:4">
       <c r="A661" s="44" t="s">
         <v>158</v>
       </c>
@@ -55650,7 +55787,7 @@
         <v>12090000</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:4">
       <c r="A662" s="45" t="s">
         <v>157</v>
       </c>
@@ -55664,7 +55801,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:4">
       <c r="A663" s="43" t="s">
         <v>156</v>
       </c>
@@ -55678,7 +55815,7 @@
         <v>12140000</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:4">
       <c r="A664" s="43">
         <v>0.625</v>
       </c>
@@ -55692,7 +55829,7 @@
         <v>12110000</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:4">
       <c r="A665" s="44" t="s">
         <v>159</v>
       </c>
@@ -55706,7 +55843,7 @@
         <v>12090000</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:4">
       <c r="A666" s="44" t="s">
         <v>160</v>
       </c>
@@ -55720,15 +55857,15 @@
         <v>12130000</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:4">
       <c r="A670" s="67" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B670" s="67"/>
       <c r="C670" s="67"/>
       <c r="D670" s="67"/>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
         <v>148</v>
       </c>
@@ -55742,90 +55879,103 @@
         <v>163</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:4">
       <c r="A672" s="43">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B672" s="3"/>
-      <c r="C672" s="3"/>
-      <c r="E672">
+      <c r="B672" s="3">
+        <v>27070</v>
+      </c>
+      <c r="C672" s="3">
+        <v>7400</v>
+      </c>
+      <c r="D672">
         <v>12080000</v>
       </c>
-      <c r="F672" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="673" spans="1:6">
+    </row>
+    <row r="673" spans="1:4">
       <c r="A673" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B673" s="3"/>
-      <c r="C673" s="3"/>
-      <c r="E673">
+      <c r="B673" s="3">
+        <v>27050</v>
+      </c>
+      <c r="C673" s="3">
+        <v>7400</v>
+      </c>
+      <c r="D673">
         <v>12070000</v>
       </c>
-      <c r="F673" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="674" spans="1:6">
+    </row>
+    <row r="674" spans="1:4">
       <c r="A674" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B674" s="3"/>
-      <c r="C674" s="3"/>
-      <c r="E674">
+      <c r="B674" s="3">
+        <v>27000</v>
+      </c>
+      <c r="C674" s="3">
+        <v>7370</v>
+      </c>
+      <c r="D674">
         <v>12040000</v>
       </c>
-      <c r="F674" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="675" spans="1:6">
+    </row>
+    <row r="675" spans="1:4">
       <c r="A675" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B675" s="3"/>
-      <c r="C675" s="3"/>
-      <c r="E675">
+      <c r="B675" s="3">
+        <v>27020</v>
+      </c>
+      <c r="C675" s="3">
+        <v>7390</v>
+      </c>
+      <c r="D675">
         <v>12030000</v>
       </c>
-      <c r="F675" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="676" spans="1:6">
+    </row>
+    <row r="676" spans="1:4">
       <c r="A676" s="43">
         <v>0.625</v>
       </c>
-      <c r="B676" s="3"/>
-      <c r="C676" s="3"/>
-      <c r="E676">
+      <c r="B676" s="3">
+        <v>27010</v>
+      </c>
+      <c r="C676" s="3">
+        <v>7385</v>
+      </c>
+      <c r="D676">
         <v>12060000</v>
       </c>
-      <c r="F676" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="677" spans="1:6">
+    </row>
+    <row r="677" spans="1:4">
       <c r="A677" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B677" s="3"/>
-      <c r="C677" s="3"/>
-      <c r="E677">
-        <v>12060000</v>
-      </c>
-      <c r="F677" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="678" spans="1:6">
+      <c r="B677" s="3">
+        <v>27010</v>
+      </c>
+      <c r="C677" s="3">
+        <v>7385</v>
+      </c>
+      <c r="D677">
+        <v>12030000</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4">
       <c r="A678" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B678" s="3"/>
-      <c r="C678" s="3"/>
+      <c r="B678" s="3">
+        <v>27010</v>
+      </c>
+      <c r="C678" s="3">
+        <v>7385</v>
+      </c>
+      <c r="D678">
+        <v>12050000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -55901,10 +56051,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M62"/>
+  <dimension ref="B1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -55968,7 +56118,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H62" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H63" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -55997,7 +56147,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F62" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F63" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -57687,17 +57837,46 @@
       <c r="I62">
         <v>-0.25</v>
       </c>
-      <c r="J62">
-        <v>0.52</v>
-      </c>
-      <c r="K62">
-        <v>1.17</v>
-      </c>
-      <c r="L62">
-        <v>0.91</v>
-      </c>
-      <c r="M62">
-        <v>-0.25</v>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63">
+        <v>14000615</v>
+      </c>
+      <c r="C63" s="54">
+        <v>27010</v>
+      </c>
+      <c r="D63">
+        <v>12050000</v>
+      </c>
+      <c r="E63">
+        <v>1164637</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>-0.6620080912100037</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="0"/>
+        <v>-0.65952184666117064</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>-0.70855656005210799</v>
+      </c>
+      <c r="I63">
+        <v>0.09</v>
+      </c>
+      <c r="J63">
+        <v>-0.66</v>
+      </c>
+      <c r="K63">
+        <v>-0.66</v>
+      </c>
+      <c r="L63">
+        <v>-0.71</v>
+      </c>
+      <c r="M63">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="321">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -992,19 +992,7 @@
     <t>روند روزانه بهای سکه و ارز ( ‌سه‌شنبه 16 شهریور 1400)</t>
   </si>
   <si>
-    <t>10 46</t>
-  </si>
-  <si>
     <t>16شهریور1400</t>
-  </si>
-  <si>
-    <t>11 26</t>
-  </si>
-  <si>
-    <t>12 26</t>
-  </si>
-  <si>
-    <t>13 26</t>
   </si>
 </sst>
 </file>
@@ -1262,15 +1250,15 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4185,11 +4173,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439151504"/>
-        <c:axId val="439163472"/>
+        <c:axId val="1519335280"/>
+        <c:axId val="1519331472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439151504"/>
+        <c:axId val="1519335280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4232,7 +4220,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439163472"/>
+        <c:crossAx val="1519331472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439163472"/>
+        <c:axId val="1519331472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439151504"/>
+        <c:crossAx val="1519335280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7258,8 +7246,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439153680"/>
-        <c:axId val="439155856"/>
+        <c:axId val="1519321136"/>
+        <c:axId val="1519320592"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7552,7 +7540,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439153680"/>
+        <c:axId val="1519321136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7595,7 +7583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439155856"/>
+        <c:crossAx val="1519320592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7603,7 +7591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439155856"/>
+        <c:axId val="1519320592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7654,7 +7642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439153680"/>
+        <c:crossAx val="1519321136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7904,6 +7892,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8041,6 +8030,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8178,6 +8168,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8315,6 +8306,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8454,6 +8446,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8593,6 +8586,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8732,6 +8726,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8871,6 +8866,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9010,6 +9006,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9149,6 +9146,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9289,6 +9287,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9429,6 +9428,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9569,6 +9569,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9709,6 +9710,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9849,6 +9851,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9989,6 +9992,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10128,6 +10132,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10267,6 +10272,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10406,6 +10412,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10545,6 +10552,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10629,8 +10637,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439157488"/>
-        <c:axId val="439150416"/>
+        <c:axId val="1519322224"/>
+        <c:axId val="1519335824"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -10923,7 +10931,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439157488"/>
+        <c:axId val="1519322224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10966,7 +10974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439150416"/>
+        <c:crossAx val="1519335824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10974,7 +10982,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439150416"/>
+        <c:axId val="1519335824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11025,7 +11033,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439157488"/>
+        <c:crossAx val="1519322224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11039,6 +11047,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14009,11 +14018,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439158576"/>
-        <c:axId val="439159120"/>
+        <c:axId val="1519334736"/>
+        <c:axId val="1519323312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439158576"/>
+        <c:axId val="1519334736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14056,7 +14065,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439159120"/>
+        <c:crossAx val="1519323312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14064,7 +14073,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439159120"/>
+        <c:axId val="1519323312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14115,7 +14124,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439158576"/>
+        <c:crossAx val="1519334736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17100,11 +17109,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439159664"/>
-        <c:axId val="439160752"/>
+        <c:axId val="1519321680"/>
+        <c:axId val="1519324944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439159664"/>
+        <c:axId val="1519321680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17147,7 +17156,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439160752"/>
+        <c:crossAx val="1519324944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17155,7 +17164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439160752"/>
+        <c:axId val="1519324944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17206,7 +17215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439159664"/>
+        <c:crossAx val="1519321680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20180,11 +20189,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439160208"/>
-        <c:axId val="439148784"/>
+        <c:axId val="1519332560"/>
+        <c:axId val="1519322768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439160208"/>
+        <c:axId val="1519332560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20227,7 +20236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439148784"/>
+        <c:crossAx val="1519322768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20235,7 +20244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="439148784"/>
+        <c:axId val="1519322768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20286,7 +20295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439160208"/>
+        <c:crossAx val="1519332560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20412,7 +20421,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( دوشنبه 15 شهریور 1400 )</a:t>
+              <a:t> بازارها( سه‌شنبه 16 شهریور 1400 )</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -20463,11 +20472,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="61"/>
-          <c:order val="61"/>
+          <c:idx val="62"/>
+          <c:order val="62"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent3">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -20558,21 +20567,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$63:$I$63</c:f>
+              <c:f>'price change'!$F$64:$I$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.6620080912100037</c:v>
+                  <c:v>0.40725657164013329</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.65952184666117064</c:v>
+                  <c:v>0.74688796680497926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.70855656005210799</c:v>
+                  <c:v>0.73344741752151099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.09</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20589,8 +20598,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="439149328"/>
-        <c:axId val="235965504"/>
+        <c:axId val="1519323856"/>
+        <c:axId val="1519324400"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -20667,7 +20676,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20693,7 +20702,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$2:$I$2</c15:sqref>
@@ -20787,7 +20796,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20813,7 +20822,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -20919,7 +20928,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20945,7 +20954,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -21051,7 +21060,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21077,7 +21086,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -21183,7 +21192,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21209,7 +21218,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -21315,7 +21324,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21341,7 +21350,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -21449,7 +21458,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21475,7 +21484,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -21583,7 +21592,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21609,7 +21618,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -21717,7 +21726,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21743,7 +21752,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -21851,7 +21860,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21877,7 +21886,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -21985,7 +21994,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22011,7 +22020,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22119,7 +22128,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22145,7 +22154,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -22251,7 +22260,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22277,7 +22286,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -22383,7 +22392,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22409,7 +22418,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -22518,7 +22527,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22544,7 +22553,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -22653,7 +22662,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22679,7 +22688,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -22788,7 +22797,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22814,7 +22823,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -22923,7 +22932,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22949,7 +22958,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -23057,7 +23066,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23083,7 +23092,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -23191,7 +23200,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23217,7 +23226,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -23325,7 +23334,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23351,7 +23360,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -23459,7 +23468,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23485,7 +23494,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -23593,7 +23602,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23619,7 +23628,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -23727,7 +23736,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23753,7 +23762,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -23862,7 +23871,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23888,7 +23897,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -23997,7 +24006,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24023,7 +24032,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24132,7 +24141,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24158,7 +24167,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -24267,7 +24276,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24293,7 +24302,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -24402,7 +24411,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24428,7 +24437,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -24537,7 +24546,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24563,7 +24572,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -24671,7 +24680,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24697,7 +24706,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -24805,7 +24814,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24831,7 +24840,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -24939,7 +24948,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24965,7 +24974,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25073,7 +25082,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25099,7 +25108,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -25207,7 +25216,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25233,7 +25242,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -25341,7 +25350,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25367,7 +25376,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -25476,7 +25485,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25502,7 +25511,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -25611,7 +25620,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25637,7 +25646,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -25746,7 +25755,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25772,7 +25781,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -25881,7 +25890,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25907,7 +25916,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -26016,7 +26025,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26042,7 +26051,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -26151,7 +26160,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26177,7 +26186,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -26285,7 +26294,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26311,7 +26320,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -26419,7 +26428,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26445,7 +26454,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -26553,7 +26562,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26579,7 +26588,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -26687,7 +26696,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26713,7 +26722,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -26821,7 +26830,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26847,7 +26856,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -26955,7 +26964,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26981,7 +26990,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27090,7 +27099,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27116,7 +27125,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -27225,7 +27234,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27251,7 +27260,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -27360,7 +27369,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27386,7 +27395,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -27495,7 +27504,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27521,7 +27530,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -27630,7 +27639,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27656,7 +27665,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -27765,7 +27774,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27791,7 +27800,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -27897,7 +27906,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27923,7 +27932,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -28029,7 +28038,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28055,7 +28064,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -28161,7 +28170,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28187,7 +28196,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -28293,7 +28302,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28319,7 +28328,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -28425,7 +28434,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28451,7 +28460,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -28557,7 +28566,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28583,7 +28592,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -28686,7 +28695,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28712,7 +28721,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
@@ -28739,11 +28748,141 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="61"/>
+                <c:order val="61"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$63:$I$63</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>-0.6620080912100037</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.65952184666117064</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.70855656005210799</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.09</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="439149328"/>
+        <c:axId val="1519323856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28786,7 +28925,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235965504"/>
+        <c:crossAx val="1519324400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28794,7 +28933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235965504"/>
+        <c:axId val="1519324400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28845,7 +28984,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="439149328"/>
+        <c:crossAx val="1519323856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33264,8 +33403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM130"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U120" sqref="U120"/>
+    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W122" sqref="W122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33353,14 +33492,14 @@
       </c>
       <c r="S1" s="9">
         <f>L121/G121</f>
-        <v>2822186.0952511309</v>
+        <v>2857574.5682051666</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
         <f>M121/K121</f>
-        <v>28207.734540676454</v>
+        <v>28515.368633872931</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -43084,7 +43223,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M119" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M120" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -44196,7 +44335,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L119" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L120" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -47163,110 +47302,110 @@
       <c r="BG118" s="65"/>
       <c r="BH118" s="65"/>
     </row>
-    <row r="119" spans="1:62" s="70" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="67"/>
-      <c r="B119" s="68" t="s">
+    <row r="119" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="66"/>
+      <c r="B119" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="68">
+      <c r="C119" s="67">
         <v>15</v>
       </c>
-      <c r="D119" s="69">
+      <c r="D119" s="68">
         <v>26450</v>
       </c>
-      <c r="E119" s="68">
+      <c r="E119" s="67">
         <v>26328</v>
       </c>
-      <c r="F119" s="68">
+      <c r="F119" s="67">
         <v>26359</v>
       </c>
-      <c r="G119" s="68">
+      <c r="G119" s="67">
         <v>5658100</v>
       </c>
-      <c r="H119" s="68">
+      <c r="H119" s="67">
         <v>30950</v>
       </c>
-      <c r="I119" s="68">
+      <c r="I119" s="67">
         <v>31104</v>
       </c>
-      <c r="J119" s="68">
+      <c r="J119" s="67">
         <v>31137</v>
       </c>
-      <c r="K119" s="68">
+      <c r="K119" s="67">
         <v>702100</v>
       </c>
-      <c r="L119" s="68">
+      <c r="L119" s="67">
         <f t="shared" si="14"/>
         <v>149141857900</v>
       </c>
-      <c r="M119" s="68">
+      <c r="M119" s="67">
         <f t="shared" si="13"/>
         <v>21861287700</v>
       </c>
-      <c r="N119" s="70">
+      <c r="N119" s="69">
         <v>26591</v>
       </c>
-      <c r="O119" s="70">
+      <c r="O119" s="69">
         <v>31415</v>
       </c>
-      <c r="P119" s="68">
+      <c r="P119" s="67">
         <v>26714</v>
       </c>
-      <c r="Q119" s="70">
+      <c r="Q119" s="69">
         <v>31259</v>
       </c>
-      <c r="R119" s="68"/>
-      <c r="S119" s="68"/>
-      <c r="T119" s="68"/>
-      <c r="U119" s="68"/>
-      <c r="V119" s="71">
+      <c r="R119" s="67"/>
+      <c r="S119" s="67"/>
+      <c r="T119" s="67"/>
+      <c r="U119" s="67"/>
+      <c r="V119" s="70">
         <v>27070</v>
       </c>
-      <c r="X119" s="70">
+      <c r="X119" s="69">
         <v>27010</v>
       </c>
-      <c r="Y119" s="70">
+      <c r="Y119" s="69">
         <v>32081</v>
       </c>
-      <c r="Z119" s="68"/>
-      <c r="AA119" s="68"/>
-      <c r="AB119" s="68"/>
-      <c r="AC119" s="68"/>
-      <c r="AD119" s="68"/>
-      <c r="AE119" s="68"/>
-      <c r="AF119" s="68"/>
-      <c r="AG119" s="68"/>
-      <c r="AH119" s="68"/>
-      <c r="AI119" s="68"/>
-      <c r="AJ119" s="68"/>
-      <c r="AK119" s="68"/>
-      <c r="AL119" s="68"/>
-      <c r="AM119" s="68"/>
-      <c r="AN119" s="68"/>
-      <c r="AO119" s="68"/>
-      <c r="AP119" s="68"/>
-      <c r="AQ119" s="68"/>
-      <c r="AR119" s="68"/>
-      <c r="AS119" s="69"/>
-      <c r="AT119" s="69"/>
-      <c r="AU119" s="69"/>
-      <c r="AV119" s="69"/>
-      <c r="AW119" s="69"/>
-      <c r="AX119" s="69"/>
-      <c r="AY119" s="68"/>
-      <c r="AZ119" s="68"/>
-      <c r="BA119" s="68"/>
-      <c r="BB119" s="68"/>
-      <c r="BC119" s="68"/>
-      <c r="BE119" s="72"/>
-      <c r="BF119" s="72"/>
-      <c r="BG119" s="72"/>
-      <c r="BH119" s="72"/>
+      <c r="Z119" s="67"/>
+      <c r="AA119" s="67"/>
+      <c r="AB119" s="67"/>
+      <c r="AC119" s="67"/>
+      <c r="AD119" s="67"/>
+      <c r="AE119" s="67"/>
+      <c r="AF119" s="67"/>
+      <c r="AG119" s="67"/>
+      <c r="AH119" s="67"/>
+      <c r="AI119" s="67"/>
+      <c r="AJ119" s="67"/>
+      <c r="AK119" s="67"/>
+      <c r="AL119" s="67"/>
+      <c r="AM119" s="67"/>
+      <c r="AN119" s="67"/>
+      <c r="AO119" s="67"/>
+      <c r="AP119" s="67"/>
+      <c r="AQ119" s="67"/>
+      <c r="AR119" s="67"/>
+      <c r="AS119" s="68"/>
+      <c r="AT119" s="68"/>
+      <c r="AU119" s="68"/>
+      <c r="AV119" s="68"/>
+      <c r="AW119" s="68"/>
+      <c r="AX119" s="68"/>
+      <c r="AY119" s="67"/>
+      <c r="AZ119" s="67"/>
+      <c r="BA119" s="67"/>
+      <c r="BB119" s="67"/>
+      <c r="BC119" s="67"/>
+      <c r="BE119" s="71"/>
+      <c r="BF119" s="71"/>
+      <c r="BG119" s="71"/>
+      <c r="BH119" s="71"/>
     </row>
     <row r="120" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="55"/>
       <c r="B120" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C120" s="56">
         <v>16</v>
@@ -47274,17 +47413,41 @@
       <c r="D120" s="57">
         <v>26570</v>
       </c>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="56"/>
+      <c r="E120" s="56">
+        <v>26360</v>
+      </c>
+      <c r="F120" s="56">
+        <v>26384</v>
+      </c>
+      <c r="G120" s="56">
+        <v>7781600</v>
+      </c>
       <c r="H120" s="56">
         <v>31212</v>
       </c>
-      <c r="I120" s="56"/>
-      <c r="J120" s="56"/>
-      <c r="K120" s="56"/>
-      <c r="L120" s="56"/>
-      <c r="M120" s="56"/>
+      <c r="I120" s="56">
+        <v>31350</v>
+      </c>
+      <c r="J120" s="56">
+        <v>31111</v>
+      </c>
+      <c r="K120" s="56">
+        <v>1167200</v>
+      </c>
+      <c r="L120" s="67">
+        <f t="shared" si="14"/>
+        <v>205309734400</v>
+      </c>
+      <c r="M120" s="67">
+        <f t="shared" si="13"/>
+        <v>36312759200</v>
+      </c>
+      <c r="N120" s="58">
+        <v>26623</v>
+      </c>
+      <c r="O120" s="58">
+        <v>31663</v>
+      </c>
       <c r="P120" s="56">
         <v>26836</v>
       </c>
@@ -47297,6 +47460,12 @@
       <c r="U120" s="56"/>
       <c r="V120" s="58">
         <v>27180</v>
+      </c>
+      <c r="X120" s="58">
+        <v>27120</v>
+      </c>
+      <c r="Y120" s="58">
+        <v>32297</v>
       </c>
       <c r="Z120" s="56"/>
       <c r="AA120" s="56"/>
@@ -47352,12 +47521,12 @@
         <v>118038800</v>
       </c>
       <c r="L121" s="7">
-        <f>SUM(L2:L119)</f>
-        <v>16373192434609</v>
+        <f>SUM(L2:L120)</f>
+        <v>16578502169009</v>
       </c>
       <c r="M121" s="4">
-        <f>SUM(M2:M119)</f>
-        <v>3329607135900</v>
+        <f>SUM(M2:M120)</f>
+        <v>3365919895100</v>
       </c>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -47367,9 +47536,6 @@
       <c r="S121" s="4"/>
       <c r="T121" s="4"/>
       <c r="U121" s="4"/>
-      <c r="V121">
-        <v>27170</v>
-      </c>
       <c r="W121" s="4"/>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
@@ -47412,9 +47578,6 @@
     </row>
     <row r="122" spans="1:62" ht="18">
       <c r="D122" s="19"/>
-      <c r="V122">
-        <v>27190</v>
-      </c>
       <c r="Z122" s="12"/>
       <c r="AB122" s="12"/>
       <c r="AS122" s="12"/>
@@ -48424,8 +48587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="C690" sqref="C690"/>
+    <sheetView topLeftCell="A676" workbookViewId="0">
+      <selection activeCell="D693" sqref="D693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -48439,12 +48602,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -48565,12 +48728,12 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -48690,12 +48853,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -48810,12 +48973,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -48930,12 +49093,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
@@ -49050,12 +49213,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="66" t="s">
+      <c r="A51" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -49178,12 +49341,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="66" t="s">
+      <c r="A61" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
@@ -49298,12 +49461,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="66" t="s">
+      <c r="A71" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
+      <c r="B71" s="72"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
@@ -49418,12 +49581,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="66" t="s">
+      <c r="A81" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
+      <c r="B81" s="72"/>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
@@ -49560,12 +49723,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="66" t="s">
+      <c r="A93" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
@@ -49680,12 +49843,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="66" t="s">
+      <c r="A103" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
+      <c r="B103" s="72"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
@@ -49803,12 +49966,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="66" t="s">
+      <c r="A113" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
+      <c r="B113" s="72"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
@@ -49927,12 +50090,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="66" t="s">
+      <c r="A123" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
+      <c r="B123" s="72"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="72"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
@@ -50047,12 +50210,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="66" t="s">
+      <c r="A133" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
+      <c r="B133" s="72"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="72"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
@@ -50167,12 +50330,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="66" t="s">
+      <c r="A143" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
+      <c r="B143" s="72"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="72"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
@@ -50287,12 +50450,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="66" t="s">
+      <c r="A153" s="72" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="66"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
+      <c r="B153" s="72"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="72"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
@@ -50417,12 +50580,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="66" t="s">
+      <c r="A163" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
+      <c r="B163" s="72"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="72"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
@@ -50537,12 +50700,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="66" t="s">
+      <c r="A173" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="66"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="66"/>
+      <c r="B173" s="72"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="72"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
@@ -50676,12 +50839,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="66" t="s">
+      <c r="A183" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="66"/>
-      <c r="C183" s="66"/>
-      <c r="D183" s="66"/>
+      <c r="B183" s="72"/>
+      <c r="C183" s="72"/>
+      <c r="D183" s="72"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -50803,12 +50966,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="66" t="s">
+      <c r="A193" s="72" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="66"/>
-      <c r="C193" s="66"/>
-      <c r="D193" s="66"/>
+      <c r="B193" s="72"/>
+      <c r="C193" s="72"/>
+      <c r="D193" s="72"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -50923,12 +51086,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="66" t="s">
+      <c r="A203" s="72" t="s">
         <v>214</v>
       </c>
-      <c r="B203" s="66"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="66"/>
+      <c r="B203" s="72"/>
+      <c r="C203" s="72"/>
+      <c r="D203" s="72"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
@@ -51043,12 +51206,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="66" t="s">
+      <c r="A213" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="66"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
+      <c r="B213" s="72"/>
+      <c r="C213" s="72"/>
+      <c r="D213" s="72"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
@@ -51163,12 +51326,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="66" t="s">
+      <c r="A223" s="72" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="66"/>
-      <c r="C223" s="66"/>
-      <c r="D223" s="66"/>
+      <c r="B223" s="72"/>
+      <c r="C223" s="72"/>
+      <c r="D223" s="72"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
@@ -51283,12 +51446,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="66" t="s">
+      <c r="A233" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="66"/>
-      <c r="C233" s="66"/>
-      <c r="D233" s="66"/>
+      <c r="B233" s="72"/>
+      <c r="C233" s="72"/>
+      <c r="D233" s="72"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
@@ -51404,12 +51567,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="66" t="s">
+      <c r="A243" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="66"/>
-      <c r="C243" s="66"/>
-      <c r="D243" s="66"/>
+      <c r="B243" s="72"/>
+      <c r="C243" s="72"/>
+      <c r="D243" s="72"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
@@ -51527,12 +51690,12 @@
       <c r="D252" s="48"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="66" t="s">
+      <c r="A253" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="66"/>
-      <c r="C253" s="66"/>
-      <c r="D253" s="66"/>
+      <c r="B253" s="72"/>
+      <c r="C253" s="72"/>
+      <c r="D253" s="72"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
@@ -51647,12 +51810,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="66" t="s">
+      <c r="A263" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="B263" s="66"/>
-      <c r="C263" s="66"/>
-      <c r="D263" s="66"/>
+      <c r="B263" s="72"/>
+      <c r="C263" s="72"/>
+      <c r="D263" s="72"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
@@ -51767,12 +51930,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="66" t="s">
+      <c r="A273" s="72" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="66"/>
-      <c r="C273" s="66"/>
-      <c r="D273" s="66"/>
+      <c r="B273" s="72"/>
+      <c r="C273" s="72"/>
+      <c r="D273" s="72"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
@@ -51887,12 +52050,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="66" t="s">
+      <c r="A283" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="B283" s="66"/>
-      <c r="C283" s="66"/>
-      <c r="D283" s="66"/>
+      <c r="B283" s="72"/>
+      <c r="C283" s="72"/>
+      <c r="D283" s="72"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
@@ -52007,12 +52170,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="66" t="s">
+      <c r="A293" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="B293" s="66"/>
-      <c r="C293" s="66"/>
-      <c r="D293" s="66"/>
+      <c r="B293" s="72"/>
+      <c r="C293" s="72"/>
+      <c r="D293" s="72"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
@@ -52131,12 +52294,12 @@
       <c r="F301" s="51"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="66" t="s">
+      <c r="A303" s="72" t="s">
         <v>234</v>
       </c>
-      <c r="B303" s="66"/>
-      <c r="C303" s="66"/>
-      <c r="D303" s="66"/>
+      <c r="B303" s="72"/>
+      <c r="C303" s="72"/>
+      <c r="D303" s="72"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
@@ -52221,12 +52384,12 @@
       <c r="D311" s="3"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="66" t="s">
+      <c r="A313" s="72" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="66"/>
-      <c r="C313" s="66"/>
-      <c r="D313" s="66"/>
+      <c r="B313" s="72"/>
+      <c r="C313" s="72"/>
+      <c r="D313" s="72"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
@@ -52319,12 +52482,12 @@
       <c r="D321" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="66" t="s">
+      <c r="A324" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="B324" s="66"/>
-      <c r="C324" s="66"/>
-      <c r="D324" s="66"/>
+      <c r="B324" s="72"/>
+      <c r="C324" s="72"/>
+      <c r="D324" s="72"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
@@ -52409,12 +52572,12 @@
       <c r="D332" s="3"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="66" t="s">
+      <c r="A335" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="B335" s="66"/>
-      <c r="C335" s="66"/>
-      <c r="D335" s="66"/>
+      <c r="B335" s="72"/>
+      <c r="C335" s="72"/>
+      <c r="D335" s="72"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
@@ -52529,12 +52692,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="66" t="s">
+      <c r="A346" s="72" t="s">
         <v>247</v>
       </c>
-      <c r="B346" s="66"/>
-      <c r="C346" s="66"/>
-      <c r="D346" s="66"/>
+      <c r="B346" s="72"/>
+      <c r="C346" s="72"/>
+      <c r="D346" s="72"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
@@ -52649,12 +52812,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="66" t="s">
+      <c r="A357" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="B357" s="66"/>
-      <c r="C357" s="66"/>
-      <c r="D357" s="66"/>
+      <c r="B357" s="72"/>
+      <c r="C357" s="72"/>
+      <c r="D357" s="72"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
@@ -52769,12 +52932,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="66" t="s">
+      <c r="A368" s="72" t="s">
         <v>250</v>
       </c>
-      <c r="B368" s="66"/>
-      <c r="C368" s="66"/>
-      <c r="D368" s="66"/>
+      <c r="B368" s="72"/>
+      <c r="C368" s="72"/>
+      <c r="D368" s="72"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
@@ -52893,12 +53056,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="66" t="s">
+      <c r="A379" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="B379" s="66"/>
-      <c r="C379" s="66"/>
-      <c r="D379" s="66"/>
+      <c r="B379" s="72"/>
+      <c r="C379" s="72"/>
+      <c r="D379" s="72"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
@@ -53013,12 +53176,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="66" t="s">
+      <c r="A390" s="72" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="66"/>
-      <c r="C390" s="66"/>
-      <c r="D390" s="66"/>
+      <c r="B390" s="72"/>
+      <c r="C390" s="72"/>
+      <c r="D390" s="72"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
@@ -53133,12 +53296,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="66" t="s">
+      <c r="A401" s="72" t="s">
         <v>253</v>
       </c>
-      <c r="B401" s="66"/>
-      <c r="C401" s="66"/>
-      <c r="D401" s="66"/>
+      <c r="B401" s="72"/>
+      <c r="C401" s="72"/>
+      <c r="D401" s="72"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -53253,12 +53416,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="66" t="s">
+      <c r="A412" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B412" s="66"/>
-      <c r="C412" s="66"/>
-      <c r="D412" s="66"/>
+      <c r="B412" s="72"/>
+      <c r="C412" s="72"/>
+      <c r="D412" s="72"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
@@ -53373,12 +53536,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="66" t="s">
+      <c r="A423" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="B423" s="66"/>
-      <c r="C423" s="66"/>
-      <c r="D423" s="66"/>
+      <c r="B423" s="72"/>
+      <c r="C423" s="72"/>
+      <c r="D423" s="72"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -53469,12 +53632,12 @@
       <c r="D431" s="3"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="66" t="s">
+      <c r="A434" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="66"/>
-      <c r="C434" s="66"/>
-      <c r="D434" s="66"/>
+      <c r="B434" s="72"/>
+      <c r="C434" s="72"/>
+      <c r="D434" s="72"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="3" t="s">
@@ -53589,12 +53752,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="66" t="s">
+      <c r="A445" s="72" t="s">
         <v>261</v>
       </c>
-      <c r="B445" s="66"/>
-      <c r="C445" s="66"/>
-      <c r="D445" s="66"/>
+      <c r="B445" s="72"/>
+      <c r="C445" s="72"/>
+      <c r="D445" s="72"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="3" t="s">
@@ -53709,12 +53872,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="66" t="s">
+      <c r="A456" s="72" t="s">
         <v>262</v>
       </c>
-      <c r="B456" s="66"/>
-      <c r="C456" s="66"/>
-      <c r="D456" s="66"/>
+      <c r="B456" s="72"/>
+      <c r="C456" s="72"/>
+      <c r="D456" s="72"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
@@ -53829,12 +53992,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="66" t="s">
+      <c r="A467" s="72" t="s">
         <v>263</v>
       </c>
-      <c r="B467" s="66"/>
-      <c r="C467" s="66"/>
-      <c r="D467" s="66"/>
+      <c r="B467" s="72"/>
+      <c r="C467" s="72"/>
+      <c r="D467" s="72"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
@@ -53949,12 +54112,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="66" t="s">
+      <c r="A478" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="B478" s="66"/>
-      <c r="C478" s="66"/>
-      <c r="D478" s="66"/>
+      <c r="B478" s="72"/>
+      <c r="C478" s="72"/>
+      <c r="D478" s="72"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -54069,12 +54232,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="66" t="s">
+      <c r="A489" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="B489" s="66"/>
-      <c r="C489" s="66"/>
-      <c r="D489" s="66"/>
+      <c r="B489" s="72"/>
+      <c r="C489" s="72"/>
+      <c r="D489" s="72"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
@@ -54159,12 +54322,12 @@
       <c r="D497" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="66" t="s">
+      <c r="A500" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="B500" s="66"/>
-      <c r="C500" s="66"/>
-      <c r="D500" s="66"/>
+      <c r="B500" s="72"/>
+      <c r="C500" s="72"/>
+      <c r="D500" s="72"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -54279,12 +54442,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="66" t="s">
+      <c r="A511" s="72" t="s">
         <v>287</v>
       </c>
-      <c r="B511" s="66"/>
-      <c r="C511" s="66"/>
-      <c r="D511" s="66"/>
+      <c r="B511" s="72"/>
+      <c r="C511" s="72"/>
+      <c r="D511" s="72"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="3" t="s">
@@ -54399,12 +54562,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="66" t="s">
+      <c r="A522" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="B522" s="66"/>
-      <c r="C522" s="66"/>
-      <c r="D522" s="66"/>
+      <c r="B522" s="72"/>
+      <c r="C522" s="72"/>
+      <c r="D522" s="72"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="3" t="s">
@@ -54519,12 +54682,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="66" t="s">
+      <c r="A533" s="72" t="s">
         <v>290</v>
       </c>
-      <c r="B533" s="66"/>
-      <c r="C533" s="66"/>
-      <c r="D533" s="66"/>
+      <c r="B533" s="72"/>
+      <c r="C533" s="72"/>
+      <c r="D533" s="72"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="3" t="s">
@@ -54639,12 +54802,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="66" t="s">
+      <c r="A544" s="72" t="s">
         <v>291</v>
       </c>
-      <c r="B544" s="66"/>
-      <c r="C544" s="66"/>
-      <c r="D544" s="66"/>
+      <c r="B544" s="72"/>
+      <c r="C544" s="72"/>
+      <c r="D544" s="72"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="3" t="s">
@@ -54759,12 +54922,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="66" t="s">
+      <c r="A555" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="B555" s="66"/>
-      <c r="C555" s="66"/>
-      <c r="D555" s="66"/>
+      <c r="B555" s="72"/>
+      <c r="C555" s="72"/>
+      <c r="D555" s="72"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="3" t="s">
@@ -54921,12 +55084,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="66" t="s">
+      <c r="A567" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="B567" s="66"/>
-      <c r="C567" s="66"/>
-      <c r="D567" s="66"/>
+      <c r="B567" s="72"/>
+      <c r="C567" s="72"/>
+      <c r="D567" s="72"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="3" t="s">
@@ -55025,12 +55188,12 @@
       <c r="D575" s="3"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="66" t="s">
+      <c r="A579" s="72" t="s">
         <v>301</v>
       </c>
-      <c r="B579" s="66"/>
-      <c r="C579" s="66"/>
-      <c r="D579" s="66"/>
+      <c r="B579" s="72"/>
+      <c r="C579" s="72"/>
+      <c r="D579" s="72"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
@@ -55147,12 +55310,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="66" t="s">
+      <c r="A590" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="B590" s="66"/>
-      <c r="C590" s="66"/>
-      <c r="D590" s="66"/>
+      <c r="B590" s="72"/>
+      <c r="C590" s="72"/>
+      <c r="D590" s="72"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
@@ -55269,12 +55432,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="66" t="s">
+      <c r="A601" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="B601" s="66"/>
-      <c r="C601" s="66"/>
-      <c r="D601" s="66"/>
+      <c r="B601" s="72"/>
+      <c r="C601" s="72"/>
+      <c r="D601" s="72"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
@@ -55389,12 +55552,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="66" t="s">
+      <c r="A612" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="B612" s="66"/>
-      <c r="C612" s="66"/>
-      <c r="D612" s="66"/>
+      <c r="B612" s="72"/>
+      <c r="C612" s="72"/>
+      <c r="D612" s="72"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="3" t="s">
@@ -55509,12 +55672,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="66" t="s">
+      <c r="A623" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="B623" s="66"/>
-      <c r="C623" s="66"/>
-      <c r="D623" s="66"/>
+      <c r="B623" s="72"/>
+      <c r="C623" s="72"/>
+      <c r="D623" s="72"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="3" t="s">
@@ -55629,12 +55792,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="66" t="s">
+      <c r="A635" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="B635" s="66"/>
-      <c r="C635" s="66"/>
-      <c r="D635" s="66"/>
+      <c r="B635" s="72"/>
+      <c r="C635" s="72"/>
+      <c r="D635" s="72"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="3" t="s">
@@ -55710,12 +55873,12 @@
       <c r="C643" s="3"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="66" t="s">
+      <c r="A647" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B647" s="66"/>
-      <c r="C647" s="66"/>
-      <c r="D647" s="66"/>
+      <c r="B647" s="72"/>
+      <c r="C647" s="72"/>
+      <c r="D647" s="72"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="3" t="s">
@@ -55830,12 +55993,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="66" t="s">
+      <c r="A658" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="66"/>
-      <c r="C658" s="66"/>
-      <c r="D658" s="66"/>
+      <c r="B658" s="72"/>
+      <c r="C658" s="72"/>
+      <c r="D658" s="72"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
@@ -55950,12 +56113,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="66" t="s">
+      <c r="A670" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="B670" s="66"/>
-      <c r="C670" s="66"/>
-      <c r="D670" s="66"/>
+      <c r="B670" s="72"/>
+      <c r="C670" s="72"/>
+      <c r="D670" s="72"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
@@ -55985,7 +56148,7 @@
         <v>12080000</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:4">
       <c r="A673" s="44" t="s">
         <v>158</v>
       </c>
@@ -55999,7 +56162,7 @@
         <v>12070000</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:4">
       <c r="A674" s="45" t="s">
         <v>157</v>
       </c>
@@ -56013,7 +56176,7 @@
         <v>12040000</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:4">
       <c r="A675" s="43" t="s">
         <v>156</v>
       </c>
@@ -56027,7 +56190,7 @@
         <v>12030000</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:4">
       <c r="A676" s="43">
         <v>0.625</v>
       </c>
@@ -56041,7 +56204,7 @@
         <v>12060000</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:4">
       <c r="A677" s="44" t="s">
         <v>159</v>
       </c>
@@ -56055,7 +56218,7 @@
         <v>12030000</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:4">
       <c r="A678" s="44" t="s">
         <v>160</v>
       </c>
@@ -56069,15 +56232,15 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
-      <c r="A681" s="66" t="s">
+    <row r="681" spans="1:4">
+      <c r="A681" s="72" t="s">
         <v>319</v>
       </c>
-      <c r="B681" s="66"/>
-      <c r="C681" s="66"/>
-      <c r="D681" s="66"/>
-    </row>
-    <row r="682" spans="1:6">
+      <c r="B681" s="72"/>
+      <c r="C681" s="72"/>
+      <c r="D681" s="72"/>
+    </row>
+    <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
         <v>148</v>
       </c>
@@ -56091,78 +56254,103 @@
         <v>163</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:4">
       <c r="A683" s="43">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B683" s="3"/>
-      <c r="C683" s="3"/>
-      <c r="E683">
+      <c r="B683" s="3">
+        <v>27180</v>
+      </c>
+      <c r="C683" s="3">
+        <v>7410</v>
+      </c>
+      <c r="D683">
         <v>12100000</v>
       </c>
-      <c r="F683" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="684" spans="1:6">
+    </row>
+    <row r="684" spans="1:4">
       <c r="A684" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="B684" s="3"/>
-      <c r="C684" s="3"/>
-      <c r="E684">
+      <c r="B684" s="3">
+        <v>27170</v>
+      </c>
+      <c r="C684" s="3">
+        <v>7405</v>
+      </c>
+      <c r="D684">
         <v>12110000</v>
       </c>
-      <c r="F684" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="685" spans="1:6">
+    </row>
+    <row r="685" spans="1:4">
       <c r="A685" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B685" s="3"/>
-      <c r="C685" s="3"/>
-      <c r="E685">
+      <c r="B685" s="3">
+        <v>27080</v>
+      </c>
+      <c r="C685" s="3">
+        <v>7420</v>
+      </c>
+      <c r="D685">
         <v>12080000</v>
       </c>
-      <c r="F685" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="686" spans="1:6">
+    </row>
+    <row r="686" spans="1:4">
       <c r="A686" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B686" s="3"/>
-      <c r="C686" s="3"/>
-      <c r="E686">
+      <c r="B686" s="3">
+        <v>27120</v>
+      </c>
+      <c r="C686" s="3">
+        <v>7410</v>
+      </c>
+      <c r="D686">
         <v>12080000</v>
       </c>
-      <c r="F686" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="687" spans="1:6">
+    </row>
+    <row r="687" spans="1:4">
       <c r="A687" s="43">
         <v>0.625</v>
       </c>
-      <c r="B687" s="3"/>
-      <c r="C687" s="3"/>
-    </row>
-    <row r="688" spans="1:6">
+      <c r="B687" s="3">
+        <v>27120</v>
+      </c>
+      <c r="C687" s="3">
+        <v>7410</v>
+      </c>
+      <c r="D687">
+        <v>12080000</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4">
       <c r="A688" s="44" t="s">
         <v>159</v>
       </c>
-      <c r="B688" s="3"/>
-      <c r="C688" s="3"/>
-    </row>
-    <row r="689" spans="1:3">
+      <c r="B688" s="3">
+        <v>27120</v>
+      </c>
+      <c r="C688" s="3">
+        <v>7410</v>
+      </c>
+      <c r="D688">
+        <v>12110000</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4">
       <c r="A689" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B689" s="3"/>
-      <c r="C689" s="3"/>
+      <c r="B689" s="3">
+        <v>27120</v>
+      </c>
+      <c r="C689" s="3">
+        <v>7410</v>
+      </c>
+      <c r="D689">
+        <v>12140000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="65">
@@ -56182,13 +56370,17 @@
     <mergeCell ref="A303:D303"/>
     <mergeCell ref="A445:D445"/>
     <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
     <mergeCell ref="A357:D357"/>
     <mergeCell ref="A273:D273"/>
     <mergeCell ref="A263:D263"/>
     <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A213:D213"/>
     <mergeCell ref="A233:D233"/>
@@ -56212,13 +56404,8 @@
     <mergeCell ref="A93:D93"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A143:D143"/>
     <mergeCell ref="A555:D555"/>
     <mergeCell ref="A544:D544"/>
     <mergeCell ref="A511:D511"/>
@@ -56226,6 +56413,7 @@
     <mergeCell ref="A500:D500"/>
     <mergeCell ref="A489:D489"/>
     <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
     <mergeCell ref="A658:D658"/>
     <mergeCell ref="A647:D647"/>
     <mergeCell ref="A635:D635"/>
@@ -56239,10 +56427,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M63"/>
+  <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56306,7 +56494,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H63" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H64" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -56335,7 +56523,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F63" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F64" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -58054,17 +58242,46 @@
       <c r="I63">
         <v>0.09</v>
       </c>
-      <c r="J63">
-        <v>-0.66</v>
-      </c>
-      <c r="K63">
-        <v>-0.66</v>
-      </c>
-      <c r="L63">
-        <v>-0.71</v>
-      </c>
-      <c r="M63">
-        <v>0.09</v>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64">
+        <v>14000616</v>
+      </c>
+      <c r="C64" s="54">
+        <v>27120</v>
+      </c>
+      <c r="D64">
+        <v>12140000</v>
+      </c>
+      <c r="E64">
+        <v>1173179</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.40725657164013329</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="0"/>
+        <v>0.74688796680497926</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>0.73344741752151099</v>
+      </c>
+      <c r="I64">
+        <v>-1</v>
+      </c>
+      <c r="J64">
+        <v>0.41</v>
+      </c>
+      <c r="K64">
+        <v>0.75</v>
+      </c>
+      <c r="L64">
+        <v>0.73</v>
+      </c>
+      <c r="M64">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$126</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="323">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -993,6 +993,12 @@
   </si>
   <si>
     <t>16شهریور1400</t>
+  </si>
+  <si>
+    <t>17شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز ( چهارشنبه 17 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -4173,11 +4179,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519335280"/>
-        <c:axId val="1519331472"/>
+        <c:axId val="723862784"/>
+        <c:axId val="723857344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519335280"/>
+        <c:axId val="723862784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,7 +4226,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519331472"/>
+        <c:crossAx val="723857344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4228,7 +4234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519331472"/>
+        <c:axId val="723857344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4285,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519335280"/>
+        <c:crossAx val="723862784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7246,8 +7252,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519321136"/>
-        <c:axId val="1519320592"/>
+        <c:axId val="723850272"/>
+        <c:axId val="723860064"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7399,7 +7405,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -7462,7 +7468,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7529,7 +7535,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-5F34-4EEC-AA31-125C442C4E54}"/>
                   </c:ext>
@@ -7540,7 +7546,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519321136"/>
+        <c:axId val="723850272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7583,7 +7589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519320592"/>
+        <c:crossAx val="723860064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7591,7 +7597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519320592"/>
+        <c:axId val="723860064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7642,7 +7648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519321136"/>
+        <c:crossAx val="723850272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10637,8 +10643,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519322224"/>
-        <c:axId val="1519335824"/>
+        <c:axId val="723861152"/>
+        <c:axId val="723851360"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -10790,7 +10796,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -10853,7 +10859,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10920,7 +10926,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-CCA6-4C80-96A0-25C22CA7FD99}"/>
                   </c:ext>
@@ -10931,7 +10937,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519322224"/>
+        <c:axId val="723861152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10974,7 +10980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519335824"/>
+        <c:crossAx val="723851360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10982,7 +10988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519335824"/>
+        <c:axId val="723851360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11033,7 +11039,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519322224"/>
+        <c:crossAx val="723861152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14018,11 +14024,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519334736"/>
-        <c:axId val="1519323312"/>
+        <c:axId val="723851904"/>
+        <c:axId val="723859520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519334736"/>
+        <c:axId val="723851904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14065,7 +14071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519323312"/>
+        <c:crossAx val="723859520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14073,7 +14079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519323312"/>
+        <c:axId val="723859520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14124,7 +14130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519334736"/>
+        <c:crossAx val="723851904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17109,11 +17115,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519321680"/>
-        <c:axId val="1519324944"/>
+        <c:axId val="723861696"/>
+        <c:axId val="723862240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519321680"/>
+        <c:axId val="723861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17156,7 +17162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519324944"/>
+        <c:crossAx val="723862240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17164,7 +17170,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519324944"/>
+        <c:axId val="723862240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17215,7 +17221,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519321680"/>
+        <c:crossAx val="723861696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20189,11 +20195,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519332560"/>
-        <c:axId val="1519322768"/>
+        <c:axId val="723852448"/>
+        <c:axId val="723855712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519332560"/>
+        <c:axId val="723852448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20236,7 +20242,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519322768"/>
+        <c:crossAx val="723855712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20244,7 +20250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519322768"/>
+        <c:axId val="723855712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20295,7 +20301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519332560"/>
+        <c:crossAx val="723852448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20421,7 +20427,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( سه‌شنبه 16 شهریور 1400 )</a:t>
+              <a:t> بازارها( چهارشنبه 17 شهریور 1400 )</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -20472,11 +20478,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="62"/>
-          <c:order val="62"/>
+          <c:idx val="63"/>
+          <c:order val="63"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
+              <a:schemeClr val="accent4">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -20567,21 +20573,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$64:$I$64</c:f>
+              <c:f>'price change'!$F$65:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.40725657164013329</c:v>
+                  <c:v>1.5117994100294985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.74688796680497926</c:v>
+                  <c:v>0.49423393739703458</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73344741752151099</c:v>
+                  <c:v>9.8365211105892622E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20598,8 +20604,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1519323856"/>
-        <c:axId val="1519324400"/>
+        <c:axId val="723854624"/>
+        <c:axId val="723857888"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -20774,7 +20780,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -20847,7 +20853,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -20906,7 +20912,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -20979,7 +20985,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21038,7 +21044,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21111,7 +21117,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21170,7 +21176,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21243,7 +21249,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21302,7 +21308,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21375,7 +21381,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21436,7 +21442,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21509,7 +21515,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FB1F-4985-99CF-C5CB0831531F}"/>
                   </c:ext>
@@ -21570,7 +21576,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21643,7 +21649,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21704,7 +21710,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21777,7 +21783,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21838,7 +21844,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21911,7 +21917,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21972,7 +21978,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22045,7 +22051,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0F7B-461B-B003-FBEFE0DDD362}"/>
                   </c:ext>
@@ -22106,7 +22112,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22176,7 +22182,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22238,7 +22244,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22308,7 +22314,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22370,7 +22376,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22443,7 +22449,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22505,7 +22511,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22578,7 +22584,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22640,7 +22646,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22713,7 +22719,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22775,7 +22781,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22848,7 +22854,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22910,7 +22916,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22983,7 +22989,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23044,7 +23050,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23117,7 +23123,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23178,7 +23184,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23251,7 +23257,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-EE85-428B-812F-1D9F482AFE7A}"/>
                   </c:ext>
@@ -23312,7 +23318,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23385,7 +23391,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23446,7 +23452,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23519,7 +23525,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23580,7 +23586,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23653,7 +23659,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23714,7 +23720,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23787,7 +23793,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-52ED-4762-B4AC-21DE46265382}"/>
                   </c:ext>
@@ -23849,7 +23855,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23922,7 +23928,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-474E-47FD-8B08-FE4CFC7C76C1}"/>
                   </c:ext>
@@ -23984,7 +23990,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24057,7 +24063,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24119,7 +24125,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24192,7 +24198,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24254,7 +24260,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24327,7 +24333,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24389,7 +24395,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24462,7 +24468,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24524,7 +24530,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24597,7 +24603,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24658,7 +24664,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24731,7 +24737,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24792,7 +24798,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24865,7 +24871,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -24926,7 +24932,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24999,7 +25005,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25060,7 +25066,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25133,7 +25139,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25194,7 +25200,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25267,7 +25273,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25328,7 +25334,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25401,7 +25407,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25463,7 +25469,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25536,7 +25542,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25598,7 +25604,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25671,7 +25677,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25733,7 +25739,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25806,7 +25812,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25868,7 +25874,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25941,7 +25947,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26003,7 +26009,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26076,7 +26082,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -26138,7 +26144,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26211,7 +26217,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -26272,7 +26278,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26345,7 +26351,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0394-457D-88D1-90642EEC8A74}"/>
                   </c:ext>
@@ -26406,7 +26412,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26479,7 +26485,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7D5E-44A9-B1FA-B35A4B4270CE}"/>
                   </c:ext>
@@ -26540,7 +26546,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26613,7 +26619,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-642D-42BD-9427-3EA0B12E4C25}"/>
                   </c:ext>
@@ -26674,7 +26680,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26747,7 +26753,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -26808,7 +26814,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26881,7 +26887,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -26942,7 +26948,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27015,7 +27021,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-9702-4565-9B43-3EC01CDE7563}"/>
                   </c:ext>
@@ -27077,7 +27083,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27150,7 +27156,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27212,7 +27218,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27285,7 +27291,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27347,7 +27353,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27420,7 +27426,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27482,7 +27488,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27555,7 +27561,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27617,7 +27623,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27690,7 +27696,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-76DD-422B-895A-B743B787CE5F}"/>
                   </c:ext>
@@ -27752,7 +27758,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27825,7 +27831,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2132-44D5-BA8F-47CBE91EC861}"/>
                   </c:ext>
@@ -27884,7 +27890,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27957,7 +27963,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28016,7 +28022,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28089,7 +28095,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28148,7 +28154,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28221,7 +28227,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28280,7 +28286,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28353,7 +28359,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-123E-4E08-AA48-A97F75EAA52E}"/>
                   </c:ext>
@@ -28412,7 +28418,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28485,7 +28491,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-950B-44DB-94DA-03A3DBCD5199}"/>
                   </c:ext>
@@ -28544,7 +28550,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28673,7 +28679,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28802,9 +28808,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -28878,11 +28883,141 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="62"/>
+                <c:order val="62"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$64:$I$64</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.40725657164013329</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.74688796680497926</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.73344741752151099</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1519323856"/>
+        <c:axId val="723854624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28925,7 +29060,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519324400"/>
+        <c:crossAx val="723857888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28933,7 +29068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1519324400"/>
+        <c:axId val="723857888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28984,7 +29119,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1519323856"/>
+        <c:crossAx val="723854624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -32886,7 +33021,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32922,7 +33057,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32960,7 +33095,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -32998,7 +33133,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33036,7 +33171,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33074,7 +33209,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33117,7 +33252,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33401,10 +33536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM130"/>
+  <dimension ref="A1:BM131"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W122" sqref="W122"/>
+      <selection activeCell="Y122" sqref="Y122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -33491,14 +33626,14 @@
         <v>31</v>
       </c>
       <c r="S1" s="9">
-        <f>L121/G121</f>
+        <f>L122/G122</f>
         <v>2857574.5682051666</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
-        <f>M121/K121</f>
+        <f>M122/K122</f>
         <v>28515.368633872931</v>
       </c>
       <c r="V1" s="9" t="s">
@@ -33823,7 +33958,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="e">
-        <f t="shared" ref="BJ3:BJ121" si="3">(Y3-O3)/O3</f>
+        <f t="shared" ref="BJ3:BJ122" si="3">(Y3-O3)/O3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK3">
@@ -41536,7 +41671,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="32">
-        <f>K121/K62</f>
+        <f>K122/K62</f>
         <v>136.05209774089442</v>
       </c>
       <c r="BL62">
@@ -47402,36 +47537,36 @@
       <c r="BG119" s="71"/>
       <c r="BH119" s="71"/>
     </row>
-    <row r="120" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="55"/>
-      <c r="B120" s="56" t="s">
+    <row r="120" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="66"/>
+      <c r="B120" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="56">
+      <c r="C120" s="67">
         <v>16</v>
       </c>
-      <c r="D120" s="57">
+      <c r="D120" s="68">
         <v>26570</v>
       </c>
-      <c r="E120" s="56">
+      <c r="E120" s="67">
         <v>26360</v>
       </c>
-      <c r="F120" s="56">
+      <c r="F120" s="67">
         <v>26384</v>
       </c>
-      <c r="G120" s="56">
+      <c r="G120" s="67">
         <v>7781600</v>
       </c>
-      <c r="H120" s="56">
+      <c r="H120" s="67">
         <v>31212</v>
       </c>
-      <c r="I120" s="56">
+      <c r="I120" s="67">
         <v>31350</v>
       </c>
-      <c r="J120" s="56">
+      <c r="J120" s="67">
         <v>31111</v>
       </c>
-      <c r="K120" s="56">
+      <c r="K120" s="67">
         <v>1167200</v>
       </c>
       <c r="L120" s="67">
@@ -47442,218 +47577,294 @@
         <f t="shared" si="13"/>
         <v>36312759200</v>
       </c>
-      <c r="N120" s="58">
+      <c r="N120" s="69">
         <v>26623</v>
       </c>
-      <c r="O120" s="58">
+      <c r="O120" s="69">
         <v>31663</v>
       </c>
-      <c r="P120" s="56">
+      <c r="P120" s="67">
         <v>26836</v>
       </c>
-      <c r="Q120" s="58">
+      <c r="Q120" s="69">
         <v>31525</v>
       </c>
-      <c r="R120" s="56"/>
-      <c r="S120" s="56"/>
-      <c r="T120" s="56"/>
-      <c r="U120" s="56"/>
-      <c r="V120" s="58">
+      <c r="R120" s="67"/>
+      <c r="S120" s="67"/>
+      <c r="T120" s="67"/>
+      <c r="U120" s="67"/>
+      <c r="V120" s="69">
         <v>27180</v>
       </c>
-      <c r="X120" s="58">
+      <c r="X120" s="69">
         <v>27120</v>
       </c>
-      <c r="Y120" s="58">
+      <c r="Y120" s="69">
         <v>32297</v>
       </c>
-      <c r="Z120" s="56"/>
-      <c r="AA120" s="56"/>
-      <c r="AB120" s="56"/>
-      <c r="AC120" s="56"/>
-      <c r="AD120" s="56"/>
-      <c r="AE120" s="56"/>
-      <c r="AF120" s="56"/>
-      <c r="AG120" s="56"/>
-      <c r="AH120" s="56"/>
-      <c r="AI120" s="56"/>
-      <c r="AJ120" s="56"/>
-      <c r="AK120" s="56"/>
-      <c r="AL120" s="56"/>
-      <c r="AM120" s="56"/>
-      <c r="AN120" s="56"/>
-      <c r="AO120" s="56"/>
-      <c r="AP120" s="56"/>
-      <c r="AQ120" s="56"/>
-      <c r="AR120" s="56"/>
-      <c r="AS120" s="57"/>
-      <c r="AT120" s="57"/>
-      <c r="AU120" s="57"/>
-      <c r="AV120" s="57"/>
-      <c r="AW120" s="57"/>
-      <c r="AX120" s="57"/>
-      <c r="AY120" s="56"/>
-      <c r="AZ120" s="56"/>
-      <c r="BA120" s="56"/>
-      <c r="BB120" s="56"/>
-      <c r="BC120" s="56"/>
-      <c r="BE120" s="59"/>
-      <c r="BF120" s="59"/>
-      <c r="BG120" s="59"/>
-      <c r="BH120" s="59"/>
-    </row>
-    <row r="121" spans="1:62" ht="18">
-      <c r="A121" s="6"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7">
+      <c r="Z120" s="67"/>
+      <c r="AA120" s="67"/>
+      <c r="AB120" s="67"/>
+      <c r="AC120" s="67"/>
+      <c r="AD120" s="67"/>
+      <c r="AE120" s="67"/>
+      <c r="AF120" s="67"/>
+      <c r="AG120" s="67"/>
+      <c r="AH120" s="67"/>
+      <c r="AI120" s="67"/>
+      <c r="AJ120" s="67"/>
+      <c r="AK120" s="67"/>
+      <c r="AL120" s="67"/>
+      <c r="AM120" s="67"/>
+      <c r="AN120" s="67"/>
+      <c r="AO120" s="67"/>
+      <c r="AP120" s="67"/>
+      <c r="AQ120" s="67"/>
+      <c r="AR120" s="67"/>
+      <c r="AS120" s="68"/>
+      <c r="AT120" s="68"/>
+      <c r="AU120" s="68"/>
+      <c r="AV120" s="68"/>
+      <c r="AW120" s="68"/>
+      <c r="AX120" s="68"/>
+      <c r="AY120" s="67"/>
+      <c r="AZ120" s="67"/>
+      <c r="BA120" s="67"/>
+      <c r="BB120" s="67"/>
+      <c r="BC120" s="67"/>
+      <c r="BE120" s="71"/>
+      <c r="BF120" s="71"/>
+      <c r="BG120" s="71"/>
+      <c r="BH120" s="71"/>
+    </row>
+    <row r="121" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="55"/>
+      <c r="B121" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="C121" s="56">
+        <v>17</v>
+      </c>
+      <c r="D121" s="57">
+        <v>26681</v>
+      </c>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56">
+        <v>31234</v>
+      </c>
+      <c r="I121" s="56"/>
+      <c r="J121" s="56"/>
+      <c r="K121" s="56"/>
+      <c r="L121" s="67"/>
+      <c r="M121" s="67"/>
+      <c r="N121" s="58">
+        <v>26852</v>
+      </c>
+      <c r="O121" s="58">
+        <v>31530</v>
+      </c>
+      <c r="P121" s="56">
+        <v>26948</v>
+      </c>
+      <c r="Q121" s="58">
+        <v>31547</v>
+      </c>
+      <c r="R121" s="56"/>
+      <c r="S121" s="56"/>
+      <c r="T121" s="56"/>
+      <c r="U121" s="56"/>
+      <c r="V121" s="58">
+        <v>27570</v>
+      </c>
+      <c r="Z121" s="56"/>
+      <c r="AA121" s="56"/>
+      <c r="AB121" s="56"/>
+      <c r="AC121" s="56"/>
+      <c r="AD121" s="56"/>
+      <c r="AE121" s="56"/>
+      <c r="AF121" s="56"/>
+      <c r="AG121" s="56"/>
+      <c r="AH121" s="56"/>
+      <c r="AI121" s="56"/>
+      <c r="AJ121" s="56"/>
+      <c r="AK121" s="56"/>
+      <c r="AL121" s="56"/>
+      <c r="AM121" s="56"/>
+      <c r="AN121" s="56"/>
+      <c r="AO121" s="56"/>
+      <c r="AP121" s="56"/>
+      <c r="AQ121" s="56"/>
+      <c r="AR121" s="56"/>
+      <c r="AS121" s="57"/>
+      <c r="AT121" s="57"/>
+      <c r="AU121" s="57"/>
+      <c r="AV121" s="57"/>
+      <c r="AW121" s="57"/>
+      <c r="AX121" s="57"/>
+      <c r="AY121" s="56"/>
+      <c r="AZ121" s="56"/>
+      <c r="BA121" s="56"/>
+      <c r="BB121" s="56"/>
+      <c r="BC121" s="56"/>
+      <c r="BE121" s="59"/>
+      <c r="BF121" s="59"/>
+      <c r="BG121" s="59"/>
+      <c r="BH121" s="59"/>
+    </row>
+    <row r="122" spans="1:62" ht="18">
+      <c r="A122" s="6"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7">
         <f>SUM(G2:G119)/118</f>
         <v>5801599.1440677969</v>
       </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7">
+      <c r="H122" s="7"/>
+      <c r="I122" s="7"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="7">
         <f>SUM(K2:K119)</f>
         <v>118038800</v>
       </c>
-      <c r="L121" s="7">
+      <c r="L122" s="7">
         <f>SUM(L2:L120)</f>
         <v>16578502169009</v>
       </c>
-      <c r="M121" s="4">
+      <c r="M122" s="4">
         <f>SUM(M2:M120)</f>
         <v>3365919895100</v>
       </c>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-      <c r="P121" s="4"/>
-      <c r="Q121" s="4"/>
-      <c r="R121" s="4"/>
-      <c r="S121" s="4"/>
-      <c r="T121" s="4"/>
-      <c r="U121" s="4"/>
-      <c r="W121" s="4"/>
-      <c r="Y121" s="4"/>
-      <c r="Z121" s="4"/>
-      <c r="AA121" s="4"/>
-      <c r="AB121" s="4"/>
-      <c r="AC121" s="4"/>
-      <c r="AD121" s="4"/>
-      <c r="AE121" s="4"/>
-      <c r="AF121" s="4"/>
-      <c r="AG121" s="4"/>
-      <c r="AH121" s="4"/>
-      <c r="AI121" s="4"/>
-      <c r="AJ121" s="4"/>
-      <c r="AK121" s="4"/>
-      <c r="AL121" s="4"/>
-      <c r="AM121" s="4"/>
-      <c r="AN121" s="4"/>
-      <c r="AO121" s="4"/>
-      <c r="AP121" s="4"/>
-      <c r="AQ121" s="4"/>
-      <c r="AR121" s="4"/>
-      <c r="AY121" s="4"/>
-      <c r="AZ121" s="4"/>
-      <c r="BA121" s="4"/>
-      <c r="BB121" s="4"/>
-      <c r="BC121" s="4"/>
-      <c r="BD121" s="4"/>
-      <c r="BE121" s="3"/>
-      <c r="BF121" s="3"/>
-      <c r="BG121" s="3"/>
-      <c r="BH121" s="3"/>
-      <c r="BI121" t="e">
-        <f>#REF!-N121</f>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="4"/>
+      <c r="Q122" s="4"/>
+      <c r="R122" s="4"/>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+      <c r="AE122" s="4"/>
+      <c r="AF122" s="4"/>
+      <c r="AG122" s="4"/>
+      <c r="AH122" s="4"/>
+      <c r="AI122" s="4"/>
+      <c r="AJ122" s="4"/>
+      <c r="AK122" s="4"/>
+      <c r="AL122" s="4"/>
+      <c r="AM122" s="4"/>
+      <c r="AN122" s="4"/>
+      <c r="AO122" s="4"/>
+      <c r="AP122" s="4"/>
+      <c r="AQ122" s="4"/>
+      <c r="AR122" s="4"/>
+      <c r="AY122" s="4"/>
+      <c r="AZ122" s="4"/>
+      <c r="BA122" s="4"/>
+      <c r="BB122" s="4"/>
+      <c r="BC122" s="4"/>
+      <c r="BD122" s="4"/>
+      <c r="BE122" s="3"/>
+      <c r="BF122" s="3"/>
+      <c r="BG122" s="3"/>
+      <c r="BH122" s="3"/>
+      <c r="BI122" t="e">
+        <f>#REF!-N122</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ121" t="e">
+      <c r="BJ122" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="122" spans="1:62" ht="18">
-      <c r="D122" s="19"/>
-      <c r="Z122" s="12"/>
-      <c r="AB122" s="12"/>
-      <c r="AS122" s="12"/>
-      <c r="AW122" s="29"/>
     </row>
     <row r="123" spans="1:62" ht="18">
       <c r="D123" s="19"/>
       <c r="Z123" s="12"/>
-      <c r="AS123" s="19"/>
+      <c r="AB123" s="12"/>
+      <c r="AS123" s="12"/>
       <c r="AW123" s="29"/>
-      <c r="AY123">
+    </row>
+    <row r="124" spans="1:62" ht="18">
+      <c r="D124" s="19"/>
+      <c r="Z124" s="12"/>
+      <c r="AS124" s="19"/>
+      <c r="AW124" s="29"/>
+      <c r="AY124">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="124" spans="1:62" ht="18">
-      <c r="Z124" s="12"/>
-      <c r="AS124" s="19">
+    <row r="125" spans="1:62" ht="18">
+      <c r="Z125" s="12"/>
+      <c r="AS125" s="19">
         <v>10290000</v>
       </c>
-      <c r="AW124" s="29"/>
-      <c r="BB124">
+      <c r="AW125" s="29"/>
+      <c r="BB125">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="125" spans="1:62" ht="18">
-      <c r="G125">
-        <f>(G110-G121)/G121</f>
+    <row r="126" spans="1:62" ht="18">
+      <c r="G126">
+        <f>(G110-G122)/G122</f>
         <v>0.62241474570412092</v>
       </c>
-      <c r="V125" s="12"/>
-      <c r="Z125" s="12"/>
-      <c r="AS125" s="19"/>
-      <c r="AU125">
-        <f>AS124-AS49</f>
+      <c r="V126" s="12"/>
+      <c r="Z126" s="12"/>
+      <c r="AS126" s="19"/>
+      <c r="AU126">
+        <f>AS125-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW125" s="29">
+      <c r="AW126" s="29">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="126" spans="1:62" ht="18">
-      <c r="V126" s="12"/>
-      <c r="Z126" s="12"/>
-      <c r="AW126" s="29"/>
-    </row>
-    <row r="127" spans="1:62" ht="17.25" customHeight="1">
-      <c r="F127">
+    <row r="127" spans="1:62" ht="18">
+      <c r="V127" s="12"/>
+      <c r="Z127" s="12"/>
+      <c r="AW127" s="29"/>
+    </row>
+    <row r="128" spans="1:62" ht="17.25" customHeight="1">
+      <c r="F128">
         <f>(D112-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V127" s="12"/>
-      <c r="Z127" s="12"/>
-    </row>
-    <row r="128" spans="1:62" ht="18">
-      <c r="D128">
+      <c r="V128" s="12"/>
+      <c r="Z128" s="12"/>
+    </row>
+    <row r="129" spans="4:49" ht="18">
+      <c r="D129">
         <f>(D112-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V128" s="12"/>
-      <c r="Z128" s="12"/>
-      <c r="AW128">
-        <f>AW125/AY51</f>
+      <c r="V129" s="12"/>
+      <c r="Z129" s="12"/>
+      <c r="AW129">
+        <f>AW126/AY51</f>
         <v>2.9539951573849879E-2</v>
       </c>
     </row>
-    <row r="129" spans="22:22" ht="18">
-      <c r="V129" s="12"/>
-    </row>
-    <row r="130" spans="22:22" ht="18">
+    <row r="130" spans="4:49" ht="18">
       <c r="V130" s="12"/>
     </row>
+    <row r="131" spans="4:49" ht="18">
+      <c r="V131" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL125"/>
+  <autoFilter ref="A1:BL126"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -48585,10 +48796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K689"/>
+  <dimension ref="A1:K700"/>
   <sheetViews>
-    <sheetView topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="D693" sqref="D693"/>
+    <sheetView topLeftCell="A679" workbookViewId="0">
+      <selection activeCell="C691" sqref="C691"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56352,8 +56563,178 @@
         <v>12140000</v>
       </c>
     </row>
+    <row r="692" spans="1:4">
+      <c r="A692" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="B692" s="72"/>
+      <c r="C692" s="72"/>
+      <c r="D692" s="72"/>
+    </row>
+    <row r="693" spans="1:4">
+      <c r="A693" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4">
+      <c r="A694" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B694" s="3">
+        <v>27570</v>
+      </c>
+      <c r="C694" s="3">
+        <v>7530</v>
+      </c>
+      <c r="D694">
+        <v>12190000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4">
+      <c r="A695" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B695" s="3">
+        <v>27510</v>
+      </c>
+      <c r="C695" s="3">
+        <v>7530</v>
+      </c>
+      <c r="D695">
+        <v>12160000</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4">
+      <c r="A696" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B696" s="3">
+        <v>27560</v>
+      </c>
+      <c r="C696" s="3">
+        <v>7540</v>
+      </c>
+      <c r="D696">
+        <v>12190000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4">
+      <c r="A697" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B697" s="3">
+        <v>27530</v>
+      </c>
+      <c r="C697" s="3">
+        <v>7545</v>
+      </c>
+      <c r="D697">
+        <v>12180000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4">
+      <c r="A698" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B698" s="3">
+        <v>27530</v>
+      </c>
+      <c r="C698" s="3">
+        <v>7550</v>
+      </c>
+      <c r="D698">
+        <v>12190000</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4">
+      <c r="A699" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B699" s="3">
+        <v>27530</v>
+      </c>
+      <c r="C699" s="3">
+        <v>7570</v>
+      </c>
+      <c r="D699">
+        <v>12210000</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4">
+      <c r="A700" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B700" s="3">
+        <v>27530</v>
+      </c>
+      <c r="C700" s="3">
+        <v>7570</v>
+      </c>
+      <c r="D700">
+        <v>12200000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
     <mergeCell ref="A681:D681"/>
     <mergeCell ref="A670:D670"/>
     <mergeCell ref="A283:D283"/>
@@ -56370,55 +56751,6 @@
     <mergeCell ref="A303:D303"/>
     <mergeCell ref="A445:D445"/>
     <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A612:D612"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56427,10 +56759,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M64"/>
+  <dimension ref="B1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -56494,7 +56826,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H64" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H65" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -56523,7 +56855,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F64" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F65" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -57808,7 +58140,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:9">
       <c r="B49">
         <v>14000520</v>
       </c>
@@ -57837,7 +58169,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="50" spans="2:13">
+    <row r="50" spans="2:9">
       <c r="B50">
         <v>14000523</v>
       </c>
@@ -57866,7 +58198,7 @@
         <v>-0.26</v>
       </c>
     </row>
-    <row r="51" spans="2:13">
+    <row r="51" spans="2:9">
       <c r="B51">
         <v>14000524</v>
       </c>
@@ -57895,7 +58227,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="52" spans="2:13">
+    <row r="52" spans="2:9">
       <c r="B52">
         <v>14000531</v>
       </c>
@@ -57924,7 +58256,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="53" spans="2:13">
+    <row r="53" spans="2:9">
       <c r="B53">
         <v>14000601</v>
       </c>
@@ -57953,7 +58285,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="2:13">
+    <row r="54" spans="2:9">
       <c r="B54">
         <v>14000602</v>
       </c>
@@ -57982,7 +58314,7 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="55" spans="2:13">
+    <row r="55" spans="2:9">
       <c r="B55">
         <v>14000603</v>
       </c>
@@ -58011,7 +58343,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="56" spans="2:13">
+    <row r="56" spans="2:9">
       <c r="B56">
         <v>14000606</v>
       </c>
@@ -58040,7 +58372,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="57" spans="2:13">
+    <row r="57" spans="2:9">
       <c r="B57">
         <v>14000607</v>
       </c>
@@ -58069,7 +58401,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="58" spans="2:13">
+    <row r="58" spans="2:9">
       <c r="B58">
         <v>14000608</v>
       </c>
@@ -58098,7 +58430,7 @@
         <v>-3.14</v>
       </c>
     </row>
-    <row r="59" spans="2:13">
+    <row r="59" spans="2:9">
       <c r="B59">
         <v>14000609</v>
       </c>
@@ -58127,7 +58459,7 @@
         <v>-1.82</v>
       </c>
     </row>
-    <row r="60" spans="2:13">
+    <row r="60" spans="2:9">
       <c r="B60">
         <v>14000610</v>
       </c>
@@ -58156,7 +58488,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="61" spans="2:13">
+    <row r="61" spans="2:9">
       <c r="B61">
         <v>14000613</v>
       </c>
@@ -58185,7 +58517,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="62" spans="2:13">
+    <row r="62" spans="2:9">
       <c r="B62">
         <v>14000614</v>
       </c>
@@ -58214,7 +58546,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="63" spans="2:13">
+    <row r="63" spans="2:9">
       <c r="B63">
         <v>14000615</v>
       </c>
@@ -58243,7 +58575,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="64" spans="2:13">
+    <row r="64" spans="2:9">
       <c r="B64">
         <v>14000616</v>
       </c>
@@ -58271,17 +58603,46 @@
       <c r="I64">
         <v>-1</v>
       </c>
-      <c r="J64">
-        <v>0.41</v>
-      </c>
-      <c r="K64">
-        <v>0.75</v>
-      </c>
-      <c r="L64">
-        <v>0.73</v>
-      </c>
-      <c r="M64">
-        <v>-1</v>
+    </row>
+    <row r="65" spans="2:13">
+      <c r="B65">
+        <v>14000617</v>
+      </c>
+      <c r="C65" s="54">
+        <v>27530</v>
+      </c>
+      <c r="D65">
+        <v>12200000</v>
+      </c>
+      <c r="E65">
+        <v>1174333</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>1.5117994100294985</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="0"/>
+        <v>0.49423393739703458</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>9.8365211105892622E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.19</v>
+      </c>
+      <c r="J65">
+        <v>1.51</v>
+      </c>
+      <c r="K65">
+        <v>0.49</v>
+      </c>
+      <c r="L65">
+        <v>0.1</v>
+      </c>
+      <c r="M65">
+        <v>0.19</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444F8EA-5EEC-4D81-9482-A3028BF1AC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="14328" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$126</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1004,7 +1005,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1290,7 +1291,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1442,7 +1443,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1499,7 +1500,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1567,7 +1568,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1624,7 +1625,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1692,7 +1693,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1749,7 +1750,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1817,7 +1818,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1874,7 +1875,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1942,7 +1943,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1999,7 +2000,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD2A-4FE9-98C6-8C9FC971B151}"/>
             </c:ext>
@@ -2067,7 +2068,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2124,7 +2125,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE0-4CFC-BC1C-186F6F7CA530}"/>
             </c:ext>
@@ -2194,7 +2195,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2251,7 +2252,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6B0-4438-9021-FAF6AC4C250C}"/>
             </c:ext>
@@ -2321,7 +2322,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2378,7 +2379,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A27-4577-92A6-BBA3E5136B56}"/>
             </c:ext>
@@ -2448,7 +2449,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2505,7 +2506,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7498-4BB7-B9C6-464317275E93}"/>
             </c:ext>
@@ -2575,7 +2576,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2632,7 +2633,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4321-45B9-9594-B628C3F504B4}"/>
             </c:ext>
@@ -2702,7 +2703,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2759,7 +2760,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D1E-4617-9835-31C9496E55A2}"/>
             </c:ext>
@@ -2829,7 +2830,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2886,7 +2887,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3068-4BC2-BA0B-77BC021BC7E8}"/>
             </c:ext>
@@ -2957,7 +2958,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3014,7 +3015,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC41-4C5E-BB77-5084557066CD}"/>
             </c:ext>
@@ -3085,7 +3086,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3142,7 +3143,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F179-4EC9-A35C-1AA4C8E18B9A}"/>
             </c:ext>
@@ -3213,7 +3214,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3270,7 +3271,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-133D-4D86-9D1A-EB3A1C7A2D05}"/>
             </c:ext>
@@ -3341,7 +3342,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3398,7 +3399,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -3469,7 +3470,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3526,7 +3527,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -3597,7 +3598,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3654,7 +3655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-22C9-4512-B55C-089FD8381EC4}"/>
             </c:ext>
@@ -3724,7 +3725,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3781,7 +3782,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B38-4741-B902-3F6FF64DE959}"/>
             </c:ext>
@@ -3851,7 +3852,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3908,7 +3909,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56D8-455D-A14C-79724254E5D6}"/>
             </c:ext>
@@ -3978,7 +3979,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4035,7 +4036,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D36A-434F-A6AD-D2E084C2BCF5}"/>
             </c:ext>
@@ -4105,7 +4106,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4162,7 +4163,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-712E-452A-93B9-6D3B01DB612C}"/>
             </c:ext>
@@ -4330,14 +4331,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4373,7 +4374,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4525,7 +4526,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4594,7 +4595,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F34-4EEC-AA31-125C442C4E54}"/>
             </c:ext>
@@ -4662,7 +4663,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4731,7 +4732,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F34-4EEC-AA31-125C442C4E54}"/>
             </c:ext>
@@ -4799,7 +4800,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4868,7 +4869,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63E7-4008-9B5A-CE37EEA84CF5}"/>
             </c:ext>
@@ -4936,7 +4937,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5005,7 +5006,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-47FB-4A76-B0BB-B3B5806B7C06}"/>
             </c:ext>
@@ -5075,7 +5076,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5144,7 +5145,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E18-4313-BA49-4AACC1C3AA50}"/>
             </c:ext>
@@ -5214,7 +5215,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5283,7 +5284,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24DF-47B8-BD3E-335FFEF732B7}"/>
             </c:ext>
@@ -5353,7 +5354,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5422,7 +5423,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D115-41DF-85BE-703292FB8041}"/>
             </c:ext>
@@ -5492,7 +5493,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5561,7 +5562,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E516-4331-9651-DE35742DEF5C}"/>
             </c:ext>
@@ -5631,7 +5632,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5700,7 +5701,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BEF6-459F-A089-DD0EEC688D11}"/>
             </c:ext>
@@ -5770,7 +5771,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5839,7 +5840,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B03E-4CE9-9811-13B477176582}"/>
             </c:ext>
@@ -5910,7 +5911,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5979,7 +5980,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A08C-4366-A246-B44216F43CFE}"/>
             </c:ext>
@@ -6050,7 +6051,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6119,7 +6120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A5AB-4E55-9B4B-DFEF28478AB9}"/>
             </c:ext>
@@ -6190,7 +6191,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6259,7 +6260,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CDEE-4A75-834E-FB48ADB3ECDC}"/>
             </c:ext>
@@ -6330,7 +6331,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6399,7 +6400,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F015-4D70-9FE0-851670B39893}"/>
             </c:ext>
@@ -6470,7 +6471,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6539,7 +6540,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F015-4D70-9FE0-851670B39893}"/>
             </c:ext>
@@ -6610,7 +6611,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6679,7 +6680,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AFB2-4668-966F-68EC6176BB87}"/>
             </c:ext>
@@ -6749,7 +6750,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6818,7 +6819,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C49-4906-B19A-0E7F64FD2F92}"/>
             </c:ext>
@@ -6888,7 +6889,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6957,7 +6958,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5976-4965-9D5B-F448E3A24FC3}"/>
             </c:ext>
@@ -7027,7 +7028,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7096,7 +7097,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A16-407F-8167-86E30BBD9D27}"/>
             </c:ext>
@@ -7166,7 +7167,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7235,7 +7236,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAC2-4549-9CAE-6AD439B134E1}"/>
             </c:ext>
@@ -7254,7 +7255,7 @@
         <c:overlap val="-27"/>
         <c:axId val="723850272"/>
         <c:axId val="723860064"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -7262,7 +7263,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$2</c15:sqref>
@@ -7325,7 +7326,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7392,7 +7393,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5F34-4EEC-AA31-125C442C4E54}"/>
                   </c:ext>
@@ -7405,7 +7406,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -7468,7 +7469,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7535,7 +7536,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-5F34-4EEC-AA31-125C442C4E54}"/>
                   </c:ext>
@@ -7693,14 +7694,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7736,7 +7737,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -7896,9 +7897,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7966,7 +7966,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CCA6-4C80-96A0-25C22CA7FD99}"/>
             </c:ext>
@@ -8034,9 +8034,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8104,7 +8103,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CCA6-4C80-96A0-25C22CA7FD99}"/>
             </c:ext>
@@ -8172,9 +8171,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8242,7 +8240,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6017-4132-8AE1-B981F91A51E2}"/>
             </c:ext>
@@ -8310,9 +8308,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8380,7 +8377,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F3DE-4B38-8079-CF1B256F2D99}"/>
             </c:ext>
@@ -8450,9 +8447,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8520,7 +8516,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6818-4E66-AB07-C86D8BB25EB4}"/>
             </c:ext>
@@ -8590,9 +8586,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8660,7 +8655,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E7B-4B4E-8BBB-9DE4D87900FF}"/>
             </c:ext>
@@ -8730,9 +8725,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8800,7 +8794,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F6D3-4D65-90E8-E78F574AA619}"/>
             </c:ext>
@@ -8870,9 +8864,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8940,7 +8933,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DB00-46AD-BE41-8DAB107DCAFB}"/>
             </c:ext>
@@ -9010,9 +9003,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9080,7 +9072,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C432-467A-BA13-1DDA0611F6BA}"/>
             </c:ext>
@@ -9150,9 +9142,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9220,7 +9211,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5C-4A5A-90C3-12B483565504}"/>
             </c:ext>
@@ -9291,9 +9282,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9361,7 +9351,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E04-4B46-9028-74D145E788AD}"/>
             </c:ext>
@@ -9432,9 +9422,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9502,7 +9491,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E650-481F-8588-04455C9CDB37}"/>
             </c:ext>
@@ -9573,9 +9562,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9643,7 +9631,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1A2-421E-B569-92168DB6020C}"/>
             </c:ext>
@@ -9714,9 +9702,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9784,7 +9771,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A538-4452-A483-861D2026BD96}"/>
             </c:ext>
@@ -9855,9 +9842,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9925,7 +9911,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A538-4452-A483-861D2026BD96}"/>
             </c:ext>
@@ -9996,9 +9982,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10066,7 +10051,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE96-438F-AE36-2605EBBB3C9A}"/>
             </c:ext>
@@ -10136,9 +10121,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10206,7 +10190,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CCBC-4C86-AF56-3F158F69715E}"/>
             </c:ext>
@@ -10276,9 +10260,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10346,7 +10329,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C80-4CDA-A7C0-425A20266FF4}"/>
             </c:ext>
@@ -10416,9 +10399,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10486,7 +10468,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC97-46BC-A25B-B15B8763C648}"/>
             </c:ext>
@@ -10556,9 +10538,8 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10626,7 +10607,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB97-4C65-B44A-E19552A1E750}"/>
             </c:ext>
@@ -10645,7 +10626,7 @@
         <c:overlap val="-27"/>
         <c:axId val="723861152"/>
         <c:axId val="723851360"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -10653,7 +10634,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$2</c15:sqref>
@@ -10716,7 +10697,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10783,7 +10764,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CCA6-4C80-96A0-25C22CA7FD99}"/>
                   </c:ext>
@@ -10796,7 +10777,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -10859,7 +10840,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -10926,7 +10907,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-CCA6-4C80-96A0-25C22CA7FD99}"/>
                   </c:ext>
@@ -11053,7 +11034,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11085,14 +11065,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11128,7 +11108,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11287,7 +11267,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11344,7 +11324,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11412,7 +11392,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11469,7 +11449,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11537,7 +11517,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11594,7 +11574,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11662,7 +11642,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11719,7 +11699,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11787,7 +11767,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11844,7 +11824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A94A-4A7B-AA17-0A05FC325F22}"/>
             </c:ext>
@@ -11912,7 +11892,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11969,7 +11949,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5229-491E-9990-2DEF6AB42F61}"/>
             </c:ext>
@@ -12039,7 +12019,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12096,7 +12076,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D77-4FAA-A1FB-F868E079D27A}"/>
             </c:ext>
@@ -12166,7 +12146,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12223,7 +12203,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C83-4DA8-8692-F2C1A387B40C}"/>
             </c:ext>
@@ -12293,7 +12273,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12350,7 +12330,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EDC-461C-9951-53E2913ACA58}"/>
             </c:ext>
@@ -12420,7 +12400,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12477,7 +12457,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D787-4D4B-A865-FADEB9F4CAFA}"/>
             </c:ext>
@@ -12547,7 +12527,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12604,7 +12584,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2444-4875-A4AF-9F4B10C14868}"/>
             </c:ext>
@@ -12674,7 +12654,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12731,7 +12711,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF85-48B4-AAA9-73B1DEBB6426}"/>
             </c:ext>
@@ -12802,7 +12782,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12859,7 +12839,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-66C4-4181-AE61-27B27B106A47}"/>
             </c:ext>
@@ -12930,7 +12910,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12987,7 +12967,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4D7-42B8-94FB-0AB2E38B98B3}"/>
             </c:ext>
@@ -13058,7 +13038,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13115,7 +13095,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC98-44D8-BA9A-E246059DDE63}"/>
             </c:ext>
@@ -13186,7 +13166,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13243,7 +13223,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -13314,7 +13294,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13371,7 +13351,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -13442,7 +13422,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13499,7 +13479,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BE5-491E-B328-66590AF3F9D3}"/>
             </c:ext>
@@ -13569,7 +13549,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13626,7 +13606,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF5-46E8-9CEE-6D2C155C2A77}"/>
             </c:ext>
@@ -13696,7 +13676,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13753,7 +13733,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2062-46A7-B10E-5A2664AB446B}"/>
             </c:ext>
@@ -13823,7 +13803,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13880,7 +13860,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C52-4FBD-B918-0C2DA9171E3F}"/>
             </c:ext>
@@ -13950,7 +13930,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14007,7 +13987,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-718F-4900-BB6B-25F6203A452A}"/>
             </c:ext>
@@ -14175,14 +14155,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14218,7 +14198,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14378,7 +14358,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14435,7 +14415,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -14503,7 +14483,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14560,7 +14540,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -14628,7 +14608,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14685,7 +14665,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -14753,7 +14733,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14810,7 +14790,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -14878,7 +14858,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14935,7 +14915,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD2A-4FE9-98C6-8C9FC971B151}"/>
             </c:ext>
@@ -15003,7 +14983,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15060,7 +15040,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE0-4CFC-BC1C-186F6F7CA530}"/>
             </c:ext>
@@ -15130,7 +15110,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15187,7 +15167,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6B0-4438-9021-FAF6AC4C250C}"/>
             </c:ext>
@@ -15257,7 +15237,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15314,7 +15294,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A27-4577-92A6-BBA3E5136B56}"/>
             </c:ext>
@@ -15384,7 +15364,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15441,7 +15421,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7498-4BB7-B9C6-464317275E93}"/>
             </c:ext>
@@ -15511,7 +15491,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15568,7 +15548,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4321-45B9-9594-B628C3F504B4}"/>
             </c:ext>
@@ -15638,7 +15618,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15695,7 +15675,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D1E-4617-9835-31C9496E55A2}"/>
             </c:ext>
@@ -15765,7 +15745,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15822,7 +15802,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3068-4BC2-BA0B-77BC021BC7E8}"/>
             </c:ext>
@@ -15893,7 +15873,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15950,7 +15930,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC41-4C5E-BB77-5084557066CD}"/>
             </c:ext>
@@ -16021,7 +16001,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16078,7 +16058,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F179-4EC9-A35C-1AA4C8E18B9A}"/>
             </c:ext>
@@ -16149,7 +16129,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16206,7 +16186,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-133D-4D86-9D1A-EB3A1C7A2D05}"/>
             </c:ext>
@@ -16277,7 +16257,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16334,7 +16314,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -16405,7 +16385,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16462,7 +16442,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -16533,7 +16513,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16590,7 +16570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-22C9-4512-B55C-089FD8381EC4}"/>
             </c:ext>
@@ -16660,7 +16640,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16717,7 +16697,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B38-4741-B902-3F6FF64DE959}"/>
             </c:ext>
@@ -16787,7 +16767,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16844,7 +16824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5566-4471-B264-1EBD8CAEA5DD}"/>
             </c:ext>
@@ -16914,7 +16894,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16971,7 +16951,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1322-4096-BC39-B032DEDA34E3}"/>
             </c:ext>
@@ -17041,7 +17021,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17098,7 +17078,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7EE8-446A-A659-C81E0FF1C551}"/>
             </c:ext>
@@ -17266,14 +17246,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17309,7 +17289,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -17458,7 +17438,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17515,7 +17495,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -17583,7 +17563,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17640,7 +17620,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -17708,7 +17688,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17765,7 +17745,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -17833,7 +17813,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17890,7 +17870,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -17958,7 +17938,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18015,7 +17995,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A94A-4A7B-AA17-0A05FC325F22}"/>
             </c:ext>
@@ -18083,7 +18063,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18140,7 +18120,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5229-491E-9990-2DEF6AB42F61}"/>
             </c:ext>
@@ -18210,7 +18190,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18267,7 +18247,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D77-4FAA-A1FB-F868E079D27A}"/>
             </c:ext>
@@ -18337,7 +18317,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18394,7 +18374,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C83-4DA8-8692-F2C1A387B40C}"/>
             </c:ext>
@@ -18464,7 +18444,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18521,7 +18501,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EDC-461C-9951-53E2913ACA58}"/>
             </c:ext>
@@ -18591,7 +18571,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18648,7 +18628,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D787-4D4B-A865-FADEB9F4CAFA}"/>
             </c:ext>
@@ -18718,7 +18698,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18775,7 +18755,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2444-4875-A4AF-9F4B10C14868}"/>
             </c:ext>
@@ -18845,7 +18825,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18902,7 +18882,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF85-48B4-AAA9-73B1DEBB6426}"/>
             </c:ext>
@@ -18973,7 +18953,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19030,7 +19010,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-66C4-4181-AE61-27B27B106A47}"/>
             </c:ext>
@@ -19101,7 +19081,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19158,7 +19138,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4D7-42B8-94FB-0AB2E38B98B3}"/>
             </c:ext>
@@ -19229,7 +19209,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19286,7 +19266,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC98-44D8-BA9A-E246059DDE63}"/>
             </c:ext>
@@ -19357,7 +19337,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19414,7 +19394,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -19485,7 +19465,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19542,7 +19522,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -19613,7 +19593,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19670,7 +19650,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BE5-491E-B328-66590AF3F9D3}"/>
             </c:ext>
@@ -19740,7 +19720,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19797,7 +19777,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF5-46E8-9CEE-6D2C155C2A77}"/>
             </c:ext>
@@ -19867,7 +19847,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19924,7 +19904,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDBF-476C-B305-AC01B7789AB2}"/>
             </c:ext>
@@ -19994,7 +19974,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20051,7 +20031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0196-49E0-ADD3-F2B68FB35623}"/>
             </c:ext>
@@ -20121,7 +20101,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20178,7 +20158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FF6-4456-A569-F095DCCAC0C0}"/>
             </c:ext>
@@ -20346,14 +20326,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -20389,7 +20369,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -20532,7 +20512,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20592,6 +20571,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -20606,7 +20590,7 @@
         <c:overlap val="-27"/>
         <c:axId val="723854624"/>
         <c:axId val="723857888"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+        <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -20660,7 +20644,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -20721,7 +20705,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -20780,7 +20764,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -20802,7 +20786,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20828,7 +20812,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -20853,7 +20837,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -20912,7 +20896,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -20934,7 +20918,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -20960,7 +20944,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -20985,7 +20969,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21044,7 +21028,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21066,7 +21050,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21092,7 +21076,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -21117,7 +21101,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21176,7 +21160,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21198,7 +21182,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21224,7 +21208,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -21249,7 +21233,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21308,7 +21292,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21330,7 +21314,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21356,7 +21340,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -21381,7 +21365,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21442,7 +21426,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21464,7 +21448,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21490,7 +21474,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -21515,7 +21499,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FB1F-4985-99CF-C5CB0831531F}"/>
                   </c:ext>
@@ -21576,7 +21560,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21598,7 +21582,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21624,7 +21608,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -21649,7 +21633,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21710,7 +21694,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21732,7 +21716,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21758,7 +21742,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -21783,7 +21767,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21844,7 +21828,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21866,7 +21850,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21892,7 +21876,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -21917,7 +21901,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -21978,7 +21962,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22000,7 +21984,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22026,7 +22010,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22051,7 +22035,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0F7B-461B-B003-FBEFE0DDD362}"/>
                   </c:ext>
@@ -22112,7 +22096,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22134,7 +22118,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22160,7 +22144,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -22182,7 +22166,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22244,7 +22228,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22266,7 +22250,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22292,7 +22276,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -22314,7 +22298,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22376,7 +22360,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22398,7 +22382,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22424,7 +22408,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -22449,7 +22433,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22511,7 +22495,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22533,7 +22517,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22559,7 +22543,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -22584,7 +22568,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22646,7 +22630,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22668,7 +22652,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22694,7 +22678,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -22719,7 +22703,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22781,7 +22765,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22803,7 +22787,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22829,7 +22813,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -22854,7 +22838,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -22916,7 +22900,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22938,7 +22922,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22964,7 +22948,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -22989,7 +22973,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23050,7 +23034,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23072,7 +23056,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23098,7 +23082,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -23123,7 +23107,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23184,7 +23168,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23206,7 +23190,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23232,7 +23216,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -23257,7 +23241,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-EE85-428B-812F-1D9F482AFE7A}"/>
                   </c:ext>
@@ -23318,7 +23302,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23340,7 +23324,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23366,7 +23350,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -23391,7 +23375,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23452,7 +23436,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23474,7 +23458,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23500,7 +23484,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -23525,7 +23509,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23586,7 +23570,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23608,7 +23592,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23634,7 +23618,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -23659,7 +23643,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -23720,7 +23704,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23742,7 +23726,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23768,7 +23752,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -23793,7 +23777,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-52ED-4762-B4AC-21DE46265382}"/>
                   </c:ext>
@@ -23855,7 +23839,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23877,7 +23861,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23903,7 +23887,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -23928,7 +23912,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-474E-47FD-8B08-FE4CFC7C76C1}"/>
                   </c:ext>
@@ -23990,7 +23974,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24012,7 +23996,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24038,7 +24022,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24063,7 +24047,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24125,7 +24109,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24147,7 +24131,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24173,7 +24157,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -24198,7 +24182,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24260,7 +24244,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24282,7 +24266,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24308,7 +24292,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -24333,7 +24317,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24395,7 +24379,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24417,7 +24401,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24443,7 +24427,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -24468,7 +24452,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24530,7 +24514,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24552,7 +24536,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24578,7 +24562,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -24603,7 +24587,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24664,7 +24648,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24686,7 +24670,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24712,7 +24696,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -24737,7 +24721,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24798,7 +24782,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24820,7 +24804,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24846,7 +24830,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -24871,7 +24855,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -24932,7 +24916,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24954,7 +24938,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24980,7 +24964,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25005,7 +24989,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25066,7 +25050,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25088,7 +25072,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25114,7 +25098,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -25139,7 +25123,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25200,7 +25184,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25222,7 +25206,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25248,7 +25232,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -25273,7 +25257,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25334,7 +25318,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25356,7 +25340,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25382,7 +25366,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -25407,7 +25391,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25469,7 +25453,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25491,7 +25475,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25517,7 +25501,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -25542,7 +25526,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25604,7 +25588,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25626,7 +25610,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25652,7 +25636,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -25677,7 +25661,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25739,7 +25723,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25761,7 +25745,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25787,7 +25771,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -25812,7 +25796,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25874,7 +25858,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25896,7 +25880,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25922,7 +25906,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -25947,7 +25931,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26009,7 +25993,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26031,7 +26015,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26057,7 +26041,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -26082,7 +26066,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -26144,7 +26128,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26166,7 +26150,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26192,7 +26176,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -26217,7 +26201,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -26278,7 +26262,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26300,7 +26284,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26326,7 +26310,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -26351,7 +26335,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0394-457D-88D1-90642EEC8A74}"/>
                   </c:ext>
@@ -26412,7 +26396,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26434,7 +26418,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26460,7 +26444,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -26485,7 +26469,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7D5E-44A9-B1FA-B35A4B4270CE}"/>
                   </c:ext>
@@ -26546,7 +26530,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26568,7 +26552,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26594,7 +26578,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -26619,7 +26603,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-642D-42BD-9427-3EA0B12E4C25}"/>
                   </c:ext>
@@ -26680,7 +26664,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26702,7 +26686,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26728,7 +26712,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -26753,7 +26737,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -26814,7 +26798,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26836,7 +26820,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26862,7 +26846,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -26887,7 +26871,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -26948,7 +26932,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26970,7 +26954,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26996,7 +26980,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27021,7 +27005,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-9702-4565-9B43-3EC01CDE7563}"/>
                   </c:ext>
@@ -27083,7 +27067,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27105,7 +27089,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27131,7 +27115,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -27156,7 +27140,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27218,7 +27202,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27240,7 +27224,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27266,7 +27250,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -27291,7 +27275,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27353,7 +27337,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27375,7 +27359,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27401,7 +27385,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -27426,7 +27410,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27488,7 +27472,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27510,7 +27494,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27536,7 +27520,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -27561,7 +27545,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -27623,7 +27607,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27645,7 +27629,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27671,7 +27655,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -27696,7 +27680,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-76DD-422B-895A-B743B787CE5F}"/>
                   </c:ext>
@@ -27758,7 +27742,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27780,7 +27764,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27806,7 +27790,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -27831,7 +27815,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2132-44D5-BA8F-47CBE91EC861}"/>
                   </c:ext>
@@ -27890,7 +27874,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27912,7 +27896,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27938,7 +27922,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -27963,7 +27947,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28022,7 +28006,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28044,7 +28028,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28070,7 +28054,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -28095,7 +28079,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28154,7 +28138,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28176,7 +28160,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28202,7 +28186,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -28227,7 +28211,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28286,7 +28270,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28308,7 +28292,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28334,7 +28318,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -28359,7 +28343,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-123E-4E08-AA48-A97F75EAA52E}"/>
                   </c:ext>
@@ -28418,7 +28402,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28440,7 +28424,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28466,7 +28450,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -28491,7 +28475,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-950B-44DB-94DA-03A3DBCD5199}"/>
                   </c:ext>
@@ -28550,7 +28534,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28572,7 +28556,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28598,7 +28582,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -28623,6 +28607,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -28679,7 +28668,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28701,7 +28690,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28727,7 +28716,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
@@ -28752,6 +28741,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -28808,7 +28802,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28830,7 +28824,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28856,7 +28850,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$63:$I$63</c15:sqref>
@@ -28881,6 +28875,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
@@ -28937,9 +28936,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -28960,7 +28958,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28986,7 +28984,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$64:$I$64</c15:sqref>
@@ -29011,6 +29009,11 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+                  </c:ext>
+                </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
           </c:ext>
@@ -29133,7 +29136,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -33021,7 +33023,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33057,7 +33059,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33095,7 +33097,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33133,7 +33135,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33171,7 +33173,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33209,7 +33211,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33252,7 +33254,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33535,45 +33537,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM131"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y122" sqref="Y122"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X122" sqref="X122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="10" width="17.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
-    <col min="12" max="12" width="24.42578125" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" customWidth="1"/>
-    <col min="14" max="17" width="26.5703125" customWidth="1"/>
-    <col min="18" max="19" width="22.5703125" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" customWidth="1"/>
-    <col min="23" max="23" width="26.42578125" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="7" max="8" width="19.33203125" customWidth="1"/>
+    <col min="9" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="29.6640625" customWidth="1"/>
+    <col min="14" max="17" width="26.5546875" customWidth="1"/>
+    <col min="18" max="19" width="22.5546875" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" customWidth="1"/>
+    <col min="22" max="22" width="25.44140625" customWidth="1"/>
+    <col min="23" max="23" width="26.44140625" customWidth="1"/>
+    <col min="24" max="24" width="15.88671875" customWidth="1"/>
     <col min="25" max="27" width="23" customWidth="1"/>
     <col min="28" max="28" width="20" customWidth="1"/>
-    <col min="29" max="44" width="9.140625" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" customWidth="1"/>
-    <col min="46" max="56" width="9.140625" customWidth="1"/>
-    <col min="57" max="57" width="13.42578125" customWidth="1"/>
-    <col min="58" max="58" width="14.7109375" customWidth="1"/>
-    <col min="59" max="59" width="17.85546875" customWidth="1"/>
-    <col min="60" max="60" width="18.28515625" customWidth="1"/>
-    <col min="61" max="61" width="9.140625" customWidth="1"/>
-    <col min="62" max="63" width="8.85546875" customWidth="1"/>
-    <col min="64" max="64" width="9.140625" customWidth="1"/>
+    <col min="29" max="44" width="9.109375" customWidth="1"/>
+    <col min="45" max="45" width="12.6640625" customWidth="1"/>
+    <col min="46" max="56" width="9.109375" customWidth="1"/>
+    <col min="57" max="57" width="13.44140625" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" customWidth="1"/>
+    <col min="59" max="59" width="17.88671875" customWidth="1"/>
+    <col min="60" max="60" width="18.33203125" customWidth="1"/>
+    <col min="61" max="61" width="9.109375" customWidth="1"/>
+    <col min="62" max="63" width="8.88671875" customWidth="1"/>
+    <col min="64" max="64" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1">
@@ -43358,7 +43360,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M120" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M121" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -44470,7 +44472,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L120" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L121" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -47648,17 +47650,35 @@
       <c r="D121" s="57">
         <v>26681</v>
       </c>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="56"/>
+      <c r="E121" s="56">
+        <v>26582</v>
+      </c>
+      <c r="F121" s="56">
+        <v>26514</v>
+      </c>
+      <c r="G121" s="56">
+        <v>10053900</v>
+      </c>
       <c r="H121" s="56">
         <v>31234</v>
       </c>
-      <c r="I121" s="56"/>
-      <c r="J121" s="56"/>
-      <c r="K121" s="56"/>
-      <c r="L121" s="67"/>
-      <c r="M121" s="67"/>
+      <c r="I121" s="56">
+        <v>31217</v>
+      </c>
+      <c r="J121" s="56">
+        <v>31159</v>
+      </c>
+      <c r="K121" s="56">
+        <v>1549100</v>
+      </c>
+      <c r="L121" s="67">
+        <f t="shared" si="14"/>
+        <v>266569104600</v>
+      </c>
+      <c r="M121" s="67">
+        <f t="shared" si="13"/>
+        <v>48268406900</v>
+      </c>
       <c r="N121" s="58">
         <v>26852</v>
       </c>
@@ -47677,6 +47697,12 @@
       <c r="U121" s="56"/>
       <c r="V121" s="58">
         <v>27570</v>
+      </c>
+      <c r="X121" s="58">
+        <v>27530</v>
+      </c>
+      <c r="Y121" s="58">
+        <v>32539</v>
       </c>
       <c r="Z121" s="56"/>
       <c r="AA121" s="56"/>
@@ -47864,7 +47890,7 @@
       <c r="V131" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL126"/>
+  <autoFilter ref="A1:BL126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47872,25 +47898,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -48338,7 +48364,7 @@
         <v>29004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.9" customHeight="1">
+    <row r="14" spans="1:11" ht="13.95" customHeight="1">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -48375,7 +48401,7 @@
         <v>29561</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.9" customHeight="1">
+    <row r="15" spans="1:11" ht="13.95" customHeight="1">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -48412,7 +48438,7 @@
         <v>29729</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.9" customHeight="1">
+    <row r="16" spans="1:11" ht="13.95" customHeight="1">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -48449,7 +48475,7 @@
         <v>29367</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.9" customHeight="1">
+    <row r="17" spans="1:11" ht="13.95" customHeight="1">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -48486,7 +48512,7 @@
         <v>28996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.9" customHeight="1">
+    <row r="18" spans="1:11" ht="13.95" customHeight="1">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -48523,7 +48549,7 @@
         <v>29540</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.9" customHeight="1">
+    <row r="19" spans="1:11" ht="13.95" customHeight="1">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -48560,7 +48586,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.9" customHeight="1">
+    <row r="20" spans="1:11" ht="13.95" customHeight="1">
       <c r="A20" t="s">
         <v>281</v>
       </c>
@@ -48597,7 +48623,7 @@
         <v>30417</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.9" customHeight="1">
+    <row r="21" spans="1:11" ht="13.95" customHeight="1">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -48634,7 +48660,7 @@
         <v>31126</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.9" customHeight="1">
+    <row r="22" spans="1:11" ht="13.95" customHeight="1">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -48671,7 +48697,7 @@
         <v>32496</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.9" customHeight="1">
+    <row r="23" spans="1:11" ht="13.95" customHeight="1">
       <c r="A23" t="s">
         <v>312</v>
       </c>
@@ -48795,21 +48821,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K700"/>
   <sheetViews>
     <sheetView topLeftCell="A679" workbookViewId="0">
       <selection activeCell="C691" sqref="C691"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -56685,20 +56711,36 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A173:D173"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -56715,42 +56757,26 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
     <mergeCell ref="A601:D601"/>
     <mergeCell ref="A590:D590"/>
     <mergeCell ref="A579:D579"/>
     <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A670:D670"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -56758,21 +56784,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:M65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444F8EA-5EEC-4D81-9482-A3028BF1AC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161E07D-FF0F-4BDD-AD30-79E29232A98B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14328" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="price change" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="330">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -1001,6 +1001,27 @@
   <si>
     <t>روند روزانه بهای سکه و ارز ( چهارشنبه 17 شهریور 1400)</t>
   </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز ( پنجشنبه 18 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>10 46</t>
+  </si>
+  <si>
+    <t>12 06</t>
+  </si>
+  <si>
+    <t>18شهریور1400</t>
+  </si>
+  <si>
+    <t>04شهریور1400</t>
+  </si>
+  <si>
+    <t>11شهریور1400</t>
+  </si>
+  <si>
+    <t>هفته بیست و چهارم سال 1400</t>
+  </si>
 </sst>
 </file>
 
@@ -1060,7 +1081,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,6 +1127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1263,9 +1290,16 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1329,7 +1363,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> وزنی قیمت یورو متشکل در هفته دوم تا بیستم و سوم سال (تومان)1400</a:t>
+              <a:t> وزنی قیمت یورو متشکل در هفته دوم تا بیستم و چهارم سال (تومان)1400</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4031,7 +4065,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31446</c:v>
+                  <c:v>31498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,7 +4192,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31227</c:v>
+                  <c:v>31196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,6 +4200,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-712E-452A-93B9-6D3B01DB612C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>متوسط وزنی قیمت یورو متشکل </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>31125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D83-4BB4-AA64-9B4353E4B82C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4412,7 +4573,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> سنا و آزاد در 20 هفته گذشته(تومان)</a:t>
+              <a:t> سنا و آزاد در 21 هفته گذشته(تومان)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7086,10 +7247,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26644</c:v>
+                  <c:v>26705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26908</c:v>
+                  <c:v>27079</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27648</c:v>
@@ -7225,10 +7386,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>26657</c:v>
+                  <c:v>26615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26837</c:v>
+                  <c:v>26810</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27427</c:v>
@@ -7239,6 +7400,145 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAC2-4549-9CAE-6AD439B134E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(weekly!$B$1,weekly!$H$1,weekly!$J$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط وزنی قیمت دلار متشکل</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت دلار سنا</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت دلار آزاد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(weekly!$B$24,weekly!$H$24,weekly!$J$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2B57-4BD0-ABAF-FBF84920798B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7406,7 +7706,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -7775,7 +8075,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> سنا و آزاد در 20 هفته گذشته(تومان)</a:t>
+              <a:t> سنا و آزاد در 21 هفته گذشته(تومان)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -10457,10 +10757,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31446</c:v>
+                  <c:v>31498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31740</c:v>
+                  <c:v>31815</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32496</c:v>
@@ -10596,10 +10896,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>31227</c:v>
+                  <c:v>31196</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31393</c:v>
+                  <c:v>31388</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>32582</c:v>
@@ -10610,6 +10910,145 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB97-4C65-B44A-E19552A1E750}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(weekly!$C$1,weekly!$I$1,weekly!$K$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>متوسط وزنی قیمت یورو متشکل </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>متوسط قیمت یورو سنا</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>متوسط قیمت یورو آزاد</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(weekly!$C$24,weekly!$I$24,weekly!$K$24)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>31125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D402-4DAF-B54F-4D213E5633F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10777,7 +11216,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -11146,7 +11585,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t>دلار متشکل در هفته دوم تا بیستم و سوم سال 1400</a:t>
+              <a:t>دلار متشکل در هفته دوم تا بیستم و چهارم سال 1400</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -13855,7 +14294,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37496400</c:v>
+                  <c:v>41397200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13982,7 +14421,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31542000</c:v>
+                  <c:v>36636700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13990,6 +14429,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-718F-4900-BB6B-25F6203A452A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>حجم مبادلات هفتگی دلار</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42978800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0CDA-490C-A979-7CEA4DCF7DA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -14236,7 +14802,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> وزنی قیمت دلار متشکل در هفته دوم تا بیستم و سوم سال (تومان)1400</a:t>
+              <a:t> وزنی قیمت دلار متشکل در هفته دوم تا بیستم و چهارم سال (تومان)1400</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -16946,7 +17512,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26644</c:v>
+                  <c:v>26705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17073,7 +17639,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26657</c:v>
+                  <c:v>26615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17081,6 +17647,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7EE8-446A-A659-C81E0FF1C551}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>متوسط وزنی قیمت دلار متشکل</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>26459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABA2-4B0C-8D94-27689C4F6658}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17327,7 +18020,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t>یورو متشکل در هفته دوم تا بیستم و سوم سال 1400</a:t>
+              <a:t>یورو متشکل در هفته دوم تا بیستم و چهارم سال 1400</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -20026,7 +20719,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3371200</c:v>
+                  <c:v>4399000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20153,7 +20846,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6567800</c:v>
+                  <c:v>7144800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20161,6 +20854,133 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FF6-4456-A569-F095DCCAC0C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="22"/>
+          <c:order val="22"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>weekly!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>هفته بیست و چهارم سال 1400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$1:$K$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>حجم مبادلات هفتگی یورو</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>weekly!$B$24:$K$24</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>weekly!$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6551900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6ABF-497A-A0D1-EB588CBC2D04}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -28607,7 +29427,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -28741,7 +29561,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -28875,7 +29695,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -29009,7 +29829,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -33009,13 +33829,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>896314</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>26595</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>372031</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>26628</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33045,13 +33865,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>27213</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>66946</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>391886</xdr:colOff>
-      <xdr:row>202</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>94288</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33083,13 +33903,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>149677</xdr:colOff>
-      <xdr:row>205</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>174972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>402771</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>74568</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33121,13 +33941,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>748833</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>98331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>874339</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>124776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33159,13 +33979,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>282038</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>128896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1167332</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>99241</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33197,13 +34017,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>125506</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>164</xdr:row>
       <xdr:rowOff>12838</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33538,10 +34358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM131"/>
+  <dimension ref="A1:BM134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X122" sqref="X122"/>
+    <sheetView topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -33628,15 +34448,15 @@
         <v>31</v>
       </c>
       <c r="S1" s="9">
-        <f>L122/G122</f>
-        <v>2857574.5682051666</v>
+        <f>L125/G125</f>
+        <v>24039.78447047278</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
-        <f>M122/K122</f>
-        <v>28515.368633872931</v>
+        <f>M125/K125</f>
+        <v>28338.286545522333</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -33756,7 +34576,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" hidden="1" customHeight="1">
+    <row r="2" spans="1:65" ht="21.6" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -33866,7 +34686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="18" hidden="1">
+    <row r="3" spans="1:65" ht="18">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -33960,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="e">
-        <f t="shared" ref="BJ3:BJ122" si="3">(Y3-O3)/O3</f>
+        <f t="shared" ref="BJ3:BJ125" si="3">(Y3-O3)/O3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK3">
@@ -33976,7 +34796,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="18" hidden="1">
+    <row r="4" spans="1:65" ht="18">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -34086,7 +34906,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="18" hidden="1">
+    <row r="5" spans="1:65" ht="18">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -34196,7 +35016,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:65" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -34306,7 +35126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="18" hidden="1">
+    <row r="7" spans="1:65" ht="18">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -34416,7 +35236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="18" hidden="1">
+    <row r="8" spans="1:65" ht="18">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -34526,7 +35346,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="18" hidden="1">
+    <row r="9" spans="1:65" ht="18">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -34636,7 +35456,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="18" hidden="1">
+    <row r="10" spans="1:65" ht="18">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -34746,7 +35566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="18" hidden="1">
+    <row r="11" spans="1:65" ht="18">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -34856,7 +35676,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="12" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -34978,7 +35798,7 @@
         <v>2.6256936966785389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="13" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
@@ -35155,7 +35975,7 @@
         <v>3.8371899450640921E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="14" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>58</v>
@@ -35330,7 +36150,7 @@
         <v>3.6598002238156423E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="15" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
@@ -35497,7 +36317,7 @@
         <v>3.6088474970896393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="16" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>65</v>
@@ -35632,7 +36452,7 @@
         <v>3.9324668811901879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="17" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>66</v>
@@ -35761,7 +36581,7 @@
         <v>4.4976317223456429E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="18" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>77</v>
@@ -35913,7 +36733,7 @@
         <v>4.2640063981142402E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="19" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>90</v>
@@ -36065,7 +36885,7 @@
         <v>3.4891097483611758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="20" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>91</v>
@@ -36215,7 +37035,7 @@
         <v>2.1503105065269739E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="21" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>92</v>
@@ -36365,7 +37185,7 @@
         <v>1.94008069362177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="22" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>94</v>
@@ -36513,7 +37333,7 @@
         <v>3.8086190517315828E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>95</v>
@@ -36663,7 +37483,7 @@
         <v>2.9494321371507537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="25" t="s">
         <v>99</v>
@@ -36813,7 +37633,7 @@
         <v>2.9875913355527691E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>100</v>
@@ -36963,7 +37783,7 @@
         <v>3.2037701586752565E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>101</v>
@@ -37113,7 +37933,7 @@
         <v>2.1493750810880941E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
         <v>102</v>
@@ -37265,7 +38085,7 @@
         <v>2.0628344553771792E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="25" t="s">
         <v>103</v>
@@ -37415,7 +38235,7 @@
         <v>2.5052011095700415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
         <v>106</v>
@@ -37565,7 +38385,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>109</v>
@@ -37719,7 +38539,7 @@
         <v>5.9974609289497873E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -37869,7 +38689,7 @@
         <v>-1.470983944748408E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -37993,7 +38813,7 @@
         <v>9.9138330399332897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>112</v>
@@ -38131,7 +38951,7 @@
         <v>-1.8682770334025288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>113</v>
@@ -38259,7 +39079,7 @@
         <v>3.1361612603356327E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>115</v>
@@ -38400,7 +39220,7 @@
         <v>5.0932041685013946E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>116</v>
@@ -38535,7 +39355,7 @@
         <v>3.7201877025784917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>117</v>
@@ -38665,7 +39485,7 @@
         <v>4.660045836516425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>118</v>
@@ -38787,7 +39607,7 @@
         <v>3.2269893656032271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>119</v>
@@ -38909,7 +39729,7 @@
         <v>3.0200265799000963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
         <v>121</v>
@@ -39031,7 +39851,7 @@
         <v>3.7372593431483581E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="25" t="s">
         <v>122</v>
@@ -39155,7 +39975,7 @@
         <v>4.6139995498537027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="25" t="s">
         <v>123</v>
@@ -39281,7 +40101,7 @@
         <v>2.4709628234449974E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25" t="s">
         <v>124</v>
@@ -39399,7 +40219,7 @@
         <v>4.1844961938651414E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="25" t="s">
         <v>125</v>
@@ -39521,7 +40341,7 @@
         <v>2.2023244245466467E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="25" t="s">
         <v>126</v>
@@ -39641,7 +40461,7 @@
         <v>3.4451659451659448E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="39" t="s">
         <v>128</v>
@@ -39759,7 +40579,7 @@
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39" t="s">
         <v>129</v>
@@ -39879,7 +40699,7 @@
         <v>3.3689622513868221E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="39" t="s">
         <v>130</v>
@@ -40005,7 +40825,7 @@
         <v>4.1601220661490822E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="39" t="s">
         <v>131</v>
@@ -40131,7 +40951,7 @@
         <v>3.6582615363796291E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39" t="s">
         <v>132</v>
@@ -40255,7 +41075,7 @@
         <v>4.8256649892163911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="39" t="s">
         <v>133</v>
@@ -40375,7 +41195,7 @@
         <v>3.9659421913511093E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="4" t="s">
         <v>135</v>
@@ -40499,7 +41319,7 @@
         <v>4.2074576861158244E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -40621,7 +41441,7 @@
         <v>1.6349794067479304E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="25" t="s">
         <v>137</v>
@@ -40743,7 +41563,7 @@
         <v>2.2913256955810146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="4" t="s">
         <v>138</v>
@@ -40861,7 +41681,7 @@
         <v>2.8963741686333404E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="4" t="s">
         <v>139</v>
@@ -40979,7 +41799,7 @@
         <v>3.3635187580853813E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>140</v>
@@ -41097,7 +41917,7 @@
         <v>2.8795924534818461E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
         <v>142</v>
@@ -41215,7 +42035,7 @@
         <v>2.671690357938003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="s">
         <v>143</v>
@@ -41333,7 +42153,7 @@
         <v>2.4057635404605687E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
         <v>144</v>
@@ -41451,7 +42271,7 @@
         <v>3.2539072508326931E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="s">
         <v>145</v>
@@ -41569,7 +42389,7 @@
         <v>2.8253424657534245E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="4" t="s">
         <v>147</v>
@@ -41673,8 +42493,8 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="32">
-        <f>K122/K62</f>
-        <v>136.05209774089442</v>
+        <f>K125/K62</f>
+        <v>142.20723835869063</v>
       </c>
       <c r="BL62">
         <f t="shared" si="5"/>
@@ -41685,7 +42505,7 @@
         <v>2.3155161220515041E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="4" t="s">
         <v>161</v>
@@ -41797,7 +42617,7 @@
         <v>2.9020348587619128E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="4" t="s">
         <v>166</v>
@@ -41909,7 +42729,7 @@
         <v>2.4806135127029689E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="4" t="s">
         <v>168</v>
@@ -42021,7 +42841,7 @@
         <v>3.0344591119492541E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="4" t="s">
         <v>171</v>
@@ -42133,7 +42953,7 @@
         <v>3.1046869654464591E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>174</v>
@@ -42245,7 +43065,7 @@
         <v>3.9105191256830603E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="34" t="s">
         <v>178</v>
@@ -42357,7 +43177,7 @@
         <v>6.2370062370062374E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="34" t="s">
         <v>180</v>
@@ -42469,7 +43289,7 @@
         <v>1.5050453223875491E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="34" t="s">
         <v>181</v>
@@ -42577,7 +43397,7 @@
         <v>2.6553987387928447E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="33"/>
       <c r="B71" s="34" t="s">
         <v>183</v>
@@ -42685,7 +43505,7 @@
         <v>3.0769885517300082E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A72" s="33"/>
       <c r="B72" s="34" t="s">
         <v>185</v>
@@ -42790,7 +43610,7 @@
         <v>2.1202759321173135E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A73" s="33"/>
       <c r="B73" s="34" t="s">
         <v>186</v>
@@ -42895,7 +43715,7 @@
         <v>2.0840393087089123E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="4" t="s">
         <v>187</v>
@@ -43003,7 +43823,7 @@
         <v>3.0037494207355606E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="4" t="s">
         <v>193</v>
@@ -43111,7 +43931,7 @@
         <v>2.4134312696747113E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="4" t="s">
         <v>195</v>
@@ -43219,7 +44039,7 @@
         <v>3.5059827629487075E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>196</v>
@@ -43323,7 +44143,7 @@
         <v>3.1143572278527758E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="4" t="s">
         <v>198</v>
@@ -43360,7 +44180,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M121" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M124" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -43427,7 +44247,7 @@
         <v>3.008315669329855E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="4" t="s">
         <v>200</v>
@@ -43531,7 +44351,7 @@
         <v>1.8148013419021058E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="33"/>
       <c r="B80" s="34" t="s">
         <v>204</v>
@@ -43635,7 +44455,7 @@
         <v>1.5234563920683539E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="33"/>
       <c r="B81" s="34" t="s">
         <v>206</v>
@@ -43739,7 +44559,7 @@
         <v>1.6552280985062576E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
         <v>208</v>
@@ -43839,7 +44659,7 @@
       <c r="BG82" s="37"/>
       <c r="BH82" s="37"/>
     </row>
-    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="34" t="s">
         <v>211</v>
@@ -43939,7 +44759,7 @@
       <c r="BG83" s="37"/>
       <c r="BH83" s="37"/>
     </row>
-    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="s">
         <v>213</v>
@@ -44039,7 +44859,7 @@
       <c r="BG84" s="37"/>
       <c r="BH84" s="37"/>
     </row>
-    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>219</v>
@@ -44139,7 +44959,7 @@
       <c r="BG85" s="31"/>
       <c r="BH85" s="31"/>
     </row>
-    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="25" t="s">
         <v>218</v>
@@ -44239,7 +45059,7 @@
       <c r="BG86" s="26"/>
       <c r="BH86" s="26"/>
     </row>
-    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="4" t="s">
         <v>220</v>
@@ -44339,7 +45159,7 @@
       <c r="BG87" s="31"/>
       <c r="BH87" s="31"/>
     </row>
-    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="4" t="s">
         <v>223</v>
@@ -44439,7 +45259,7 @@
       <c r="BG88" s="31"/>
       <c r="BH88" s="31"/>
     </row>
-    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="4" t="s">
         <v>225</v>
@@ -44472,7 +45292,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L121" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L124" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -44539,7 +45359,7 @@
       <c r="BG89" s="31"/>
       <c r="BH89" s="31"/>
     </row>
-    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>228</v>
@@ -44639,7 +45459,7 @@
       <c r="BG90" s="16"/>
       <c r="BH90" s="16"/>
     </row>
-    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>230</v>
@@ -44739,7 +45559,7 @@
       <c r="BG91" s="16"/>
       <c r="BH91" s="16"/>
     </row>
-    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>233</v>
@@ -44839,7 +45659,7 @@
       <c r="BG92" s="16"/>
       <c r="BH92" s="16"/>
     </row>
-    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="4" t="s">
         <v>264</v>
@@ -44939,7 +45759,7 @@
       <c r="BG93" s="31"/>
       <c r="BH93" s="31"/>
     </row>
-    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="4" t="s">
         <v>265</v>
@@ -45039,7 +45859,7 @@
       <c r="BG94" s="31"/>
       <c r="BH94" s="31"/>
     </row>
-    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="4" t="s">
         <v>266</v>
@@ -45139,7 +45959,7 @@
       <c r="BG95" s="31"/>
       <c r="BH95" s="31"/>
     </row>
-    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>267</v>
@@ -45239,7 +46059,7 @@
       <c r="BG96" s="16"/>
       <c r="BH96" s="16"/>
     </row>
-    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>268</v>
@@ -45339,7 +46159,7 @@
       <c r="BG97" s="16"/>
       <c r="BH97" s="16"/>
     </row>
-    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>269</v>
@@ -45439,7 +46259,7 @@
       <c r="BG98" s="16"/>
       <c r="BH98" s="16"/>
     </row>
-    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>270</v>
@@ -45539,7 +46359,7 @@
       <c r="BG99" s="16"/>
       <c r="BH99" s="16"/>
     </row>
-    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>271</v>
@@ -45639,7 +46459,7 @@
       <c r="BG100" s="16"/>
       <c r="BH100" s="16"/>
     </row>
-    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="4" t="s">
         <v>272</v>
@@ -45739,7 +46559,7 @@
       <c r="BG101" s="31"/>
       <c r="BH101" s="31"/>
     </row>
-    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="4" t="s">
         <v>273</v>
@@ -45839,7 +46659,7 @@
       <c r="BG102" s="31"/>
       <c r="BH102" s="31"/>
     </row>
-    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A103" s="30"/>
       <c r="B103" s="4" t="s">
         <v>274</v>
@@ -45939,7 +46759,7 @@
       <c r="BG103" s="31"/>
       <c r="BH103" s="31"/>
     </row>
-    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="30"/>
       <c r="B104" s="4" t="s">
         <v>275</v>
@@ -46039,7 +46859,7 @@
       <c r="BG104" s="31"/>
       <c r="BH104" s="31"/>
     </row>
-    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A105" s="30"/>
       <c r="B105" s="4" t="s">
         <v>276</v>
@@ -46139,7 +46959,7 @@
       <c r="BG105" s="31"/>
       <c r="BH105" s="31"/>
     </row>
-    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A106" s="33"/>
       <c r="B106" s="34" t="s">
         <v>283</v>
@@ -46239,7 +47059,7 @@
       <c r="BG106" s="37"/>
       <c r="BH106" s="37"/>
     </row>
-    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A107" s="33"/>
       <c r="B107" s="34" t="s">
         <v>284</v>
@@ -46339,7 +47159,7 @@
       <c r="BG107" s="37"/>
       <c r="BH107" s="37"/>
     </row>
-    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A108" s="30"/>
       <c r="B108" s="4" t="s">
         <v>286</v>
@@ -46439,7 +47259,7 @@
       <c r="BG108" s="31"/>
       <c r="BH108" s="31"/>
     </row>
-    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A109" s="30"/>
       <c r="B109" s="4" t="s">
         <v>289</v>
@@ -46539,7 +47359,7 @@
       <c r="BG109" s="31"/>
       <c r="BH109" s="31"/>
     </row>
-    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A110" s="30"/>
       <c r="B110" s="4" t="s">
         <v>292</v>
@@ -46639,7 +47459,7 @@
       <c r="BG110" s="31"/>
       <c r="BH110" s="31"/>
     </row>
-    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A111" s="30"/>
       <c r="B111" s="4" t="s">
         <v>293</v>
@@ -46739,170 +47559,167 @@
       <c r="BG111" s="31"/>
       <c r="BH111" s="31"/>
     </row>
-    <row r="112" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
-      <c r="A112" s="14"/>
-      <c r="B112" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="C112" s="15">
-        <v>6</v>
-      </c>
-      <c r="D112" s="50">
-        <v>27784</v>
-      </c>
-      <c r="E112" s="15">
-        <v>27442</v>
-      </c>
-      <c r="F112" s="15">
-        <v>27663</v>
-      </c>
-      <c r="G112" s="15">
-        <v>5677600</v>
-      </c>
-      <c r="H112" s="15">
+    <row r="112" spans="1:60" s="75" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="72"/>
+      <c r="B112" s="73" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" s="73">
+        <v>4</v>
+      </c>
+      <c r="D112" s="74">
+        <v>27030</v>
+      </c>
+      <c r="E112" s="73">
+        <v>27490</v>
+      </c>
+      <c r="F112" s="73">
+        <v>27299</v>
+      </c>
+      <c r="G112" s="73">
+        <v>3900800</v>
+      </c>
+      <c r="H112" s="73">
+        <v>31739</v>
+      </c>
+      <c r="I112" s="73">
         <v>31798</v>
       </c>
-      <c r="I112" s="15">
-        <v>31992</v>
-      </c>
-      <c r="J112" s="15">
-        <v>32158</v>
-      </c>
-      <c r="K112" s="15">
-        <v>1457800</v>
-      </c>
-      <c r="L112" s="15">
+      <c r="J112" s="73">
+        <v>31665</v>
+      </c>
+      <c r="K112" s="73">
+        <v>1037800</v>
+      </c>
+      <c r="L112" s="73">
         <f t="shared" si="14"/>
-        <v>157059448800</v>
-      </c>
-      <c r="M112" s="15">
+        <v>106487939200</v>
+      </c>
+      <c r="M112" s="73">
         <f t="shared" si="13"/>
-        <v>46879932400</v>
-      </c>
-      <c r="N112" s="17">
-        <v>27716</v>
-      </c>
-      <c r="O112" s="17">
-        <v>32312</v>
-      </c>
-      <c r="P112" s="15">
-        <v>28062</v>
-      </c>
-      <c r="Q112" s="17">
+        <v>32861937000</v>
+      </c>
+      <c r="N112" s="75">
+        <v>27765</v>
+      </c>
+      <c r="O112" s="75">
         <v>32116</v>
       </c>
-      <c r="R112" s="15"/>
-      <c r="S112" s="15"/>
-      <c r="T112" s="15"/>
-      <c r="U112" s="15"/>
-      <c r="V112" s="17">
-        <v>28270</v>
-      </c>
-      <c r="X112" s="17">
-        <v>28260</v>
-      </c>
-      <c r="Y112" s="17">
-        <v>33394</v>
-      </c>
-      <c r="Z112" s="15"/>
-      <c r="AA112" s="15"/>
-      <c r="AB112" s="15"/>
-      <c r="AC112" s="15"/>
-      <c r="AD112" s="15"/>
-      <c r="AE112" s="15"/>
-      <c r="AF112" s="15"/>
-      <c r="AG112" s="15"/>
-      <c r="AH112" s="15"/>
-      <c r="AI112" s="15"/>
-      <c r="AJ112" s="15"/>
-      <c r="AK112" s="15"/>
-      <c r="AL112" s="15"/>
-      <c r="AM112" s="15"/>
-      <c r="AN112" s="15"/>
-      <c r="AO112" s="15"/>
-      <c r="AP112" s="15"/>
-      <c r="AQ112" s="15"/>
-      <c r="AR112" s="15"/>
-      <c r="AS112" s="50"/>
-      <c r="AT112" s="50"/>
-      <c r="AU112" s="50"/>
-      <c r="AV112" s="50"/>
-      <c r="AW112" s="50"/>
-      <c r="AX112" s="50"/>
-      <c r="AY112" s="15"/>
-      <c r="AZ112" s="15"/>
-      <c r="BA112" s="15"/>
-      <c r="BB112" s="15"/>
-      <c r="BC112" s="15"/>
-      <c r="BE112" s="16"/>
-      <c r="BF112" s="16"/>
-      <c r="BG112" s="16"/>
-      <c r="BH112" s="16"/>
+      <c r="P112" s="73">
+        <v>27300</v>
+      </c>
+      <c r="Q112" s="75">
+        <v>32056</v>
+      </c>
+      <c r="R112" s="73"/>
+      <c r="S112" s="73"/>
+      <c r="T112" s="73"/>
+      <c r="U112" s="73"/>
+      <c r="X112" s="75">
+        <v>27920</v>
+      </c>
+      <c r="Y112" s="75">
+        <v>32700</v>
+      </c>
+      <c r="Z112" s="73"/>
+      <c r="AA112" s="73"/>
+      <c r="AB112" s="73"/>
+      <c r="AC112" s="73"/>
+      <c r="AD112" s="73"/>
+      <c r="AE112" s="73"/>
+      <c r="AF112" s="73"/>
+      <c r="AG112" s="73"/>
+      <c r="AH112" s="73"/>
+      <c r="AI112" s="73"/>
+      <c r="AJ112" s="73"/>
+      <c r="AK112" s="73"/>
+      <c r="AL112" s="73"/>
+      <c r="AM112" s="73"/>
+      <c r="AN112" s="73"/>
+      <c r="AO112" s="73"/>
+      <c r="AP112" s="73"/>
+      <c r="AQ112" s="73"/>
+      <c r="AR112" s="73"/>
+      <c r="AS112" s="74"/>
+      <c r="AT112" s="74"/>
+      <c r="AU112" s="74"/>
+      <c r="AV112" s="74"/>
+      <c r="AW112" s="74"/>
+      <c r="AX112" s="74"/>
+      <c r="AY112" s="73"/>
+      <c r="AZ112" s="73"/>
+      <c r="BA112" s="73"/>
+      <c r="BB112" s="73"/>
+      <c r="BC112" s="73"/>
+      <c r="BE112" s="76"/>
+      <c r="BF112" s="76"/>
+      <c r="BG112" s="76"/>
+      <c r="BH112" s="76"/>
     </row>
     <row r="113" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C113" s="15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D113" s="50">
-        <v>27340</v>
+        <v>27784</v>
       </c>
       <c r="E113" s="15">
-        <v>26965</v>
+        <v>27442</v>
       </c>
       <c r="F113" s="15">
-        <v>27148</v>
+        <v>27663</v>
       </c>
       <c r="G113" s="15">
-        <v>5269000</v>
+        <v>5677600</v>
       </c>
       <c r="H113" s="15">
-        <v>32350</v>
+        <v>31798</v>
       </c>
       <c r="I113" s="15">
-        <v>31300</v>
+        <v>31992</v>
       </c>
       <c r="J113" s="15">
-        <v>31609</v>
+        <v>32158</v>
       </c>
       <c r="K113" s="15">
-        <v>1605500</v>
+        <v>1457800</v>
       </c>
       <c r="L113" s="15">
         <f t="shared" si="14"/>
-        <v>143042812000</v>
+        <v>157059448800</v>
       </c>
       <c r="M113" s="15">
         <f t="shared" si="13"/>
-        <v>50748249500</v>
+        <v>46879932400</v>
       </c>
       <c r="N113" s="17">
-        <v>27234</v>
+        <v>27716</v>
       </c>
       <c r="O113" s="17">
-        <v>31613</v>
+        <v>32312</v>
       </c>
       <c r="P113" s="15">
-        <v>27614</v>
+        <v>28062</v>
       </c>
       <c r="Q113" s="17">
-        <v>32673</v>
+        <v>32116</v>
       </c>
       <c r="R113" s="15"/>
       <c r="S113" s="15"/>
       <c r="T113" s="15"/>
       <c r="U113" s="15"/>
       <c r="V113" s="17">
-        <v>28080</v>
-      </c>
-      <c r="X113" s="16">
-        <v>27830</v>
+        <v>28270</v>
+      </c>
+      <c r="X113" s="17">
+        <v>28260</v>
       </c>
       <c r="Y113" s="17">
-        <v>33099</v>
+        <v>33394</v>
       </c>
       <c r="Z113" s="15"/>
       <c r="AA113" s="15"/>
@@ -46942,67 +47759,67 @@
     <row r="114" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C114" s="15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D114" s="50">
+        <v>27340</v>
+      </c>
+      <c r="E114" s="15">
         <v>26965</v>
       </c>
-      <c r="E114" s="15">
-        <v>25931</v>
-      </c>
       <c r="F114" s="15">
-        <v>26198</v>
+        <v>27148</v>
       </c>
       <c r="G114" s="15">
-        <v>5319000</v>
+        <v>5269000</v>
       </c>
       <c r="H114" s="15">
+        <v>32350</v>
+      </c>
+      <c r="I114" s="15">
         <v>31300</v>
       </c>
-      <c r="I114" s="15">
-        <v>30387</v>
-      </c>
       <c r="J114" s="15">
-        <v>30487</v>
+        <v>31609</v>
       </c>
       <c r="K114" s="15">
-        <v>1376600</v>
+        <v>1605500</v>
       </c>
       <c r="L114" s="15">
         <f t="shared" si="14"/>
-        <v>139347162000</v>
+        <v>143042812000</v>
       </c>
       <c r="M114" s="15">
         <f t="shared" si="13"/>
-        <v>41968404200</v>
+        <v>50748249500</v>
       </c>
       <c r="N114" s="17">
-        <v>26190</v>
+        <v>27234</v>
       </c>
       <c r="O114" s="17">
-        <v>30691</v>
+        <v>31613</v>
       </c>
       <c r="P114" s="15">
-        <v>27234</v>
+        <v>27614</v>
       </c>
       <c r="Q114" s="17">
-        <v>31613</v>
+        <v>32673</v>
       </c>
       <c r="R114" s="15"/>
       <c r="S114" s="15"/>
       <c r="T114" s="15"/>
       <c r="U114" s="15"/>
-      <c r="V114" s="53">
-        <v>27230</v>
-      </c>
-      <c r="X114" s="17">
-        <v>26900</v>
+      <c r="V114" s="17">
+        <v>28080</v>
+      </c>
+      <c r="X114" s="16">
+        <v>27830</v>
       </c>
       <c r="Y114" s="17">
-        <v>32122</v>
+        <v>33099</v>
       </c>
       <c r="Z114" s="15"/>
       <c r="AA114" s="15"/>
@@ -47042,67 +47859,67 @@
     <row r="115" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C115" s="15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115" s="50">
-        <v>26285</v>
+        <v>26965</v>
       </c>
       <c r="E115" s="15">
-        <v>26215</v>
+        <v>25931</v>
       </c>
       <c r="F115" s="15">
-        <v>26265</v>
+        <v>26198</v>
       </c>
       <c r="G115" s="15">
-        <v>8186900</v>
+        <v>5319000</v>
       </c>
       <c r="H115" s="15">
+        <v>31300</v>
+      </c>
+      <c r="I115" s="15">
         <v>30387</v>
       </c>
-      <c r="I115" s="15">
-        <v>30934</v>
-      </c>
       <c r="J115" s="15">
-        <v>30715</v>
+        <v>30487</v>
       </c>
       <c r="K115" s="15">
-        <v>1183300</v>
+        <v>1376600</v>
       </c>
       <c r="L115" s="15">
         <f t="shared" si="14"/>
-        <v>215028928500</v>
+        <v>139347162000</v>
       </c>
       <c r="M115" s="15">
         <f t="shared" si="13"/>
-        <v>36345059500</v>
+        <v>41968404200</v>
       </c>
       <c r="N115" s="17">
-        <v>26477</v>
+        <v>26190</v>
       </c>
       <c r="O115" s="17">
-        <v>31243</v>
+        <v>30691</v>
       </c>
       <c r="P115" s="15">
-        <v>26548</v>
+        <v>27234</v>
       </c>
       <c r="Q115" s="17">
-        <v>30691</v>
+        <v>31613</v>
       </c>
       <c r="R115" s="15"/>
       <c r="S115" s="15"/>
       <c r="T115" s="15"/>
       <c r="U115" s="15"/>
       <c r="V115" s="53">
-        <v>27370</v>
+        <v>27230</v>
       </c>
       <c r="X115" s="17">
-        <v>27250</v>
+        <v>26900</v>
       </c>
       <c r="Y115" s="17">
-        <v>32333</v>
+        <v>32122</v>
       </c>
       <c r="Z115" s="15"/>
       <c r="AA115" s="15"/>
@@ -47142,67 +47959,67 @@
     <row r="116" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C116" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="50">
+        <v>26285</v>
+      </c>
+      <c r="E116" s="15">
         <v>26215</v>
       </c>
-      <c r="E116" s="15">
-        <v>26307</v>
-      </c>
       <c r="F116" s="15">
-        <v>26285</v>
+        <v>26265</v>
       </c>
       <c r="G116" s="15">
-        <v>7089500</v>
+        <v>8186900</v>
       </c>
       <c r="H116" s="15">
+        <v>30387</v>
+      </c>
+      <c r="I116" s="15">
         <v>30934</v>
       </c>
-      <c r="I116" s="15">
-        <v>30797</v>
-      </c>
       <c r="J116" s="15">
-        <v>30862</v>
+        <v>30715</v>
       </c>
       <c r="K116" s="15">
-        <v>944600</v>
+        <v>1183300</v>
       </c>
       <c r="L116" s="15">
         <f t="shared" si="14"/>
-        <v>186347507500</v>
+        <v>215028928500</v>
       </c>
       <c r="M116" s="15">
         <f t="shared" si="13"/>
-        <v>29152245200</v>
+        <v>36345059500</v>
       </c>
       <c r="N116" s="17">
-        <v>26570</v>
+        <v>26477</v>
       </c>
       <c r="O116" s="17">
-        <v>31105</v>
+        <v>31243</v>
       </c>
       <c r="P116" s="15">
-        <v>26477</v>
+        <v>26548</v>
       </c>
       <c r="Q116" s="17">
-        <v>31243</v>
+        <v>30691</v>
       </c>
       <c r="R116" s="15"/>
       <c r="S116" s="15"/>
       <c r="T116" s="15"/>
       <c r="U116" s="15"/>
       <c r="V116" s="53">
-        <v>27320</v>
+        <v>27370</v>
       </c>
       <c r="X116" s="17">
-        <v>27130</v>
+        <v>27250</v>
       </c>
       <c r="Y116" s="17">
-        <v>32247</v>
+        <v>32333</v>
       </c>
       <c r="Z116" s="15"/>
       <c r="AA116" s="15"/>
@@ -47239,658 +48056,953 @@
       <c r="BG116" s="16"/>
       <c r="BH116" s="16"/>
     </row>
-    <row r="117" spans="1:62" s="32" customFormat="1" ht="21" customHeight="1">
-      <c r="A117" s="30"/>
-      <c r="B117" s="4" t="s">
+    <row r="117" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
+      <c r="A117" s="14"/>
+      <c r="B117" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C117" s="15">
+        <v>10</v>
+      </c>
+      <c r="D117" s="50">
+        <v>26215</v>
+      </c>
+      <c r="E117" s="15">
+        <v>26307</v>
+      </c>
+      <c r="F117" s="15">
+        <v>26285</v>
+      </c>
+      <c r="G117" s="15">
+        <v>7089500</v>
+      </c>
+      <c r="H117" s="15">
+        <v>30934</v>
+      </c>
+      <c r="I117" s="15">
+        <v>30797</v>
+      </c>
+      <c r="J117" s="15">
+        <v>30862</v>
+      </c>
+      <c r="K117" s="15">
+        <v>944600</v>
+      </c>
+      <c r="L117" s="15">
+        <f t="shared" si="14"/>
+        <v>186347507500</v>
+      </c>
+      <c r="M117" s="15">
+        <f t="shared" si="13"/>
+        <v>29152245200</v>
+      </c>
+      <c r="N117" s="17">
+        <v>26570</v>
+      </c>
+      <c r="O117" s="17">
+        <v>31105</v>
+      </c>
+      <c r="P117" s="15">
+        <v>26477</v>
+      </c>
+      <c r="Q117" s="17">
+        <v>31243</v>
+      </c>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="53">
+        <v>27320</v>
+      </c>
+      <c r="X117" s="17">
+        <v>27130</v>
+      </c>
+      <c r="Y117" s="17">
+        <v>32247</v>
+      </c>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AI117" s="15"/>
+      <c r="AJ117" s="15"/>
+      <c r="AK117" s="15"/>
+      <c r="AL117" s="15"/>
+      <c r="AM117" s="15"/>
+      <c r="AN117" s="15"/>
+      <c r="AO117" s="15"/>
+      <c r="AP117" s="15"/>
+      <c r="AQ117" s="15"/>
+      <c r="AR117" s="15"/>
+      <c r="AS117" s="50"/>
+      <c r="AT117" s="50"/>
+      <c r="AU117" s="50"/>
+      <c r="AV117" s="50"/>
+      <c r="AW117" s="50"/>
+      <c r="AX117" s="50"/>
+      <c r="AY117" s="15"/>
+      <c r="AZ117" s="15"/>
+      <c r="BA117" s="15"/>
+      <c r="BB117" s="15"/>
+      <c r="BC117" s="15"/>
+      <c r="BE117" s="16"/>
+      <c r="BF117" s="16"/>
+      <c r="BG117" s="16"/>
+      <c r="BH117" s="16"/>
+    </row>
+    <row r="118" spans="1:62" s="75" customFormat="1" ht="21" customHeight="1">
+      <c r="A118" s="72"/>
+      <c r="B118" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="73">
+        <v>11</v>
+      </c>
+      <c r="D118" s="74">
+        <v>26261</v>
+      </c>
+      <c r="E118" s="73">
+        <v>26408</v>
+      </c>
+      <c r="F118" s="73">
+        <v>26353</v>
+      </c>
+      <c r="G118" s="73">
+        <v>5094700</v>
+      </c>
+      <c r="H118" s="73">
+        <v>30797</v>
+      </c>
+      <c r="I118" s="73">
+        <v>31052</v>
+      </c>
+      <c r="J118" s="73">
+        <v>30846</v>
+      </c>
+      <c r="K118" s="73">
+        <v>577000</v>
+      </c>
+      <c r="L118" s="73">
+        <f t="shared" si="14"/>
+        <v>134260629100</v>
+      </c>
+      <c r="M118" s="73">
+        <f t="shared" si="13"/>
+        <v>17798142000</v>
+      </c>
+      <c r="N118" s="75">
+        <v>26672</v>
+      </c>
+      <c r="O118" s="75">
+        <v>31362</v>
+      </c>
+      <c r="P118" s="73">
+        <v>26523</v>
+      </c>
+      <c r="Q118" s="75">
+        <v>31105</v>
+      </c>
+      <c r="R118" s="73"/>
+      <c r="S118" s="73"/>
+      <c r="T118" s="73"/>
+      <c r="U118" s="73"/>
+      <c r="V118" s="77"/>
+      <c r="X118" s="75">
+        <v>27190</v>
+      </c>
+      <c r="Y118" s="75">
+        <v>32300</v>
+      </c>
+      <c r="Z118" s="73"/>
+      <c r="AA118" s="73"/>
+      <c r="AB118" s="73"/>
+      <c r="AC118" s="73"/>
+      <c r="AD118" s="73"/>
+      <c r="AE118" s="73"/>
+      <c r="AF118" s="73"/>
+      <c r="AG118" s="73"/>
+      <c r="AH118" s="73"/>
+      <c r="AI118" s="73"/>
+      <c r="AJ118" s="73"/>
+      <c r="AK118" s="73"/>
+      <c r="AL118" s="73"/>
+      <c r="AM118" s="73"/>
+      <c r="AN118" s="73"/>
+      <c r="AO118" s="73"/>
+      <c r="AP118" s="73"/>
+      <c r="AQ118" s="73"/>
+      <c r="AR118" s="73"/>
+      <c r="AS118" s="74"/>
+      <c r="AT118" s="74"/>
+      <c r="AU118" s="74"/>
+      <c r="AV118" s="74"/>
+      <c r="AW118" s="74"/>
+      <c r="AX118" s="74"/>
+      <c r="AY118" s="73"/>
+      <c r="AZ118" s="73"/>
+      <c r="BA118" s="73"/>
+      <c r="BB118" s="73"/>
+      <c r="BC118" s="73"/>
+      <c r="BE118" s="76"/>
+      <c r="BF118" s="76"/>
+      <c r="BG118" s="76"/>
+      <c r="BH118" s="76"/>
+    </row>
+    <row r="119" spans="1:62" s="32" customFormat="1" ht="21" customHeight="1">
+      <c r="A119" s="30"/>
+      <c r="B119" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C119" s="4">
         <v>13</v>
       </c>
-      <c r="D117" s="19">
+      <c r="D119" s="19">
         <v>26408</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E119" s="4">
         <v>26500</v>
       </c>
-      <c r="F117" s="4">
+      <c r="F119" s="4">
         <v>26424</v>
       </c>
-      <c r="G117" s="4">
+      <c r="G119" s="4">
         <v>6055600</v>
       </c>
-      <c r="H117" s="4">
+      <c r="H119" s="4">
         <v>31052</v>
       </c>
-      <c r="I117" s="4">
+      <c r="I119" s="4">
         <v>30992</v>
       </c>
-      <c r="J117" s="4">
+      <c r="J119" s="4">
         <v>31080</v>
       </c>
-      <c r="K117" s="4">
+      <c r="K119" s="4">
         <v>857400</v>
       </c>
-      <c r="L117" s="4">
+      <c r="L119" s="4">
         <f t="shared" si="14"/>
         <v>160013174400</v>
       </c>
-      <c r="M117" s="4">
+      <c r="M119" s="4">
         <f t="shared" si="13"/>
         <v>26647992000</v>
       </c>
-      <c r="N117" s="32">
+      <c r="N119" s="32">
         <v>26765</v>
       </c>
-      <c r="O117" s="32">
+      <c r="O119" s="32">
         <v>31302</v>
       </c>
-      <c r="P117" s="4">
+      <c r="P119" s="4">
         <v>26672</v>
       </c>
-      <c r="Q117" s="32">
+      <c r="Q119" s="32">
         <v>31362</v>
       </c>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
-      <c r="V117" s="49">
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="49">
         <v>27170</v>
       </c>
-      <c r="X117" s="32">
+      <c r="X119" s="32">
         <v>27050</v>
       </c>
-      <c r="Y117" s="32">
+      <c r="Y119" s="32">
         <v>32273</v>
       </c>
-      <c r="Z117" s="4"/>
-      <c r="AA117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-      <c r="AD117" s="4"/>
-      <c r="AE117" s="4"/>
-      <c r="AF117" s="4"/>
-      <c r="AG117" s="4"/>
-      <c r="AH117" s="4"/>
-      <c r="AI117" s="4"/>
-      <c r="AJ117" s="4"/>
-      <c r="AK117" s="4"/>
-      <c r="AL117" s="4"/>
-      <c r="AM117" s="4"/>
-      <c r="AN117" s="4"/>
-      <c r="AO117" s="4"/>
-      <c r="AP117" s="4"/>
-      <c r="AQ117" s="4"/>
-      <c r="AR117" s="4"/>
-      <c r="AS117" s="19"/>
-      <c r="AT117" s="19"/>
-      <c r="AU117" s="19"/>
-      <c r="AV117" s="19"/>
-      <c r="AW117" s="19"/>
-      <c r="AX117" s="19"/>
-      <c r="AY117" s="4"/>
-      <c r="AZ117" s="4"/>
-      <c r="BA117" s="4"/>
-      <c r="BB117" s="4"/>
-      <c r="BC117" s="4"/>
-      <c r="BE117" s="31"/>
-      <c r="BF117" s="31"/>
-      <c r="BG117" s="31"/>
-      <c r="BH117" s="31"/>
-    </row>
-    <row r="118" spans="1:62" s="63" customFormat="1" ht="21" customHeight="1">
-      <c r="A118" s="60"/>
-      <c r="B118" s="61" t="s">
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4"/>
+      <c r="AF119" s="4"/>
+      <c r="AG119" s="4"/>
+      <c r="AH119" s="4"/>
+      <c r="AI119" s="4"/>
+      <c r="AJ119" s="4"/>
+      <c r="AK119" s="4"/>
+      <c r="AL119" s="4"/>
+      <c r="AM119" s="4"/>
+      <c r="AN119" s="4"/>
+      <c r="AO119" s="4"/>
+      <c r="AP119" s="4"/>
+      <c r="AQ119" s="4"/>
+      <c r="AR119" s="4"/>
+      <c r="AS119" s="19"/>
+      <c r="AT119" s="19"/>
+      <c r="AU119" s="19"/>
+      <c r="AV119" s="19"/>
+      <c r="AW119" s="19"/>
+      <c r="AX119" s="19"/>
+      <c r="AY119" s="4"/>
+      <c r="AZ119" s="4"/>
+      <c r="BA119" s="4"/>
+      <c r="BB119" s="4"/>
+      <c r="BC119" s="4"/>
+      <c r="BE119" s="31"/>
+      <c r="BF119" s="31"/>
+      <c r="BG119" s="31"/>
+      <c r="BH119" s="31"/>
+    </row>
+    <row r="120" spans="1:62" s="63" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="60"/>
+      <c r="B120" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="C118" s="61">
+      <c r="C120" s="61">
         <v>14</v>
       </c>
-      <c r="D118" s="62">
+      <c r="D120" s="62">
         <v>26441</v>
       </c>
-      <c r="E118" s="61">
+      <c r="E120" s="61">
         <v>26423</v>
       </c>
-      <c r="F118" s="61">
+      <c r="F120" s="61">
         <v>26453</v>
       </c>
-      <c r="G118" s="61">
+      <c r="G120" s="61">
         <v>6934900</v>
       </c>
-      <c r="H118" s="61">
+      <c r="H120" s="61">
         <v>31300</v>
       </c>
-      <c r="I118" s="61">
+      <c r="I120" s="61">
         <v>31047</v>
       </c>
-      <c r="J118" s="61">
+      <c r="J120" s="61">
         <v>31045</v>
       </c>
-      <c r="K118" s="61">
+      <c r="K120" s="61">
         <v>1267000</v>
       </c>
-      <c r="L118" s="61">
+      <c r="L120" s="61">
         <f t="shared" si="14"/>
         <v>183448909700</v>
       </c>
-      <c r="M118" s="61">
+      <c r="M120" s="61">
         <f t="shared" si="13"/>
         <v>39334015000</v>
       </c>
-      <c r="N118" s="63">
+      <c r="N120" s="63">
         <v>26687</v>
       </c>
-      <c r="O118" s="63">
+      <c r="O120" s="63">
         <v>31358</v>
       </c>
-      <c r="P118" s="61">
+      <c r="P120" s="61">
         <v>26705</v>
       </c>
-      <c r="Q118" s="63">
+      <c r="Q120" s="63">
         <v>31613</v>
       </c>
-      <c r="R118" s="61"/>
-      <c r="S118" s="61"/>
-      <c r="T118" s="61"/>
-      <c r="U118" s="61"/>
-      <c r="V118" s="64">
+      <c r="R120" s="61"/>
+      <c r="S120" s="61"/>
+      <c r="T120" s="61"/>
+      <c r="U120" s="61"/>
+      <c r="V120" s="64">
         <v>27170</v>
       </c>
-      <c r="X118" s="63">
+      <c r="X120" s="63">
         <v>27190</v>
       </c>
-      <c r="Y118" s="63">
+      <c r="Y120" s="63">
         <v>32356</v>
       </c>
-      <c r="Z118" s="61"/>
-      <c r="AA118" s="61"/>
-      <c r="AB118" s="61"/>
-      <c r="AC118" s="61"/>
-      <c r="AD118" s="61"/>
-      <c r="AE118" s="61"/>
-      <c r="AF118" s="61"/>
-      <c r="AG118" s="61"/>
-      <c r="AH118" s="61"/>
-      <c r="AI118" s="61"/>
-      <c r="AJ118" s="61"/>
-      <c r="AK118" s="61"/>
-      <c r="AL118" s="61"/>
-      <c r="AM118" s="61"/>
-      <c r="AN118" s="61"/>
-      <c r="AO118" s="61"/>
-      <c r="AP118" s="61"/>
-      <c r="AQ118" s="61"/>
-      <c r="AR118" s="61"/>
-      <c r="AS118" s="62"/>
-      <c r="AT118" s="62"/>
-      <c r="AU118" s="62"/>
-      <c r="AV118" s="62"/>
-      <c r="AW118" s="62"/>
-      <c r="AX118" s="62"/>
-      <c r="AY118" s="61"/>
-      <c r="AZ118" s="61"/>
-      <c r="BA118" s="61"/>
-      <c r="BB118" s="61"/>
-      <c r="BC118" s="61"/>
-      <c r="BE118" s="65"/>
-      <c r="BF118" s="65"/>
-      <c r="BG118" s="65"/>
-      <c r="BH118" s="65"/>
-    </row>
-    <row r="119" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A119" s="66"/>
-      <c r="B119" s="67" t="s">
+      <c r="Z120" s="61"/>
+      <c r="AA120" s="61"/>
+      <c r="AB120" s="61"/>
+      <c r="AC120" s="61"/>
+      <c r="AD120" s="61"/>
+      <c r="AE120" s="61"/>
+      <c r="AF120" s="61"/>
+      <c r="AG120" s="61"/>
+      <c r="AH120" s="61"/>
+      <c r="AI120" s="61"/>
+      <c r="AJ120" s="61"/>
+      <c r="AK120" s="61"/>
+      <c r="AL120" s="61"/>
+      <c r="AM120" s="61"/>
+      <c r="AN120" s="61"/>
+      <c r="AO120" s="61"/>
+      <c r="AP120" s="61"/>
+      <c r="AQ120" s="61"/>
+      <c r="AR120" s="61"/>
+      <c r="AS120" s="62"/>
+      <c r="AT120" s="62"/>
+      <c r="AU120" s="62"/>
+      <c r="AV120" s="62"/>
+      <c r="AW120" s="62"/>
+      <c r="AX120" s="62"/>
+      <c r="AY120" s="61"/>
+      <c r="AZ120" s="61"/>
+      <c r="BA120" s="61"/>
+      <c r="BB120" s="61"/>
+      <c r="BC120" s="61"/>
+      <c r="BE120" s="65"/>
+      <c r="BF120" s="65"/>
+      <c r="BG120" s="65"/>
+      <c r="BH120" s="65"/>
+    </row>
+    <row r="121" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="66"/>
+      <c r="B121" s="67" t="s">
         <v>317</v>
       </c>
-      <c r="C119" s="67">
+      <c r="C121" s="67">
         <v>15</v>
       </c>
-      <c r="D119" s="68">
+      <c r="D121" s="68">
         <v>26450</v>
       </c>
-      <c r="E119" s="67">
+      <c r="E121" s="67">
         <v>26328</v>
       </c>
-      <c r="F119" s="67">
+      <c r="F121" s="67">
         <v>26359</v>
       </c>
-      <c r="G119" s="67">
+      <c r="G121" s="67">
         <v>5658100</v>
       </c>
-      <c r="H119" s="67">
+      <c r="H121" s="67">
         <v>30950</v>
       </c>
-      <c r="I119" s="67">
+      <c r="I121" s="67">
         <v>31104</v>
       </c>
-      <c r="J119" s="67">
+      <c r="J121" s="67">
         <v>31137</v>
       </c>
-      <c r="K119" s="67">
+      <c r="K121" s="67">
         <v>702100</v>
       </c>
-      <c r="L119" s="67">
+      <c r="L121" s="67">
         <f t="shared" si="14"/>
         <v>149141857900</v>
       </c>
-      <c r="M119" s="67">
+      <c r="M121" s="67">
         <f t="shared" si="13"/>
         <v>21861287700</v>
       </c>
-      <c r="N119" s="69">
+      <c r="N121" s="69">
         <v>26591</v>
       </c>
-      <c r="O119" s="69">
+      <c r="O121" s="69">
         <v>31415</v>
       </c>
-      <c r="P119" s="67">
+      <c r="P121" s="67">
         <v>26714</v>
       </c>
-      <c r="Q119" s="69">
+      <c r="Q121" s="69">
         <v>31259</v>
       </c>
-      <c r="R119" s="67"/>
-      <c r="S119" s="67"/>
-      <c r="T119" s="67"/>
-      <c r="U119" s="67"/>
-      <c r="V119" s="70">
+      <c r="R121" s="67"/>
+      <c r="S121" s="67"/>
+      <c r="T121" s="67"/>
+      <c r="U121" s="67"/>
+      <c r="V121" s="70">
         <v>27070</v>
       </c>
-      <c r="X119" s="69">
+      <c r="X121" s="69">
         <v>27010</v>
       </c>
-      <c r="Y119" s="69">
+      <c r="Y121" s="69">
         <v>32081</v>
       </c>
-      <c r="Z119" s="67"/>
-      <c r="AA119" s="67"/>
-      <c r="AB119" s="67"/>
-      <c r="AC119" s="67"/>
-      <c r="AD119" s="67"/>
-      <c r="AE119" s="67"/>
-      <c r="AF119" s="67"/>
-      <c r="AG119" s="67"/>
-      <c r="AH119" s="67"/>
-      <c r="AI119" s="67"/>
-      <c r="AJ119" s="67"/>
-      <c r="AK119" s="67"/>
-      <c r="AL119" s="67"/>
-      <c r="AM119" s="67"/>
-      <c r="AN119" s="67"/>
-      <c r="AO119" s="67"/>
-      <c r="AP119" s="67"/>
-      <c r="AQ119" s="67"/>
-      <c r="AR119" s="67"/>
-      <c r="AS119" s="68"/>
-      <c r="AT119" s="68"/>
-      <c r="AU119" s="68"/>
-      <c r="AV119" s="68"/>
-      <c r="AW119" s="68"/>
-      <c r="AX119" s="68"/>
-      <c r="AY119" s="67"/>
-      <c r="AZ119" s="67"/>
-      <c r="BA119" s="67"/>
-      <c r="BB119" s="67"/>
-      <c r="BC119" s="67"/>
-      <c r="BE119" s="71"/>
-      <c r="BF119" s="71"/>
-      <c r="BG119" s="71"/>
-      <c r="BH119" s="71"/>
-    </row>
-    <row r="120" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="66"/>
-      <c r="B120" s="67" t="s">
+      <c r="Z121" s="67"/>
+      <c r="AA121" s="67"/>
+      <c r="AB121" s="67"/>
+      <c r="AC121" s="67"/>
+      <c r="AD121" s="67"/>
+      <c r="AE121" s="67"/>
+      <c r="AF121" s="67"/>
+      <c r="AG121" s="67"/>
+      <c r="AH121" s="67"/>
+      <c r="AI121" s="67"/>
+      <c r="AJ121" s="67"/>
+      <c r="AK121" s="67"/>
+      <c r="AL121" s="67"/>
+      <c r="AM121" s="67"/>
+      <c r="AN121" s="67"/>
+      <c r="AO121" s="67"/>
+      <c r="AP121" s="67"/>
+      <c r="AQ121" s="67"/>
+      <c r="AR121" s="67"/>
+      <c r="AS121" s="68"/>
+      <c r="AT121" s="68"/>
+      <c r="AU121" s="68"/>
+      <c r="AV121" s="68"/>
+      <c r="AW121" s="68"/>
+      <c r="AX121" s="68"/>
+      <c r="AY121" s="67"/>
+      <c r="AZ121" s="67"/>
+      <c r="BA121" s="67"/>
+      <c r="BB121" s="67"/>
+      <c r="BC121" s="67"/>
+      <c r="BE121" s="71"/>
+      <c r="BF121" s="71"/>
+      <c r="BG121" s="71"/>
+      <c r="BH121" s="71"/>
+    </row>
+    <row r="122" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="66"/>
+      <c r="B122" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="C120" s="67">
+      <c r="C122" s="67">
         <v>16</v>
       </c>
-      <c r="D120" s="68">
+      <c r="D122" s="68">
         <v>26570</v>
       </c>
-      <c r="E120" s="67">
+      <c r="E122" s="67">
         <v>26360</v>
       </c>
-      <c r="F120" s="67">
+      <c r="F122" s="67">
         <v>26384</v>
       </c>
-      <c r="G120" s="67">
+      <c r="G122" s="67">
         <v>7781600</v>
       </c>
-      <c r="H120" s="67">
+      <c r="H122" s="67">
         <v>31212</v>
       </c>
-      <c r="I120" s="67">
+      <c r="I122" s="67">
         <v>31350</v>
       </c>
-      <c r="J120" s="67">
+      <c r="J122" s="67">
         <v>31111</v>
       </c>
-      <c r="K120" s="67">
+      <c r="K122" s="67">
         <v>1167200</v>
       </c>
-      <c r="L120" s="67">
+      <c r="L122" s="67">
         <f t="shared" si="14"/>
         <v>205309734400</v>
       </c>
-      <c r="M120" s="67">
+      <c r="M122" s="67">
         <f t="shared" si="13"/>
         <v>36312759200</v>
       </c>
-      <c r="N120" s="69">
+      <c r="N122" s="69">
         <v>26623</v>
       </c>
-      <c r="O120" s="69">
+      <c r="O122" s="69">
         <v>31663</v>
       </c>
-      <c r="P120" s="67">
+      <c r="P122" s="67">
         <v>26836</v>
       </c>
-      <c r="Q120" s="69">
+      <c r="Q122" s="69">
         <v>31525</v>
       </c>
-      <c r="R120" s="67"/>
-      <c r="S120" s="67"/>
-      <c r="T120" s="67"/>
-      <c r="U120" s="67"/>
-      <c r="V120" s="69">
+      <c r="R122" s="67"/>
+      <c r="S122" s="67"/>
+      <c r="T122" s="67"/>
+      <c r="U122" s="67"/>
+      <c r="V122" s="69">
         <v>27180</v>
       </c>
-      <c r="X120" s="69">
+      <c r="X122" s="69">
         <v>27120</v>
       </c>
-      <c r="Y120" s="69">
+      <c r="Y122" s="69">
         <v>32297</v>
       </c>
-      <c r="Z120" s="67"/>
-      <c r="AA120" s="67"/>
-      <c r="AB120" s="67"/>
-      <c r="AC120" s="67"/>
-      <c r="AD120" s="67"/>
-      <c r="AE120" s="67"/>
-      <c r="AF120" s="67"/>
-      <c r="AG120" s="67"/>
-      <c r="AH120" s="67"/>
-      <c r="AI120" s="67"/>
-      <c r="AJ120" s="67"/>
-      <c r="AK120" s="67"/>
-      <c r="AL120" s="67"/>
-      <c r="AM120" s="67"/>
-      <c r="AN120" s="67"/>
-      <c r="AO120" s="67"/>
-      <c r="AP120" s="67"/>
-      <c r="AQ120" s="67"/>
-      <c r="AR120" s="67"/>
-      <c r="AS120" s="68"/>
-      <c r="AT120" s="68"/>
-      <c r="AU120" s="68"/>
-      <c r="AV120" s="68"/>
-      <c r="AW120" s="68"/>
-      <c r="AX120" s="68"/>
-      <c r="AY120" s="67"/>
-      <c r="AZ120" s="67"/>
-      <c r="BA120" s="67"/>
-      <c r="BB120" s="67"/>
-      <c r="BC120" s="67"/>
-      <c r="BE120" s="71"/>
-      <c r="BF120" s="71"/>
-      <c r="BG120" s="71"/>
-      <c r="BH120" s="71"/>
-    </row>
-    <row r="121" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="55"/>
-      <c r="B121" s="56" t="s">
+      <c r="Z122" s="67"/>
+      <c r="AA122" s="67"/>
+      <c r="AB122" s="67"/>
+      <c r="AC122" s="67"/>
+      <c r="AD122" s="67"/>
+      <c r="AE122" s="67"/>
+      <c r="AF122" s="67"/>
+      <c r="AG122" s="67"/>
+      <c r="AH122" s="67"/>
+      <c r="AI122" s="67"/>
+      <c r="AJ122" s="67"/>
+      <c r="AK122" s="67"/>
+      <c r="AL122" s="67"/>
+      <c r="AM122" s="67"/>
+      <c r="AN122" s="67"/>
+      <c r="AO122" s="67"/>
+      <c r="AP122" s="67"/>
+      <c r="AQ122" s="67"/>
+      <c r="AR122" s="67"/>
+      <c r="AS122" s="68"/>
+      <c r="AT122" s="68"/>
+      <c r="AU122" s="68"/>
+      <c r="AV122" s="68"/>
+      <c r="AW122" s="68"/>
+      <c r="AX122" s="68"/>
+      <c r="AY122" s="67"/>
+      <c r="AZ122" s="67"/>
+      <c r="BA122" s="67"/>
+      <c r="BB122" s="67"/>
+      <c r="BC122" s="67"/>
+      <c r="BE122" s="71"/>
+      <c r="BF122" s="71"/>
+      <c r="BG122" s="71"/>
+      <c r="BH122" s="71"/>
+    </row>
+    <row r="123" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="66"/>
+      <c r="B123" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="C121" s="56">
+      <c r="C123" s="67">
         <v>17</v>
       </c>
-      <c r="D121" s="57">
+      <c r="D123" s="68">
         <v>26681</v>
       </c>
-      <c r="E121" s="56">
+      <c r="E123" s="67">
         <v>26582</v>
       </c>
-      <c r="F121" s="56">
+      <c r="F123" s="67">
         <v>26514</v>
       </c>
-      <c r="G121" s="56">
+      <c r="G123" s="67">
         <v>10053900</v>
       </c>
-      <c r="H121" s="56">
+      <c r="H123" s="67">
         <v>31234</v>
       </c>
-      <c r="I121" s="56">
+      <c r="I123" s="67">
         <v>31217</v>
       </c>
-      <c r="J121" s="56">
+      <c r="J123" s="67">
         <v>31159</v>
       </c>
-      <c r="K121" s="56">
+      <c r="K123" s="67">
         <v>1549100</v>
       </c>
-      <c r="L121" s="67">
+      <c r="L123" s="67">
         <f t="shared" si="14"/>
         <v>266569104600</v>
       </c>
-      <c r="M121" s="67">
+      <c r="M123" s="67">
         <f t="shared" si="13"/>
         <v>48268406900</v>
       </c>
-      <c r="N121" s="58">
+      <c r="N123" s="69">
         <v>26852</v>
       </c>
-      <c r="O121" s="58">
+      <c r="O123" s="69">
         <v>31530</v>
       </c>
-      <c r="P121" s="56">
+      <c r="P123" s="67">
         <v>26948</v>
       </c>
-      <c r="Q121" s="58">
+      <c r="Q123" s="69">
         <v>31547</v>
       </c>
-      <c r="R121" s="56"/>
-      <c r="S121" s="56"/>
-      <c r="T121" s="56"/>
-      <c r="U121" s="56"/>
-      <c r="V121" s="58">
+      <c r="R123" s="67"/>
+      <c r="S123" s="67"/>
+      <c r="T123" s="67"/>
+      <c r="U123" s="67"/>
+      <c r="V123" s="69">
         <v>27570</v>
       </c>
-      <c r="X121" s="58">
+      <c r="X123" s="69">
         <v>27530</v>
       </c>
-      <c r="Y121" s="58">
+      <c r="Y123" s="69">
         <v>32539</v>
       </c>
-      <c r="Z121" s="56"/>
-      <c r="AA121" s="56"/>
-      <c r="AB121" s="56"/>
-      <c r="AC121" s="56"/>
-      <c r="AD121" s="56"/>
-      <c r="AE121" s="56"/>
-      <c r="AF121" s="56"/>
-      <c r="AG121" s="56"/>
-      <c r="AH121" s="56"/>
-      <c r="AI121" s="56"/>
-      <c r="AJ121" s="56"/>
-      <c r="AK121" s="56"/>
-      <c r="AL121" s="56"/>
-      <c r="AM121" s="56"/>
-      <c r="AN121" s="56"/>
-      <c r="AO121" s="56"/>
-      <c r="AP121" s="56"/>
-      <c r="AQ121" s="56"/>
-      <c r="AR121" s="56"/>
-      <c r="AS121" s="57"/>
-      <c r="AT121" s="57"/>
-      <c r="AU121" s="57"/>
-      <c r="AV121" s="57"/>
-      <c r="AW121" s="57"/>
-      <c r="AX121" s="57"/>
-      <c r="AY121" s="56"/>
-      <c r="AZ121" s="56"/>
-      <c r="BA121" s="56"/>
-      <c r="BB121" s="56"/>
-      <c r="BC121" s="56"/>
-      <c r="BE121" s="59"/>
-      <c r="BF121" s="59"/>
-      <c r="BG121" s="59"/>
-      <c r="BH121" s="59"/>
-    </row>
-    <row r="122" spans="1:62" ht="18">
-      <c r="A122" s="6"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7">
-        <f>SUM(G2:G119)/118</f>
-        <v>5801599.1440677969</v>
-      </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7">
-        <f>SUM(K2:K119)</f>
-        <v>118038800</v>
-      </c>
-      <c r="L122" s="7">
-        <f>SUM(L2:L120)</f>
-        <v>16578502169009</v>
-      </c>
-      <c r="M122" s="4">
-        <f>SUM(M2:M120)</f>
-        <v>3365919895100</v>
-      </c>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-      <c r="P122" s="4"/>
-      <c r="Q122" s="4"/>
-      <c r="R122" s="4"/>
-      <c r="S122" s="4"/>
-      <c r="T122" s="4"/>
-      <c r="U122" s="4"/>
-      <c r="W122" s="4"/>
-      <c r="Y122" s="4"/>
-      <c r="Z122" s="4"/>
-      <c r="AA122" s="4"/>
-      <c r="AB122" s="4"/>
-      <c r="AC122" s="4"/>
-      <c r="AD122" s="4"/>
-      <c r="AE122" s="4"/>
-      <c r="AF122" s="4"/>
-      <c r="AG122" s="4"/>
-      <c r="AH122" s="4"/>
-      <c r="AI122" s="4"/>
-      <c r="AJ122" s="4"/>
-      <c r="AK122" s="4"/>
-      <c r="AL122" s="4"/>
-      <c r="AM122" s="4"/>
-      <c r="AN122" s="4"/>
-      <c r="AO122" s="4"/>
-      <c r="AP122" s="4"/>
-      <c r="AQ122" s="4"/>
-      <c r="AR122" s="4"/>
-      <c r="AY122" s="4"/>
-      <c r="AZ122" s="4"/>
-      <c r="BA122" s="4"/>
-      <c r="BB122" s="4"/>
-      <c r="BC122" s="4"/>
-      <c r="BD122" s="4"/>
-      <c r="BE122" s="3"/>
-      <c r="BF122" s="3"/>
-      <c r="BG122" s="3"/>
-      <c r="BH122" s="3"/>
-      <c r="BI122" t="e">
-        <f>#REF!-N122</f>
+      <c r="Z123" s="67"/>
+      <c r="AA123" s="67"/>
+      <c r="AB123" s="67"/>
+      <c r="AC123" s="67"/>
+      <c r="AD123" s="67"/>
+      <c r="AE123" s="67"/>
+      <c r="AF123" s="67"/>
+      <c r="AG123" s="67"/>
+      <c r="AH123" s="67"/>
+      <c r="AI123" s="67"/>
+      <c r="AJ123" s="67"/>
+      <c r="AK123" s="67"/>
+      <c r="AL123" s="67"/>
+      <c r="AM123" s="67"/>
+      <c r="AN123" s="67"/>
+      <c r="AO123" s="67"/>
+      <c r="AP123" s="67"/>
+      <c r="AQ123" s="67"/>
+      <c r="AR123" s="67"/>
+      <c r="AS123" s="68"/>
+      <c r="AT123" s="68"/>
+      <c r="AU123" s="68"/>
+      <c r="AV123" s="68"/>
+      <c r="AW123" s="68"/>
+      <c r="AX123" s="68"/>
+      <c r="AY123" s="67"/>
+      <c r="AZ123" s="67"/>
+      <c r="BA123" s="67"/>
+      <c r="BB123" s="67"/>
+      <c r="BC123" s="67"/>
+      <c r="BE123" s="71"/>
+      <c r="BF123" s="71"/>
+      <c r="BG123" s="71"/>
+      <c r="BH123" s="71"/>
+    </row>
+    <row r="124" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A124" s="55"/>
+      <c r="B124" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="C124" s="56">
+        <v>18</v>
+      </c>
+      <c r="D124" s="57">
+        <v>26670</v>
+      </c>
+      <c r="E124" s="56">
+        <v>26624</v>
+      </c>
+      <c r="F124" s="56">
+        <v>26589</v>
+      </c>
+      <c r="G124" s="56">
+        <v>6494700</v>
+      </c>
+      <c r="H124" s="56">
+        <v>31310</v>
+      </c>
+      <c r="I124" s="56">
+        <v>31234</v>
+      </c>
+      <c r="J124" s="56">
+        <v>31217</v>
+      </c>
+      <c r="K124" s="56">
+        <v>1009100</v>
+      </c>
+      <c r="L124" s="67">
+        <f t="shared" si="14"/>
+        <v>172687578300</v>
+      </c>
+      <c r="M124" s="67">
+        <f t="shared" si="13"/>
+        <v>31501074700</v>
+      </c>
+      <c r="N124" s="58">
+        <v>26936</v>
+      </c>
+      <c r="O124" s="58">
+        <v>31623</v>
+      </c>
+      <c r="P124" s="56">
+        <v>26890</v>
+      </c>
+      <c r="Q124" s="58">
+        <v>31547</v>
+      </c>
+      <c r="R124" s="56"/>
+      <c r="S124" s="56"/>
+      <c r="T124" s="56"/>
+      <c r="U124" s="56"/>
+      <c r="X124" s="58">
+        <v>27820</v>
+      </c>
+      <c r="Y124" s="58">
+        <v>32696</v>
+      </c>
+      <c r="Z124" s="56"/>
+      <c r="AA124" s="56"/>
+      <c r="AB124" s="56"/>
+      <c r="AC124" s="56"/>
+      <c r="AD124" s="56"/>
+      <c r="AE124" s="56"/>
+      <c r="AF124" s="56"/>
+      <c r="AG124" s="56"/>
+      <c r="AH124" s="56"/>
+      <c r="AI124" s="56"/>
+      <c r="AJ124" s="56"/>
+      <c r="AK124" s="56"/>
+      <c r="AL124" s="56"/>
+      <c r="AM124" s="56"/>
+      <c r="AN124" s="56"/>
+      <c r="AO124" s="56"/>
+      <c r="AP124" s="56"/>
+      <c r="AQ124" s="56"/>
+      <c r="AR124" s="56"/>
+      <c r="AS124" s="57"/>
+      <c r="AT124" s="57"/>
+      <c r="AU124" s="57"/>
+      <c r="AV124" s="57"/>
+      <c r="AW124" s="57"/>
+      <c r="AX124" s="57"/>
+      <c r="AY124" s="56"/>
+      <c r="AZ124" s="56"/>
+      <c r="BA124" s="56"/>
+      <c r="BB124" s="56"/>
+      <c r="BC124" s="56"/>
+      <c r="BE124" s="59"/>
+      <c r="BF124" s="59"/>
+      <c r="BG124" s="59"/>
+      <c r="BH124" s="59"/>
+    </row>
+    <row r="125" spans="1:62" ht="18">
+      <c r="A125" s="6"/>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7">
+        <f>SUM(G2:G124)</f>
+        <v>717914399</v>
+      </c>
+      <c r="H125" s="7"/>
+      <c r="I125" s="7"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="7">
+        <f>SUM(K2:K124)</f>
+        <v>123379000</v>
+      </c>
+      <c r="L125" s="7">
+        <f>SUM(L2:L124)</f>
+        <v>17258507420209</v>
+      </c>
+      <c r="M125" s="4">
+        <f>SUM(M2:M124)</f>
+        <v>3496349455700</v>
+      </c>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+      <c r="AE125" s="4"/>
+      <c r="AF125" s="4"/>
+      <c r="AG125" s="4"/>
+      <c r="AH125" s="4"/>
+      <c r="AI125" s="4"/>
+      <c r="AJ125" s="4"/>
+      <c r="AK125" s="4"/>
+      <c r="AL125" s="4"/>
+      <c r="AM125" s="4"/>
+      <c r="AN125" s="4"/>
+      <c r="AO125" s="4"/>
+      <c r="AP125" s="4"/>
+      <c r="AQ125" s="4"/>
+      <c r="AR125" s="4"/>
+      <c r="AY125" s="4"/>
+      <c r="AZ125" s="4"/>
+      <c r="BA125" s="4"/>
+      <c r="BB125" s="4"/>
+      <c r="BC125" s="4"/>
+      <c r="BD125" s="4"/>
+      <c r="BE125" s="3"/>
+      <c r="BF125" s="3"/>
+      <c r="BG125" s="3"/>
+      <c r="BH125" s="3"/>
+      <c r="BI125" t="e">
+        <f>#REF!-N125</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ122" t="e">
+      <c r="BJ125" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="123" spans="1:62" ht="18">
-      <c r="D123" s="19"/>
-      <c r="Z123" s="12"/>
-      <c r="AB123" s="12"/>
-      <c r="AS123" s="12"/>
-      <c r="AW123" s="29"/>
-    </row>
-    <row r="124" spans="1:62" ht="18">
-      <c r="D124" s="19"/>
-      <c r="Z124" s="12"/>
-      <c r="AS124" s="19"/>
-      <c r="AW124" s="29"/>
-      <c r="AY124">
+    <row r="126" spans="1:62" ht="18">
+      <c r="D126" s="19"/>
+      <c r="Z126" s="12"/>
+      <c r="AB126" s="12"/>
+      <c r="AS126" s="12"/>
+      <c r="AW126" s="29"/>
+    </row>
+    <row r="127" spans="1:62" ht="18">
+      <c r="D127" s="19"/>
+      <c r="Z127" s="12"/>
+      <c r="AS127" s="19"/>
+      <c r="AW127" s="29"/>
+      <c r="AY127">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="125" spans="1:62" ht="18">
-      <c r="Z125" s="12"/>
-      <c r="AS125" s="19">
+    <row r="128" spans="1:62" ht="18">
+      <c r="Z128" s="12"/>
+      <c r="AS128" s="19">
         <v>10290000</v>
       </c>
-      <c r="AW125" s="29"/>
-      <c r="BB125">
+      <c r="AW128" s="29"/>
+      <c r="BB128">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="126" spans="1:62" ht="18">
-      <c r="G126">
-        <f>(G110-G122)/G122</f>
-        <v>0.62241474570412092</v>
-      </c>
-      <c r="V126" s="12"/>
-      <c r="Z126" s="12"/>
-      <c r="AS126" s="19"/>
-      <c r="AU126">
-        <f>AS125-AS49</f>
+    <row r="129" spans="4:49" ht="18">
+      <c r="G129">
+        <f>(G110-G125)/G125</f>
+        <v>-0.98688896613146215</v>
+      </c>
+      <c r="V129" s="12"/>
+      <c r="Z129" s="12"/>
+      <c r="AS129" s="19"/>
+      <c r="AU129">
+        <f>AS128-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW126" s="29">
+      <c r="AW129" s="29">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="127" spans="1:62" ht="18">
-      <c r="V127" s="12"/>
-      <c r="Z127" s="12"/>
-      <c r="AW127" s="29"/>
-    </row>
-    <row r="128" spans="1:62" ht="17.25" customHeight="1">
-      <c r="F128">
-        <f>(D112-F111)/F111</f>
-        <v>3.7955768081291093E-2</v>
-      </c>
-      <c r="V128" s="12"/>
-      <c r="Z128" s="12"/>
-    </row>
-    <row r="129" spans="4:49" ht="18">
-      <c r="D129">
-        <f>(D112-F111)/F111</f>
-        <v>3.7955768081291093E-2</v>
-      </c>
-      <c r="V129" s="12"/>
-      <c r="Z129" s="12"/>
-      <c r="AW129">
-        <f>AW126/AY51</f>
-        <v>2.9539951573849879E-2</v>
-      </c>
-    </row>
     <row r="130" spans="4:49" ht="18">
       <c r="V130" s="12"/>
-    </row>
-    <row r="131" spans="4:49" ht="18">
+      <c r="Z130" s="12"/>
+      <c r="AW130" s="29"/>
+    </row>
+    <row r="131" spans="4:49" ht="17.25" customHeight="1">
+      <c r="F131">
+        <f>(D113-F111)/F111</f>
+        <v>3.7955768081291093E-2</v>
+      </c>
       <c r="V131" s="12"/>
+      <c r="Z131" s="12"/>
+    </row>
+    <row r="132" spans="4:49" ht="18">
+      <c r="D132">
+        <f>(D113-F111)/F111</f>
+        <v>3.7955768081291093E-2</v>
+      </c>
+      <c r="V132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AW132">
+        <f>AW129/AY51</f>
+        <v>2.9539951573849879E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="4:49" ht="18">
+      <c r="V133" s="12"/>
+    </row>
+    <row r="134" spans="4:49" ht="18">
+      <c r="V134" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL126" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BL129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -47899,10 +49011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -48660,155 +49772,192 @@
         <v>31126</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" s="79" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A22" s="79" t="s">
         <v>299</v>
       </c>
-      <c r="B22">
-        <v>26644</v>
-      </c>
-      <c r="C22">
-        <v>31446</v>
-      </c>
-      <c r="D22">
-        <v>37496400</v>
-      </c>
-      <c r="E22">
-        <f>D22/4</f>
-        <v>9374100</v>
-      </c>
-      <c r="F22">
-        <v>3371200</v>
-      </c>
-      <c r="G22">
-        <f>F22/4</f>
-        <v>842800</v>
-      </c>
-      <c r="H22">
-        <v>26908</v>
-      </c>
-      <c r="I22">
-        <v>31740</v>
-      </c>
-      <c r="J22">
+      <c r="B22" s="79">
+        <v>26705</v>
+      </c>
+      <c r="C22" s="79">
+        <v>31498</v>
+      </c>
+      <c r="D22" s="79">
+        <v>41397200</v>
+      </c>
+      <c r="E22" s="79">
+        <f>D22/5</f>
+        <v>8279440</v>
+      </c>
+      <c r="F22" s="79">
+        <v>4399000</v>
+      </c>
+      <c r="G22" s="79">
+        <f>F22/5</f>
+        <v>879800</v>
+      </c>
+      <c r="H22" s="79">
+        <v>27079</v>
+      </c>
+      <c r="I22" s="79">
+        <v>31815</v>
+      </c>
+      <c r="J22" s="79">
         <v>27648</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="79">
         <v>32496</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" s="32" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A23" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="B23">
-        <v>26657</v>
-      </c>
-      <c r="C23">
-        <v>31227</v>
-      </c>
-      <c r="D23">
-        <v>31542000</v>
-      </c>
-      <c r="E23">
-        <f>D23/5</f>
-        <v>6308400</v>
-      </c>
-      <c r="F23">
-        <v>6567800</v>
-      </c>
-      <c r="G23">
-        <f>F23/5</f>
-        <v>1313560</v>
-      </c>
-      <c r="H23">
-        <v>26837</v>
-      </c>
-      <c r="I23">
-        <v>31393</v>
-      </c>
-      <c r="J23">
+      <c r="B23" s="32">
+        <v>26615</v>
+      </c>
+      <c r="C23" s="32">
+        <v>31196</v>
+      </c>
+      <c r="D23" s="32">
+        <v>36636700</v>
+      </c>
+      <c r="E23" s="32">
+        <f>D23/6</f>
+        <v>6106116.666666667</v>
+      </c>
+      <c r="F23" s="32">
+        <v>7144800</v>
+      </c>
+      <c r="G23" s="32">
+        <f>F23/6</f>
+        <v>1190800</v>
+      </c>
+      <c r="H23" s="32">
+        <v>26810</v>
+      </c>
+      <c r="I23" s="32">
+        <v>31388</v>
+      </c>
+      <c r="J23" s="32">
         <v>27427</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="32">
         <v>32582</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="13.95" customHeight="1">
+      <c r="A24" t="s">
+        <v>329</v>
+      </c>
       <c r="B24">
+        <v>26459</v>
+      </c>
+      <c r="C24">
+        <v>31125</v>
+      </c>
+      <c r="D24">
+        <v>42978800</v>
+      </c>
+      <c r="E24">
+        <f>D24/6</f>
+        <v>7163133.333333333</v>
+      </c>
+      <c r="F24">
+        <v>6551900</v>
+      </c>
+      <c r="G24">
+        <f>F24/6</f>
+        <v>1091983.3333333333</v>
+      </c>
+      <c r="H24">
+        <v>27742</v>
+      </c>
+      <c r="I24">
+        <v>31482</v>
+      </c>
+      <c r="J24">
+        <v>27287</v>
+      </c>
+      <c r="K24">
+        <v>32374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25">
         <f>(B2-B8)/B2</f>
         <v>0.15346494762288476</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <f>(C2-C8)/C2</f>
         <v>0.1154959674639829</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <f>SUM(D2:D16)/15</f>
         <v>29639479.933333334</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="D28">
+    <row r="29" spans="1:11">
+      <c r="D29">
         <v>5375132</v>
       </c>
-      <c r="E28">
-        <f>(E17-D28)/D28</f>
+      <c r="E29">
+        <f>(E17-D29)/D29</f>
         <v>4.5958809321644006E-2</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <f>B3-B2</f>
         <v>-554</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="G29">
-        <f t="shared" ref="G29:G36" si="0">B4-B3</f>
+    <row r="30" spans="1:11">
+      <c r="G30">
+        <f t="shared" ref="G30:G37" si="0">B4-B3</f>
         <v>-302</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="C30">
-        <f>(D28-E16)/E16</f>
+    <row r="31" spans="1:11">
+      <c r="C31">
+        <f>(D29-E16)/E16</f>
         <v>0.17110375179746395</v>
       </c>
-      <c r="G30">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>-511</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>-362</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>-1699</v>
+        <v>-362</v>
       </c>
     </row>
     <row r="33" spans="7:7">
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>-381</v>
+        <v>-1699</v>
       </c>
     </row>
     <row r="34" spans="7:7">
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>1075</v>
+        <v>-381</v>
       </c>
     </row>
     <row r="35" spans="7:7">
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="36" spans="7:7">
       <c r="G36">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>1043</v>
       </c>
@@ -48822,10 +49971,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K700"/>
+  <dimension ref="A1:K711"/>
   <sheetViews>
-    <sheetView topLeftCell="A679" workbookViewId="0">
-      <selection activeCell="C691" sqref="C691"/>
+    <sheetView topLeftCell="A694" workbookViewId="0">
+      <selection activeCell="B570" sqref="B570"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -48839,12 +49988,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -48965,12 +50114,12 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="78" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -49090,12 +50239,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -49210,12 +50359,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -49330,12 +50479,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
@@ -49450,12 +50599,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -49578,12 +50727,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
@@ -49698,12 +50847,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="72"/>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
+      <c r="B71" s="78"/>
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
@@ -49818,12 +50967,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="72"/>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
+      <c r="B81" s="78"/>
+      <c r="C81" s="78"/>
+      <c r="D81" s="78"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
@@ -49960,12 +51109,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="72" t="s">
+      <c r="A93" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="72"/>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
+      <c r="B93" s="78"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="78"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
@@ -50080,12 +51229,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="72" t="s">
+      <c r="A103" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="72"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
+      <c r="B103" s="78"/>
+      <c r="C103" s="78"/>
+      <c r="D103" s="78"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
@@ -50203,12 +51352,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="72" t="s">
+      <c r="A113" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="72"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
+      <c r="B113" s="78"/>
+      <c r="C113" s="78"/>
+      <c r="D113" s="78"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
@@ -50327,12 +51476,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="72" t="s">
+      <c r="A123" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="72"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="72"/>
+      <c r="B123" s="78"/>
+      <c r="C123" s="78"/>
+      <c r="D123" s="78"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
@@ -50447,12 +51596,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="72" t="s">
+      <c r="A133" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="72"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="72"/>
+      <c r="B133" s="78"/>
+      <c r="C133" s="78"/>
+      <c r="D133" s="78"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
@@ -50567,12 +51716,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="72" t="s">
+      <c r="A143" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="B143" s="72"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="72"/>
+      <c r="B143" s="78"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="78"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
@@ -50687,12 +51836,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="72" t="s">
+      <c r="A153" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="72"/>
-      <c r="C153" s="72"/>
-      <c r="D153" s="72"/>
+      <c r="B153" s="78"/>
+      <c r="C153" s="78"/>
+      <c r="D153" s="78"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
@@ -50817,12 +51966,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="72" t="s">
+      <c r="A163" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="72"/>
-      <c r="C163" s="72"/>
-      <c r="D163" s="72"/>
+      <c r="B163" s="78"/>
+      <c r="C163" s="78"/>
+      <c r="D163" s="78"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
@@ -50937,12 +52086,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="72" t="s">
+      <c r="A173" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="72"/>
-      <c r="C173" s="72"/>
-      <c r="D173" s="72"/>
+      <c r="B173" s="78"/>
+      <c r="C173" s="78"/>
+      <c r="D173" s="78"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
@@ -51076,12 +52225,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="72" t="s">
+      <c r="A183" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="72"/>
-      <c r="C183" s="72"/>
-      <c r="D183" s="72"/>
+      <c r="B183" s="78"/>
+      <c r="C183" s="78"/>
+      <c r="D183" s="78"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -51203,12 +52352,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="72" t="s">
+      <c r="A193" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="72"/>
-      <c r="C193" s="72"/>
-      <c r="D193" s="72"/>
+      <c r="B193" s="78"/>
+      <c r="C193" s="78"/>
+      <c r="D193" s="78"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -51323,12 +52472,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="72" t="s">
+      <c r="A203" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="B203" s="72"/>
-      <c r="C203" s="72"/>
-      <c r="D203" s="72"/>
+      <c r="B203" s="78"/>
+      <c r="C203" s="78"/>
+      <c r="D203" s="78"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
@@ -51443,12 +52592,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="72" t="s">
+      <c r="A213" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="72"/>
-      <c r="C213" s="72"/>
-      <c r="D213" s="72"/>
+      <c r="B213" s="78"/>
+      <c r="C213" s="78"/>
+      <c r="D213" s="78"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
@@ -51563,12 +52712,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="72" t="s">
+      <c r="A223" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="72"/>
-      <c r="C223" s="72"/>
-      <c r="D223" s="72"/>
+      <c r="B223" s="78"/>
+      <c r="C223" s="78"/>
+      <c r="D223" s="78"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
@@ -51683,12 +52832,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="72" t="s">
+      <c r="A233" s="78" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="72"/>
-      <c r="C233" s="72"/>
-      <c r="D233" s="72"/>
+      <c r="B233" s="78"/>
+      <c r="C233" s="78"/>
+      <c r="D233" s="78"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
@@ -51804,12 +52953,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="72" t="s">
+      <c r="A243" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="72"/>
-      <c r="C243" s="72"/>
-      <c r="D243" s="72"/>
+      <c r="B243" s="78"/>
+      <c r="C243" s="78"/>
+      <c r="D243" s="78"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
@@ -51927,12 +53076,12 @@
       <c r="D252" s="48"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="72" t="s">
+      <c r="A253" s="78" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="72"/>
-      <c r="C253" s="72"/>
-      <c r="D253" s="72"/>
+      <c r="B253" s="78"/>
+      <c r="C253" s="78"/>
+      <c r="D253" s="78"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
@@ -52047,12 +53196,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="72" t="s">
+      <c r="A263" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="B263" s="72"/>
-      <c r="C263" s="72"/>
-      <c r="D263" s="72"/>
+      <c r="B263" s="78"/>
+      <c r="C263" s="78"/>
+      <c r="D263" s="78"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
@@ -52167,12 +53316,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="72" t="s">
+      <c r="A273" s="78" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="72"/>
-      <c r="C273" s="72"/>
-      <c r="D273" s="72"/>
+      <c r="B273" s="78"/>
+      <c r="C273" s="78"/>
+      <c r="D273" s="78"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
@@ -52287,12 +53436,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="72" t="s">
+      <c r="A283" s="78" t="s">
         <v>231</v>
       </c>
-      <c r="B283" s="72"/>
-      <c r="C283" s="72"/>
-      <c r="D283" s="72"/>
+      <c r="B283" s="78"/>
+      <c r="C283" s="78"/>
+      <c r="D283" s="78"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
@@ -52407,12 +53556,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="72" t="s">
+      <c r="A293" s="78" t="s">
         <v>232</v>
       </c>
-      <c r="B293" s="72"/>
-      <c r="C293" s="72"/>
-      <c r="D293" s="72"/>
+      <c r="B293" s="78"/>
+      <c r="C293" s="78"/>
+      <c r="D293" s="78"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
@@ -52531,12 +53680,12 @@
       <c r="F301" s="51"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="72" t="s">
+      <c r="A303" s="78" t="s">
         <v>234</v>
       </c>
-      <c r="B303" s="72"/>
-      <c r="C303" s="72"/>
-      <c r="D303" s="72"/>
+      <c r="B303" s="78"/>
+      <c r="C303" s="78"/>
+      <c r="D303" s="78"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
@@ -52621,12 +53770,12 @@
       <c r="D311" s="3"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="72" t="s">
+      <c r="A313" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="72"/>
-      <c r="C313" s="72"/>
-      <c r="D313" s="72"/>
+      <c r="B313" s="78"/>
+      <c r="C313" s="78"/>
+      <c r="D313" s="78"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
@@ -52719,12 +53868,12 @@
       <c r="D321" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="72" t="s">
+      <c r="A324" s="78" t="s">
         <v>245</v>
       </c>
-      <c r="B324" s="72"/>
-      <c r="C324" s="72"/>
-      <c r="D324" s="72"/>
+      <c r="B324" s="78"/>
+      <c r="C324" s="78"/>
+      <c r="D324" s="78"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
@@ -52809,12 +53958,12 @@
       <c r="D332" s="3"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="72" t="s">
+      <c r="A335" s="78" t="s">
         <v>246</v>
       </c>
-      <c r="B335" s="72"/>
-      <c r="C335" s="72"/>
-      <c r="D335" s="72"/>
+      <c r="B335" s="78"/>
+      <c r="C335" s="78"/>
+      <c r="D335" s="78"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
@@ -52929,12 +54078,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="72" t="s">
+      <c r="A346" s="78" t="s">
         <v>247</v>
       </c>
-      <c r="B346" s="72"/>
-      <c r="C346" s="72"/>
-      <c r="D346" s="72"/>
+      <c r="B346" s="78"/>
+      <c r="C346" s="78"/>
+      <c r="D346" s="78"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
@@ -53049,12 +54198,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="72" t="s">
+      <c r="A357" s="78" t="s">
         <v>249</v>
       </c>
-      <c r="B357" s="72"/>
-      <c r="C357" s="72"/>
-      <c r="D357" s="72"/>
+      <c r="B357" s="78"/>
+      <c r="C357" s="78"/>
+      <c r="D357" s="78"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
@@ -53169,12 +54318,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="72" t="s">
+      <c r="A368" s="78" t="s">
         <v>250</v>
       </c>
-      <c r="B368" s="72"/>
-      <c r="C368" s="72"/>
-      <c r="D368" s="72"/>
+      <c r="B368" s="78"/>
+      <c r="C368" s="78"/>
+      <c r="D368" s="78"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
@@ -53293,12 +54442,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="72" t="s">
+      <c r="A379" s="78" t="s">
         <v>251</v>
       </c>
-      <c r="B379" s="72"/>
-      <c r="C379" s="72"/>
-      <c r="D379" s="72"/>
+      <c r="B379" s="78"/>
+      <c r="C379" s="78"/>
+      <c r="D379" s="78"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
@@ -53413,12 +54562,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="72" t="s">
+      <c r="A390" s="78" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="72"/>
-      <c r="C390" s="72"/>
-      <c r="D390" s="72"/>
+      <c r="B390" s="78"/>
+      <c r="C390" s="78"/>
+      <c r="D390" s="78"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
@@ -53533,12 +54682,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="72" t="s">
+      <c r="A401" s="78" t="s">
         <v>253</v>
       </c>
-      <c r="B401" s="72"/>
-      <c r="C401" s="72"/>
-      <c r="D401" s="72"/>
+      <c r="B401" s="78"/>
+      <c r="C401" s="78"/>
+      <c r="D401" s="78"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -53653,12 +54802,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="72" t="s">
+      <c r="A412" s="78" t="s">
         <v>254</v>
       </c>
-      <c r="B412" s="72"/>
-      <c r="C412" s="72"/>
-      <c r="D412" s="72"/>
+      <c r="B412" s="78"/>
+      <c r="C412" s="78"/>
+      <c r="D412" s="78"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
@@ -53773,12 +54922,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="72" t="s">
+      <c r="A423" s="78" t="s">
         <v>255</v>
       </c>
-      <c r="B423" s="72"/>
-      <c r="C423" s="72"/>
-      <c r="D423" s="72"/>
+      <c r="B423" s="78"/>
+      <c r="C423" s="78"/>
+      <c r="D423" s="78"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -53869,12 +55018,12 @@
       <c r="D431" s="3"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="72" t="s">
+      <c r="A434" s="78" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="72"/>
-      <c r="C434" s="72"/>
-      <c r="D434" s="72"/>
+      <c r="B434" s="78"/>
+      <c r="C434" s="78"/>
+      <c r="D434" s="78"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="3" t="s">
@@ -53989,12 +55138,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="72" t="s">
+      <c r="A445" s="78" t="s">
         <v>261</v>
       </c>
-      <c r="B445" s="72"/>
-      <c r="C445" s="72"/>
-      <c r="D445" s="72"/>
+      <c r="B445" s="78"/>
+      <c r="C445" s="78"/>
+      <c r="D445" s="78"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="3" t="s">
@@ -54109,12 +55258,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="72" t="s">
+      <c r="A456" s="78" t="s">
         <v>262</v>
       </c>
-      <c r="B456" s="72"/>
-      <c r="C456" s="72"/>
-      <c r="D456" s="72"/>
+      <c r="B456" s="78"/>
+      <c r="C456" s="78"/>
+      <c r="D456" s="78"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
@@ -54229,12 +55378,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="72" t="s">
+      <c r="A467" s="78" t="s">
         <v>263</v>
       </c>
-      <c r="B467" s="72"/>
-      <c r="C467" s="72"/>
-      <c r="D467" s="72"/>
+      <c r="B467" s="78"/>
+      <c r="C467" s="78"/>
+      <c r="D467" s="78"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
@@ -54349,12 +55498,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="72" t="s">
+      <c r="A478" s="78" t="s">
         <v>277</v>
       </c>
-      <c r="B478" s="72"/>
-      <c r="C478" s="72"/>
-      <c r="D478" s="72"/>
+      <c r="B478" s="78"/>
+      <c r="C478" s="78"/>
+      <c r="D478" s="78"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -54469,12 +55618,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="72" t="s">
+      <c r="A489" s="78" t="s">
         <v>278</v>
       </c>
-      <c r="B489" s="72"/>
-      <c r="C489" s="72"/>
-      <c r="D489" s="72"/>
+      <c r="B489" s="78"/>
+      <c r="C489" s="78"/>
+      <c r="D489" s="78"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
@@ -54559,12 +55708,12 @@
       <c r="D497" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="72" t="s">
+      <c r="A500" s="78" t="s">
         <v>282</v>
       </c>
-      <c r="B500" s="72"/>
-      <c r="C500" s="72"/>
-      <c r="D500" s="72"/>
+      <c r="B500" s="78"/>
+      <c r="C500" s="78"/>
+      <c r="D500" s="78"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -54679,12 +55828,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="72" t="s">
+      <c r="A511" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B511" s="72"/>
-      <c r="C511" s="72"/>
-      <c r="D511" s="72"/>
+      <c r="B511" s="78"/>
+      <c r="C511" s="78"/>
+      <c r="D511" s="78"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="3" t="s">
@@ -54799,12 +55948,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="72" t="s">
+      <c r="A522" s="78" t="s">
         <v>288</v>
       </c>
-      <c r="B522" s="72"/>
-      <c r="C522" s="72"/>
-      <c r="D522" s="72"/>
+      <c r="B522" s="78"/>
+      <c r="C522" s="78"/>
+      <c r="D522" s="78"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="3" t="s">
@@ -54919,12 +56068,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="72" t="s">
+      <c r="A533" s="78" t="s">
         <v>290</v>
       </c>
-      <c r="B533" s="72"/>
-      <c r="C533" s="72"/>
-      <c r="D533" s="72"/>
+      <c r="B533" s="78"/>
+      <c r="C533" s="78"/>
+      <c r="D533" s="78"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="3" t="s">
@@ -55039,12 +56188,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="72" t="s">
+      <c r="A544" s="78" t="s">
         <v>291</v>
       </c>
-      <c r="B544" s="72"/>
-      <c r="C544" s="72"/>
-      <c r="D544" s="72"/>
+      <c r="B544" s="78"/>
+      <c r="C544" s="78"/>
+      <c r="D544" s="78"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="3" t="s">
@@ -55159,12 +56308,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="72" t="s">
+      <c r="A555" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="B555" s="72"/>
-      <c r="C555" s="72"/>
-      <c r="D555" s="72"/>
+      <c r="B555" s="78"/>
+      <c r="C555" s="78"/>
+      <c r="D555" s="78"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="3" t="s">
@@ -55321,12 +56470,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="72" t="s">
+      <c r="A567" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="B567" s="72"/>
-      <c r="C567" s="72"/>
-      <c r="D567" s="72"/>
+      <c r="B567" s="78"/>
+      <c r="C567" s="78"/>
+      <c r="D567" s="78"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="3" t="s">
@@ -55425,12 +56574,12 @@
       <c r="D575" s="3"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="72" t="s">
+      <c r="A579" s="78" t="s">
         <v>301</v>
       </c>
-      <c r="B579" s="72"/>
-      <c r="C579" s="72"/>
-      <c r="D579" s="72"/>
+      <c r="B579" s="78"/>
+      <c r="C579" s="78"/>
+      <c r="D579" s="78"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
@@ -55547,12 +56696,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="72" t="s">
+      <c r="A590" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B590" s="72"/>
-      <c r="C590" s="72"/>
-      <c r="D590" s="72"/>
+      <c r="B590" s="78"/>
+      <c r="C590" s="78"/>
+      <c r="D590" s="78"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
@@ -55669,12 +56818,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="72" t="s">
+      <c r="A601" s="78" t="s">
         <v>305</v>
       </c>
-      <c r="B601" s="72"/>
-      <c r="C601" s="72"/>
-      <c r="D601" s="72"/>
+      <c r="B601" s="78"/>
+      <c r="C601" s="78"/>
+      <c r="D601" s="78"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
@@ -55789,12 +56938,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="72" t="s">
+      <c r="A612" s="78" t="s">
         <v>306</v>
       </c>
-      <c r="B612" s="72"/>
-      <c r="C612" s="72"/>
-      <c r="D612" s="72"/>
+      <c r="B612" s="78"/>
+      <c r="C612" s="78"/>
+      <c r="D612" s="78"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="3" t="s">
@@ -55909,12 +57058,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="72" t="s">
+      <c r="A623" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B623" s="72"/>
-      <c r="C623" s="72"/>
-      <c r="D623" s="72"/>
+      <c r="B623" s="78"/>
+      <c r="C623" s="78"/>
+      <c r="D623" s="78"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="3" t="s">
@@ -56029,12 +57178,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="72" t="s">
+      <c r="A635" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="B635" s="72"/>
-      <c r="C635" s="72"/>
-      <c r="D635" s="72"/>
+      <c r="B635" s="78"/>
+      <c r="C635" s="78"/>
+      <c r="D635" s="78"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="3" t="s">
@@ -56110,12 +57259,12 @@
       <c r="C643" s="3"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="72" t="s">
+      <c r="A647" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="B647" s="72"/>
-      <c r="C647" s="72"/>
-      <c r="D647" s="72"/>
+      <c r="B647" s="78"/>
+      <c r="C647" s="78"/>
+      <c r="D647" s="78"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="3" t="s">
@@ -56230,12 +57379,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="72" t="s">
+      <c r="A658" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="72"/>
-      <c r="C658" s="72"/>
-      <c r="D658" s="72"/>
+      <c r="B658" s="78"/>
+      <c r="C658" s="78"/>
+      <c r="D658" s="78"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
@@ -56350,12 +57499,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="72" t="s">
+      <c r="A670" s="78" t="s">
         <v>318</v>
       </c>
-      <c r="B670" s="72"/>
-      <c r="C670" s="72"/>
-      <c r="D670" s="72"/>
+      <c r="B670" s="78"/>
+      <c r="C670" s="78"/>
+      <c r="D670" s="78"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
@@ -56470,12 +57619,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="72" t="s">
+      <c r="A681" s="78" t="s">
         <v>319</v>
       </c>
-      <c r="B681" s="72"/>
-      <c r="C681" s="72"/>
-      <c r="D681" s="72"/>
+      <c r="B681" s="78"/>
+      <c r="C681" s="78"/>
+      <c r="D681" s="78"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
@@ -56590,12 +57739,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="72" t="s">
+      <c r="A692" s="78" t="s">
         <v>322</v>
       </c>
-      <c r="B692" s="72"/>
-      <c r="C692" s="72"/>
-      <c r="D692" s="72"/>
+      <c r="B692" s="78"/>
+      <c r="C692" s="78"/>
+      <c r="D692" s="78"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
@@ -56709,38 +57858,118 @@
         <v>12200000</v>
       </c>
     </row>
+    <row r="703" spans="1:4">
+      <c r="A703" s="78" t="s">
+        <v>323</v>
+      </c>
+      <c r="B703" s="78"/>
+      <c r="C703" s="78"/>
+      <c r="D703" s="78"/>
+    </row>
+    <row r="704" spans="1:4">
+      <c r="A704" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C704" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D704" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6">
+      <c r="A705" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B705" s="3">
+        <v>27660</v>
+      </c>
+      <c r="C705" s="3"/>
+      <c r="E705">
+        <v>12050000</v>
+      </c>
+      <c r="F705" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6">
+      <c r="A706" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B706" s="3">
+        <v>27670</v>
+      </c>
+      <c r="C706" s="3"/>
+      <c r="E706">
+        <v>12060000</v>
+      </c>
+      <c r="F706" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6">
+      <c r="A707" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B707" s="3">
+        <v>27620</v>
+      </c>
+      <c r="C707" s="3"/>
+    </row>
+    <row r="708" spans="1:6">
+      <c r="A708" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B708" s="3"/>
+      <c r="C708" s="3"/>
+    </row>
+    <row r="709" spans="1:6">
+      <c r="A709" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B709" s="3"/>
+      <c r="C709" s="3"/>
+    </row>
+    <row r="710" spans="1:6">
+      <c r="A710" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B710" s="3"/>
+      <c r="C710" s="3"/>
+    </row>
+    <row r="711" spans="1:6">
+      <c r="A711" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B711" s="3"/>
+      <c r="C711" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A173:D173"/>
+  <mergeCells count="67">
+    <mergeCell ref="A703:D703"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -56757,26 +57986,36 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A357:D357"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9161E07D-FF0F-4BDD-AD30-79E29232A98B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179EE3A1-788A-4B2F-9FD1-EF6C58F16A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14124" yWindow="6288" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -1296,10 +1296,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7528,7 +7528,7 @@
                   <c:v>26459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27742</c:v>
+                  <c:v>26742</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>27287</c:v>
@@ -7706,7 +7706,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -11216,7 +11216,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -14690,6 +14690,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17448297040147001"/>
+          <c:y val="0.90101395754413738"/>
+          <c:w val="0.65261682830021062"/>
+          <c:h val="9.8986042455862663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -33907,8 +33917,8 @@
       <xdr:rowOff>174972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>402771</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>74568</xdr:rowOff>
     </xdr:to>
@@ -33941,14 +33951,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>748833</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>98331</xdr:rowOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>43544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>874339</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>124776</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34360,8 +34370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM134"/>
   <sheetViews>
-    <sheetView topLeftCell="B115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="G112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N124" sqref="N124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49013,8 +49023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C235" sqref="C235"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -49772,40 +49782,40 @@
         <v>31126</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="79" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:11" s="78" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A22" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="78">
         <v>26705</v>
       </c>
-      <c r="C22" s="79">
+      <c r="C22" s="78">
         <v>31498</v>
       </c>
-      <c r="D22" s="79">
+      <c r="D22" s="78">
         <v>41397200</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="78">
         <f>D22/5</f>
         <v>8279440</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="78">
         <v>4399000</v>
       </c>
-      <c r="G22" s="79">
+      <c r="G22" s="78">
         <f>F22/5</f>
         <v>879800</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="78">
         <v>27079</v>
       </c>
-      <c r="I22" s="79">
+      <c r="I22" s="78">
         <v>31815</v>
       </c>
-      <c r="J22" s="79">
+      <c r="J22" s="78">
         <v>27648</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="78">
         <v>32496</v>
       </c>
     </row>
@@ -49871,7 +49881,7 @@
         <v>1091983.3333333333</v>
       </c>
       <c r="H24">
-        <v>27742</v>
+        <v>26742</v>
       </c>
       <c r="I24">
         <v>31482</v>
@@ -49988,12 +49998,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -50114,12 +50124,12 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -50239,12 +50249,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -50359,12 +50369,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="79" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -50479,12 +50489,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="79"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
@@ -50599,12 +50609,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="78" t="s">
+      <c r="A51" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="78"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -50727,12 +50737,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="78" t="s">
+      <c r="A61" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
@@ -50847,12 +50857,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="78" t="s">
+      <c r="A71" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="79"/>
+      <c r="D71" s="79"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
@@ -50967,12 +50977,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="78" t="s">
+      <c r="A81" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="78"/>
-      <c r="C81" s="78"/>
-      <c r="D81" s="78"/>
+      <c r="B81" s="79"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="79"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
@@ -51109,12 +51119,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="78" t="s">
+      <c r="A93" s="79" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="79"/>
+      <c r="D93" s="79"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
@@ -51229,12 +51239,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="78" t="s">
+      <c r="A103" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
+      <c r="B103" s="79"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
@@ -51352,12 +51362,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="78" t="s">
+      <c r="A113" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="78"/>
-      <c r="C113" s="78"/>
-      <c r="D113" s="78"/>
+      <c r="B113" s="79"/>
+      <c r="C113" s="79"/>
+      <c r="D113" s="79"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
@@ -51476,12 +51486,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="78" t="s">
+      <c r="A123" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="78"/>
-      <c r="C123" s="78"/>
-      <c r="D123" s="78"/>
+      <c r="B123" s="79"/>
+      <c r="C123" s="79"/>
+      <c r="D123" s="79"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
@@ -51596,12 +51606,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="78" t="s">
+      <c r="A133" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="78"/>
-      <c r="C133" s="78"/>
-      <c r="D133" s="78"/>
+      <c r="B133" s="79"/>
+      <c r="C133" s="79"/>
+      <c r="D133" s="79"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
@@ -51716,12 +51726,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="78" t="s">
+      <c r="A143" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="B143" s="78"/>
-      <c r="C143" s="78"/>
-      <c r="D143" s="78"/>
+      <c r="B143" s="79"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
@@ -51836,12 +51846,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="78" t="s">
+      <c r="A153" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="78"/>
-      <c r="C153" s="78"/>
-      <c r="D153" s="78"/>
+      <c r="B153" s="79"/>
+      <c r="C153" s="79"/>
+      <c r="D153" s="79"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
@@ -51966,12 +51976,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="78" t="s">
+      <c r="A163" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="78"/>
-      <c r="C163" s="78"/>
-      <c r="D163" s="78"/>
+      <c r="B163" s="79"/>
+      <c r="C163" s="79"/>
+      <c r="D163" s="79"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
@@ -52086,12 +52096,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="78" t="s">
+      <c r="A173" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="78"/>
-      <c r="C173" s="78"/>
-      <c r="D173" s="78"/>
+      <c r="B173" s="79"/>
+      <c r="C173" s="79"/>
+      <c r="D173" s="79"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
@@ -52225,12 +52235,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="78" t="s">
+      <c r="A183" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="78"/>
-      <c r="C183" s="78"/>
-      <c r="D183" s="78"/>
+      <c r="B183" s="79"/>
+      <c r="C183" s="79"/>
+      <c r="D183" s="79"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -52352,12 +52362,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="78" t="s">
+      <c r="A193" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="78"/>
-      <c r="C193" s="78"/>
-      <c r="D193" s="78"/>
+      <c r="B193" s="79"/>
+      <c r="C193" s="79"/>
+      <c r="D193" s="79"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -52472,12 +52482,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="78" t="s">
+      <c r="A203" s="79" t="s">
         <v>214</v>
       </c>
-      <c r="B203" s="78"/>
-      <c r="C203" s="78"/>
-      <c r="D203" s="78"/>
+      <c r="B203" s="79"/>
+      <c r="C203" s="79"/>
+      <c r="D203" s="79"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
@@ -52592,12 +52602,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="78" t="s">
+      <c r="A213" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="78"/>
-      <c r="C213" s="78"/>
-      <c r="D213" s="78"/>
+      <c r="B213" s="79"/>
+      <c r="C213" s="79"/>
+      <c r="D213" s="79"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
@@ -52712,12 +52722,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="78" t="s">
+      <c r="A223" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="78"/>
-      <c r="C223" s="78"/>
-      <c r="D223" s="78"/>
+      <c r="B223" s="79"/>
+      <c r="C223" s="79"/>
+      <c r="D223" s="79"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
@@ -52832,12 +52842,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="78" t="s">
+      <c r="A233" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="78"/>
-      <c r="C233" s="78"/>
-      <c r="D233" s="78"/>
+      <c r="B233" s="79"/>
+      <c r="C233" s="79"/>
+      <c r="D233" s="79"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
@@ -52953,12 +52963,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="78" t="s">
+      <c r="A243" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="78"/>
-      <c r="C243" s="78"/>
-      <c r="D243" s="78"/>
+      <c r="B243" s="79"/>
+      <c r="C243" s="79"/>
+      <c r="D243" s="79"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
@@ -53076,12 +53086,12 @@
       <c r="D252" s="48"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="78" t="s">
+      <c r="A253" s="79" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="78"/>
-      <c r="C253" s="78"/>
-      <c r="D253" s="78"/>
+      <c r="B253" s="79"/>
+      <c r="C253" s="79"/>
+      <c r="D253" s="79"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
@@ -53196,12 +53206,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="78" t="s">
+      <c r="A263" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="B263" s="78"/>
-      <c r="C263" s="78"/>
-      <c r="D263" s="78"/>
+      <c r="B263" s="79"/>
+      <c r="C263" s="79"/>
+      <c r="D263" s="79"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
@@ -53316,12 +53326,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="78" t="s">
+      <c r="A273" s="79" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="78"/>
-      <c r="C273" s="78"/>
-      <c r="D273" s="78"/>
+      <c r="B273" s="79"/>
+      <c r="C273" s="79"/>
+      <c r="D273" s="79"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
@@ -53436,12 +53446,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="78" t="s">
+      <c r="A283" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="B283" s="78"/>
-      <c r="C283" s="78"/>
-      <c r="D283" s="78"/>
+      <c r="B283" s="79"/>
+      <c r="C283" s="79"/>
+      <c r="D283" s="79"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
@@ -53556,12 +53566,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="78" t="s">
+      <c r="A293" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="B293" s="78"/>
-      <c r="C293" s="78"/>
-      <c r="D293" s="78"/>
+      <c r="B293" s="79"/>
+      <c r="C293" s="79"/>
+      <c r="D293" s="79"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
@@ -53680,12 +53690,12 @@
       <c r="F301" s="51"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="78" t="s">
+      <c r="A303" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B303" s="78"/>
-      <c r="C303" s="78"/>
-      <c r="D303" s="78"/>
+      <c r="B303" s="79"/>
+      <c r="C303" s="79"/>
+      <c r="D303" s="79"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
@@ -53770,12 +53780,12 @@
       <c r="D311" s="3"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="78" t="s">
+      <c r="A313" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="78"/>
-      <c r="C313" s="78"/>
-      <c r="D313" s="78"/>
+      <c r="B313" s="79"/>
+      <c r="C313" s="79"/>
+      <c r="D313" s="79"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
@@ -53868,12 +53878,12 @@
       <c r="D321" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="78" t="s">
+      <c r="A324" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="B324" s="78"/>
-      <c r="C324" s="78"/>
-      <c r="D324" s="78"/>
+      <c r="B324" s="79"/>
+      <c r="C324" s="79"/>
+      <c r="D324" s="79"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
@@ -53958,12 +53968,12 @@
       <c r="D332" s="3"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="78" t="s">
+      <c r="A335" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="B335" s="78"/>
-      <c r="C335" s="78"/>
-      <c r="D335" s="78"/>
+      <c r="B335" s="79"/>
+      <c r="C335" s="79"/>
+      <c r="D335" s="79"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
@@ -54078,12 +54088,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="78" t="s">
+      <c r="A346" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="B346" s="78"/>
-      <c r="C346" s="78"/>
-      <c r="D346" s="78"/>
+      <c r="B346" s="79"/>
+      <c r="C346" s="79"/>
+      <c r="D346" s="79"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
@@ -54198,12 +54208,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="78" t="s">
+      <c r="A357" s="79" t="s">
         <v>249</v>
       </c>
-      <c r="B357" s="78"/>
-      <c r="C357" s="78"/>
-      <c r="D357" s="78"/>
+      <c r="B357" s="79"/>
+      <c r="C357" s="79"/>
+      <c r="D357" s="79"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
@@ -54318,12 +54328,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="78" t="s">
+      <c r="A368" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="B368" s="78"/>
-      <c r="C368" s="78"/>
-      <c r="D368" s="78"/>
+      <c r="B368" s="79"/>
+      <c r="C368" s="79"/>
+      <c r="D368" s="79"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
@@ -54442,12 +54452,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="78" t="s">
+      <c r="A379" s="79" t="s">
         <v>251</v>
       </c>
-      <c r="B379" s="78"/>
-      <c r="C379" s="78"/>
-      <c r="D379" s="78"/>
+      <c r="B379" s="79"/>
+      <c r="C379" s="79"/>
+      <c r="D379" s="79"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
@@ -54562,12 +54572,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="78" t="s">
+      <c r="A390" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="78"/>
-      <c r="C390" s="78"/>
-      <c r="D390" s="78"/>
+      <c r="B390" s="79"/>
+      <c r="C390" s="79"/>
+      <c r="D390" s="79"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
@@ -54682,12 +54692,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="78" t="s">
+      <c r="A401" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="B401" s="78"/>
-      <c r="C401" s="78"/>
-      <c r="D401" s="78"/>
+      <c r="B401" s="79"/>
+      <c r="C401" s="79"/>
+      <c r="D401" s="79"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -54802,12 +54812,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="78" t="s">
+      <c r="A412" s="79" t="s">
         <v>254</v>
       </c>
-      <c r="B412" s="78"/>
-      <c r="C412" s="78"/>
-      <c r="D412" s="78"/>
+      <c r="B412" s="79"/>
+      <c r="C412" s="79"/>
+      <c r="D412" s="79"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
@@ -54922,12 +54932,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="78" t="s">
+      <c r="A423" s="79" t="s">
         <v>255</v>
       </c>
-      <c r="B423" s="78"/>
-      <c r="C423" s="78"/>
-      <c r="D423" s="78"/>
+      <c r="B423" s="79"/>
+      <c r="C423" s="79"/>
+      <c r="D423" s="79"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -55018,12 +55028,12 @@
       <c r="D431" s="3"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="78" t="s">
+      <c r="A434" s="79" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="78"/>
-      <c r="C434" s="78"/>
-      <c r="D434" s="78"/>
+      <c r="B434" s="79"/>
+      <c r="C434" s="79"/>
+      <c r="D434" s="79"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="3" t="s">
@@ -55138,12 +55148,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="78" t="s">
+      <c r="A445" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="B445" s="78"/>
-      <c r="C445" s="78"/>
-      <c r="D445" s="78"/>
+      <c r="B445" s="79"/>
+      <c r="C445" s="79"/>
+      <c r="D445" s="79"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="3" t="s">
@@ -55258,12 +55268,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="78" t="s">
+      <c r="A456" s="79" t="s">
         <v>262</v>
       </c>
-      <c r="B456" s="78"/>
-      <c r="C456" s="78"/>
-      <c r="D456" s="78"/>
+      <c r="B456" s="79"/>
+      <c r="C456" s="79"/>
+      <c r="D456" s="79"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
@@ -55378,12 +55388,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="78" t="s">
+      <c r="A467" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="B467" s="78"/>
-      <c r="C467" s="78"/>
-      <c r="D467" s="78"/>
+      <c r="B467" s="79"/>
+      <c r="C467" s="79"/>
+      <c r="D467" s="79"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
@@ -55498,12 +55508,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="78" t="s">
+      <c r="A478" s="79" t="s">
         <v>277</v>
       </c>
-      <c r="B478" s="78"/>
-      <c r="C478" s="78"/>
-      <c r="D478" s="78"/>
+      <c r="B478" s="79"/>
+      <c r="C478" s="79"/>
+      <c r="D478" s="79"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -55618,12 +55628,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="78" t="s">
+      <c r="A489" s="79" t="s">
         <v>278</v>
       </c>
-      <c r="B489" s="78"/>
-      <c r="C489" s="78"/>
-      <c r="D489" s="78"/>
+      <c r="B489" s="79"/>
+      <c r="C489" s="79"/>
+      <c r="D489" s="79"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
@@ -55708,12 +55718,12 @@
       <c r="D497" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="78" t="s">
+      <c r="A500" s="79" t="s">
         <v>282</v>
       </c>
-      <c r="B500" s="78"/>
-      <c r="C500" s="78"/>
-      <c r="D500" s="78"/>
+      <c r="B500" s="79"/>
+      <c r="C500" s="79"/>
+      <c r="D500" s="79"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -55828,12 +55838,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="78" t="s">
+      <c r="A511" s="79" t="s">
         <v>287</v>
       </c>
-      <c r="B511" s="78"/>
-      <c r="C511" s="78"/>
-      <c r="D511" s="78"/>
+      <c r="B511" s="79"/>
+      <c r="C511" s="79"/>
+      <c r="D511" s="79"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="3" t="s">
@@ -55948,12 +55958,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="78" t="s">
+      <c r="A522" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="B522" s="78"/>
-      <c r="C522" s="78"/>
-      <c r="D522" s="78"/>
+      <c r="B522" s="79"/>
+      <c r="C522" s="79"/>
+      <c r="D522" s="79"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="3" t="s">
@@ -56068,12 +56078,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="78" t="s">
+      <c r="A533" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="B533" s="78"/>
-      <c r="C533" s="78"/>
-      <c r="D533" s="78"/>
+      <c r="B533" s="79"/>
+      <c r="C533" s="79"/>
+      <c r="D533" s="79"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="3" t="s">
@@ -56188,12 +56198,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="78" t="s">
+      <c r="A544" s="79" t="s">
         <v>291</v>
       </c>
-      <c r="B544" s="78"/>
-      <c r="C544" s="78"/>
-      <c r="D544" s="78"/>
+      <c r="B544" s="79"/>
+      <c r="C544" s="79"/>
+      <c r="D544" s="79"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="3" t="s">
@@ -56308,12 +56318,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="78" t="s">
+      <c r="A555" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="B555" s="78"/>
-      <c r="C555" s="78"/>
-      <c r="D555" s="78"/>
+      <c r="B555" s="79"/>
+      <c r="C555" s="79"/>
+      <c r="D555" s="79"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="3" t="s">
@@ -56470,12 +56480,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="78" t="s">
+      <c r="A567" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="B567" s="78"/>
-      <c r="C567" s="78"/>
-      <c r="D567" s="78"/>
+      <c r="B567" s="79"/>
+      <c r="C567" s="79"/>
+      <c r="D567" s="79"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="3" t="s">
@@ -56574,12 +56584,12 @@
       <c r="D575" s="3"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="78" t="s">
+      <c r="A579" s="79" t="s">
         <v>301</v>
       </c>
-      <c r="B579" s="78"/>
-      <c r="C579" s="78"/>
-      <c r="D579" s="78"/>
+      <c r="B579" s="79"/>
+      <c r="C579" s="79"/>
+      <c r="D579" s="79"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
@@ -56696,12 +56706,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="78" t="s">
+      <c r="A590" s="79" t="s">
         <v>302</v>
       </c>
-      <c r="B590" s="78"/>
-      <c r="C590" s="78"/>
-      <c r="D590" s="78"/>
+      <c r="B590" s="79"/>
+      <c r="C590" s="79"/>
+      <c r="D590" s="79"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
@@ -56818,12 +56828,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="78" t="s">
+      <c r="A601" s="79" t="s">
         <v>305</v>
       </c>
-      <c r="B601" s="78"/>
-      <c r="C601" s="78"/>
-      <c r="D601" s="78"/>
+      <c r="B601" s="79"/>
+      <c r="C601" s="79"/>
+      <c r="D601" s="79"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
@@ -56938,12 +56948,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="78" t="s">
+      <c r="A612" s="79" t="s">
         <v>306</v>
       </c>
-      <c r="B612" s="78"/>
-      <c r="C612" s="78"/>
-      <c r="D612" s="78"/>
+      <c r="B612" s="79"/>
+      <c r="C612" s="79"/>
+      <c r="D612" s="79"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="3" t="s">
@@ -57058,12 +57068,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="78" t="s">
+      <c r="A623" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="B623" s="78"/>
-      <c r="C623" s="78"/>
-      <c r="D623" s="78"/>
+      <c r="B623" s="79"/>
+      <c r="C623" s="79"/>
+      <c r="D623" s="79"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="3" t="s">
@@ -57178,12 +57188,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="78" t="s">
+      <c r="A635" s="79" t="s">
         <v>310</v>
       </c>
-      <c r="B635" s="78"/>
-      <c r="C635" s="78"/>
-      <c r="D635" s="78"/>
+      <c r="B635" s="79"/>
+      <c r="C635" s="79"/>
+      <c r="D635" s="79"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="3" t="s">
@@ -57259,12 +57269,12 @@
       <c r="C643" s="3"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="78" t="s">
+      <c r="A647" s="79" t="s">
         <v>314</v>
       </c>
-      <c r="B647" s="78"/>
-      <c r="C647" s="78"/>
-      <c r="D647" s="78"/>
+      <c r="B647" s="79"/>
+      <c r="C647" s="79"/>
+      <c r="D647" s="79"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="3" t="s">
@@ -57379,12 +57389,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="78" t="s">
+      <c r="A658" s="79" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="78"/>
-      <c r="C658" s="78"/>
-      <c r="D658" s="78"/>
+      <c r="B658" s="79"/>
+      <c r="C658" s="79"/>
+      <c r="D658" s="79"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
@@ -57499,12 +57509,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="78" t="s">
+      <c r="A670" s="79" t="s">
         <v>318</v>
       </c>
-      <c r="B670" s="78"/>
-      <c r="C670" s="78"/>
-      <c r="D670" s="78"/>
+      <c r="B670" s="79"/>
+      <c r="C670" s="79"/>
+      <c r="D670" s="79"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
@@ -57619,12 +57629,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="78" t="s">
+      <c r="A681" s="79" t="s">
         <v>319</v>
       </c>
-      <c r="B681" s="78"/>
-      <c r="C681" s="78"/>
-      <c r="D681" s="78"/>
+      <c r="B681" s="79"/>
+      <c r="C681" s="79"/>
+      <c r="D681" s="79"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
@@ -57739,12 +57749,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="78" t="s">
+      <c r="A692" s="79" t="s">
         <v>322</v>
       </c>
-      <c r="B692" s="78"/>
-      <c r="C692" s="78"/>
-      <c r="D692" s="78"/>
+      <c r="B692" s="79"/>
+      <c r="C692" s="79"/>
+      <c r="D692" s="79"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
@@ -57859,12 +57869,12 @@
       </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="78" t="s">
+      <c r="A703" s="79" t="s">
         <v>323</v>
       </c>
-      <c r="B703" s="78"/>
-      <c r="C703" s="78"/>
-      <c r="D703" s="78"/>
+      <c r="B703" s="79"/>
+      <c r="C703" s="79"/>
+      <c r="D703" s="79"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
@@ -57949,27 +57959,36 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="A703:D703"/>
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A173:D173"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -57986,36 +58005,27 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A703:D703"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\den\dendataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\den\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179EE3A1-788A-4B2F-9FD1-EF6C58F16A8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14124" yWindow="6288" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -19,9 +18,9 @@
     <sheet name="price change" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$131</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="341">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -1022,11 +1021,44 @@
   <si>
     <t>هفته بیست و چهارم سال 1400</t>
   </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز (شنبه 20 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>20شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز (شنبه 21 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>21شهریور1400</t>
+  </si>
+  <si>
+    <t>27630    10 45</t>
+  </si>
+  <si>
+    <t>27600                10 49</t>
+  </si>
+  <si>
+    <t>10 36</t>
+  </si>
+  <si>
+    <t>10 51</t>
+  </si>
+  <si>
+    <t>11 16</t>
+  </si>
+  <si>
+    <t>11 46</t>
+  </si>
+  <si>
+    <t>12 26</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -1197,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1273,11 +1305,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1297,6 +1324,13 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1325,7 +1359,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1477,7 +1511,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1534,7 +1568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1602,7 +1636,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1659,7 +1693,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1727,7 +1761,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1784,7 +1818,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1852,7 +1886,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -1909,7 +1943,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -1977,7 +2011,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2034,7 +2068,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD2A-4FE9-98C6-8C9FC971B151}"/>
             </c:ext>
@@ -2102,7 +2136,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2159,7 +2193,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE0-4CFC-BC1C-186F6F7CA530}"/>
             </c:ext>
@@ -2229,7 +2263,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2286,7 +2320,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6B0-4438-9021-FAF6AC4C250C}"/>
             </c:ext>
@@ -2356,7 +2390,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2413,7 +2447,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A27-4577-92A6-BBA3E5136B56}"/>
             </c:ext>
@@ -2483,7 +2517,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2540,7 +2574,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7498-4BB7-B9C6-464317275E93}"/>
             </c:ext>
@@ -2610,7 +2644,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2667,7 +2701,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4321-45B9-9594-B628C3F504B4}"/>
             </c:ext>
@@ -2737,7 +2771,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2794,7 +2828,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D1E-4617-9835-31C9496E55A2}"/>
             </c:ext>
@@ -2864,7 +2898,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -2921,7 +2955,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3068-4BC2-BA0B-77BC021BC7E8}"/>
             </c:ext>
@@ -2992,7 +3026,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3049,7 +3083,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC41-4C5E-BB77-5084557066CD}"/>
             </c:ext>
@@ -3120,7 +3154,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3177,7 +3211,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F179-4EC9-A35C-1AA4C8E18B9A}"/>
             </c:ext>
@@ -3248,7 +3282,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3305,7 +3339,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-133D-4D86-9D1A-EB3A1C7A2D05}"/>
             </c:ext>
@@ -3376,7 +3410,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3433,7 +3467,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -3504,7 +3538,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3561,7 +3595,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -3632,7 +3666,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3689,7 +3723,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-22C9-4512-B55C-089FD8381EC4}"/>
             </c:ext>
@@ -3759,7 +3793,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3816,7 +3850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B38-4741-B902-3F6FF64DE959}"/>
             </c:ext>
@@ -3886,7 +3920,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -3943,7 +3977,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-56D8-455D-A14C-79724254E5D6}"/>
             </c:ext>
@@ -4013,7 +4047,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4070,7 +4104,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D36A-434F-A6AD-D2E084C2BCF5}"/>
             </c:ext>
@@ -4140,7 +4174,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4197,7 +4231,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-712E-452A-93B9-6D3B01DB612C}"/>
             </c:ext>
@@ -4267,7 +4301,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4324,7 +4358,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4D83-4BB4-AA64-9B4353E4B82C}"/>
             </c:ext>
@@ -4341,11 +4375,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723862784"/>
-        <c:axId val="723857344"/>
+        <c:axId val="366238688"/>
+        <c:axId val="366231616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723862784"/>
+        <c:axId val="366238688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +4422,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723857344"/>
+        <c:crossAx val="366231616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4396,7 +4430,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723857344"/>
+        <c:axId val="366231616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4447,7 +4481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723862784"/>
+        <c:crossAx val="366238688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4492,14 +4526,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4535,7 +4569,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4687,7 +4721,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4756,7 +4790,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5F34-4EEC-AA31-125C442C4E54}"/>
             </c:ext>
@@ -4824,7 +4858,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4893,7 +4927,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5F34-4EEC-AA31-125C442C4E54}"/>
             </c:ext>
@@ -4961,7 +4995,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5030,7 +5064,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63E7-4008-9B5A-CE37EEA84CF5}"/>
             </c:ext>
@@ -5098,7 +5132,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5167,7 +5201,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-47FB-4A76-B0BB-B3B5806B7C06}"/>
             </c:ext>
@@ -5237,7 +5271,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5306,7 +5340,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9E18-4313-BA49-4AACC1C3AA50}"/>
             </c:ext>
@@ -5376,7 +5410,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5445,7 +5479,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24DF-47B8-BD3E-335FFEF732B7}"/>
             </c:ext>
@@ -5515,7 +5549,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5584,7 +5618,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D115-41DF-85BE-703292FB8041}"/>
             </c:ext>
@@ -5654,7 +5688,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5723,7 +5757,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E516-4331-9651-DE35742DEF5C}"/>
             </c:ext>
@@ -5793,7 +5827,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -5862,7 +5896,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BEF6-459F-A089-DD0EEC688D11}"/>
             </c:ext>
@@ -5932,7 +5966,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6001,7 +6035,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B03E-4CE9-9811-13B477176582}"/>
             </c:ext>
@@ -6072,7 +6106,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6141,7 +6175,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A08C-4366-A246-B44216F43CFE}"/>
             </c:ext>
@@ -6212,7 +6246,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6281,7 +6315,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A5AB-4E55-9B4B-DFEF28478AB9}"/>
             </c:ext>
@@ -6352,7 +6386,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6421,7 +6455,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CDEE-4A75-834E-FB48ADB3ECDC}"/>
             </c:ext>
@@ -6492,7 +6526,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6561,7 +6595,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F015-4D70-9FE0-851670B39893}"/>
             </c:ext>
@@ -6632,7 +6666,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6701,7 +6735,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F015-4D70-9FE0-851670B39893}"/>
             </c:ext>
@@ -6772,7 +6806,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6841,7 +6875,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AFB2-4668-966F-68EC6176BB87}"/>
             </c:ext>
@@ -6911,7 +6945,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -6980,7 +7014,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8C49-4906-B19A-0E7F64FD2F92}"/>
             </c:ext>
@@ -7050,7 +7084,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7119,7 +7153,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5976-4965-9D5B-F448E3A24FC3}"/>
             </c:ext>
@@ -7189,7 +7223,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7258,7 +7292,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7A16-407F-8167-86E30BBD9D27}"/>
             </c:ext>
@@ -7328,7 +7362,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7397,7 +7431,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AAC2-4549-9CAE-6AD439B134E1}"/>
             </c:ext>
@@ -7467,7 +7501,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -7536,7 +7570,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B57-4BD0-ABAF-FBF84920798B}"/>
             </c:ext>
@@ -7553,9 +7587,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723850272"/>
-        <c:axId val="723860064"/>
-        <c:extLst>
+        <c:axId val="366227808"/>
+        <c:axId val="366237056"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -7563,7 +7597,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$2</c15:sqref>
@@ -7626,7 +7660,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7693,7 +7727,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5F34-4EEC-AA31-125C442C4E54}"/>
                   </c:ext>
@@ -7706,7 +7740,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -7769,7 +7803,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -7836,7 +7870,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-5F34-4EEC-AA31-125C442C4E54}"/>
                   </c:ext>
@@ -7847,7 +7881,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723850272"/>
+        <c:axId val="366227808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7890,7 +7924,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723860064"/>
+        <c:crossAx val="366237056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7898,7 +7932,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723860064"/>
+        <c:axId val="366237056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7949,7 +7983,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723850272"/>
+        <c:crossAx val="366227808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7994,14 +8028,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8037,7 +8071,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -8197,7 +8231,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8266,7 +8300,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CCA6-4C80-96A0-25C22CA7FD99}"/>
             </c:ext>
@@ -8334,7 +8368,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8403,7 +8437,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CCA6-4C80-96A0-25C22CA7FD99}"/>
             </c:ext>
@@ -8471,7 +8505,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8540,7 +8574,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6017-4132-8AE1-B981F91A51E2}"/>
             </c:ext>
@@ -8608,7 +8642,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8677,7 +8711,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F3DE-4B38-8079-CF1B256F2D99}"/>
             </c:ext>
@@ -8747,7 +8781,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8816,7 +8850,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6818-4E66-AB07-C86D8BB25EB4}"/>
             </c:ext>
@@ -8886,7 +8920,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -8955,7 +8989,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5E7B-4B4E-8BBB-9DE4D87900FF}"/>
             </c:ext>
@@ -9025,7 +9059,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9094,7 +9128,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F6D3-4D65-90E8-E78F574AA619}"/>
             </c:ext>
@@ -9164,7 +9198,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9233,7 +9267,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DB00-46AD-BE41-8DAB107DCAFB}"/>
             </c:ext>
@@ -9303,7 +9337,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9372,7 +9406,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C432-467A-BA13-1DDA0611F6BA}"/>
             </c:ext>
@@ -9442,7 +9476,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9511,7 +9545,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5C-4A5A-90C3-12B483565504}"/>
             </c:ext>
@@ -9582,7 +9616,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9651,7 +9685,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7E04-4B46-9028-74D145E788AD}"/>
             </c:ext>
@@ -9722,7 +9756,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9791,7 +9825,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E650-481F-8588-04455C9CDB37}"/>
             </c:ext>
@@ -9862,7 +9896,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -9931,7 +9965,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1A2-421E-B569-92168DB6020C}"/>
             </c:ext>
@@ -10002,7 +10036,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10071,7 +10105,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A538-4452-A483-861D2026BD96}"/>
             </c:ext>
@@ -10142,7 +10176,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10211,7 +10245,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A538-4452-A483-861D2026BD96}"/>
             </c:ext>
@@ -10282,7 +10316,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10351,7 +10385,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EE96-438F-AE36-2605EBBB3C9A}"/>
             </c:ext>
@@ -10421,7 +10455,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10490,7 +10524,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CCBC-4C86-AF56-3F158F69715E}"/>
             </c:ext>
@@ -10560,7 +10594,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10629,7 +10663,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C80-4CDA-A7C0-425A20266FF4}"/>
             </c:ext>
@@ -10699,7 +10733,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10768,7 +10802,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CC97-46BC-A25B-B15B8763C648}"/>
             </c:ext>
@@ -10838,7 +10872,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -10907,7 +10941,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-CB97-4C65-B44A-E19552A1E750}"/>
             </c:ext>
@@ -10977,7 +11011,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11046,7 +11080,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D402-4DAF-B54F-4D213E5633F6}"/>
             </c:ext>
@@ -11063,9 +11097,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723861152"/>
-        <c:axId val="723851360"/>
-        <c:extLst>
+        <c:axId val="366239232"/>
+        <c:axId val="366234336"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -11073,7 +11107,7 @@
                 <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$2</c15:sqref>
@@ -11136,7 +11170,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -11203,7 +11237,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-CCA6-4C80-96A0-25C22CA7FD99}"/>
                   </c:ext>
@@ -11216,7 +11250,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>weekly!$A$3</c15:sqref>
@@ -11279,7 +11313,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -11346,7 +11380,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-CCA6-4C80-96A0-25C22CA7FD99}"/>
                   </c:ext>
@@ -11357,7 +11391,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723861152"/>
+        <c:axId val="366239232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11400,7 +11434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723851360"/>
+        <c:crossAx val="366234336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11408,7 +11442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723851360"/>
+        <c:axId val="366234336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11459,7 +11493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723861152"/>
+        <c:crossAx val="366239232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11504,14 +11538,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11547,7 +11581,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -11706,7 +11740,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11763,7 +11797,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11831,7 +11865,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -11888,7 +11922,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -11956,7 +11990,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12013,7 +12047,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -12081,7 +12115,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12138,7 +12172,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -12206,7 +12240,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12263,7 +12297,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A94A-4A7B-AA17-0A05FC325F22}"/>
             </c:ext>
@@ -12331,7 +12365,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12388,7 +12422,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5229-491E-9990-2DEF6AB42F61}"/>
             </c:ext>
@@ -12458,7 +12492,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12515,7 +12549,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D77-4FAA-A1FB-F868E079D27A}"/>
             </c:ext>
@@ -12585,7 +12619,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12642,7 +12676,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C83-4DA8-8692-F2C1A387B40C}"/>
             </c:ext>
@@ -12712,7 +12746,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12769,7 +12803,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EDC-461C-9951-53E2913ACA58}"/>
             </c:ext>
@@ -12839,7 +12873,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -12896,7 +12930,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D787-4D4B-A865-FADEB9F4CAFA}"/>
             </c:ext>
@@ -12966,7 +13000,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13023,7 +13057,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2444-4875-A4AF-9F4B10C14868}"/>
             </c:ext>
@@ -13093,7 +13127,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13150,7 +13184,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF85-48B4-AAA9-73B1DEBB6426}"/>
             </c:ext>
@@ -13221,7 +13255,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13278,7 +13312,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-66C4-4181-AE61-27B27B106A47}"/>
             </c:ext>
@@ -13349,7 +13383,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13406,7 +13440,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4D7-42B8-94FB-0AB2E38B98B3}"/>
             </c:ext>
@@ -13477,7 +13511,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13534,7 +13568,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC98-44D8-BA9A-E246059DDE63}"/>
             </c:ext>
@@ -13605,7 +13639,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13662,7 +13696,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -13733,7 +13767,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13790,7 +13824,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -13861,7 +13895,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -13918,7 +13952,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BE5-491E-B328-66590AF3F9D3}"/>
             </c:ext>
@@ -13988,7 +14022,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14045,7 +14079,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF5-46E8-9CEE-6D2C155C2A77}"/>
             </c:ext>
@@ -14115,7 +14149,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14172,7 +14206,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2062-46A7-B10E-5A2664AB446B}"/>
             </c:ext>
@@ -14242,7 +14276,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14299,7 +14333,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C52-4FBD-B918-0C2DA9171E3F}"/>
             </c:ext>
@@ -14369,7 +14403,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14426,7 +14460,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-718F-4900-BB6B-25F6203A452A}"/>
             </c:ext>
@@ -14496,7 +14530,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14553,7 +14587,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0CDA-490C-A979-7CEA4DCF7DA8}"/>
             </c:ext>
@@ -14570,11 +14604,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723851904"/>
-        <c:axId val="723859520"/>
+        <c:axId val="366240864"/>
+        <c:axId val="366237600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723851904"/>
+        <c:axId val="366240864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14617,7 +14651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723859520"/>
+        <c:crossAx val="366237600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14625,7 +14659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723859520"/>
+        <c:axId val="366237600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14676,7 +14710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723851904"/>
+        <c:crossAx val="366240864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14731,14 +14765,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14774,7 +14808,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -14934,7 +14968,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -14991,7 +15025,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -15059,7 +15093,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15116,7 +15150,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -15184,7 +15218,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15241,7 +15275,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -15309,7 +15343,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15366,7 +15400,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -15434,7 +15468,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15491,7 +15525,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD2A-4FE9-98C6-8C9FC971B151}"/>
             </c:ext>
@@ -15559,7 +15593,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15616,7 +15650,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BDE0-4CFC-BC1C-186F6F7CA530}"/>
             </c:ext>
@@ -15686,7 +15720,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15743,7 +15777,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E6B0-4438-9021-FAF6AC4C250C}"/>
             </c:ext>
@@ -15813,7 +15847,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15870,7 +15904,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9A27-4577-92A6-BBA3E5136B56}"/>
             </c:ext>
@@ -15940,7 +15974,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -15997,7 +16031,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7498-4BB7-B9C6-464317275E93}"/>
             </c:ext>
@@ -16067,7 +16101,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16124,7 +16158,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4321-45B9-9594-B628C3F504B4}"/>
             </c:ext>
@@ -16194,7 +16228,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16251,7 +16285,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7D1E-4617-9835-31C9496E55A2}"/>
             </c:ext>
@@ -16321,7 +16355,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16378,7 +16412,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3068-4BC2-BA0B-77BC021BC7E8}"/>
             </c:ext>
@@ -16449,7 +16483,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16506,7 +16540,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FC41-4C5E-BB77-5084557066CD}"/>
             </c:ext>
@@ -16577,7 +16611,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16634,7 +16668,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F179-4EC9-A35C-1AA4C8E18B9A}"/>
             </c:ext>
@@ -16705,7 +16739,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16762,7 +16796,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-133D-4D86-9D1A-EB3A1C7A2D05}"/>
             </c:ext>
@@ -16833,7 +16867,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -16890,7 +16924,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -16961,7 +16995,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17018,7 +17052,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6341-4574-BFF8-C3C7D7502641}"/>
             </c:ext>
@@ -17089,7 +17123,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17146,7 +17180,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-22C9-4512-B55C-089FD8381EC4}"/>
             </c:ext>
@@ -17216,7 +17250,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17273,7 +17307,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7B38-4741-B902-3F6FF64DE959}"/>
             </c:ext>
@@ -17343,7 +17377,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17400,7 +17434,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5566-4471-B264-1EBD8CAEA5DD}"/>
             </c:ext>
@@ -17470,7 +17504,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17527,7 +17561,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1322-4096-BC39-B032DEDA34E3}"/>
             </c:ext>
@@ -17597,7 +17631,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17654,7 +17688,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7EE8-446A-A659-C81E0FF1C551}"/>
             </c:ext>
@@ -17724,7 +17758,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -17781,7 +17815,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-ABA2-4B0C-8D94-27689C4F6658}"/>
             </c:ext>
@@ -17798,11 +17832,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723861696"/>
-        <c:axId val="723862240"/>
+        <c:axId val="366231072"/>
+        <c:axId val="366232704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723861696"/>
+        <c:axId val="366231072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17845,7 +17879,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723862240"/>
+        <c:crossAx val="366232704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17853,7 +17887,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723862240"/>
+        <c:axId val="366232704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17904,7 +17938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723861696"/>
+        <c:crossAx val="366231072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17949,14 +17983,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -17992,7 +18026,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -18141,7 +18175,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18198,7 +18232,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -18266,7 +18300,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18323,7 +18357,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -18391,7 +18425,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18448,7 +18482,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -18516,7 +18550,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18573,7 +18607,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-E3D9-4C7F-90F6-2604DF82C8E5}"/>
             </c:ext>
@@ -18641,7 +18675,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18698,7 +18732,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A94A-4A7B-AA17-0A05FC325F22}"/>
             </c:ext>
@@ -18766,7 +18800,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18823,7 +18857,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5229-491E-9990-2DEF6AB42F61}"/>
             </c:ext>
@@ -18893,7 +18927,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -18950,7 +18984,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2D77-4FAA-A1FB-F868E079D27A}"/>
             </c:ext>
@@ -19020,7 +19054,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19077,7 +19111,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6C83-4DA8-8692-F2C1A387B40C}"/>
             </c:ext>
@@ -19147,7 +19181,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19204,7 +19238,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8EDC-461C-9951-53E2913ACA58}"/>
             </c:ext>
@@ -19274,7 +19308,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19331,7 +19365,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D787-4D4B-A865-FADEB9F4CAFA}"/>
             </c:ext>
@@ -19401,7 +19435,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19458,7 +19492,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2444-4875-A4AF-9F4B10C14868}"/>
             </c:ext>
@@ -19528,7 +19562,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19585,7 +19619,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF85-48B4-AAA9-73B1DEBB6426}"/>
             </c:ext>
@@ -19656,7 +19690,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19713,7 +19747,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-66C4-4181-AE61-27B27B106A47}"/>
             </c:ext>
@@ -19784,7 +19818,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19841,7 +19875,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B4D7-42B8-94FB-0AB2E38B98B3}"/>
             </c:ext>
@@ -19912,7 +19946,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -19969,7 +20003,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DC98-44D8-BA9A-E246059DDE63}"/>
             </c:ext>
@@ -20040,7 +20074,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20097,7 +20131,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -20168,7 +20202,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20225,7 +20259,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F1E8-4521-BCB2-C3126A8BE65F}"/>
             </c:ext>
@@ -20296,7 +20330,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20353,7 +20387,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6BE5-491E-B328-66590AF3F9D3}"/>
             </c:ext>
@@ -20423,7 +20457,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20480,7 +20514,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2AF5-46E8-9CEE-6D2C155C2A77}"/>
             </c:ext>
@@ -20550,7 +20584,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20607,7 +20641,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FDBF-476C-B305-AC01B7789AB2}"/>
             </c:ext>
@@ -20677,7 +20711,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20734,7 +20768,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0196-49E0-ADD3-F2B68FB35623}"/>
             </c:ext>
@@ -20804,7 +20838,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20861,7 +20895,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2FF6-4456-A569-F095DCCAC0C0}"/>
             </c:ext>
@@ -20931,7 +20965,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -20988,7 +21022,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6ABF-497A-A0D1-EB588CBC2D04}"/>
             </c:ext>
@@ -21005,11 +21039,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723852448"/>
-        <c:axId val="723855712"/>
+        <c:axId val="364865104"/>
+        <c:axId val="364866192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723852448"/>
+        <c:axId val="364865104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21052,7 +21086,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723855712"/>
+        <c:crossAx val="364866192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21060,7 +21094,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723855712"/>
+        <c:axId val="364866192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21111,7 +21145,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723852448"/>
+        <c:crossAx val="364865104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21156,14 +21190,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -21199,7 +21233,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -21237,7 +21271,17 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( چهارشنبه 17 شهریور 1400 )</a:t>
+              <a:t> بازارها( شنبه (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>20 شهریور 1400</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fa-IR" baseline="0"/>
+              <a:t>) نسبت به روز چهارشنبه  )</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -21288,11 +21332,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="63"/>
-          <c:order val="63"/>
+          <c:idx val="64"/>
+          <c:order val="64"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
+              <a:schemeClr val="accent5">
                 <a:lumMod val="60000"/>
               </a:schemeClr>
             </a:solidFill>
@@ -21382,30 +21426,25 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$65:$I$65</c:f>
+              <c:f>'price change'!$F$66:$I$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.5117994100294985</c:v>
+                  <c:v>1.0897203051216855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49423393739703458</c:v>
+                  <c:v>-1.4754098360655739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8365211105892622E-2</c:v>
+                  <c:v>-0.33414712862535584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-13E9-4F3B-912C-01B0C4C2DCB7}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -21418,9 +21457,9 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="723854624"/>
-        <c:axId val="723857888"/>
-        <c:extLst>
+        <c:axId val="663591280"/>
+        <c:axId val="663599984"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
@@ -21474,7 +21513,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21496,7 +21535,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21522,7 +21561,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$2:$I$2</c15:sqref>
@@ -21535,7 +21574,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21594,7 +21633,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21616,7 +21655,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21642,7 +21681,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -21667,7 +21706,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21726,7 +21765,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21748,7 +21787,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21774,7 +21813,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -21799,7 +21838,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21858,7 +21897,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -21880,7 +21919,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21906,7 +21945,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -21931,7 +21970,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -21990,7 +22029,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22012,7 +22051,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22038,7 +22077,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -22063,7 +22102,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -22122,7 +22161,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22144,7 +22183,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22170,7 +22209,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -22195,7 +22234,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-34B6-4AF3-B436-4DC81C3E6FE0}"/>
                   </c:ext>
@@ -22256,7 +22295,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22278,7 +22317,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22304,7 +22343,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -22329,7 +22368,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FB1F-4985-99CF-C5CB0831531F}"/>
                   </c:ext>
@@ -22390,7 +22429,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22412,7 +22451,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22438,7 +22477,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -22463,7 +22502,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -22524,7 +22563,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22546,7 +22585,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22572,7 +22611,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -22597,7 +22636,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -22658,7 +22697,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22680,7 +22719,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22706,7 +22745,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -22731,7 +22770,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0A64-4372-9B83-0DF3EBC43A06}"/>
                   </c:ext>
@@ -22792,7 +22831,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22814,7 +22853,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22840,7 +22879,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22865,7 +22904,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0F7B-461B-B003-FBEFE0DDD362}"/>
                   </c:ext>
@@ -22926,7 +22965,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -22948,7 +22987,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22974,7 +23013,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -22996,7 +23035,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23058,7 +23097,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23080,7 +23119,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23106,7 +23145,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -23128,7 +23167,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23190,7 +23229,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23212,7 +23251,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23238,7 +23277,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -23263,7 +23302,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23325,7 +23364,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23347,7 +23386,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23373,7 +23412,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -23398,7 +23437,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23460,7 +23499,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23482,7 +23521,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23508,7 +23547,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -23533,7 +23572,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23595,7 +23634,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23617,7 +23656,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23643,7 +23682,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -23668,7 +23707,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23730,7 +23769,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23752,7 +23791,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23778,7 +23817,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -23803,7 +23842,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23864,7 +23903,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -23886,7 +23925,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23912,7 +23951,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -23937,7 +23976,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-C173-4A2B-B977-7F984C8BFA84}"/>
                   </c:ext>
@@ -23998,7 +24037,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24020,7 +24059,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24046,7 +24085,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -24071,7 +24110,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-EE85-428B-812F-1D9F482AFE7A}"/>
                   </c:ext>
@@ -24132,7 +24171,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24154,7 +24193,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24180,7 +24219,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -24205,7 +24244,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -24266,7 +24305,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24288,7 +24327,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24314,7 +24353,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -24339,7 +24378,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -24400,7 +24439,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24422,7 +24461,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24448,7 +24487,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -24473,7 +24512,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-BA3B-43EA-8A1B-C8AEECBFDEBA}"/>
                   </c:ext>
@@ -24534,7 +24573,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24556,7 +24595,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24582,7 +24621,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -24607,7 +24646,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-52ED-4762-B4AC-21DE46265382}"/>
                   </c:ext>
@@ -24669,7 +24708,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24691,7 +24730,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24717,7 +24756,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -24742,7 +24781,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-474E-47FD-8B08-FE4CFC7C76C1}"/>
                   </c:ext>
@@ -24804,7 +24843,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24826,7 +24865,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24852,7 +24891,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24877,7 +24916,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -24939,7 +24978,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -24961,7 +25000,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24987,7 +25026,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -25012,7 +25051,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -25074,7 +25113,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25096,7 +25135,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25122,7 +25161,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -25147,7 +25186,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -25209,7 +25248,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25231,7 +25270,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25257,7 +25296,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -25282,7 +25321,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -25344,7 +25383,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25366,7 +25405,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25392,7 +25431,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -25417,7 +25456,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -25478,7 +25517,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25500,7 +25539,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25526,7 +25565,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -25551,7 +25590,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-0148-4577-B119-591850F1711F}"/>
                   </c:ext>
@@ -25612,7 +25651,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25634,7 +25673,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25660,7 +25699,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -25685,7 +25724,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25746,7 +25785,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25768,7 +25807,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25794,7 +25833,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25819,7 +25858,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -25880,7 +25919,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -25902,7 +25941,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25928,7 +25967,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -25953,7 +25992,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26014,7 +26053,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26036,7 +26075,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26062,7 +26101,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -26087,7 +26126,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26148,7 +26187,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26170,7 +26209,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26196,7 +26235,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -26221,7 +26260,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26283,7 +26322,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26305,7 +26344,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26331,7 +26370,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -26356,7 +26395,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26418,7 +26457,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26440,7 +26479,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26466,7 +26505,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -26491,7 +26530,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26553,7 +26592,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26575,7 +26614,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26601,7 +26640,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -26626,7 +26665,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26688,7 +26727,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26710,7 +26749,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26736,7 +26775,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -26761,7 +26800,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-1CEA-4673-9661-2E7333B31E41}"/>
                   </c:ext>
@@ -26823,7 +26862,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26845,7 +26884,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26871,7 +26910,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -26896,7 +26935,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -26958,7 +26997,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -26980,7 +27019,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27006,7 +27045,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -27031,7 +27070,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-190E-4C22-950D-15EBE777B9C3}"/>
                   </c:ext>
@@ -27092,7 +27131,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27114,7 +27153,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27140,7 +27179,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -27165,7 +27204,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-0394-457D-88D1-90642EEC8A74}"/>
                   </c:ext>
@@ -27226,7 +27265,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27248,7 +27287,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27274,7 +27313,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -27299,7 +27338,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7D5E-44A9-B1FA-B35A4B4270CE}"/>
                   </c:ext>
@@ -27360,7 +27399,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27382,7 +27421,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27408,7 +27447,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -27433,7 +27472,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-642D-42BD-9427-3EA0B12E4C25}"/>
                   </c:ext>
@@ -27494,7 +27533,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27516,7 +27555,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27542,7 +27581,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -27567,7 +27606,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -27628,7 +27667,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27650,7 +27689,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27676,7 +27715,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -27701,7 +27740,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-F251-43F6-8549-1A594C6714C1}"/>
                   </c:ext>
@@ -27762,7 +27801,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27784,7 +27823,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27810,7 +27849,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27835,7 +27874,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-9702-4565-9B43-3EC01CDE7563}"/>
                   </c:ext>
@@ -27897,7 +27936,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -27919,7 +27958,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27945,7 +27984,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -27970,7 +28009,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -28032,7 +28071,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28054,7 +28093,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28080,7 +28119,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -28105,7 +28144,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -28167,7 +28206,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28189,7 +28228,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28215,7 +28254,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -28240,7 +28279,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -28302,7 +28341,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28324,7 +28363,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28350,7 +28389,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -28375,7 +28414,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-2BE7-4DA4-9DB8-45AD71C850B8}"/>
                   </c:ext>
@@ -28437,7 +28476,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28459,7 +28498,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28485,7 +28524,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -28510,7 +28549,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-76DD-422B-895A-B743B787CE5F}"/>
                   </c:ext>
@@ -28572,7 +28611,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28594,7 +28633,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28620,7 +28659,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -28645,7 +28684,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2132-44D5-BA8F-47CBE91EC861}"/>
                   </c:ext>
@@ -28704,7 +28743,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28726,7 +28765,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28752,7 +28791,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -28777,7 +28816,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28836,7 +28875,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28858,7 +28897,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28884,7 +28923,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -28909,7 +28948,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -28968,7 +29007,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -28990,7 +29029,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29016,7 +29055,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -29041,7 +29080,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-98A7-45F3-8A3F-1BC910C20E36}"/>
                   </c:ext>
@@ -29100,7 +29139,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29122,7 +29161,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29148,7 +29187,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -29173,7 +29212,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-123E-4E08-AA48-A97F75EAA52E}"/>
                   </c:ext>
@@ -29232,7 +29271,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29254,7 +29293,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29280,7 +29319,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -29305,7 +29344,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-950B-44DB-94DA-03A3DBCD5199}"/>
                   </c:ext>
@@ -29364,7 +29403,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29386,7 +29425,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29412,7 +29451,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -29437,7 +29476,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -29498,7 +29537,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29520,7 +29559,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29546,7 +29585,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
@@ -29571,7 +29610,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -29632,7 +29671,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29654,7 +29693,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29680,7 +29719,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$63:$I$63</c15:sqref>
@@ -29705,7 +29744,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
@@ -29766,7 +29805,7 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
@@ -29788,7 +29827,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29814,7 +29853,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$64:$I$64</c15:sqref>
@@ -29839,9 +29878,143 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-13E9-4F3B-912C-01B0C4C2DCB7}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="63"/>
+                <c:order val="63"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$65:$I$65</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.5117994100294985</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.49423393739703458</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>9.8365211105892622E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.19</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-13E9-4F3B-912C-01B0C4C2DCB7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -29850,7 +30023,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="723854624"/>
+        <c:axId val="663591280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29893,7 +30066,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723857888"/>
+        <c:crossAx val="663599984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -29901,7 +30074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723857888"/>
+        <c:axId val="663599984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29952,7 +30125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="723854624"/>
+        <c:crossAx val="663591280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33853,7 +34026,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33889,7 +34062,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33927,7 +34100,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -33965,7 +34138,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34003,7 +34176,7 @@
         <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34041,7 +34214,7 @@
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34068,10 +34241,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>135255</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -34084,7 +34257,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34367,45 +34540,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BM134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BM140"/>
   <sheetViews>
-    <sheetView topLeftCell="G112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N124" sqref="N124"/>
+    <sheetView topLeftCell="F118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="10" width="17.6640625" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="24.44140625" customWidth="1"/>
-    <col min="13" max="13" width="29.6640625" customWidth="1"/>
-    <col min="14" max="17" width="26.5546875" customWidth="1"/>
-    <col min="18" max="19" width="22.5546875" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" customWidth="1"/>
-    <col min="22" max="22" width="25.44140625" customWidth="1"/>
-    <col min="23" max="23" width="26.44140625" customWidth="1"/>
-    <col min="24" max="24" width="15.88671875" customWidth="1"/>
+    <col min="7" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="10" width="17.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="12" max="12" width="24.42578125" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" customWidth="1"/>
+    <col min="14" max="17" width="26.5703125" customWidth="1"/>
+    <col min="18" max="19" width="22.5703125" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="26.42578125" customWidth="1"/>
+    <col min="24" max="24" width="15.85546875" customWidth="1"/>
     <col min="25" max="27" width="23" customWidth="1"/>
     <col min="28" max="28" width="20" customWidth="1"/>
-    <col min="29" max="44" width="9.109375" customWidth="1"/>
-    <col min="45" max="45" width="12.6640625" customWidth="1"/>
-    <col min="46" max="56" width="9.109375" customWidth="1"/>
-    <col min="57" max="57" width="13.44140625" customWidth="1"/>
-    <col min="58" max="58" width="14.6640625" customWidth="1"/>
-    <col min="59" max="59" width="17.88671875" customWidth="1"/>
-    <col min="60" max="60" width="18.33203125" customWidth="1"/>
-    <col min="61" max="61" width="9.109375" customWidth="1"/>
-    <col min="62" max="63" width="8.88671875" customWidth="1"/>
-    <col min="64" max="64" width="9.109375" customWidth="1"/>
+    <col min="29" max="44" width="9.140625" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" customWidth="1"/>
+    <col min="46" max="56" width="9.140625" customWidth="1"/>
+    <col min="57" max="57" width="13.42578125" customWidth="1"/>
+    <col min="58" max="58" width="14.7109375" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" customWidth="1"/>
+    <col min="60" max="60" width="18.28515625" customWidth="1"/>
+    <col min="61" max="61" width="9.140625" customWidth="1"/>
+    <col min="62" max="63" width="8.85546875" customWidth="1"/>
+    <col min="64" max="64" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" s="2" customFormat="1" ht="30" customHeight="1">
@@ -34457,16 +34630,16 @@
       <c r="R1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="9">
-        <f>L125/G125</f>
-        <v>24039.78447047278</v>
+      <c r="S1" s="9" t="e">
+        <f>L127/G127</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
-        <f>M125/K125</f>
-        <v>28338.286545522333</v>
+        <f>M127/K127</f>
+        <v>28367.94761100299</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -34790,7 +34963,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="e">
-        <f t="shared" ref="BJ3:BJ125" si="3">(Y3-O3)/O3</f>
+        <f t="shared" ref="BJ3:BJ127" si="3">(Y3-O3)/O3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK3">
@@ -42503,8 +42676,8 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="32">
-        <f>K125/K62</f>
-        <v>142.20723835869063</v>
+        <f>K127/K62</f>
+        <v>143.61745043798985</v>
       </c>
       <c r="BL62">
         <f t="shared" si="5"/>
@@ -44190,7 +44363,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M124" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M125" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -45302,7 +45475,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L124" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L125" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -46901,11 +47074,11 @@
       <c r="K105" s="4">
         <v>728300</v>
       </c>
-      <c r="L105" s="15">
+      <c r="L105" s="4">
         <f t="shared" si="14"/>
         <v>252384066300</v>
       </c>
-      <c r="M105" s="15">
+      <c r="M105" s="4">
         <f t="shared" si="13"/>
         <v>21875218800</v>
       </c>
@@ -47569,102 +47742,102 @@
       <c r="BG111" s="31"/>
       <c r="BH111" s="31"/>
     </row>
-    <row r="112" spans="1:60" s="75" customFormat="1" ht="21" customHeight="1">
-      <c r="A112" s="72"/>
-      <c r="B112" s="73" t="s">
+    <row r="112" spans="1:60" s="70" customFormat="1" ht="21" customHeight="1">
+      <c r="A112" s="67"/>
+      <c r="B112" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="73">
+      <c r="C112" s="68">
         <v>4</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="69">
         <v>27030</v>
       </c>
-      <c r="E112" s="73">
+      <c r="E112" s="68">
         <v>27490</v>
       </c>
-      <c r="F112" s="73">
+      <c r="F112" s="68">
         <v>27299</v>
       </c>
-      <c r="G112" s="73">
+      <c r="G112" s="68">
         <v>3900800</v>
       </c>
-      <c r="H112" s="73">
+      <c r="H112" s="68">
         <v>31739</v>
       </c>
-      <c r="I112" s="73">
+      <c r="I112" s="68">
         <v>31798</v>
       </c>
-      <c r="J112" s="73">
+      <c r="J112" s="68">
         <v>31665</v>
       </c>
-      <c r="K112" s="73">
+      <c r="K112" s="68">
         <v>1037800</v>
       </c>
-      <c r="L112" s="73">
+      <c r="L112" s="68">
         <f t="shared" si="14"/>
         <v>106487939200</v>
       </c>
-      <c r="M112" s="73">
+      <c r="M112" s="68">
         <f t="shared" si="13"/>
         <v>32861937000</v>
       </c>
-      <c r="N112" s="75">
+      <c r="N112" s="70">
         <v>27765</v>
       </c>
-      <c r="O112" s="75">
+      <c r="O112" s="70">
         <v>32116</v>
       </c>
-      <c r="P112" s="73">
+      <c r="P112" s="68">
         <v>27300</v>
       </c>
-      <c r="Q112" s="75">
+      <c r="Q112" s="70">
         <v>32056</v>
       </c>
-      <c r="R112" s="73"/>
-      <c r="S112" s="73"/>
-      <c r="T112" s="73"/>
-      <c r="U112" s="73"/>
-      <c r="X112" s="75">
+      <c r="R112" s="68"/>
+      <c r="S112" s="68"/>
+      <c r="T112" s="68"/>
+      <c r="U112" s="68"/>
+      <c r="X112" s="70">
         <v>27920</v>
       </c>
-      <c r="Y112" s="75">
+      <c r="Y112" s="70">
         <v>32700</v>
       </c>
-      <c r="Z112" s="73"/>
-      <c r="AA112" s="73"/>
-      <c r="AB112" s="73"/>
-      <c r="AC112" s="73"/>
-      <c r="AD112" s="73"/>
-      <c r="AE112" s="73"/>
-      <c r="AF112" s="73"/>
-      <c r="AG112" s="73"/>
-      <c r="AH112" s="73"/>
-      <c r="AI112" s="73"/>
-      <c r="AJ112" s="73"/>
-      <c r="AK112" s="73"/>
-      <c r="AL112" s="73"/>
-      <c r="AM112" s="73"/>
-      <c r="AN112" s="73"/>
-      <c r="AO112" s="73"/>
-      <c r="AP112" s="73"/>
-      <c r="AQ112" s="73"/>
-      <c r="AR112" s="73"/>
-      <c r="AS112" s="74"/>
-      <c r="AT112" s="74"/>
-      <c r="AU112" s="74"/>
-      <c r="AV112" s="74"/>
-      <c r="AW112" s="74"/>
-      <c r="AX112" s="74"/>
-      <c r="AY112" s="73"/>
-      <c r="AZ112" s="73"/>
-      <c r="BA112" s="73"/>
-      <c r="BB112" s="73"/>
-      <c r="BC112" s="73"/>
-      <c r="BE112" s="76"/>
-      <c r="BF112" s="76"/>
-      <c r="BG112" s="76"/>
-      <c r="BH112" s="76"/>
+      <c r="Z112" s="68"/>
+      <c r="AA112" s="68"/>
+      <c r="AB112" s="68"/>
+      <c r="AC112" s="68"/>
+      <c r="AD112" s="68"/>
+      <c r="AE112" s="68"/>
+      <c r="AF112" s="68"/>
+      <c r="AG112" s="68"/>
+      <c r="AH112" s="68"/>
+      <c r="AI112" s="68"/>
+      <c r="AJ112" s="68"/>
+      <c r="AK112" s="68"/>
+      <c r="AL112" s="68"/>
+      <c r="AM112" s="68"/>
+      <c r="AN112" s="68"/>
+      <c r="AO112" s="68"/>
+      <c r="AP112" s="68"/>
+      <c r="AQ112" s="68"/>
+      <c r="AR112" s="68"/>
+      <c r="AS112" s="69"/>
+      <c r="AT112" s="69"/>
+      <c r="AU112" s="69"/>
+      <c r="AV112" s="69"/>
+      <c r="AW112" s="69"/>
+      <c r="AX112" s="69"/>
+      <c r="AY112" s="68"/>
+      <c r="AZ112" s="68"/>
+      <c r="BA112" s="68"/>
+      <c r="BB112" s="68"/>
+      <c r="BC112" s="68"/>
+      <c r="BE112" s="71"/>
+      <c r="BF112" s="71"/>
+      <c r="BG112" s="71"/>
+      <c r="BH112" s="71"/>
     </row>
     <row r="113" spans="1:62" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A113" s="14"/>
@@ -48166,103 +48339,103 @@
       <c r="BG117" s="16"/>
       <c r="BH117" s="16"/>
     </row>
-    <row r="118" spans="1:62" s="75" customFormat="1" ht="21" customHeight="1">
-      <c r="A118" s="72"/>
-      <c r="B118" s="73" t="s">
+    <row r="118" spans="1:62" s="70" customFormat="1" ht="21" customHeight="1">
+      <c r="A118" s="67"/>
+      <c r="B118" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="C118" s="73">
+      <c r="C118" s="68">
         <v>11</v>
       </c>
-      <c r="D118" s="74">
+      <c r="D118" s="69">
         <v>26261</v>
       </c>
-      <c r="E118" s="73">
+      <c r="E118" s="68">
         <v>26408</v>
       </c>
-      <c r="F118" s="73">
+      <c r="F118" s="68">
         <v>26353</v>
       </c>
-      <c r="G118" s="73">
+      <c r="G118" s="68">
         <v>5094700</v>
       </c>
-      <c r="H118" s="73">
+      <c r="H118" s="68">
         <v>30797</v>
       </c>
-      <c r="I118" s="73">
+      <c r="I118" s="68">
         <v>31052</v>
       </c>
-      <c r="J118" s="73">
+      <c r="J118" s="68">
         <v>30846</v>
       </c>
-      <c r="K118" s="73">
+      <c r="K118" s="68">
         <v>577000</v>
       </c>
-      <c r="L118" s="73">
+      <c r="L118" s="68">
         <f t="shared" si="14"/>
         <v>134260629100</v>
       </c>
-      <c r="M118" s="73">
+      <c r="M118" s="68">
         <f t="shared" si="13"/>
         <v>17798142000</v>
       </c>
-      <c r="N118" s="75">
+      <c r="N118" s="70">
         <v>26672</v>
       </c>
-      <c r="O118" s="75">
+      <c r="O118" s="70">
         <v>31362</v>
       </c>
-      <c r="P118" s="73">
+      <c r="P118" s="68">
         <v>26523</v>
       </c>
-      <c r="Q118" s="75">
+      <c r="Q118" s="70">
         <v>31105</v>
       </c>
-      <c r="R118" s="73"/>
-      <c r="S118" s="73"/>
-      <c r="T118" s="73"/>
-      <c r="U118" s="73"/>
-      <c r="V118" s="77"/>
-      <c r="X118" s="75">
+      <c r="R118" s="68"/>
+      <c r="S118" s="68"/>
+      <c r="T118" s="68"/>
+      <c r="U118" s="68"/>
+      <c r="V118" s="72"/>
+      <c r="X118" s="70">
         <v>27190</v>
       </c>
-      <c r="Y118" s="75">
+      <c r="Y118" s="70">
         <v>32300</v>
       </c>
-      <c r="Z118" s="73"/>
-      <c r="AA118" s="73"/>
-      <c r="AB118" s="73"/>
-      <c r="AC118" s="73"/>
-      <c r="AD118" s="73"/>
-      <c r="AE118" s="73"/>
-      <c r="AF118" s="73"/>
-      <c r="AG118" s="73"/>
-      <c r="AH118" s="73"/>
-      <c r="AI118" s="73"/>
-      <c r="AJ118" s="73"/>
-      <c r="AK118" s="73"/>
-      <c r="AL118" s="73"/>
-      <c r="AM118" s="73"/>
-      <c r="AN118" s="73"/>
-      <c r="AO118" s="73"/>
-      <c r="AP118" s="73"/>
-      <c r="AQ118" s="73"/>
-      <c r="AR118" s="73"/>
-      <c r="AS118" s="74"/>
-      <c r="AT118" s="74"/>
-      <c r="AU118" s="74"/>
-      <c r="AV118" s="74"/>
-      <c r="AW118" s="74"/>
-      <c r="AX118" s="74"/>
-      <c r="AY118" s="73"/>
-      <c r="AZ118" s="73"/>
-      <c r="BA118" s="73"/>
-      <c r="BB118" s="73"/>
-      <c r="BC118" s="73"/>
-      <c r="BE118" s="76"/>
-      <c r="BF118" s="76"/>
-      <c r="BG118" s="76"/>
-      <c r="BH118" s="76"/>
+      <c r="Z118" s="68"/>
+      <c r="AA118" s="68"/>
+      <c r="AB118" s="68"/>
+      <c r="AC118" s="68"/>
+      <c r="AD118" s="68"/>
+      <c r="AE118" s="68"/>
+      <c r="AF118" s="68"/>
+      <c r="AG118" s="68"/>
+      <c r="AH118" s="68"/>
+      <c r="AI118" s="68"/>
+      <c r="AJ118" s="68"/>
+      <c r="AK118" s="68"/>
+      <c r="AL118" s="68"/>
+      <c r="AM118" s="68"/>
+      <c r="AN118" s="68"/>
+      <c r="AO118" s="68"/>
+      <c r="AP118" s="68"/>
+      <c r="AQ118" s="68"/>
+      <c r="AR118" s="68"/>
+      <c r="AS118" s="69"/>
+      <c r="AT118" s="69"/>
+      <c r="AU118" s="69"/>
+      <c r="AV118" s="69"/>
+      <c r="AW118" s="69"/>
+      <c r="AX118" s="69"/>
+      <c r="AY118" s="68"/>
+      <c r="AZ118" s="68"/>
+      <c r="BA118" s="68"/>
+      <c r="BB118" s="68"/>
+      <c r="BC118" s="68"/>
+      <c r="BE118" s="71"/>
+      <c r="BF118" s="71"/>
+      <c r="BG118" s="71"/>
+      <c r="BH118" s="71"/>
     </row>
     <row r="119" spans="1:62" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A119" s="30"/>
@@ -48364,405 +48537,405 @@
       <c r="BG119" s="31"/>
       <c r="BH119" s="31"/>
     </row>
-    <row r="120" spans="1:62" s="63" customFormat="1" ht="21" customHeight="1">
-      <c r="A120" s="60"/>
-      <c r="B120" s="61" t="s">
+    <row r="120" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
+      <c r="A120" s="55"/>
+      <c r="B120" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="C120" s="61">
+      <c r="C120" s="56">
         <v>14</v>
       </c>
-      <c r="D120" s="62">
+      <c r="D120" s="57">
         <v>26441</v>
       </c>
-      <c r="E120" s="61">
+      <c r="E120" s="56">
         <v>26423</v>
       </c>
-      <c r="F120" s="61">
+      <c r="F120" s="56">
         <v>26453</v>
       </c>
-      <c r="G120" s="61">
+      <c r="G120" s="56">
         <v>6934900</v>
       </c>
-      <c r="H120" s="61">
+      <c r="H120" s="56">
         <v>31300</v>
       </c>
-      <c r="I120" s="61">
+      <c r="I120" s="56">
         <v>31047</v>
       </c>
-      <c r="J120" s="61">
+      <c r="J120" s="56">
         <v>31045</v>
       </c>
-      <c r="K120" s="61">
+      <c r="K120" s="56">
         <v>1267000</v>
       </c>
-      <c r="L120" s="61">
+      <c r="L120" s="56">
         <f t="shared" si="14"/>
         <v>183448909700</v>
       </c>
-      <c r="M120" s="61">
+      <c r="M120" s="56">
         <f t="shared" si="13"/>
         <v>39334015000</v>
       </c>
-      <c r="N120" s="63">
+      <c r="N120" s="58">
         <v>26687</v>
       </c>
-      <c r="O120" s="63">
+      <c r="O120" s="58">
         <v>31358</v>
       </c>
-      <c r="P120" s="61">
+      <c r="P120" s="56">
         <v>26705</v>
       </c>
-      <c r="Q120" s="63">
+      <c r="Q120" s="58">
         <v>31613</v>
       </c>
-      <c r="R120" s="61"/>
-      <c r="S120" s="61"/>
-      <c r="T120" s="61"/>
-      <c r="U120" s="61"/>
-      <c r="V120" s="64">
+      <c r="R120" s="56"/>
+      <c r="S120" s="56"/>
+      <c r="T120" s="56"/>
+      <c r="U120" s="56"/>
+      <c r="V120" s="59">
         <v>27170</v>
       </c>
-      <c r="X120" s="63">
+      <c r="X120" s="58">
         <v>27190</v>
       </c>
-      <c r="Y120" s="63">
+      <c r="Y120" s="58">
         <v>32356</v>
       </c>
-      <c r="Z120" s="61"/>
-      <c r="AA120" s="61"/>
-      <c r="AB120" s="61"/>
-      <c r="AC120" s="61"/>
-      <c r="AD120" s="61"/>
-      <c r="AE120" s="61"/>
-      <c r="AF120" s="61"/>
-      <c r="AG120" s="61"/>
-      <c r="AH120" s="61"/>
-      <c r="AI120" s="61"/>
-      <c r="AJ120" s="61"/>
-      <c r="AK120" s="61"/>
-      <c r="AL120" s="61"/>
-      <c r="AM120" s="61"/>
-      <c r="AN120" s="61"/>
-      <c r="AO120" s="61"/>
-      <c r="AP120" s="61"/>
-      <c r="AQ120" s="61"/>
-      <c r="AR120" s="61"/>
-      <c r="AS120" s="62"/>
-      <c r="AT120" s="62"/>
-      <c r="AU120" s="62"/>
-      <c r="AV120" s="62"/>
-      <c r="AW120" s="62"/>
-      <c r="AX120" s="62"/>
-      <c r="AY120" s="61"/>
-      <c r="AZ120" s="61"/>
-      <c r="BA120" s="61"/>
-      <c r="BB120" s="61"/>
-      <c r="BC120" s="61"/>
-      <c r="BE120" s="65"/>
-      <c r="BF120" s="65"/>
-      <c r="BG120" s="65"/>
-      <c r="BH120" s="65"/>
-    </row>
-    <row r="121" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A121" s="66"/>
-      <c r="B121" s="67" t="s">
+      <c r="Z120" s="56"/>
+      <c r="AA120" s="56"/>
+      <c r="AB120" s="56"/>
+      <c r="AC120" s="56"/>
+      <c r="AD120" s="56"/>
+      <c r="AE120" s="56"/>
+      <c r="AF120" s="56"/>
+      <c r="AG120" s="56"/>
+      <c r="AH120" s="56"/>
+      <c r="AI120" s="56"/>
+      <c r="AJ120" s="56"/>
+      <c r="AK120" s="56"/>
+      <c r="AL120" s="56"/>
+      <c r="AM120" s="56"/>
+      <c r="AN120" s="56"/>
+      <c r="AO120" s="56"/>
+      <c r="AP120" s="56"/>
+      <c r="AQ120" s="56"/>
+      <c r="AR120" s="56"/>
+      <c r="AS120" s="57"/>
+      <c r="AT120" s="57"/>
+      <c r="AU120" s="57"/>
+      <c r="AV120" s="57"/>
+      <c r="AW120" s="57"/>
+      <c r="AX120" s="57"/>
+      <c r="AY120" s="56"/>
+      <c r="AZ120" s="56"/>
+      <c r="BA120" s="56"/>
+      <c r="BB120" s="56"/>
+      <c r="BC120" s="56"/>
+      <c r="BE120" s="60"/>
+      <c r="BF120" s="60"/>
+      <c r="BG120" s="60"/>
+      <c r="BH120" s="60"/>
+    </row>
+    <row r="121" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A121" s="61"/>
+      <c r="B121" s="62" t="s">
         <v>317</v>
       </c>
-      <c r="C121" s="67">
+      <c r="C121" s="62">
         <v>15</v>
       </c>
-      <c r="D121" s="68">
+      <c r="D121" s="63">
         <v>26450</v>
       </c>
-      <c r="E121" s="67">
+      <c r="E121" s="62">
         <v>26328</v>
       </c>
-      <c r="F121" s="67">
+      <c r="F121" s="62">
         <v>26359</v>
       </c>
-      <c r="G121" s="67">
+      <c r="G121" s="62">
         <v>5658100</v>
       </c>
-      <c r="H121" s="67">
+      <c r="H121" s="62">
         <v>30950</v>
       </c>
-      <c r="I121" s="67">
+      <c r="I121" s="62">
         <v>31104</v>
       </c>
-      <c r="J121" s="67">
+      <c r="J121" s="62">
         <v>31137</v>
       </c>
-      <c r="K121" s="67">
+      <c r="K121" s="62">
         <v>702100</v>
       </c>
-      <c r="L121" s="67">
+      <c r="L121" s="62">
         <f t="shared" si="14"/>
         <v>149141857900</v>
       </c>
-      <c r="M121" s="67">
+      <c r="M121" s="62">
         <f t="shared" si="13"/>
         <v>21861287700</v>
       </c>
-      <c r="N121" s="69">
+      <c r="N121" s="64">
         <v>26591</v>
       </c>
-      <c r="O121" s="69">
+      <c r="O121" s="64">
         <v>31415</v>
       </c>
-      <c r="P121" s="67">
+      <c r="P121" s="62">
         <v>26714</v>
       </c>
-      <c r="Q121" s="69">
+      <c r="Q121" s="64">
         <v>31259</v>
       </c>
-      <c r="R121" s="67"/>
-      <c r="S121" s="67"/>
-      <c r="T121" s="67"/>
-      <c r="U121" s="67"/>
-      <c r="V121" s="70">
+      <c r="R121" s="62"/>
+      <c r="S121" s="62"/>
+      <c r="T121" s="62"/>
+      <c r="U121" s="62"/>
+      <c r="V121" s="65">
         <v>27070</v>
       </c>
-      <c r="X121" s="69">
+      <c r="X121" s="64">
         <v>27010</v>
       </c>
-      <c r="Y121" s="69">
+      <c r="Y121" s="64">
         <v>32081</v>
       </c>
-      <c r="Z121" s="67"/>
-      <c r="AA121" s="67"/>
-      <c r="AB121" s="67"/>
-      <c r="AC121" s="67"/>
-      <c r="AD121" s="67"/>
-      <c r="AE121" s="67"/>
-      <c r="AF121" s="67"/>
-      <c r="AG121" s="67"/>
-      <c r="AH121" s="67"/>
-      <c r="AI121" s="67"/>
-      <c r="AJ121" s="67"/>
-      <c r="AK121" s="67"/>
-      <c r="AL121" s="67"/>
-      <c r="AM121" s="67"/>
-      <c r="AN121" s="67"/>
-      <c r="AO121" s="67"/>
-      <c r="AP121" s="67"/>
-      <c r="AQ121" s="67"/>
-      <c r="AR121" s="67"/>
-      <c r="AS121" s="68"/>
-      <c r="AT121" s="68"/>
-      <c r="AU121" s="68"/>
-      <c r="AV121" s="68"/>
-      <c r="AW121" s="68"/>
-      <c r="AX121" s="68"/>
-      <c r="AY121" s="67"/>
-      <c r="AZ121" s="67"/>
-      <c r="BA121" s="67"/>
-      <c r="BB121" s="67"/>
-      <c r="BC121" s="67"/>
-      <c r="BE121" s="71"/>
-      <c r="BF121" s="71"/>
-      <c r="BG121" s="71"/>
-      <c r="BH121" s="71"/>
-    </row>
-    <row r="122" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A122" s="66"/>
-      <c r="B122" s="67" t="s">
+      <c r="Z121" s="62"/>
+      <c r="AA121" s="62"/>
+      <c r="AB121" s="62"/>
+      <c r="AC121" s="62"/>
+      <c r="AD121" s="62"/>
+      <c r="AE121" s="62"/>
+      <c r="AF121" s="62"/>
+      <c r="AG121" s="62"/>
+      <c r="AH121" s="62"/>
+      <c r="AI121" s="62"/>
+      <c r="AJ121" s="62"/>
+      <c r="AK121" s="62"/>
+      <c r="AL121" s="62"/>
+      <c r="AM121" s="62"/>
+      <c r="AN121" s="62"/>
+      <c r="AO121" s="62"/>
+      <c r="AP121" s="62"/>
+      <c r="AQ121" s="62"/>
+      <c r="AR121" s="62"/>
+      <c r="AS121" s="63"/>
+      <c r="AT121" s="63"/>
+      <c r="AU121" s="63"/>
+      <c r="AV121" s="63"/>
+      <c r="AW121" s="63"/>
+      <c r="AX121" s="63"/>
+      <c r="AY121" s="62"/>
+      <c r="AZ121" s="62"/>
+      <c r="BA121" s="62"/>
+      <c r="BB121" s="62"/>
+      <c r="BC121" s="62"/>
+      <c r="BE121" s="66"/>
+      <c r="BF121" s="66"/>
+      <c r="BG121" s="66"/>
+      <c r="BH121" s="66"/>
+    </row>
+    <row r="122" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A122" s="61"/>
+      <c r="B122" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="C122" s="67">
+      <c r="C122" s="62">
         <v>16</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D122" s="63">
         <v>26570</v>
       </c>
-      <c r="E122" s="67">
+      <c r="E122" s="62">
         <v>26360</v>
       </c>
-      <c r="F122" s="67">
+      <c r="F122" s="62">
         <v>26384</v>
       </c>
-      <c r="G122" s="67">
+      <c r="G122" s="62">
         <v>7781600</v>
       </c>
-      <c r="H122" s="67">
+      <c r="H122" s="62">
         <v>31212</v>
       </c>
-      <c r="I122" s="67">
+      <c r="I122" s="62">
         <v>31350</v>
       </c>
-      <c r="J122" s="67">
+      <c r="J122" s="62">
         <v>31111</v>
       </c>
-      <c r="K122" s="67">
+      <c r="K122" s="62">
         <v>1167200</v>
       </c>
-      <c r="L122" s="67">
+      <c r="L122" s="62">
         <f t="shared" si="14"/>
         <v>205309734400</v>
       </c>
-      <c r="M122" s="67">
+      <c r="M122" s="62">
         <f t="shared" si="13"/>
         <v>36312759200</v>
       </c>
-      <c r="N122" s="69">
+      <c r="N122" s="64">
         <v>26623</v>
       </c>
-      <c r="O122" s="69">
+      <c r="O122" s="64">
         <v>31663</v>
       </c>
-      <c r="P122" s="67">
+      <c r="P122" s="62">
         <v>26836</v>
       </c>
-      <c r="Q122" s="69">
+      <c r="Q122" s="64">
         <v>31525</v>
       </c>
-      <c r="R122" s="67"/>
-      <c r="S122" s="67"/>
-      <c r="T122" s="67"/>
-      <c r="U122" s="67"/>
-      <c r="V122" s="69">
+      <c r="R122" s="62"/>
+      <c r="S122" s="62"/>
+      <c r="T122" s="62"/>
+      <c r="U122" s="62"/>
+      <c r="V122" s="64">
         <v>27180</v>
       </c>
-      <c r="X122" s="69">
+      <c r="X122" s="64">
         <v>27120</v>
       </c>
-      <c r="Y122" s="69">
+      <c r="Y122" s="64">
         <v>32297</v>
       </c>
-      <c r="Z122" s="67"/>
-      <c r="AA122" s="67"/>
-      <c r="AB122" s="67"/>
-      <c r="AC122" s="67"/>
-      <c r="AD122" s="67"/>
-      <c r="AE122" s="67"/>
-      <c r="AF122" s="67"/>
-      <c r="AG122" s="67"/>
-      <c r="AH122" s="67"/>
-      <c r="AI122" s="67"/>
-      <c r="AJ122" s="67"/>
-      <c r="AK122" s="67"/>
-      <c r="AL122" s="67"/>
-      <c r="AM122" s="67"/>
-      <c r="AN122" s="67"/>
-      <c r="AO122" s="67"/>
-      <c r="AP122" s="67"/>
-      <c r="AQ122" s="67"/>
-      <c r="AR122" s="67"/>
-      <c r="AS122" s="68"/>
-      <c r="AT122" s="68"/>
-      <c r="AU122" s="68"/>
-      <c r="AV122" s="68"/>
-      <c r="AW122" s="68"/>
-      <c r="AX122" s="68"/>
-      <c r="AY122" s="67"/>
-      <c r="AZ122" s="67"/>
-      <c r="BA122" s="67"/>
-      <c r="BB122" s="67"/>
-      <c r="BC122" s="67"/>
-      <c r="BE122" s="71"/>
-      <c r="BF122" s="71"/>
-      <c r="BG122" s="71"/>
-      <c r="BH122" s="71"/>
-    </row>
-    <row r="123" spans="1:62" s="69" customFormat="1" ht="21" customHeight="1">
-      <c r="A123" s="66"/>
-      <c r="B123" s="67" t="s">
+      <c r="Z122" s="62"/>
+      <c r="AA122" s="62"/>
+      <c r="AB122" s="62"/>
+      <c r="AC122" s="62"/>
+      <c r="AD122" s="62"/>
+      <c r="AE122" s="62"/>
+      <c r="AF122" s="62"/>
+      <c r="AG122" s="62"/>
+      <c r="AH122" s="62"/>
+      <c r="AI122" s="62"/>
+      <c r="AJ122" s="62"/>
+      <c r="AK122" s="62"/>
+      <c r="AL122" s="62"/>
+      <c r="AM122" s="62"/>
+      <c r="AN122" s="62"/>
+      <c r="AO122" s="62"/>
+      <c r="AP122" s="62"/>
+      <c r="AQ122" s="62"/>
+      <c r="AR122" s="62"/>
+      <c r="AS122" s="63"/>
+      <c r="AT122" s="63"/>
+      <c r="AU122" s="63"/>
+      <c r="AV122" s="63"/>
+      <c r="AW122" s="63"/>
+      <c r="AX122" s="63"/>
+      <c r="AY122" s="62"/>
+      <c r="AZ122" s="62"/>
+      <c r="BA122" s="62"/>
+      <c r="BB122" s="62"/>
+      <c r="BC122" s="62"/>
+      <c r="BE122" s="66"/>
+      <c r="BF122" s="66"/>
+      <c r="BG122" s="66"/>
+      <c r="BH122" s="66"/>
+    </row>
+    <row r="123" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+      <c r="A123" s="61"/>
+      <c r="B123" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="C123" s="67">
+      <c r="C123" s="62">
         <v>17</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D123" s="63">
         <v>26681</v>
       </c>
-      <c r="E123" s="67">
+      <c r="E123" s="62">
         <v>26582</v>
       </c>
-      <c r="F123" s="67">
+      <c r="F123" s="62">
         <v>26514</v>
       </c>
-      <c r="G123" s="67">
+      <c r="G123" s="62">
         <v>10053900</v>
       </c>
-      <c r="H123" s="67">
+      <c r="H123" s="62">
         <v>31234</v>
       </c>
-      <c r="I123" s="67">
+      <c r="I123" s="62">
         <v>31217</v>
       </c>
-      <c r="J123" s="67">
+      <c r="J123" s="62">
         <v>31159</v>
       </c>
-      <c r="K123" s="67">
+      <c r="K123" s="62">
         <v>1549100</v>
       </c>
-      <c r="L123" s="67">
+      <c r="L123" s="62">
         <f t="shared" si="14"/>
         <v>266569104600</v>
       </c>
-      <c r="M123" s="67">
+      <c r="M123" s="62">
         <f t="shared" si="13"/>
         <v>48268406900</v>
       </c>
-      <c r="N123" s="69">
+      <c r="N123" s="64">
         <v>26852</v>
       </c>
-      <c r="O123" s="69">
+      <c r="O123" s="64">
         <v>31530</v>
       </c>
-      <c r="P123" s="67">
+      <c r="P123" s="62">
         <v>26948</v>
       </c>
-      <c r="Q123" s="69">
+      <c r="Q123" s="64">
         <v>31547</v>
       </c>
-      <c r="R123" s="67"/>
-      <c r="S123" s="67"/>
-      <c r="T123" s="67"/>
-      <c r="U123" s="67"/>
-      <c r="V123" s="69">
+      <c r="R123" s="62"/>
+      <c r="S123" s="62"/>
+      <c r="T123" s="62"/>
+      <c r="U123" s="62"/>
+      <c r="V123" s="64">
         <v>27570</v>
       </c>
-      <c r="X123" s="69">
+      <c r="X123" s="64">
         <v>27530</v>
       </c>
-      <c r="Y123" s="69">
+      <c r="Y123" s="64">
         <v>32539</v>
       </c>
-      <c r="Z123" s="67"/>
-      <c r="AA123" s="67"/>
-      <c r="AB123" s="67"/>
-      <c r="AC123" s="67"/>
-      <c r="AD123" s="67"/>
-      <c r="AE123" s="67"/>
-      <c r="AF123" s="67"/>
-      <c r="AG123" s="67"/>
-      <c r="AH123" s="67"/>
-      <c r="AI123" s="67"/>
-      <c r="AJ123" s="67"/>
-      <c r="AK123" s="67"/>
-      <c r="AL123" s="67"/>
-      <c r="AM123" s="67"/>
-      <c r="AN123" s="67"/>
-      <c r="AO123" s="67"/>
-      <c r="AP123" s="67"/>
-      <c r="AQ123" s="67"/>
-      <c r="AR123" s="67"/>
-      <c r="AS123" s="68"/>
-      <c r="AT123" s="68"/>
-      <c r="AU123" s="68"/>
-      <c r="AV123" s="68"/>
-      <c r="AW123" s="68"/>
-      <c r="AX123" s="68"/>
-      <c r="AY123" s="67"/>
-      <c r="AZ123" s="67"/>
-      <c r="BA123" s="67"/>
-      <c r="BB123" s="67"/>
-      <c r="BC123" s="67"/>
-      <c r="BE123" s="71"/>
-      <c r="BF123" s="71"/>
-      <c r="BG123" s="71"/>
-      <c r="BH123" s="71"/>
+      <c r="Z123" s="62"/>
+      <c r="AA123" s="62"/>
+      <c r="AB123" s="62"/>
+      <c r="AC123" s="62"/>
+      <c r="AD123" s="62"/>
+      <c r="AE123" s="62"/>
+      <c r="AF123" s="62"/>
+      <c r="AG123" s="62"/>
+      <c r="AH123" s="62"/>
+      <c r="AI123" s="62"/>
+      <c r="AJ123" s="62"/>
+      <c r="AK123" s="62"/>
+      <c r="AL123" s="62"/>
+      <c r="AM123" s="62"/>
+      <c r="AN123" s="62"/>
+      <c r="AO123" s="62"/>
+      <c r="AP123" s="62"/>
+      <c r="AQ123" s="62"/>
+      <c r="AR123" s="62"/>
+      <c r="AS123" s="63"/>
+      <c r="AT123" s="63"/>
+      <c r="AU123" s="63"/>
+      <c r="AV123" s="63"/>
+      <c r="AW123" s="63"/>
+      <c r="AX123" s="63"/>
+      <c r="AY123" s="62"/>
+      <c r="AZ123" s="62"/>
+      <c r="BA123" s="62"/>
+      <c r="BB123" s="62"/>
+      <c r="BC123" s="62"/>
+      <c r="BE123" s="66"/>
+      <c r="BF123" s="66"/>
+      <c r="BG123" s="66"/>
+      <c r="BH123" s="66"/>
     </row>
     <row r="124" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A124" s="55"/>
@@ -48796,11 +48969,11 @@
       <c r="K124" s="56">
         <v>1009100</v>
       </c>
-      <c r="L124" s="67">
+      <c r="L124" s="56">
         <f t="shared" si="14"/>
         <v>172687578300</v>
       </c>
-      <c r="M124" s="67">
+      <c r="M124" s="56">
         <f t="shared" si="13"/>
         <v>31501074700</v>
       </c>
@@ -48856,163 +49029,330 @@
       <c r="BA124" s="56"/>
       <c r="BB124" s="56"/>
       <c r="BC124" s="56"/>
-      <c r="BE124" s="59"/>
-      <c r="BF124" s="59"/>
-      <c r="BG124" s="59"/>
-      <c r="BH124" s="59"/>
-    </row>
-    <row r="125" spans="1:62" ht="18">
-      <c r="A125" s="6"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7">
-        <f>SUM(G2:G124)</f>
-        <v>717914399</v>
-      </c>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7">
-        <f>SUM(K2:K124)</f>
-        <v>123379000</v>
-      </c>
-      <c r="L125" s="7">
-        <f>SUM(L2:L124)</f>
-        <v>17258507420209</v>
-      </c>
-      <c r="M125" s="4">
-        <f>SUM(M2:M124)</f>
-        <v>3496349455700</v>
-      </c>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-      <c r="AA125" s="4"/>
-      <c r="AB125" s="4"/>
-      <c r="AC125" s="4"/>
-      <c r="AD125" s="4"/>
-      <c r="AE125" s="4"/>
-      <c r="AF125" s="4"/>
-      <c r="AG125" s="4"/>
-      <c r="AH125" s="4"/>
-      <c r="AI125" s="4"/>
-      <c r="AJ125" s="4"/>
-      <c r="AK125" s="4"/>
-      <c r="AL125" s="4"/>
-      <c r="AM125" s="4"/>
-      <c r="AN125" s="4"/>
-      <c r="AO125" s="4"/>
-      <c r="AP125" s="4"/>
-      <c r="AQ125" s="4"/>
-      <c r="AR125" s="4"/>
-      <c r="AY125" s="4"/>
-      <c r="AZ125" s="4"/>
-      <c r="BA125" s="4"/>
-      <c r="BB125" s="4"/>
-      <c r="BC125" s="4"/>
-      <c r="BD125" s="4"/>
-      <c r="BE125" s="3"/>
-      <c r="BF125" s="3"/>
-      <c r="BG125" s="3"/>
-      <c r="BH125" s="3"/>
-      <c r="BI125" t="e">
-        <f>#REF!-N125</f>
+      <c r="BE124" s="60"/>
+      <c r="BF124" s="60"/>
+      <c r="BG124" s="60"/>
+      <c r="BH124" s="60"/>
+    </row>
+    <row r="125" spans="1:62" s="79" customFormat="1" ht="21" customHeight="1">
+      <c r="A125" s="14"/>
+      <c r="B125" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C125" s="15">
+        <v>20</v>
+      </c>
+      <c r="D125" s="50">
+        <v>26687</v>
+      </c>
+      <c r="E125" s="15">
+        <v>26847</v>
+      </c>
+      <c r="F125" s="15">
+        <v>26742</v>
+      </c>
+      <c r="G125" s="15">
+        <v>9055300</v>
+      </c>
+      <c r="H125" s="15">
+        <v>31234</v>
+      </c>
+      <c r="I125" s="15">
+        <v>31388</v>
+      </c>
+      <c r="J125" s="15">
+        <v>31359</v>
+      </c>
+      <c r="K125" s="15">
+        <v>1223500</v>
+      </c>
+      <c r="L125" s="15">
+        <f t="shared" si="14"/>
+        <v>242156832600</v>
+      </c>
+      <c r="M125" s="15">
+        <f t="shared" si="13"/>
+        <v>38367736500</v>
+      </c>
+      <c r="N125" s="79">
+        <v>27116</v>
+      </c>
+      <c r="O125" s="79">
+        <v>31702</v>
+      </c>
+      <c r="P125" s="79">
+        <v>26954</v>
+      </c>
+      <c r="Q125" s="79">
+        <v>31547</v>
+      </c>
+      <c r="R125" s="15"/>
+      <c r="S125" s="15"/>
+      <c r="T125" s="15"/>
+      <c r="U125" s="15"/>
+      <c r="V125" s="79">
+        <v>27800</v>
+      </c>
+      <c r="X125" s="79">
+        <v>27830</v>
+      </c>
+      <c r="Y125" s="79">
+        <v>32800</v>
+      </c>
+      <c r="Z125" s="15"/>
+      <c r="AA125" s="15"/>
+      <c r="AB125" s="15"/>
+      <c r="AC125" s="15"/>
+      <c r="AD125" s="15"/>
+      <c r="AE125" s="15"/>
+      <c r="AF125" s="15"/>
+      <c r="AG125" s="15"/>
+      <c r="AH125" s="15"/>
+      <c r="AI125" s="15"/>
+      <c r="AJ125" s="15"/>
+      <c r="AK125" s="15"/>
+      <c r="AL125" s="15"/>
+      <c r="AM125" s="15"/>
+      <c r="AN125" s="15"/>
+      <c r="AO125" s="15"/>
+      <c r="AP125" s="15"/>
+      <c r="AQ125" s="15"/>
+      <c r="AR125" s="15"/>
+      <c r="AS125" s="50"/>
+      <c r="AT125" s="50"/>
+      <c r="AU125" s="50"/>
+      <c r="AV125" s="50"/>
+      <c r="AW125" s="50"/>
+      <c r="AX125" s="50"/>
+      <c r="AY125" s="15"/>
+      <c r="AZ125" s="15"/>
+      <c r="BA125" s="15"/>
+      <c r="BB125" s="15"/>
+      <c r="BC125" s="15"/>
+      <c r="BE125" s="80"/>
+      <c r="BF125" s="80"/>
+      <c r="BG125" s="80"/>
+      <c r="BH125" s="80"/>
+    </row>
+    <row r="126" spans="1:62" s="77" customFormat="1" ht="21" customHeight="1">
+      <c r="A126" s="74"/>
+      <c r="B126" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C126" s="75"/>
+      <c r="D126" s="76"/>
+      <c r="E126" s="75"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="75">
+        <f>SUM(G2:G125)/124</f>
+        <v>5862658.8629032262</v>
+      </c>
+      <c r="H126" s="75"/>
+      <c r="I126" s="75"/>
+      <c r="J126" s="75"/>
+      <c r="K126" s="75"/>
+      <c r="L126" s="75"/>
+      <c r="M126" s="75"/>
+      <c r="R126" s="75"/>
+      <c r="S126" s="75"/>
+      <c r="T126" s="75"/>
+      <c r="U126" s="75"/>
+      <c r="Z126" s="75"/>
+      <c r="AA126" s="75"/>
+      <c r="AB126" s="75"/>
+      <c r="AC126" s="75"/>
+      <c r="AD126" s="75"/>
+      <c r="AE126" s="75"/>
+      <c r="AF126" s="75"/>
+      <c r="AG126" s="75"/>
+      <c r="AH126" s="75"/>
+      <c r="AI126" s="75"/>
+      <c r="AJ126" s="75"/>
+      <c r="AK126" s="75"/>
+      <c r="AL126" s="75"/>
+      <c r="AM126" s="75"/>
+      <c r="AN126" s="75"/>
+      <c r="AO126" s="75"/>
+      <c r="AP126" s="75"/>
+      <c r="AQ126" s="75"/>
+      <c r="AR126" s="75"/>
+      <c r="AS126" s="76"/>
+      <c r="AT126" s="76"/>
+      <c r="AU126" s="76"/>
+      <c r="AV126" s="76"/>
+      <c r="AW126" s="76"/>
+      <c r="AX126" s="76"/>
+      <c r="AY126" s="75"/>
+      <c r="AZ126" s="75"/>
+      <c r="BA126" s="75"/>
+      <c r="BB126" s="75"/>
+      <c r="BC126" s="75"/>
+      <c r="BE126" s="78"/>
+      <c r="BF126" s="78"/>
+      <c r="BG126" s="78"/>
+      <c r="BH126" s="78"/>
+    </row>
+    <row r="127" spans="1:62" ht="18">
+      <c r="A127" s="6"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="7"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="7">
+        <f>SUM(K2:K125)</f>
+        <v>124602500</v>
+      </c>
+      <c r="L127" s="7">
+        <f>SUM(L2:L125)</f>
+        <v>17500664252809</v>
+      </c>
+      <c r="M127" s="4">
+        <f>SUM(M2:M125)</f>
+        <v>3534717192200</v>
+      </c>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="64">
+        <v>27750</v>
+      </c>
+      <c r="W127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+      <c r="AE127" s="4"/>
+      <c r="AF127" s="4"/>
+      <c r="AG127" s="4"/>
+      <c r="AH127" s="4"/>
+      <c r="AI127" s="4"/>
+      <c r="AJ127" s="4"/>
+      <c r="AK127" s="4"/>
+      <c r="AL127" s="4"/>
+      <c r="AM127" s="4"/>
+      <c r="AN127" s="4"/>
+      <c r="AO127" s="4"/>
+      <c r="AP127" s="4"/>
+      <c r="AQ127" s="4"/>
+      <c r="AR127" s="4"/>
+      <c r="AY127" s="4"/>
+      <c r="AZ127" s="4"/>
+      <c r="BA127" s="4"/>
+      <c r="BB127" s="4"/>
+      <c r="BC127" s="4"/>
+      <c r="BD127" s="4"/>
+      <c r="BE127" s="3"/>
+      <c r="BF127" s="3"/>
+      <c r="BG127" s="3"/>
+      <c r="BH127" s="3"/>
+      <c r="BI127" t="e">
+        <f>#REF!-N127</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ125" t="e">
+      <c r="BJ127" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="126" spans="1:62" ht="18">
-      <c r="D126" s="19"/>
-      <c r="Z126" s="12"/>
-      <c r="AB126" s="12"/>
-      <c r="AS126" s="12"/>
-      <c r="AW126" s="29"/>
-    </row>
-    <row r="127" spans="1:62" ht="18">
-      <c r="D127" s="19"/>
-      <c r="Z127" s="12"/>
-      <c r="AS127" s="19"/>
-      <c r="AW127" s="29"/>
-      <c r="AY127">
+    <row r="128" spans="1:62" ht="18">
+      <c r="D128" s="19"/>
+      <c r="Z128" s="12"/>
+      <c r="AB128" s="12"/>
+      <c r="AS128" s="12"/>
+      <c r="AW128" s="29"/>
+    </row>
+    <row r="129" spans="4:54" ht="18">
+      <c r="D129" s="19"/>
+      <c r="H129">
+        <f>(G125-G126)/G126</f>
+        <v>0.54457221744533801</v>
+      </c>
+      <c r="Z129" s="12"/>
+      <c r="AS129" s="19"/>
+      <c r="AW129" s="29"/>
+      <c r="AY129">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="128" spans="1:62" ht="18">
-      <c r="Z128" s="12"/>
-      <c r="AS128" s="19">
+    <row r="130" spans="4:54" ht="18">
+      <c r="Z130" s="12"/>
+      <c r="AS130" s="19">
         <v>10290000</v>
       </c>
-      <c r="AW128" s="29"/>
-      <c r="BB128">
+      <c r="AW130" s="29"/>
+      <c r="BB130">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="129" spans="4:49" ht="18">
-      <c r="G129">
-        <f>(G110-G125)/G125</f>
-        <v>-0.98688896613146215</v>
-      </c>
-      <c r="V129" s="12"/>
-      <c r="Z129" s="12"/>
-      <c r="AS129" s="19"/>
-      <c r="AU129">
-        <f>AS128-AS49</f>
+    <row r="131" spans="4:54" ht="18">
+      <c r="G131" t="e">
+        <f>(G110-G127)/G127</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V131" s="12"/>
+      <c r="Z131" s="12"/>
+      <c r="AS131" s="19"/>
+      <c r="AU131">
+        <f>AS130-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW129" s="29">
+      <c r="AW131" s="29">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="130" spans="4:49" ht="18">
-      <c r="V130" s="12"/>
-      <c r="Z130" s="12"/>
-      <c r="AW130" s="29"/>
-    </row>
-    <row r="131" spans="4:49" ht="17.25" customHeight="1">
-      <c r="F131">
+    <row r="132" spans="4:54" ht="18">
+      <c r="V132" s="12"/>
+      <c r="Z132" s="12"/>
+      <c r="AW132" s="29"/>
+    </row>
+    <row r="133" spans="4:54" ht="17.25" customHeight="1">
+      <c r="F133">
         <f>(D113-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V131" s="12"/>
-      <c r="Z131" s="12"/>
-    </row>
-    <row r="132" spans="4:49" ht="18">
-      <c r="D132">
+      <c r="V133" s="12"/>
+      <c r="Z133" s="12"/>
+    </row>
+    <row r="134" spans="4:54" ht="18">
+      <c r="D134">
         <f>(D113-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V132" s="12"/>
-      <c r="Z132" s="12"/>
-      <c r="AW132">
-        <f>AW129/AY51</f>
+      <c r="V134" s="12"/>
+      <c r="Z134" s="12"/>
+      <c r="AW134">
+        <f>AW131/AY51</f>
         <v>2.9539951573849879E-2</v>
       </c>
     </row>
-    <row r="133" spans="4:49" ht="18">
-      <c r="V133" s="12"/>
-    </row>
-    <row r="134" spans="4:49" ht="18">
-      <c r="V134" s="12"/>
+    <row r="135" spans="4:54" ht="18">
+      <c r="V135" s="12"/>
+    </row>
+    <row r="136" spans="4:54" ht="18">
+      <c r="V136" s="12"/>
+    </row>
+    <row r="140" spans="4:54">
+      <c r="G140">
+        <v>27830</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BL129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BL131"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -49020,25 +49360,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="27.44140625" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49486,7 +49826,7 @@
         <v>29004</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="13.95" customHeight="1">
+    <row r="14" spans="1:11" ht="13.9" customHeight="1">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -49523,7 +49863,7 @@
         <v>29561</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="13.95" customHeight="1">
+    <row r="15" spans="1:11" ht="13.9" customHeight="1">
       <c r="A15" t="s">
         <v>215</v>
       </c>
@@ -49560,7 +49900,7 @@
         <v>29729</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="13.95" customHeight="1">
+    <row r="16" spans="1:11" ht="13.9" customHeight="1">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -49597,7 +49937,7 @@
         <v>29367</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13.95" customHeight="1">
+    <row r="17" spans="1:11" ht="13.9" customHeight="1">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -49634,7 +49974,7 @@
         <v>28996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="13.95" customHeight="1">
+    <row r="18" spans="1:11" ht="13.9" customHeight="1">
       <c r="A18" t="s">
         <v>248</v>
       </c>
@@ -49671,7 +50011,7 @@
         <v>29540</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="13.95" customHeight="1">
+    <row r="19" spans="1:11" ht="13.9" customHeight="1">
       <c r="A19" t="s">
         <v>259</v>
       </c>
@@ -49708,7 +50048,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="13.95" customHeight="1">
+    <row r="20" spans="1:11" ht="13.9" customHeight="1">
       <c r="A20" t="s">
         <v>281</v>
       </c>
@@ -49745,7 +50085,7 @@
         <v>30417</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="13.95" customHeight="1">
+    <row r="21" spans="1:11" ht="13.9" customHeight="1">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -49782,44 +50122,44 @@
         <v>31126</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="78" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:11" s="73" customFormat="1" ht="25.15" customHeight="1">
+      <c r="A22" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="78">
+      <c r="B22" s="73">
         <v>26705</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="73">
         <v>31498</v>
       </c>
-      <c r="D22" s="78">
+      <c r="D22" s="73">
         <v>41397200</v>
       </c>
-      <c r="E22" s="78">
+      <c r="E22" s="73">
         <f>D22/5</f>
         <v>8279440</v>
       </c>
-      <c r="F22" s="78">
+      <c r="F22" s="73">
         <v>4399000</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="73">
         <f>F22/5</f>
         <v>879800</v>
       </c>
-      <c r="H22" s="78">
+      <c r="H22" s="73">
         <v>27079</v>
       </c>
-      <c r="I22" s="78">
+      <c r="I22" s="73">
         <v>31815</v>
       </c>
-      <c r="J22" s="78">
+      <c r="J22" s="73">
         <v>27648</v>
       </c>
-      <c r="K22" s="78">
+      <c r="K22" s="73">
         <v>32496</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="32" customFormat="1" ht="25.05" customHeight="1">
+    <row r="23" spans="1:11" s="32" customFormat="1" ht="25.15" customHeight="1">
       <c r="A23" s="32" t="s">
         <v>312</v>
       </c>
@@ -49856,7 +50196,7 @@
         <v>32582</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13.95" customHeight="1">
+    <row r="24" spans="1:11" ht="13.9" customHeight="1">
       <c r="A24" t="s">
         <v>329</v>
       </c>
@@ -49980,30 +50320,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K711"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K734"/>
   <sheetViews>
-    <sheetView topLeftCell="A694" workbookViewId="0">
-      <selection activeCell="B570" sqref="B570"/>
+    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
+      <selection activeCell="D731" sqref="D731"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -50124,12 +50464,12 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -50249,12 +50589,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="79" t="s">
+      <c r="A21" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -50369,12 +50709,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -50489,12 +50829,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="79" t="s">
+      <c r="A41" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
@@ -50609,12 +50949,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="79" t="s">
+      <c r="A51" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -50737,12 +51077,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="79" t="s">
+      <c r="A61" s="81" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
@@ -50857,12 +51197,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="79" t="s">
+      <c r="A71" s="81" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="79"/>
-      <c r="C71" s="79"/>
-      <c r="D71" s="79"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
@@ -50977,12 +51317,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="79" t="s">
+      <c r="A81" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="79"/>
-      <c r="C81" s="79"/>
-      <c r="D81" s="79"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
@@ -51119,12 +51459,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="79" t="s">
+      <c r="A93" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="79"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="79"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
@@ -51239,12 +51579,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="79" t="s">
+      <c r="A103" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="79"/>
-      <c r="C103" s="79"/>
-      <c r="D103" s="79"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
@@ -51362,12 +51702,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="79" t="s">
+      <c r="A113" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="79"/>
-      <c r="C113" s="79"/>
-      <c r="D113" s="79"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="81"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
@@ -51486,12 +51826,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="79" t="s">
+      <c r="A123" s="81" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="79"/>
-      <c r="C123" s="79"/>
-      <c r="D123" s="79"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="81"/>
+      <c r="D123" s="81"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
@@ -51606,12 +51946,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="79" t="s">
+      <c r="A133" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="79"/>
-      <c r="C133" s="79"/>
-      <c r="D133" s="79"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="81"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
@@ -51726,12 +52066,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="79" t="s">
+      <c r="A143" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="B143" s="79"/>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
@@ -51846,12 +52186,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="79" t="s">
+      <c r="A153" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="79"/>
-      <c r="C153" s="79"/>
-      <c r="D153" s="79"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="81"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
@@ -51976,12 +52316,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="79" t="s">
+      <c r="A163" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="79"/>
-      <c r="C163" s="79"/>
-      <c r="D163" s="79"/>
+      <c r="B163" s="81"/>
+      <c r="C163" s="81"/>
+      <c r="D163" s="81"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
@@ -52096,12 +52436,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="79" t="s">
+      <c r="A173" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="79"/>
-      <c r="C173" s="79"/>
-      <c r="D173" s="79"/>
+      <c r="B173" s="81"/>
+      <c r="C173" s="81"/>
+      <c r="D173" s="81"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
@@ -52235,12 +52575,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="79" t="s">
+      <c r="A183" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="79"/>
-      <c r="C183" s="79"/>
-      <c r="D183" s="79"/>
+      <c r="B183" s="81"/>
+      <c r="C183" s="81"/>
+      <c r="D183" s="81"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -52362,12 +52702,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="79" t="s">
+      <c r="A193" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="79"/>
-      <c r="C193" s="79"/>
-      <c r="D193" s="79"/>
+      <c r="B193" s="81"/>
+      <c r="C193" s="81"/>
+      <c r="D193" s="81"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -52482,12 +52822,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="79" t="s">
+      <c r="A203" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="B203" s="79"/>
-      <c r="C203" s="79"/>
-      <c r="D203" s="79"/>
+      <c r="B203" s="81"/>
+      <c r="C203" s="81"/>
+      <c r="D203" s="81"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
@@ -52602,12 +52942,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="79" t="s">
+      <c r="A213" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="79"/>
-      <c r="C213" s="79"/>
-      <c r="D213" s="79"/>
+      <c r="B213" s="81"/>
+      <c r="C213" s="81"/>
+      <c r="D213" s="81"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
@@ -52722,12 +53062,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="79" t="s">
+      <c r="A223" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="79"/>
-      <c r="C223" s="79"/>
-      <c r="D223" s="79"/>
+      <c r="B223" s="81"/>
+      <c r="C223" s="81"/>
+      <c r="D223" s="81"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
@@ -52842,12 +53182,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="79" t="s">
+      <c r="A233" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="79"/>
-      <c r="C233" s="79"/>
-      <c r="D233" s="79"/>
+      <c r="B233" s="81"/>
+      <c r="C233" s="81"/>
+      <c r="D233" s="81"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
@@ -52963,12 +53303,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="79" t="s">
+      <c r="A243" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="79"/>
-      <c r="C243" s="79"/>
-      <c r="D243" s="79"/>
+      <c r="B243" s="81"/>
+      <c r="C243" s="81"/>
+      <c r="D243" s="81"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
@@ -53086,12 +53426,12 @@
       <c r="D252" s="48"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="79" t="s">
+      <c r="A253" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="79"/>
-      <c r="C253" s="79"/>
-      <c r="D253" s="79"/>
+      <c r="B253" s="81"/>
+      <c r="C253" s="81"/>
+      <c r="D253" s="81"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
@@ -53206,12 +53546,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="79" t="s">
+      <c r="A263" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="B263" s="79"/>
-      <c r="C263" s="79"/>
-      <c r="D263" s="79"/>
+      <c r="B263" s="81"/>
+      <c r="C263" s="81"/>
+      <c r="D263" s="81"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
@@ -53326,12 +53666,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="79" t="s">
+      <c r="A273" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="79"/>
-      <c r="C273" s="79"/>
-      <c r="D273" s="79"/>
+      <c r="B273" s="81"/>
+      <c r="C273" s="81"/>
+      <c r="D273" s="81"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
@@ -53446,12 +53786,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="79" t="s">
+      <c r="A283" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="B283" s="79"/>
-      <c r="C283" s="79"/>
-      <c r="D283" s="79"/>
+      <c r="B283" s="81"/>
+      <c r="C283" s="81"/>
+      <c r="D283" s="81"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
@@ -53566,12 +53906,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="79" t="s">
+      <c r="A293" s="81" t="s">
         <v>232</v>
       </c>
-      <c r="B293" s="79"/>
-      <c r="C293" s="79"/>
-      <c r="D293" s="79"/>
+      <c r="B293" s="81"/>
+      <c r="C293" s="81"/>
+      <c r="D293" s="81"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
@@ -53690,12 +54030,12 @@
       <c r="F301" s="51"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="79" t="s">
+      <c r="A303" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="B303" s="79"/>
-      <c r="C303" s="79"/>
-      <c r="D303" s="79"/>
+      <c r="B303" s="81"/>
+      <c r="C303" s="81"/>
+      <c r="D303" s="81"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
@@ -53780,12 +54120,12 @@
       <c r="D311" s="3"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="79" t="s">
+      <c r="A313" s="81" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="79"/>
-      <c r="C313" s="79"/>
-      <c r="D313" s="79"/>
+      <c r="B313" s="81"/>
+      <c r="C313" s="81"/>
+      <c r="D313" s="81"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
@@ -53878,12 +54218,12 @@
       <c r="D321" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="79" t="s">
+      <c r="A324" s="81" t="s">
         <v>245</v>
       </c>
-      <c r="B324" s="79"/>
-      <c r="C324" s="79"/>
-      <c r="D324" s="79"/>
+      <c r="B324" s="81"/>
+      <c r="C324" s="81"/>
+      <c r="D324" s="81"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
@@ -53968,12 +54308,12 @@
       <c r="D332" s="3"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="79" t="s">
+      <c r="A335" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="B335" s="79"/>
-      <c r="C335" s="79"/>
-      <c r="D335" s="79"/>
+      <c r="B335" s="81"/>
+      <c r="C335" s="81"/>
+      <c r="D335" s="81"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
@@ -54088,12 +54428,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="79" t="s">
+      <c r="A346" s="81" t="s">
         <v>247</v>
       </c>
-      <c r="B346" s="79"/>
-      <c r="C346" s="79"/>
-      <c r="D346" s="79"/>
+      <c r="B346" s="81"/>
+      <c r="C346" s="81"/>
+      <c r="D346" s="81"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
@@ -54208,12 +54548,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="79" t="s">
+      <c r="A357" s="81" t="s">
         <v>249</v>
       </c>
-      <c r="B357" s="79"/>
-      <c r="C357" s="79"/>
-      <c r="D357" s="79"/>
+      <c r="B357" s="81"/>
+      <c r="C357" s="81"/>
+      <c r="D357" s="81"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
@@ -54328,12 +54668,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="79" t="s">
+      <c r="A368" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="B368" s="79"/>
-      <c r="C368" s="79"/>
-      <c r="D368" s="79"/>
+      <c r="B368" s="81"/>
+      <c r="C368" s="81"/>
+      <c r="D368" s="81"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
@@ -54452,12 +54792,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="79" t="s">
+      <c r="A379" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="B379" s="79"/>
-      <c r="C379" s="79"/>
-      <c r="D379" s="79"/>
+      <c r="B379" s="81"/>
+      <c r="C379" s="81"/>
+      <c r="D379" s="81"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
@@ -54572,12 +54912,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="79" t="s">
+      <c r="A390" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="79"/>
-      <c r="C390" s="79"/>
-      <c r="D390" s="79"/>
+      <c r="B390" s="81"/>
+      <c r="C390" s="81"/>
+      <c r="D390" s="81"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
@@ -54692,12 +55032,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="79" t="s">
+      <c r="A401" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="B401" s="79"/>
-      <c r="C401" s="79"/>
-      <c r="D401" s="79"/>
+      <c r="B401" s="81"/>
+      <c r="C401" s="81"/>
+      <c r="D401" s="81"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -54812,12 +55152,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="79" t="s">
+      <c r="A412" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="B412" s="79"/>
-      <c r="C412" s="79"/>
-      <c r="D412" s="79"/>
+      <c r="B412" s="81"/>
+      <c r="C412" s="81"/>
+      <c r="D412" s="81"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
@@ -54932,12 +55272,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="79" t="s">
+      <c r="A423" s="81" t="s">
         <v>255</v>
       </c>
-      <c r="B423" s="79"/>
-      <c r="C423" s="79"/>
-      <c r="D423" s="79"/>
+      <c r="B423" s="81"/>
+      <c r="C423" s="81"/>
+      <c r="D423" s="81"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -55028,12 +55368,12 @@
       <c r="D431" s="3"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="79" t="s">
+      <c r="A434" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="79"/>
-      <c r="C434" s="79"/>
-      <c r="D434" s="79"/>
+      <c r="B434" s="81"/>
+      <c r="C434" s="81"/>
+      <c r="D434" s="81"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="3" t="s">
@@ -55148,12 +55488,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="79" t="s">
+      <c r="A445" s="81" t="s">
         <v>261</v>
       </c>
-      <c r="B445" s="79"/>
-      <c r="C445" s="79"/>
-      <c r="D445" s="79"/>
+      <c r="B445" s="81"/>
+      <c r="C445" s="81"/>
+      <c r="D445" s="81"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="3" t="s">
@@ -55268,12 +55608,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="79" t="s">
+      <c r="A456" s="81" t="s">
         <v>262</v>
       </c>
-      <c r="B456" s="79"/>
-      <c r="C456" s="79"/>
-      <c r="D456" s="79"/>
+      <c r="B456" s="81"/>
+      <c r="C456" s="81"/>
+      <c r="D456" s="81"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
@@ -55388,12 +55728,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="79" t="s">
+      <c r="A467" s="81" t="s">
         <v>263</v>
       </c>
-      <c r="B467" s="79"/>
-      <c r="C467" s="79"/>
-      <c r="D467" s="79"/>
+      <c r="B467" s="81"/>
+      <c r="C467" s="81"/>
+      <c r="D467" s="81"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
@@ -55508,12 +55848,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="79" t="s">
+      <c r="A478" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="B478" s="79"/>
-      <c r="C478" s="79"/>
-      <c r="D478" s="79"/>
+      <c r="B478" s="81"/>
+      <c r="C478" s="81"/>
+      <c r="D478" s="81"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -55628,12 +55968,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="79" t="s">
+      <c r="A489" s="81" t="s">
         <v>278</v>
       </c>
-      <c r="B489" s="79"/>
-      <c r="C489" s="79"/>
-      <c r="D489" s="79"/>
+      <c r="B489" s="81"/>
+      <c r="C489" s="81"/>
+      <c r="D489" s="81"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
@@ -55718,12 +56058,12 @@
       <c r="D497" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="79" t="s">
+      <c r="A500" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="B500" s="79"/>
-      <c r="C500" s="79"/>
-      <c r="D500" s="79"/>
+      <c r="B500" s="81"/>
+      <c r="C500" s="81"/>
+      <c r="D500" s="81"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -55838,12 +56178,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="79" t="s">
+      <c r="A511" s="81" t="s">
         <v>287</v>
       </c>
-      <c r="B511" s="79"/>
-      <c r="C511" s="79"/>
-      <c r="D511" s="79"/>
+      <c r="B511" s="81"/>
+      <c r="C511" s="81"/>
+      <c r="D511" s="81"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="3" t="s">
@@ -55958,12 +56298,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="79" t="s">
+      <c r="A522" s="81" t="s">
         <v>288</v>
       </c>
-      <c r="B522" s="79"/>
-      <c r="C522" s="79"/>
-      <c r="D522" s="79"/>
+      <c r="B522" s="81"/>
+      <c r="C522" s="81"/>
+      <c r="D522" s="81"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="3" t="s">
@@ -56078,12 +56418,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="79" t="s">
+      <c r="A533" s="81" t="s">
         <v>290</v>
       </c>
-      <c r="B533" s="79"/>
-      <c r="C533" s="79"/>
-      <c r="D533" s="79"/>
+      <c r="B533" s="81"/>
+      <c r="C533" s="81"/>
+      <c r="D533" s="81"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="3" t="s">
@@ -56198,12 +56538,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="79" t="s">
+      <c r="A544" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="B544" s="79"/>
-      <c r="C544" s="79"/>
-      <c r="D544" s="79"/>
+      <c r="B544" s="81"/>
+      <c r="C544" s="81"/>
+      <c r="D544" s="81"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="3" t="s">
@@ -56318,12 +56658,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="79" t="s">
+      <c r="A555" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="B555" s="79"/>
-      <c r="C555" s="79"/>
-      <c r="D555" s="79"/>
+      <c r="B555" s="81"/>
+      <c r="C555" s="81"/>
+      <c r="D555" s="81"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="3" t="s">
@@ -56480,12 +56820,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="79" t="s">
+      <c r="A567" s="81" t="s">
         <v>294</v>
       </c>
-      <c r="B567" s="79"/>
-      <c r="C567" s="79"/>
-      <c r="D567" s="79"/>
+      <c r="B567" s="81"/>
+      <c r="C567" s="81"/>
+      <c r="D567" s="81"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="3" t="s">
@@ -56584,12 +56924,12 @@
       <c r="D575" s="3"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="79" t="s">
+      <c r="A579" s="81" t="s">
         <v>301</v>
       </c>
-      <c r="B579" s="79"/>
-      <c r="C579" s="79"/>
-      <c r="D579" s="79"/>
+      <c r="B579" s="81"/>
+      <c r="C579" s="81"/>
+      <c r="D579" s="81"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
@@ -56706,12 +57046,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="79" t="s">
+      <c r="A590" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="B590" s="79"/>
-      <c r="C590" s="79"/>
-      <c r="D590" s="79"/>
+      <c r="B590" s="81"/>
+      <c r="C590" s="81"/>
+      <c r="D590" s="81"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
@@ -56828,12 +57168,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="79" t="s">
+      <c r="A601" s="81" t="s">
         <v>305</v>
       </c>
-      <c r="B601" s="79"/>
-      <c r="C601" s="79"/>
-      <c r="D601" s="79"/>
+      <c r="B601" s="81"/>
+      <c r="C601" s="81"/>
+      <c r="D601" s="81"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
@@ -56948,12 +57288,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="79" t="s">
+      <c r="A612" s="81" t="s">
         <v>306</v>
       </c>
-      <c r="B612" s="79"/>
-      <c r="C612" s="79"/>
-      <c r="D612" s="79"/>
+      <c r="B612" s="81"/>
+      <c r="C612" s="81"/>
+      <c r="D612" s="81"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="3" t="s">
@@ -57068,12 +57408,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="79" t="s">
+      <c r="A623" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="B623" s="79"/>
-      <c r="C623" s="79"/>
-      <c r="D623" s="79"/>
+      <c r="B623" s="81"/>
+      <c r="C623" s="81"/>
+      <c r="D623" s="81"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="3" t="s">
@@ -57188,12 +57528,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="79" t="s">
+      <c r="A635" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="B635" s="79"/>
-      <c r="C635" s="79"/>
-      <c r="D635" s="79"/>
+      <c r="B635" s="81"/>
+      <c r="C635" s="81"/>
+      <c r="D635" s="81"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="3" t="s">
@@ -57269,12 +57609,12 @@
       <c r="C643" s="3"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="79" t="s">
+      <c r="A647" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="B647" s="79"/>
-      <c r="C647" s="79"/>
-      <c r="D647" s="79"/>
+      <c r="B647" s="81"/>
+      <c r="C647" s="81"/>
+      <c r="D647" s="81"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="3" t="s">
@@ -57389,12 +57729,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="79" t="s">
+      <c r="A658" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="79"/>
-      <c r="C658" s="79"/>
-      <c r="D658" s="79"/>
+      <c r="B658" s="81"/>
+      <c r="C658" s="81"/>
+      <c r="D658" s="81"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
@@ -57509,12 +57849,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="79" t="s">
+      <c r="A670" s="81" t="s">
         <v>318</v>
       </c>
-      <c r="B670" s="79"/>
-      <c r="C670" s="79"/>
-      <c r="D670" s="79"/>
+      <c r="B670" s="81"/>
+      <c r="C670" s="81"/>
+      <c r="D670" s="81"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
@@ -57629,12 +57969,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="79" t="s">
+      <c r="A681" s="81" t="s">
         <v>319</v>
       </c>
-      <c r="B681" s="79"/>
-      <c r="C681" s="79"/>
-      <c r="D681" s="79"/>
+      <c r="B681" s="81"/>
+      <c r="C681" s="81"/>
+      <c r="D681" s="81"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
@@ -57749,12 +58089,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="79" t="s">
+      <c r="A692" s="81" t="s">
         <v>322</v>
       </c>
-      <c r="B692" s="79"/>
-      <c r="C692" s="79"/>
-      <c r="D692" s="79"/>
+      <c r="B692" s="81"/>
+      <c r="C692" s="81"/>
+      <c r="D692" s="81"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
@@ -57869,12 +58209,12 @@
       </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="79" t="s">
+      <c r="A703" s="81" t="s">
         <v>323</v>
       </c>
-      <c r="B703" s="79"/>
-      <c r="C703" s="79"/>
-      <c r="D703" s="79"/>
+      <c r="B703" s="81"/>
+      <c r="C703" s="81"/>
+      <c r="D703" s="81"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
@@ -57933,7 +58273,9 @@
       <c r="A708" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="B708" s="3"/>
+      <c r="B708" s="3">
+        <v>27820</v>
+      </c>
       <c r="C708" s="3"/>
     </row>
     <row r="709" spans="1:6">
@@ -57957,38 +58299,250 @@
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
     </row>
+    <row r="715" spans="1:6">
+      <c r="A715" s="81" t="s">
+        <v>330</v>
+      </c>
+      <c r="B715" s="81"/>
+      <c r="C715" s="81"/>
+      <c r="D715" s="81"/>
+    </row>
+    <row r="716" spans="1:6">
+      <c r="A716" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C716" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D716" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6">
+      <c r="A717" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B717" s="3">
+        <v>27800</v>
+      </c>
+      <c r="C717" s="3">
+        <v>7600</v>
+      </c>
+      <c r="D717">
+        <v>12040000</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6">
+      <c r="A718" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B718" s="3">
+        <v>27780</v>
+      </c>
+      <c r="C718" s="3">
+        <v>7595</v>
+      </c>
+      <c r="D718">
+        <v>12040000</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6">
+      <c r="A719" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B719" s="3">
+        <v>27750</v>
+      </c>
+      <c r="C719" s="3">
+        <v>7585</v>
+      </c>
+      <c r="D719">
+        <v>12070000</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6">
+      <c r="A720" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B720" s="3">
+        <v>27830</v>
+      </c>
+      <c r="C720" s="3">
+        <v>7595</v>
+      </c>
+      <c r="D720">
+        <v>12050000</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6">
+      <c r="A721" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B721" s="3">
+        <v>27830</v>
+      </c>
+      <c r="C721" s="3">
+        <v>7590</v>
+      </c>
+      <c r="D721">
+        <v>12080000</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6">
+      <c r="A722" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B722" s="3">
+        <v>27830</v>
+      </c>
+      <c r="C722" s="3">
+        <v>7590</v>
+      </c>
+      <c r="D722">
+        <v>12080000</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6">
+      <c r="A723" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B723" s="3">
+        <v>27830</v>
+      </c>
+      <c r="C723" s="3">
+        <v>7590</v>
+      </c>
+      <c r="D723">
+        <v>12020000</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6">
+      <c r="A726" s="81" t="s">
+        <v>332</v>
+      </c>
+      <c r="B726" s="81"/>
+      <c r="C726" s="81"/>
+      <c r="D726" s="81"/>
+    </row>
+    <row r="727" spans="1:6">
+      <c r="A727" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B727" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C727" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6">
+      <c r="A728" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B728" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C728" s="3"/>
+      <c r="E728">
+        <v>11960000</v>
+      </c>
+      <c r="F728" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6">
+      <c r="A729" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B729" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C729" s="3"/>
+      <c r="E729">
+        <v>11970000</v>
+      </c>
+      <c r="F729" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6">
+      <c r="A730" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B730" s="3"/>
+      <c r="C730" s="3"/>
+      <c r="E730">
+        <v>11990000</v>
+      </c>
+      <c r="F730" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6">
+      <c r="A731" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B731" s="3"/>
+      <c r="C731" s="3"/>
+      <c r="E731">
+        <v>12010000</v>
+      </c>
+      <c r="F731" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6">
+      <c r="A732" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B732" s="3"/>
+      <c r="C732" s="3"/>
+      <c r="E732">
+        <v>11990000</v>
+      </c>
+      <c r="F732" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6">
+      <c r="A733" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B733" s="3"/>
+      <c r="C733" s="3"/>
+    </row>
+    <row r="734" spans="1:6">
+      <c r="A734" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B734" s="3"/>
+      <c r="C734" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="67">
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A173:D173"/>
+  <mergeCells count="69">
+    <mergeCell ref="A715:D715"/>
+    <mergeCell ref="A703:D703"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A567:D567"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -58005,27 +58559,42 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A726:D726"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A357:D357"/>
     <mergeCell ref="A544:D544"/>
     <mergeCell ref="A511:D511"/>
     <mergeCell ref="A467:D467"/>
     <mergeCell ref="A500:D500"/>
     <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A703:D703"/>
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -58033,21 +58602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:M65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -58101,7 +58670,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H65" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H66" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -58130,7 +58699,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F65" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F66" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -59907,17 +60476,46 @@
       <c r="I65">
         <v>0.19</v>
       </c>
-      <c r="J65">
-        <v>1.51</v>
-      </c>
-      <c r="K65">
-        <v>0.49</v>
-      </c>
-      <c r="L65">
-        <v>0.1</v>
-      </c>
-      <c r="M65">
-        <v>0.19</v>
+    </row>
+    <row r="66" spans="2:13">
+      <c r="B66">
+        <v>14000620</v>
+      </c>
+      <c r="C66" s="54">
+        <v>27830</v>
+      </c>
+      <c r="D66">
+        <v>12020000</v>
+      </c>
+      <c r="E66">
+        <v>1170409</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>1.0897203051216855</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>-1.4754098360655739</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>-0.33414712862535584</v>
+      </c>
+      <c r="I66">
+        <v>0.3</v>
+      </c>
+      <c r="J66">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K66">
+        <v>-1.48</v>
+      </c>
+      <c r="L66">
+        <v>-0.33</v>
+      </c>
+      <c r="M66">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="338">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -1028,10 +1028,22 @@
     <t>20شهریور1400</t>
   </si>
   <si>
-    <t>روند روزانه بهای سکه و ارز (شنبه 21 شهریور 1400)</t>
+    <t>21شهریور1400</t>
   </si>
   <si>
-    <t>21شهریور1400</t>
+    <t>روند روزانه بهای سکه و ارز (یکشنبه 21 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز دوشنبه 22 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>10 26</t>
+  </si>
+  <si>
+    <t>11 11</t>
+  </si>
+  <si>
+    <t>11 31</t>
   </si>
 </sst>
 </file>
@@ -4354,11 +4366,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1218711472"/>
-        <c:axId val="-1218725616"/>
+        <c:axId val="997815376"/>
+        <c:axId val="997811024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1218711472"/>
+        <c:axId val="997815376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,7 +4413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218725616"/>
+        <c:crossAx val="997811024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4409,7 +4421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218725616"/>
+        <c:axId val="997811024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4460,7 +4472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218711472"/>
+        <c:crossAx val="997815376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7566,8 +7578,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1218724528"/>
-        <c:axId val="-1218717456"/>
+        <c:axId val="997820272"/>
+        <c:axId val="997812656"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7860,7 +7872,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1218724528"/>
+        <c:axId val="997820272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7903,7 +7915,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218717456"/>
+        <c:crossAx val="997812656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7911,7 +7923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218717456"/>
+        <c:axId val="997812656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7962,7 +7974,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218724528"/>
+        <c:crossAx val="997820272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11076,8 +11088,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1218716368"/>
-        <c:axId val="-1218716912"/>
+        <c:axId val="997812112"/>
+        <c:axId val="997806128"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -11370,7 +11382,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1218716368"/>
+        <c:axId val="997812112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11413,7 +11425,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218716912"/>
+        <c:crossAx val="997806128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11421,7 +11433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218716912"/>
+        <c:axId val="997806128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11472,7 +11484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218716368"/>
+        <c:crossAx val="997812112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14583,11 +14595,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1218715824"/>
-        <c:axId val="-1218714192"/>
+        <c:axId val="997811568"/>
+        <c:axId val="997806672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1218715824"/>
+        <c:axId val="997811568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14630,7 +14642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218714192"/>
+        <c:crossAx val="997806672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14638,7 +14650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1218714192"/>
+        <c:axId val="997806672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14689,7 +14701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1218715824"/>
+        <c:crossAx val="997811568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17811,11 +17823,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1422958688"/>
-        <c:axId val="-1131705328"/>
+        <c:axId val="997816464"/>
+        <c:axId val="997813744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1422958688"/>
+        <c:axId val="997816464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17858,7 +17870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131705328"/>
+        <c:crossAx val="997813744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17866,7 +17878,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131705328"/>
+        <c:axId val="997813744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17917,7 +17929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1422958688"/>
+        <c:crossAx val="997816464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21018,11 +21030,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131694448"/>
-        <c:axId val="-1131695536"/>
+        <c:axId val="997807760"/>
+        <c:axId val="997808848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131694448"/>
+        <c:axId val="997807760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21065,7 +21077,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131695536"/>
+        <c:crossAx val="997808848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21073,7 +21085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131695536"/>
+        <c:axId val="997808848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21124,7 +21136,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131694448"/>
+        <c:crossAx val="997807760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21355,7 +21367,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21427,8 +21438,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1131698800"/>
-        <c:axId val="-1131704784"/>
+        <c:axId val="997817008"/>
+        <c:axId val="997809392"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -30122,7 +30133,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1131698800"/>
+        <c:axId val="997817008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30165,7 +30176,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131704784"/>
+        <c:crossAx val="997809392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30173,7 +30184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1131704784"/>
+        <c:axId val="997809392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30224,7 +30235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1131698800"/>
+        <c:crossAx val="997817008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30238,7 +30249,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -34643,8 +34653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BM140"/>
   <sheetViews>
-    <sheetView topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView topLeftCell="F124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34730,16 +34740,16 @@
       <c r="R1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="9" t="e">
+      <c r="S1" s="9">
         <f>L127/G127</f>
-        <v>#DIV/0!</v>
+        <v>2973359.2159688463</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
         <f>M127/K127</f>
-        <v>28367.94761100299</v>
+        <v>28390.628099002424</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -42777,7 +42787,7 @@
       </c>
       <c r="BK62" s="32">
         <f>K127/K62</f>
-        <v>143.61745043798985</v>
+        <v>144.72637159981559</v>
       </c>
       <c r="BL62">
         <f t="shared" si="5"/>
@@ -44463,7 +44473,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M125" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M126" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -45575,7 +45585,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L125" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L126" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -49237,26 +49247,65 @@
     <row r="126" spans="1:62" s="77" customFormat="1" ht="21" customHeight="1">
       <c r="A126" s="74"/>
       <c r="B126" s="75" t="s">
-        <v>333</v>
-      </c>
-      <c r="C126" s="75"/>
-      <c r="D126" s="76"/>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
+        <v>332</v>
+      </c>
+      <c r="C126" s="75">
+        <v>21</v>
+      </c>
+      <c r="D126" s="76">
+        <v>26778</v>
+      </c>
+      <c r="E126" s="75">
+        <v>26502</v>
+      </c>
+      <c r="F126" s="75">
+        <v>26580</v>
+      </c>
       <c r="G126" s="75">
-        <f>SUM(G2:G125)/124</f>
-        <v>5862658.8629032262</v>
-      </c>
-      <c r="H126" s="75"/>
-      <c r="I126" s="75"/>
-      <c r="J126" s="75"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="75"/>
+        <v>8758100</v>
+      </c>
+      <c r="H126" s="75">
+        <v>31400</v>
+      </c>
+      <c r="I126" s="75">
+        <v>31242</v>
+      </c>
+      <c r="J126" s="75">
+        <v>31328</v>
+      </c>
+      <c r="K126" s="75">
+        <v>962100</v>
+      </c>
+      <c r="L126" s="15">
+        <f t="shared" si="14"/>
+        <v>232790298000</v>
+      </c>
+      <c r="M126" s="75">
+        <f t="shared" si="13"/>
+        <v>30140668800</v>
+      </c>
+      <c r="N126" s="77">
+        <v>26767</v>
+      </c>
+      <c r="O126" s="77">
+        <v>31554</v>
+      </c>
+      <c r="P126" s="77">
+        <v>27046</v>
+      </c>
+      <c r="Q126" s="77">
+        <v>31714</v>
+      </c>
       <c r="R126" s="75"/>
       <c r="S126" s="75"/>
       <c r="T126" s="75"/>
       <c r="U126" s="75"/>
+      <c r="X126" s="77">
+        <v>27500</v>
+      </c>
+      <c r="Y126" s="77">
+        <v>32552</v>
+      </c>
       <c r="Z126" s="75"/>
       <c r="AA126" s="75"/>
       <c r="AB126" s="75"/>
@@ -49299,21 +49348,24 @@
       <c r="D127" s="19"/>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="G127" s="7">
+        <f>SUM(G2:G126)/125</f>
+        <v>5885822.392</v>
+      </c>
       <c r="H127" s="7"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7">
-        <f>SUM(K2:K125)</f>
-        <v>124602500</v>
+        <f>SUM(K2:K126)</f>
+        <v>125564600</v>
       </c>
       <c r="L127" s="7">
         <f>SUM(L2:L125)</f>
         <v>17500664252809</v>
       </c>
       <c r="M127" s="4">
-        <f>SUM(M2:M125)</f>
-        <v>3534717192200</v>
+        <f>SUM(M2:M126)</f>
+        <v>3564857861000</v>
       </c>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -49377,7 +49429,7 @@
       <c r="D129" s="19"/>
       <c r="H129">
         <f>(G125-G126)/G126</f>
-        <v>0.54457221744533801</v>
+        <v>3.3934300818670715E-2</v>
       </c>
       <c r="Z129" s="12"/>
       <c r="AS129" s="19"/>
@@ -49399,9 +49451,9 @@
       </c>
     </row>
     <row r="131" spans="4:54" ht="18">
-      <c r="G131" t="e">
+      <c r="G131">
         <f>(G110-G127)/G127</f>
-        <v>#DIV/0!</v>
+        <v>0.59919878193973208</v>
       </c>
       <c r="V131" s="12"/>
       <c r="Z131" s="12"/>
@@ -49432,6 +49484,10 @@
       <c r="D134">
         <f>(D113-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
+      </c>
+      <c r="I134">
+        <f>(G126-G127)/G127</f>
+        <v>0.48799936809238331</v>
       </c>
       <c r="V134" s="12"/>
       <c r="Z134" s="12"/>
@@ -50421,10 +50477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K734"/>
+  <dimension ref="A1:K751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A721" workbookViewId="0">
-      <selection activeCell="A726" sqref="A726:D734"/>
+    <sheetView tabSelected="1" topLeftCell="A728" workbookViewId="0">
+      <selection activeCell="C745" sqref="C745"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58521,7 +58577,7 @@
     </row>
     <row r="726" spans="1:4">
       <c r="A726" s="81" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B726" s="81"/>
       <c r="C726" s="81"/>
@@ -58639,9 +58695,111 @@
         <v>11990000</v>
       </c>
     </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="B738" s="81"/>
+      <c r="C738" s="81"/>
+      <c r="D738" s="81"/>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="A740" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B740" s="3">
+        <v>26970</v>
+      </c>
+      <c r="C740" s="3"/>
+      <c r="E740">
+        <v>11770000</v>
+      </c>
+      <c r="F740" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B741" s="3"/>
+      <c r="C741" s="3"/>
+      <c r="E741">
+        <v>11780000</v>
+      </c>
+      <c r="F741" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="A742" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B742" s="3"/>
+      <c r="C742" s="3"/>
+      <c r="E742">
+        <v>11790000</v>
+      </c>
+      <c r="F742" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B743" s="3"/>
+      <c r="C743" s="3"/>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B744" s="3"/>
+      <c r="C744" s="3"/>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B745" s="3"/>
+      <c r="C745" s="3"/>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="A746" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B746" s="3"/>
+      <c r="C746" s="3"/>
+    </row>
+    <row r="750" spans="1:6">
+      <c r="E750">
+        <f>(D734-E740)/E740</f>
+        <v>1.8691588785046728E-2</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6">
+      <c r="B751">
+        <f>(B734-B740)/B734</f>
+        <v>1.9272727272727271E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A726:D726"/>
+  <mergeCells count="70">
     <mergeCell ref="A456:D456"/>
     <mergeCell ref="A303:D303"/>
     <mergeCell ref="A445:D445"/>
@@ -58652,7 +58810,6 @@
     <mergeCell ref="A423:D423"/>
     <mergeCell ref="A412:D412"/>
     <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A544:D544"/>
     <mergeCell ref="A511:D511"/>
     <mergeCell ref="A467:D467"/>
     <mergeCell ref="A500:D500"/>
@@ -58693,6 +58850,7 @@
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A612:D612"/>
     <mergeCell ref="A478:D478"/>
     <mergeCell ref="A522:D522"/>
     <mergeCell ref="A555:D555"/>
@@ -58700,16 +58858,18 @@
     <mergeCell ref="A590:D590"/>
     <mergeCell ref="A579:D579"/>
     <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A647:D647"/>
     <mergeCell ref="A635:D635"/>
     <mergeCell ref="A623:D623"/>
     <mergeCell ref="A681:D681"/>
     <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A738:D738"/>
     <mergeCell ref="A715:D715"/>
     <mergeCell ref="A703:D703"/>
     <mergeCell ref="A692:D692"/>
     <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A726:D726"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$133</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="338">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -1039,6 +1039,12 @@
   <si>
     <t>22شهریور1400</t>
   </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز سه‌شنبه 23 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>23شهریور1400</t>
+  </si>
 </sst>
 </file>
 
@@ -1214,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1316,6 +1322,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4360,11 +4367,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2075598064"/>
-        <c:axId val="2075599152"/>
+        <c:axId val="-1805026496"/>
+        <c:axId val="-1805023776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075598064"/>
+        <c:axId val="-1805026496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4407,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075599152"/>
+        <c:crossAx val="-1805023776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4415,7 +4422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075599152"/>
+        <c:axId val="-1805023776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4466,7 +4473,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075598064"/>
+        <c:crossAx val="-1805026496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7572,8 +7579,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2075598608"/>
-        <c:axId val="2075600240"/>
+        <c:axId val="-1805024320"/>
+        <c:axId val="-1805028672"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7866,7 +7873,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2075598608"/>
+        <c:axId val="-1805024320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,7 +7916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075600240"/>
+        <c:crossAx val="-1805028672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7917,7 +7924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2075600240"/>
+        <c:axId val="-1805028672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7968,7 +7975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2075598608"/>
+        <c:crossAx val="-1805024320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11082,8 +11089,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240663328"/>
-        <c:axId val="240666592"/>
+        <c:axId val="-1805028128"/>
+        <c:axId val="-1805025952"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -11376,7 +11383,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240663328"/>
+        <c:axId val="-1805028128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11419,7 +11426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240666592"/>
+        <c:crossAx val="-1805025952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11427,7 +11434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240666592"/>
+        <c:axId val="-1805025952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11478,7 +11485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240663328"/>
+        <c:crossAx val="-1805028128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14589,11 +14596,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240663872"/>
-        <c:axId val="240666048"/>
+        <c:axId val="-1805025408"/>
+        <c:axId val="-1805023232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240663872"/>
+        <c:axId val="-1805025408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14636,7 +14643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240666048"/>
+        <c:crossAx val="-1805023232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14644,7 +14651,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240666048"/>
+        <c:axId val="-1805023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14695,7 +14702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240663872"/>
+        <c:crossAx val="-1805025408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17817,11 +17824,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240664416"/>
-        <c:axId val="240660608"/>
+        <c:axId val="-1805022688"/>
+        <c:axId val="-1805024864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240664416"/>
+        <c:axId val="-1805022688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17864,7 +17871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240660608"/>
+        <c:crossAx val="-1805024864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17872,7 +17879,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240660608"/>
+        <c:axId val="-1805024864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17923,7 +17930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240664416"/>
+        <c:crossAx val="-1805022688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21024,11 +21031,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240661152"/>
-        <c:axId val="240661696"/>
+        <c:axId val="-1805022144"/>
+        <c:axId val="-1805027584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240661152"/>
+        <c:axId val="-1805022144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21071,7 +21078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240661696"/>
+        <c:crossAx val="-1805027584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21079,7 +21086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="240661696"/>
+        <c:axId val="-1805027584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21130,7 +21137,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240661152"/>
+        <c:crossAx val="-1805022144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21256,7 +21263,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( دوشنبه 22 شهریور 1400)</a:t>
+              <a:t> بازارها( سه‌شنبه23 شهریور 1400)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -21307,11 +21314,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="66"/>
-          <c:order val="66"/>
+          <c:idx val="67"/>
+          <c:order val="67"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1">
+              <a:schemeClr val="accent2">
                 <a:lumMod val="80000"/>
                 <a:lumOff val="20000"/>
               </a:schemeClr>
@@ -21403,21 +21410,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$68:$I$68</c:f>
+              <c:f>'price change'!$F$69:$I$69</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-1.4545454545454546</c:v>
+                  <c:v>0.99630996309963105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1676396997497915</c:v>
+                  <c:v>0.67510548523206748</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.3905023500599778</c:v>
+                  <c:v>1.3697936801173536</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.99</c:v>
+                  <c:v>1.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21434,8 +21441,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="240664960"/>
-        <c:axId val="219210368"/>
+        <c:axId val="-57945456"/>
+        <c:axId val="-57944912"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -21512,7 +21519,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21538,7 +21545,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$2:$I$2</c15:sqref>
@@ -21632,7 +21639,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21658,7 +21665,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -21764,7 +21771,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21790,7 +21797,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -21896,7 +21903,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21922,7 +21929,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -22028,7 +22035,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22054,7 +22061,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -22160,7 +22167,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22186,7 +22193,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -22294,7 +22301,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22320,7 +22327,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -22428,7 +22435,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22454,7 +22461,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -22562,7 +22569,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22588,7 +22595,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -22696,7 +22703,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22722,7 +22729,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -22830,7 +22837,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22856,7 +22863,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22964,7 +22971,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22990,7 +22997,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -23096,7 +23103,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23122,7 +23129,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -23228,7 +23235,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23254,7 +23261,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -23363,7 +23370,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23389,7 +23396,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -23498,7 +23505,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23524,7 +23531,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -23633,7 +23640,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23659,7 +23666,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -23768,7 +23775,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23794,7 +23801,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -23902,7 +23909,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23928,7 +23935,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -24036,7 +24043,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24062,7 +24069,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -24170,7 +24177,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24196,7 +24203,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -24304,7 +24311,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24330,7 +24337,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -24438,7 +24445,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24464,7 +24471,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -24572,7 +24579,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24598,7 +24605,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -24707,7 +24714,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24733,7 +24740,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -24842,7 +24849,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24868,7 +24875,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24977,7 +24984,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25003,7 +25010,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -25112,7 +25119,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25138,7 +25145,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -25247,7 +25254,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25273,7 +25280,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -25382,7 +25389,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25408,7 +25415,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -25516,7 +25523,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25542,7 +25549,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -25650,7 +25657,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25676,7 +25683,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -25784,7 +25791,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25810,7 +25817,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25918,7 +25925,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25944,7 +25951,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -26052,7 +26059,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26078,7 +26085,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -26186,7 +26193,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26212,7 +26219,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -26321,7 +26328,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26347,7 +26354,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -26456,7 +26463,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26482,7 +26489,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -26591,7 +26598,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26617,7 +26624,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -26726,7 +26733,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26752,7 +26759,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -26861,7 +26868,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26887,7 +26894,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -26996,7 +27003,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27022,7 +27029,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -27130,7 +27137,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27156,7 +27163,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -27264,7 +27271,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27290,7 +27297,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -27398,7 +27405,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27424,7 +27431,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -27532,7 +27539,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27558,7 +27565,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -27666,7 +27673,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27692,7 +27699,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -27800,7 +27807,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27826,7 +27833,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27935,7 +27942,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27961,7 +27968,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -28070,7 +28077,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28096,7 +28103,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -28205,7 +28212,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28231,7 +28238,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -28340,7 +28347,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28366,7 +28373,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -28475,7 +28482,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28501,7 +28508,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -28610,7 +28617,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28636,7 +28643,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -28742,7 +28749,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28768,7 +28775,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -28874,7 +28881,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28900,7 +28907,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -29006,7 +29013,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29032,7 +29039,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -29138,7 +29145,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29164,7 +29171,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -29270,7 +29277,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29296,7 +29303,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -29402,7 +29409,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29428,7 +29435,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -29536,7 +29543,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29562,7 +29569,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
@@ -29670,7 +29677,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29696,7 +29703,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$63:$I$63</c15:sqref>
@@ -29804,7 +29811,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29830,7 +29837,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$64:$I$64</c15:sqref>
@@ -29938,7 +29945,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29964,7 +29971,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$65:$I$65</c15:sqref>
@@ -30072,7 +30079,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -30098,7 +30105,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$66:$I$66</c15:sqref>
@@ -30179,9 +30186,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -30202,7 +30208,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -30228,7 +30234,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$67:$I$67</c15:sqref>
@@ -30255,11 +30261,141 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="66"/>
+                <c:order val="66"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$68:$I$68</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>-1.4545454545454546</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.1676396997497915</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-1.3905023500599778</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-0.99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="240664960"/>
+        <c:axId val="-57945456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30302,7 +30438,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219210368"/>
+        <c:crossAx val="-57944912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30310,7 +30446,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219210368"/>
+        <c:axId val="-57944912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30361,7 +30497,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="240664960"/>
+        <c:crossAx val="-57945456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34478,16 +34614,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34778,10 +34914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM137"/>
+  <dimension ref="A1:BM138"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X130" sqref="X130"/>
+    <sheetView topLeftCell="F121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34868,15 +35004,15 @@
         <v>31</v>
       </c>
       <c r="S1" s="9">
-        <f>L128/G128</f>
-        <v>3048612.5970090264</v>
+        <f>L129/G129</f>
+        <v>3067425.3844669689</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
-        <f>M128/K128</f>
-        <v>28532.4829529979</v>
+        <f>M129/K129</f>
+        <v>28851.496995172205</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -34996,7 +35132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" hidden="1" customHeight="1">
+    <row r="2" spans="1:65" ht="21.6" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -35106,7 +35242,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="18" hidden="1">
+    <row r="3" spans="1:65" ht="18">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -35200,7 +35336,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="e">
-        <f t="shared" ref="BJ3:BJ128" si="3">(Y3-O3)/O3</f>
+        <f t="shared" ref="BJ3:BJ129" si="3">(Y3-O3)/O3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK3">
@@ -35216,7 +35352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="18" hidden="1">
+    <row r="4" spans="1:65" ht="18">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -35326,7 +35462,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="18" hidden="1">
+    <row r="5" spans="1:65" ht="18">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -35436,7 +35572,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:65" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -35546,7 +35682,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="18" hidden="1">
+    <row r="7" spans="1:65" ht="18">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -35656,7 +35792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="18" hidden="1">
+    <row r="8" spans="1:65" ht="18">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -35766,7 +35902,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="18" hidden="1">
+    <row r="9" spans="1:65" ht="18">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -35876,7 +36012,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="18" hidden="1">
+    <row r="10" spans="1:65" ht="18">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -35986,7 +36122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="18" hidden="1">
+    <row r="11" spans="1:65" ht="18">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -36096,7 +36232,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="12" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -36218,7 +36354,7 @@
         <v>2.6256936966785389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="13" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
@@ -36395,7 +36531,7 @@
         <v>3.8371899450640921E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="14" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>58</v>
@@ -36570,7 +36706,7 @@
         <v>3.6598002238156423E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="15" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
@@ -36737,7 +36873,7 @@
         <v>3.6088474970896393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="16" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>65</v>
@@ -36872,7 +37008,7 @@
         <v>3.9324668811901879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
+    <row r="17" spans="1:65" s="17" customFormat="1" ht="18">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>66</v>
@@ -37001,7 +37137,7 @@
         <v>4.4976317223456429E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="18" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>77</v>
@@ -37153,7 +37289,7 @@
         <v>4.2640063981142402E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="19" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>90</v>
@@ -37305,7 +37441,7 @@
         <v>3.4891097483611758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="20" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>91</v>
@@ -37455,7 +37591,7 @@
         <v>2.1503105065269739E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="21" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>92</v>
@@ -37605,7 +37741,7 @@
         <v>1.94008069362177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
+    <row r="22" spans="1:65" s="23" customFormat="1" ht="18">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>94</v>
@@ -37753,7 +37889,7 @@
         <v>3.8086190517315828E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>95</v>
@@ -37903,7 +38039,7 @@
         <v>2.9494321371507537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="25" t="s">
         <v>99</v>
@@ -38053,7 +38189,7 @@
         <v>2.9875913355527691E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>100</v>
@@ -38203,7 +38339,7 @@
         <v>3.2037701586752565E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>101</v>
@@ -38353,7 +38489,7 @@
         <v>2.1493750810880941E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
         <v>102</v>
@@ -38505,7 +38641,7 @@
         <v>2.0628344553771792E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="25" t="s">
         <v>103</v>
@@ -38655,7 +38791,7 @@
         <v>2.5052011095700415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
         <v>106</v>
@@ -38805,7 +38941,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>109</v>
@@ -38959,7 +39095,7 @@
         <v>5.9974609289497873E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -39109,7 +39245,7 @@
         <v>-1.470983944748408E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -39233,7 +39369,7 @@
         <v>9.9138330399332897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>112</v>
@@ -39371,7 +39507,7 @@
         <v>-1.8682770334025288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>113</v>
@@ -39499,7 +39635,7 @@
         <v>3.1361612603356327E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>115</v>
@@ -39640,7 +39776,7 @@
         <v>5.0932041685013946E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>116</v>
@@ -39775,7 +39911,7 @@
         <v>3.7201877025784917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>117</v>
@@ -39905,7 +40041,7 @@
         <v>4.660045836516425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>118</v>
@@ -40027,7 +40163,7 @@
         <v>3.2269893656032271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>119</v>
@@ -40149,7 +40285,7 @@
         <v>3.0200265799000963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
         <v>121</v>
@@ -40271,7 +40407,7 @@
         <v>3.7372593431483581E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="25" t="s">
         <v>122</v>
@@ -40395,7 +40531,7 @@
         <v>4.6139995498537027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="25" t="s">
         <v>123</v>
@@ -40521,7 +40657,7 @@
         <v>2.4709628234449974E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25" t="s">
         <v>124</v>
@@ -40639,7 +40775,7 @@
         <v>4.1844961938651414E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="25" t="s">
         <v>125</v>
@@ -40761,7 +40897,7 @@
         <v>2.2023244245466467E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="25" t="s">
         <v>126</v>
@@ -40881,7 +41017,7 @@
         <v>3.4451659451659448E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="39" t="s">
         <v>128</v>
@@ -40999,7 +41135,7 @@
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39" t="s">
         <v>129</v>
@@ -41119,7 +41255,7 @@
         <v>3.3689622513868221E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="39" t="s">
         <v>130</v>
@@ -41245,7 +41381,7 @@
         <v>4.1601220661490822E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="39" t="s">
         <v>131</v>
@@ -41371,7 +41507,7 @@
         <v>3.6582615363796291E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39" t="s">
         <v>132</v>
@@ -41495,7 +41631,7 @@
         <v>4.8256649892163911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="39" t="s">
         <v>133</v>
@@ -41615,7 +41751,7 @@
         <v>3.9659421913511093E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="4" t="s">
         <v>135</v>
@@ -41739,7 +41875,7 @@
         <v>4.2074576861158244E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -41861,7 +41997,7 @@
         <v>1.6349794067479304E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="25" t="s">
         <v>137</v>
@@ -41983,7 +42119,7 @@
         <v>2.2913256955810146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="4" t="s">
         <v>138</v>
@@ -42101,7 +42237,7 @@
         <v>2.8963741686333404E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="4" t="s">
         <v>139</v>
@@ -42219,7 +42355,7 @@
         <v>3.3635187580853813E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>140</v>
@@ -42337,7 +42473,7 @@
         <v>2.8795924534818461E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
         <v>142</v>
@@ -42455,7 +42591,7 @@
         <v>2.671690357938003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="s">
         <v>143</v>
@@ -42573,7 +42709,7 @@
         <v>2.4057635404605687E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
         <v>144</v>
@@ -42691,7 +42827,7 @@
         <v>3.2539072508326931E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="s">
         <v>145</v>
@@ -42809,7 +42945,7 @@
         <v>2.8253424657534245E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="4" t="s">
         <v>147</v>
@@ -42913,7 +43049,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="32">
-        <f>K128/K62</f>
+        <f>K129/K62</f>
         <v>144.72637159981559</v>
       </c>
       <c r="BL62">
@@ -42925,7 +43061,7 @@
         <v>2.3155161220515041E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="4" t="s">
         <v>161</v>
@@ -43037,7 +43173,7 @@
         <v>2.9020348587619128E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="4" t="s">
         <v>166</v>
@@ -43149,7 +43285,7 @@
         <v>2.4806135127029689E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="4" t="s">
         <v>168</v>
@@ -43261,7 +43397,7 @@
         <v>3.0344591119492541E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="4" t="s">
         <v>171</v>
@@ -43373,7 +43509,7 @@
         <v>3.1046869654464591E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>174</v>
@@ -43485,7 +43621,7 @@
         <v>3.9105191256830603E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="34" t="s">
         <v>178</v>
@@ -43597,7 +43733,7 @@
         <v>6.2370062370062374E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="34" t="s">
         <v>180</v>
@@ -43709,7 +43845,7 @@
         <v>1.5050453223875491E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="34" t="s">
         <v>181</v>
@@ -43817,7 +43953,7 @@
         <v>2.6553987387928447E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="33"/>
       <c r="B71" s="34" t="s">
         <v>183</v>
@@ -43925,7 +44061,7 @@
         <v>3.0769885517300082E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A72" s="33"/>
       <c r="B72" s="34" t="s">
         <v>185</v>
@@ -44030,7 +44166,7 @@
         <v>2.1202759321173135E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A73" s="33"/>
       <c r="B73" s="34" t="s">
         <v>186</v>
@@ -44135,7 +44271,7 @@
         <v>2.0840393087089123E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="4" t="s">
         <v>187</v>
@@ -44243,7 +44379,7 @@
         <v>3.0037494207355606E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="4" t="s">
         <v>193</v>
@@ -44351,7 +44487,7 @@
         <v>2.4134312696747113E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="4" t="s">
         <v>195</v>
@@ -44459,7 +44595,7 @@
         <v>3.5059827629487075E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>196</v>
@@ -44563,7 +44699,7 @@
         <v>3.1143572278527758E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="4" t="s">
         <v>198</v>
@@ -44600,7 +44736,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M127" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M128" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -44667,7 +44803,7 @@
         <v>3.008315669329855E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="4" t="s">
         <v>200</v>
@@ -44771,7 +44907,7 @@
         <v>1.8148013419021058E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="33"/>
       <c r="B80" s="34" t="s">
         <v>204</v>
@@ -44875,7 +45011,7 @@
         <v>1.5234563920683539E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="33"/>
       <c r="B81" s="34" t="s">
         <v>206</v>
@@ -44979,7 +45115,7 @@
         <v>1.6552280985062576E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
         <v>208</v>
@@ -45079,7 +45215,7 @@
       <c r="BG82" s="37"/>
       <c r="BH82" s="37"/>
     </row>
-    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="34" t="s">
         <v>211</v>
@@ -45179,7 +45315,7 @@
       <c r="BG83" s="37"/>
       <c r="BH83" s="37"/>
     </row>
-    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="s">
         <v>213</v>
@@ -45279,7 +45415,7 @@
       <c r="BG84" s="37"/>
       <c r="BH84" s="37"/>
     </row>
-    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>219</v>
@@ -45379,7 +45515,7 @@
       <c r="BG85" s="31"/>
       <c r="BH85" s="31"/>
     </row>
-    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="25" t="s">
         <v>218</v>
@@ -45479,7 +45615,7 @@
       <c r="BG86" s="26"/>
       <c r="BH86" s="26"/>
     </row>
-    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="4" t="s">
         <v>220</v>
@@ -45579,7 +45715,7 @@
       <c r="BG87" s="31"/>
       <c r="BH87" s="31"/>
     </row>
-    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="4" t="s">
         <v>223</v>
@@ -45679,7 +45815,7 @@
       <c r="BG88" s="31"/>
       <c r="BH88" s="31"/>
     </row>
-    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="4" t="s">
         <v>225</v>
@@ -45712,7 +45848,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L127" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L128" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -45779,7 +45915,7 @@
       <c r="BG89" s="31"/>
       <c r="BH89" s="31"/>
     </row>
-    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>228</v>
@@ -45879,7 +46015,7 @@
       <c r="BG90" s="16"/>
       <c r="BH90" s="16"/>
     </row>
-    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>230</v>
@@ -45979,7 +46115,7 @@
       <c r="BG91" s="16"/>
       <c r="BH91" s="16"/>
     </row>
-    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>233</v>
@@ -46079,7 +46215,7 @@
       <c r="BG92" s="16"/>
       <c r="BH92" s="16"/>
     </row>
-    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="4" t="s">
         <v>264</v>
@@ -46179,7 +46315,7 @@
       <c r="BG93" s="31"/>
       <c r="BH93" s="31"/>
     </row>
-    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="4" t="s">
         <v>265</v>
@@ -46279,7 +46415,7 @@
       <c r="BG94" s="31"/>
       <c r="BH94" s="31"/>
     </row>
-    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="4" t="s">
         <v>266</v>
@@ -46379,7 +46515,7 @@
       <c r="BG95" s="31"/>
       <c r="BH95" s="31"/>
     </row>
-    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>267</v>
@@ -46479,7 +46615,7 @@
       <c r="BG96" s="16"/>
       <c r="BH96" s="16"/>
     </row>
-    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>268</v>
@@ -46579,7 +46715,7 @@
       <c r="BG97" s="16"/>
       <c r="BH97" s="16"/>
     </row>
-    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>269</v>
@@ -46679,7 +46815,7 @@
       <c r="BG98" s="16"/>
       <c r="BH98" s="16"/>
     </row>
-    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>270</v>
@@ -46779,7 +46915,7 @@
       <c r="BG99" s="16"/>
       <c r="BH99" s="16"/>
     </row>
-    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>271</v>
@@ -46879,7 +47015,7 @@
       <c r="BG100" s="16"/>
       <c r="BH100" s="16"/>
     </row>
-    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="4" t="s">
         <v>272</v>
@@ -46979,7 +47115,7 @@
       <c r="BG101" s="31"/>
       <c r="BH101" s="31"/>
     </row>
-    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="4" t="s">
         <v>273</v>
@@ -47079,7 +47215,7 @@
       <c r="BG102" s="31"/>
       <c r="BH102" s="31"/>
     </row>
-    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A103" s="30"/>
       <c r="B103" s="4" t="s">
         <v>274</v>
@@ -47179,7 +47315,7 @@
       <c r="BG103" s="31"/>
       <c r="BH103" s="31"/>
     </row>
-    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="30"/>
       <c r="B104" s="4" t="s">
         <v>275</v>
@@ -47279,7 +47415,7 @@
       <c r="BG104" s="31"/>
       <c r="BH104" s="31"/>
     </row>
-    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A105" s="30"/>
       <c r="B105" s="4" t="s">
         <v>276</v>
@@ -47379,7 +47515,7 @@
       <c r="BG105" s="31"/>
       <c r="BH105" s="31"/>
     </row>
-    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A106" s="33"/>
       <c r="B106" s="34" t="s">
         <v>283</v>
@@ -47479,7 +47615,7 @@
       <c r="BG106" s="37"/>
       <c r="BH106" s="37"/>
     </row>
-    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
       <c r="A107" s="33"/>
       <c r="B107" s="34" t="s">
         <v>284</v>
@@ -47579,7 +47715,7 @@
       <c r="BG107" s="37"/>
       <c r="BH107" s="37"/>
     </row>
-    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A108" s="30"/>
       <c r="B108" s="4" t="s">
         <v>286</v>
@@ -47679,7 +47815,7 @@
       <c r="BG108" s="31"/>
       <c r="BH108" s="31"/>
     </row>
-    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A109" s="30"/>
       <c r="B109" s="4" t="s">
         <v>289</v>
@@ -47779,7 +47915,7 @@
       <c r="BG109" s="31"/>
       <c r="BH109" s="31"/>
     </row>
-    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A110" s="30"/>
       <c r="B110" s="4" t="s">
         <v>292</v>
@@ -47879,7 +48015,7 @@
       <c r="BG110" s="31"/>
       <c r="BH110" s="31"/>
     </row>
-    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A111" s="30"/>
       <c r="B111" s="4" t="s">
         <v>293</v>
@@ -47979,7 +48115,7 @@
       <c r="BG111" s="31"/>
       <c r="BH111" s="31"/>
     </row>
-    <row r="112" spans="1:60" s="70" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="112" spans="1:60" s="70" customFormat="1" ht="21" customHeight="1">
       <c r="A112" s="67"/>
       <c r="B112" s="68" t="s">
         <v>327</v>
@@ -48076,7 +48212,7 @@
       <c r="BG112" s="71"/>
       <c r="BH112" s="71"/>
     </row>
-    <row r="113" spans="1:62" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="113" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="15" t="s">
         <v>300</v>
@@ -48176,7 +48312,7 @@
       <c r="BG113" s="16"/>
       <c r="BH113" s="16"/>
     </row>
-    <row r="114" spans="1:62" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="114" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="15" t="s">
         <v>303</v>
@@ -48276,7 +48412,7 @@
       <c r="BG114" s="16"/>
       <c r="BH114" s="16"/>
     </row>
-    <row r="115" spans="1:62" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="115" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="15" t="s">
         <v>304</v>
@@ -48376,7 +48512,7 @@
       <c r="BG115" s="16"/>
       <c r="BH115" s="16"/>
     </row>
-    <row r="116" spans="1:62" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="116" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="15" t="s">
         <v>307</v>
@@ -48476,7 +48612,7 @@
       <c r="BG116" s="16"/>
       <c r="BH116" s="16"/>
     </row>
-    <row r="117" spans="1:62" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="117" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="15" t="s">
         <v>308</v>
@@ -48576,7 +48712,7 @@
       <c r="BG117" s="16"/>
       <c r="BH117" s="16"/>
     </row>
-    <row r="118" spans="1:62" s="70" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="118" spans="1:60" s="70" customFormat="1" ht="21" customHeight="1">
       <c r="A118" s="67"/>
       <c r="B118" s="68" t="s">
         <v>328</v>
@@ -48674,7 +48810,7 @@
       <c r="BG118" s="71"/>
       <c r="BH118" s="71"/>
     </row>
-    <row r="119" spans="1:62" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="119" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
       <c r="A119" s="30"/>
       <c r="B119" s="4" t="s">
         <v>313</v>
@@ -48774,7 +48910,7 @@
       <c r="BG119" s="31"/>
       <c r="BH119" s="31"/>
     </row>
-    <row r="120" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
+    <row r="120" spans="1:60" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="55"/>
       <c r="B120" s="56" t="s">
         <v>315</v>
@@ -48874,7 +49010,7 @@
       <c r="BG120" s="60"/>
       <c r="BH120" s="60"/>
     </row>
-    <row r="121" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+    <row r="121" spans="1:60" s="64" customFormat="1" ht="21" customHeight="1">
       <c r="A121" s="61"/>
       <c r="B121" s="62" t="s">
         <v>317</v>
@@ -48974,7 +49110,7 @@
       <c r="BG121" s="66"/>
       <c r="BH121" s="66"/>
     </row>
-    <row r="122" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+    <row r="122" spans="1:60" s="64" customFormat="1" ht="21" customHeight="1">
       <c r="A122" s="61"/>
       <c r="B122" s="62" t="s">
         <v>320</v>
@@ -49074,7 +49210,7 @@
       <c r="BG122" s="66"/>
       <c r="BH122" s="66"/>
     </row>
-    <row r="123" spans="1:62" s="64" customFormat="1" ht="21" customHeight="1">
+    <row r="123" spans="1:60" s="64" customFormat="1" ht="21" customHeight="1">
       <c r="A123" s="61"/>
       <c r="B123" s="62" t="s">
         <v>321</v>
@@ -49174,7 +49310,7 @@
       <c r="BG123" s="66"/>
       <c r="BH123" s="66"/>
     </row>
-    <row r="124" spans="1:62" s="58" customFormat="1" ht="21" customHeight="1">
+    <row r="124" spans="1:60" s="58" customFormat="1" ht="21" customHeight="1">
       <c r="A124" s="55"/>
       <c r="B124" s="56" t="s">
         <v>326</v>
@@ -49271,7 +49407,7 @@
       <c r="BG124" s="60"/>
       <c r="BH124" s="60"/>
     </row>
-    <row r="125" spans="1:62" s="79" customFormat="1" ht="21" customHeight="1">
+    <row r="125" spans="1:60" s="79" customFormat="1" ht="21" customHeight="1">
       <c r="A125" s="14"/>
       <c r="B125" s="15" t="s">
         <v>331</v>
@@ -49371,7 +49507,7 @@
       <c r="BG125" s="80"/>
       <c r="BH125" s="80"/>
     </row>
-    <row r="126" spans="1:62" s="79" customFormat="1" ht="21" customHeight="1">
+    <row r="126" spans="1:60" s="79" customFormat="1" ht="21" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="15" t="s">
         <v>332</v>
@@ -49468,36 +49604,36 @@
       <c r="BG126" s="80"/>
       <c r="BH126" s="80"/>
     </row>
-    <row r="127" spans="1:62" s="77" customFormat="1" ht="21" customHeight="1">
-      <c r="A127" s="74"/>
-      <c r="B127" s="75" t="s">
+    <row r="127" spans="1:60" s="79" customFormat="1" ht="21" customHeight="1">
+      <c r="A127" s="14"/>
+      <c r="B127" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="C127" s="75">
+      <c r="C127" s="15">
         <v>22</v>
       </c>
-      <c r="D127" s="76">
+      <c r="D127" s="50">
         <v>26502</v>
       </c>
-      <c r="E127" s="75">
+      <c r="E127" s="15">
         <v>26313</v>
       </c>
-      <c r="F127" s="75">
+      <c r="F127" s="15">
         <v>26204</v>
       </c>
-      <c r="G127" s="75">
+      <c r="G127" s="15">
         <v>8019300</v>
       </c>
-      <c r="H127" s="75">
+      <c r="H127" s="15">
         <v>31250</v>
       </c>
-      <c r="I127" s="75">
+      <c r="I127" s="15">
         <v>31378</v>
       </c>
-      <c r="J127" s="75">
+      <c r="J127" s="15">
         <v>31080</v>
       </c>
-      <c r="K127" s="75">
+      <c r="K127" s="15">
         <v>573100</v>
       </c>
       <c r="L127" s="15">
@@ -49508,210 +49644,317 @@
         <f t="shared" si="13"/>
         <v>17811948000</v>
       </c>
-      <c r="N127" s="77">
+      <c r="N127" s="79">
         <v>26577</v>
       </c>
-      <c r="O127" s="77">
+      <c r="O127" s="79">
         <v>31692</v>
       </c>
-      <c r="P127" s="77">
+      <c r="P127" s="79">
         <v>26767</v>
       </c>
-      <c r="Q127" s="77">
+      <c r="Q127" s="79">
         <v>31562</v>
       </c>
-      <c r="R127" s="75"/>
-      <c r="S127" s="75"/>
-      <c r="T127" s="75"/>
-      <c r="U127" s="75"/>
-      <c r="X127" s="77">
+      <c r="R127" s="15"/>
+      <c r="S127" s="15"/>
+      <c r="T127" s="15"/>
+      <c r="U127" s="15"/>
+      <c r="X127" s="79">
         <v>27100</v>
       </c>
-      <c r="Y127" s="77">
+      <c r="Y127" s="79">
         <v>31782</v>
       </c>
-      <c r="Z127" s="75"/>
-      <c r="AA127" s="75"/>
-      <c r="AB127" s="75"/>
-      <c r="AC127" s="75"/>
-      <c r="AD127" s="75"/>
-      <c r="AE127" s="75"/>
-      <c r="AF127" s="75"/>
-      <c r="AG127" s="75"/>
-      <c r="AH127" s="75"/>
-      <c r="AI127" s="75"/>
-      <c r="AJ127" s="75"/>
-      <c r="AK127" s="75"/>
-      <c r="AL127" s="75"/>
-      <c r="AM127" s="75"/>
-      <c r="AN127" s="75"/>
-      <c r="AO127" s="75"/>
-      <c r="AP127" s="75"/>
-      <c r="AQ127" s="75"/>
-      <c r="AR127" s="75"/>
-      <c r="AS127" s="76"/>
-      <c r="AT127" s="76"/>
-      <c r="AU127" s="76"/>
-      <c r="AV127" s="76"/>
-      <c r="AW127" s="76"/>
-      <c r="AX127" s="76"/>
-      <c r="AY127" s="75"/>
-      <c r="AZ127" s="75"/>
-      <c r="BA127" s="75"/>
-      <c r="BB127" s="75"/>
-      <c r="BC127" s="75"/>
-      <c r="BE127" s="78"/>
-      <c r="BF127" s="78"/>
-      <c r="BG127" s="78"/>
-      <c r="BH127" s="78"/>
-    </row>
-    <row r="128" spans="1:62" ht="18">
-      <c r="A128" s="6"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7">
-        <f>SUM(G2:G126)/125</f>
-        <v>5885822.392</v>
-      </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7">
+      <c r="Z127" s="15"/>
+      <c r="AA127" s="15"/>
+      <c r="AB127" s="15"/>
+      <c r="AC127" s="15"/>
+      <c r="AD127" s="15"/>
+      <c r="AE127" s="15"/>
+      <c r="AF127" s="15"/>
+      <c r="AG127" s="15"/>
+      <c r="AH127" s="15"/>
+      <c r="AI127" s="15"/>
+      <c r="AJ127" s="15"/>
+      <c r="AK127" s="15"/>
+      <c r="AL127" s="15"/>
+      <c r="AM127" s="15"/>
+      <c r="AN127" s="15"/>
+      <c r="AO127" s="15"/>
+      <c r="AP127" s="15"/>
+      <c r="AQ127" s="15"/>
+      <c r="AR127" s="15"/>
+      <c r="AS127" s="50"/>
+      <c r="AT127" s="50"/>
+      <c r="AU127" s="50"/>
+      <c r="AV127" s="50"/>
+      <c r="AW127" s="50"/>
+      <c r="AX127" s="50"/>
+      <c r="AY127" s="15"/>
+      <c r="AZ127" s="15"/>
+      <c r="BA127" s="15"/>
+      <c r="BB127" s="15"/>
+      <c r="BC127" s="15"/>
+      <c r="BE127" s="80"/>
+      <c r="BF127" s="80"/>
+      <c r="BG127" s="80"/>
+      <c r="BH127" s="80"/>
+    </row>
+    <row r="128" spans="1:60" s="77" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="74"/>
+      <c r="B128" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="75">
+        <v>23</v>
+      </c>
+      <c r="D128" s="76">
+        <v>26313</v>
+      </c>
+      <c r="E128" s="75">
+        <v>26516</v>
+      </c>
+      <c r="F128" s="75">
+        <v>26379</v>
+      </c>
+      <c r="G128" s="75">
+        <v>9028800</v>
+      </c>
+      <c r="H128" s="75">
+        <v>31378</v>
+      </c>
+      <c r="I128" s="75">
+        <v>31373</v>
+      </c>
+      <c r="J128" s="75">
+        <v>31146</v>
+      </c>
+      <c r="K128" s="75">
+        <v>1286100</v>
+      </c>
+      <c r="L128" s="15">
+        <f t="shared" si="14"/>
+        <v>238170715200</v>
+      </c>
+      <c r="M128" s="15">
+        <f t="shared" si="13"/>
+        <v>40056870600</v>
+      </c>
+      <c r="N128" s="77">
+        <v>26781</v>
+      </c>
+      <c r="O128" s="77">
+        <v>31687</v>
+      </c>
+      <c r="P128" s="77">
+        <v>26577</v>
+      </c>
+      <c r="Q128" s="77">
+        <v>31692</v>
+      </c>
+      <c r="R128" s="75"/>
+      <c r="S128" s="75"/>
+      <c r="T128" s="75"/>
+      <c r="U128" s="75"/>
+      <c r="V128" s="77">
+        <v>27410</v>
+      </c>
+      <c r="X128" s="77">
+        <v>27370</v>
+      </c>
+      <c r="Y128" s="77">
+        <v>32420</v>
+      </c>
+      <c r="Z128" s="75"/>
+      <c r="AA128" s="75"/>
+      <c r="AB128" s="75"/>
+      <c r="AC128" s="75"/>
+      <c r="AD128" s="75"/>
+      <c r="AE128" s="75"/>
+      <c r="AF128" s="75"/>
+      <c r="AG128" s="75"/>
+      <c r="AH128" s="75"/>
+      <c r="AI128" s="75"/>
+      <c r="AJ128" s="75"/>
+      <c r="AK128" s="75"/>
+      <c r="AL128" s="75"/>
+      <c r="AM128" s="75"/>
+      <c r="AN128" s="75"/>
+      <c r="AO128" s="75"/>
+      <c r="AP128" s="75"/>
+      <c r="AQ128" s="75"/>
+      <c r="AR128" s="75"/>
+      <c r="AS128" s="76"/>
+      <c r="AT128" s="76"/>
+      <c r="AU128" s="76"/>
+      <c r="AV128" s="76"/>
+      <c r="AW128" s="76"/>
+      <c r="AX128" s="76"/>
+      <c r="AY128" s="75"/>
+      <c r="AZ128" s="75"/>
+      <c r="BA128" s="75"/>
+      <c r="BB128" s="75"/>
+      <c r="BC128" s="75"/>
+      <c r="BE128" s="78"/>
+      <c r="BF128" s="78"/>
+      <c r="BG128" s="78"/>
+      <c r="BH128" s="78"/>
+    </row>
+    <row r="129" spans="1:62" ht="18">
+      <c r="A129" s="6"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7">
+        <f>SUM(G2:G128)/127</f>
+        <v>5927369.2834645668</v>
+      </c>
+      <c r="H129" s="7"/>
+      <c r="I129" s="7"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="7">
         <f>SUM(K2:K126)</f>
         <v>125564600</v>
       </c>
-      <c r="L128" s="7">
-        <f>SUM(L2:L127)</f>
-        <v>17943592288009</v>
-      </c>
-      <c r="M128" s="4">
-        <f>SUM(M2:M127)</f>
-        <v>3582669809000</v>
-      </c>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="64">
-        <v>27750</v>
-      </c>
-      <c r="W128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
-      <c r="AA128" s="4"/>
-      <c r="AB128" s="4"/>
-      <c r="AC128" s="4"/>
-      <c r="AD128" s="4"/>
-      <c r="AE128" s="4"/>
-      <c r="AF128" s="4"/>
-      <c r="AG128" s="4"/>
-      <c r="AH128" s="4"/>
-      <c r="AI128" s="4"/>
-      <c r="AJ128" s="4"/>
-      <c r="AK128" s="4"/>
-      <c r="AL128" s="4"/>
-      <c r="AM128" s="4"/>
-      <c r="AN128" s="4"/>
-      <c r="AO128" s="4"/>
-      <c r="AP128" s="4"/>
-      <c r="AQ128" s="4"/>
-      <c r="AR128" s="4"/>
-      <c r="AY128" s="4"/>
-      <c r="AZ128" s="4"/>
-      <c r="BA128" s="4"/>
-      <c r="BB128" s="4"/>
-      <c r="BC128" s="4"/>
-      <c r="BD128" s="4"/>
-      <c r="BE128" s="3"/>
-      <c r="BF128" s="3"/>
-      <c r="BG128" s="3"/>
-      <c r="BH128" s="3"/>
-      <c r="BI128" t="e">
-        <f>#REF!-N128</f>
+      <c r="L129" s="7">
+        <f>SUM(L2:L128)</f>
+        <v>18181763003209</v>
+      </c>
+      <c r="M129" s="4">
+        <f>SUM(M2:M128)</f>
+        <v>3622726679600</v>
+      </c>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="64">
+        <v>27400</v>
+      </c>
+      <c r="W129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="4"/>
+      <c r="AE129" s="4"/>
+      <c r="AF129" s="4"/>
+      <c r="AG129" s="4"/>
+      <c r="AH129" s="4"/>
+      <c r="AI129" s="4"/>
+      <c r="AJ129" s="4"/>
+      <c r="AK129" s="4"/>
+      <c r="AL129" s="4"/>
+      <c r="AM129" s="4"/>
+      <c r="AN129" s="4"/>
+      <c r="AO129" s="4"/>
+      <c r="AP129" s="4"/>
+      <c r="AQ129" s="4"/>
+      <c r="AR129" s="4"/>
+      <c r="AY129" s="4"/>
+      <c r="AZ129" s="4"/>
+      <c r="BA129" s="4"/>
+      <c r="BB129" s="4"/>
+      <c r="BC129" s="4"/>
+      <c r="BD129" s="4"/>
+      <c r="BE129" s="3"/>
+      <c r="BF129" s="3"/>
+      <c r="BG129" s="3"/>
+      <c r="BH129" s="3"/>
+      <c r="BI129" t="e">
+        <f>#REF!-N129</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ128" t="e">
+      <c r="BJ129" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="129" spans="4:54" ht="18">
-      <c r="D129" s="19"/>
-      <c r="Z129" s="12"/>
-      <c r="AB129" s="12"/>
-      <c r="AS129" s="12"/>
-      <c r="AW129" s="29"/>
-    </row>
-    <row r="130" spans="4:54" ht="18">
+    <row r="130" spans="1:62" ht="18">
       <c r="D130" s="19"/>
+      <c r="V130" s="81">
+        <v>27390</v>
+      </c>
       <c r="Z130" s="12"/>
-      <c r="AS130" s="19"/>
+      <c r="AB130" s="12"/>
+      <c r="AS130" s="12"/>
       <c r="AW130" s="29"/>
-      <c r="AY130">
+    </row>
+    <row r="131" spans="1:62" ht="18">
+      <c r="D131" s="19"/>
+      <c r="Z131" s="12"/>
+      <c r="AS131" s="19"/>
+      <c r="AW131" s="29"/>
+      <c r="AY131">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="131" spans="4:54" ht="18">
-      <c r="Z131" s="12"/>
-      <c r="AS131" s="19">
+    <row r="132" spans="1:62" ht="18">
+      <c r="Z132" s="12"/>
+      <c r="AS132" s="19">
         <v>10290000</v>
       </c>
-      <c r="AW131" s="29"/>
-      <c r="BB131">
+      <c r="AW132" s="29"/>
+      <c r="BB132">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="132" spans="4:54" ht="18">
-      <c r="V132" s="12"/>
-      <c r="Z132" s="12"/>
-      <c r="AS132" s="19"/>
-      <c r="AU132">
-        <f>AS131-AS49</f>
+    <row r="133" spans="1:62" ht="18">
+      <c r="V133" s="12"/>
+      <c r="Z133" s="12"/>
+      <c r="AS133" s="19"/>
+      <c r="AU133">
+        <f>AS132-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW132" s="29">
+      <c r="AW133" s="29">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="133" spans="4:54" ht="18">
-      <c r="V133" s="12"/>
-      <c r="Z133" s="12"/>
-      <c r="AW133" s="29"/>
-    </row>
-    <row r="134" spans="4:54" ht="17.25" customHeight="1">
+    <row r="134" spans="1:62" ht="18">
+      <c r="G134">
+        <f>(G128-G129)/G129</f>
+        <v>0.52323898988163542</v>
+      </c>
       <c r="V134" s="12"/>
       <c r="Z134" s="12"/>
-    </row>
-    <row r="135" spans="4:54" ht="18">
-      <c r="D135">
+      <c r="AW134" s="29"/>
+    </row>
+    <row r="135" spans="1:62" ht="17.25" customHeight="1">
+      <c r="V135" s="12"/>
+      <c r="Z135" s="12"/>
+    </row>
+    <row r="136" spans="1:62" ht="18">
+      <c r="D136">
         <f>(D113-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V135" s="12"/>
-      <c r="Z135" s="12"/>
-      <c r="AW135">
-        <f>AW132/AY51</f>
+      <c r="V136" s="12"/>
+      <c r="Z136" s="12"/>
+      <c r="AW136">
+        <f>AW133/AY51</f>
         <v>2.9539951573849879E-2</v>
       </c>
     </row>
-    <row r="136" spans="4:54" ht="18">
-      <c r="V136" s="12"/>
-    </row>
-    <row r="137" spans="4:54" ht="18">
+    <row r="137" spans="1:62" ht="18">
       <c r="V137" s="12"/>
     </row>
+    <row r="138" spans="1:62" ht="18">
+      <c r="V138" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL132"/>
+  <autoFilter ref="A1:BL133"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50680,10 +50923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K751"/>
+  <dimension ref="A1:K757"/>
   <sheetViews>
-    <sheetView topLeftCell="A728" workbookViewId="0">
-      <selection activeCell="A738" sqref="A738:D746"/>
+    <sheetView topLeftCell="A743" workbookViewId="0">
+      <selection activeCell="A749" sqref="A749:D757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50697,12 +50940,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -50823,12 +51066,12 @@
       <c r="D10" s="47"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
@@ -50948,12 +51191,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="82" t="s">
         <v>170</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
@@ -51068,12 +51311,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="s">
@@ -51188,12 +51431,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="81"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="81"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
@@ -51308,12 +51551,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="82"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -51436,12 +51679,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="82" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="3" t="s">
@@ -51556,12 +51799,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="81" t="s">
+      <c r="A71" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="81"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="82"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
@@ -51676,12 +51919,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="81" t="s">
+      <c r="A81" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="B81" s="81"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="81"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="82"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
@@ -51818,12 +52061,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="81" t="s">
+      <c r="A93" s="82" t="s">
         <v>190</v>
       </c>
-      <c r="B93" s="81"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="81"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
@@ -51938,12 +52181,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="81" t="s">
+      <c r="A103" s="82" t="s">
         <v>191</v>
       </c>
-      <c r="B103" s="81"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="81"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="82"/>
+      <c r="D103" s="82"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="s">
@@ -52061,12 +52304,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="81" t="s">
+      <c r="A113" s="82" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="81"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="81"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="82"/>
+      <c r="D113" s="82"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
@@ -52185,12 +52428,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="81" t="s">
+      <c r="A123" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="B123" s="81"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="81"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="82"/>
+      <c r="D123" s="82"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="3" t="s">
@@ -52305,12 +52548,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="81" t="s">
+      <c r="A133" s="82" t="s">
         <v>199</v>
       </c>
-      <c r="B133" s="81"/>
-      <c r="C133" s="81"/>
-      <c r="D133" s="81"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="82"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
@@ -52425,12 +52668,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="81" t="s">
+      <c r="A143" s="82" t="s">
         <v>201</v>
       </c>
-      <c r="B143" s="81"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="81"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
@@ -52545,12 +52788,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="81" t="s">
+      <c r="A153" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="B153" s="81"/>
-      <c r="C153" s="81"/>
-      <c r="D153" s="81"/>
+      <c r="B153" s="82"/>
+      <c r="C153" s="82"/>
+      <c r="D153" s="82"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="3" t="s">
@@ -52675,12 +52918,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="81" t="s">
+      <c r="A163" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="B163" s="81"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="81"/>
+      <c r="B163" s="82"/>
+      <c r="C163" s="82"/>
+      <c r="D163" s="82"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
@@ -52795,12 +53038,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="81" t="s">
+      <c r="A173" s="82" t="s">
         <v>209</v>
       </c>
-      <c r="B173" s="81"/>
-      <c r="C173" s="81"/>
-      <c r="D173" s="81"/>
+      <c r="B173" s="82"/>
+      <c r="C173" s="82"/>
+      <c r="D173" s="82"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
@@ -52934,12 +53177,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="81" t="s">
+      <c r="A183" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="81"/>
-      <c r="C183" s="81"/>
-      <c r="D183" s="81"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="82"/>
+      <c r="D183" s="82"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -53061,12 +53304,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="81" t="s">
+      <c r="A193" s="82" t="s">
         <v>212</v>
       </c>
-      <c r="B193" s="81"/>
-      <c r="C193" s="81"/>
-      <c r="D193" s="81"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="82"/>
+      <c r="D193" s="82"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -53181,12 +53424,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="81" t="s">
+      <c r="A203" s="82" t="s">
         <v>214</v>
       </c>
-      <c r="B203" s="81"/>
-      <c r="C203" s="81"/>
-      <c r="D203" s="81"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="82"/>
+      <c r="D203" s="82"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
@@ -53301,12 +53544,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="81" t="s">
+      <c r="A213" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="B213" s="81"/>
-      <c r="C213" s="81"/>
-      <c r="D213" s="81"/>
+      <c r="B213" s="82"/>
+      <c r="C213" s="82"/>
+      <c r="D213" s="82"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
@@ -53421,12 +53664,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="81" t="s">
+      <c r="A223" s="82" t="s">
         <v>217</v>
       </c>
-      <c r="B223" s="81"/>
-      <c r="C223" s="81"/>
-      <c r="D223" s="81"/>
+      <c r="B223" s="82"/>
+      <c r="C223" s="82"/>
+      <c r="D223" s="82"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
@@ -53541,12 +53784,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="81" t="s">
+      <c r="A233" s="82" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="81"/>
-      <c r="C233" s="81"/>
-      <c r="D233" s="81"/>
+      <c r="B233" s="82"/>
+      <c r="C233" s="82"/>
+      <c r="D233" s="82"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="3" t="s">
@@ -53662,12 +53905,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="81" t="s">
+      <c r="A243" s="82" t="s">
         <v>222</v>
       </c>
-      <c r="B243" s="81"/>
-      <c r="C243" s="81"/>
-      <c r="D243" s="81"/>
+      <c r="B243" s="82"/>
+      <c r="C243" s="82"/>
+      <c r="D243" s="82"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
@@ -53785,12 +54028,12 @@
       <c r="D252" s="48"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="81" t="s">
+      <c r="A253" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="B253" s="81"/>
-      <c r="C253" s="81"/>
-      <c r="D253" s="81"/>
+      <c r="B253" s="82"/>
+      <c r="C253" s="82"/>
+      <c r="D253" s="82"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
@@ -53905,12 +54148,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="81" t="s">
+      <c r="A263" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="B263" s="81"/>
-      <c r="C263" s="81"/>
-      <c r="D263" s="81"/>
+      <c r="B263" s="82"/>
+      <c r="C263" s="82"/>
+      <c r="D263" s="82"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
@@ -54025,12 +54268,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="81" t="s">
+      <c r="A273" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="B273" s="81"/>
-      <c r="C273" s="81"/>
-      <c r="D273" s="81"/>
+      <c r="B273" s="82"/>
+      <c r="C273" s="82"/>
+      <c r="D273" s="82"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
@@ -54145,12 +54388,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="81" t="s">
+      <c r="A283" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="B283" s="81"/>
-      <c r="C283" s="81"/>
-      <c r="D283" s="81"/>
+      <c r="B283" s="82"/>
+      <c r="C283" s="82"/>
+      <c r="D283" s="82"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
@@ -54265,12 +54508,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="81" t="s">
+      <c r="A293" s="82" t="s">
         <v>232</v>
       </c>
-      <c r="B293" s="81"/>
-      <c r="C293" s="81"/>
-      <c r="D293" s="81"/>
+      <c r="B293" s="82"/>
+      <c r="C293" s="82"/>
+      <c r="D293" s="82"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="3" t="s">
@@ -54389,12 +54632,12 @@
       <c r="F301" s="51"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="81" t="s">
+      <c r="A303" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="B303" s="81"/>
-      <c r="C303" s="81"/>
-      <c r="D303" s="81"/>
+      <c r="B303" s="82"/>
+      <c r="C303" s="82"/>
+      <c r="D303" s="82"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="3" t="s">
@@ -54479,12 +54722,12 @@
       <c r="D311" s="3"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="81" t="s">
+      <c r="A313" s="82" t="s">
         <v>240</v>
       </c>
-      <c r="B313" s="81"/>
-      <c r="C313" s="81"/>
-      <c r="D313" s="81"/>
+      <c r="B313" s="82"/>
+      <c r="C313" s="82"/>
+      <c r="D313" s="82"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="3" t="s">
@@ -54577,12 +54820,12 @@
       <c r="D321" s="3"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="81" t="s">
+      <c r="A324" s="82" t="s">
         <v>245</v>
       </c>
-      <c r="B324" s="81"/>
-      <c r="C324" s="81"/>
-      <c r="D324" s="81"/>
+      <c r="B324" s="82"/>
+      <c r="C324" s="82"/>
+      <c r="D324" s="82"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="3" t="s">
@@ -54667,12 +54910,12 @@
       <c r="D332" s="3"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="81" t="s">
+      <c r="A335" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="B335" s="81"/>
-      <c r="C335" s="81"/>
-      <c r="D335" s="81"/>
+      <c r="B335" s="82"/>
+      <c r="C335" s="82"/>
+      <c r="D335" s="82"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="3" t="s">
@@ -54787,12 +55030,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="81" t="s">
+      <c r="A346" s="82" t="s">
         <v>247</v>
       </c>
-      <c r="B346" s="81"/>
-      <c r="C346" s="81"/>
-      <c r="D346" s="81"/>
+      <c r="B346" s="82"/>
+      <c r="C346" s="82"/>
+      <c r="D346" s="82"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
@@ -54907,12 +55150,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="81" t="s">
+      <c r="A357" s="82" t="s">
         <v>249</v>
       </c>
-      <c r="B357" s="81"/>
-      <c r="C357" s="81"/>
-      <c r="D357" s="81"/>
+      <c r="B357" s="82"/>
+      <c r="C357" s="82"/>
+      <c r="D357" s="82"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
@@ -55027,12 +55270,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="81" t="s">
+      <c r="A368" s="82" t="s">
         <v>250</v>
       </c>
-      <c r="B368" s="81"/>
-      <c r="C368" s="81"/>
-      <c r="D368" s="81"/>
+      <c r="B368" s="82"/>
+      <c r="C368" s="82"/>
+      <c r="D368" s="82"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="3" t="s">
@@ -55151,12 +55394,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="81" t="s">
+      <c r="A379" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="B379" s="81"/>
-      <c r="C379" s="81"/>
-      <c r="D379" s="81"/>
+      <c r="B379" s="82"/>
+      <c r="C379" s="82"/>
+      <c r="D379" s="82"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="3" t="s">
@@ -55271,12 +55514,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="81" t="s">
+      <c r="A390" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="B390" s="81"/>
-      <c r="C390" s="81"/>
-      <c r="D390" s="81"/>
+      <c r="B390" s="82"/>
+      <c r="C390" s="82"/>
+      <c r="D390" s="82"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
@@ -55391,12 +55634,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="81" t="s">
+      <c r="A401" s="82" t="s">
         <v>253</v>
       </c>
-      <c r="B401" s="81"/>
-      <c r="C401" s="81"/>
-      <c r="D401" s="81"/>
+      <c r="B401" s="82"/>
+      <c r="C401" s="82"/>
+      <c r="D401" s="82"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -55511,12 +55754,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="81" t="s">
+      <c r="A412" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="B412" s="81"/>
-      <c r="C412" s="81"/>
-      <c r="D412" s="81"/>
+      <c r="B412" s="82"/>
+      <c r="C412" s="82"/>
+      <c r="D412" s="82"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
@@ -55631,12 +55874,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="81" t="s">
+      <c r="A423" s="82" t="s">
         <v>255</v>
       </c>
-      <c r="B423" s="81"/>
-      <c r="C423" s="81"/>
-      <c r="D423" s="81"/>
+      <c r="B423" s="82"/>
+      <c r="C423" s="82"/>
+      <c r="D423" s="82"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="3" t="s">
@@ -55727,12 +55970,12 @@
       <c r="D431" s="3"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="81" t="s">
+      <c r="A434" s="82" t="s">
         <v>260</v>
       </c>
-      <c r="B434" s="81"/>
-      <c r="C434" s="81"/>
-      <c r="D434" s="81"/>
+      <c r="B434" s="82"/>
+      <c r="C434" s="82"/>
+      <c r="D434" s="82"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="3" t="s">
@@ -55847,12 +56090,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="81" t="s">
+      <c r="A445" s="82" t="s">
         <v>261</v>
       </c>
-      <c r="B445" s="81"/>
-      <c r="C445" s="81"/>
-      <c r="D445" s="81"/>
+      <c r="B445" s="82"/>
+      <c r="C445" s="82"/>
+      <c r="D445" s="82"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="3" t="s">
@@ -55967,12 +56210,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="81" t="s">
+      <c r="A456" s="82" t="s">
         <v>262</v>
       </c>
-      <c r="B456" s="81"/>
-      <c r="C456" s="81"/>
-      <c r="D456" s="81"/>
+      <c r="B456" s="82"/>
+      <c r="C456" s="82"/>
+      <c r="D456" s="82"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
@@ -56087,12 +56330,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="81" t="s">
+      <c r="A467" s="82" t="s">
         <v>263</v>
       </c>
-      <c r="B467" s="81"/>
-      <c r="C467" s="81"/>
-      <c r="D467" s="81"/>
+      <c r="B467" s="82"/>
+      <c r="C467" s="82"/>
+      <c r="D467" s="82"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
@@ -56207,12 +56450,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="81" t="s">
+      <c r="A478" s="82" t="s">
         <v>277</v>
       </c>
-      <c r="B478" s="81"/>
-      <c r="C478" s="81"/>
-      <c r="D478" s="81"/>
+      <c r="B478" s="82"/>
+      <c r="C478" s="82"/>
+      <c r="D478" s="82"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -56327,12 +56570,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="81" t="s">
+      <c r="A489" s="82" t="s">
         <v>278</v>
       </c>
-      <c r="B489" s="81"/>
-      <c r="C489" s="81"/>
-      <c r="D489" s="81"/>
+      <c r="B489" s="82"/>
+      <c r="C489" s="82"/>
+      <c r="D489" s="82"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="3" t="s">
@@ -56417,12 +56660,12 @@
       <c r="D497" s="3"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="81" t="s">
+      <c r="A500" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="B500" s="81"/>
-      <c r="C500" s="81"/>
-      <c r="D500" s="81"/>
+      <c r="B500" s="82"/>
+      <c r="C500" s="82"/>
+      <c r="D500" s="82"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -56537,12 +56780,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="81" t="s">
+      <c r="A511" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="B511" s="81"/>
-      <c r="C511" s="81"/>
-      <c r="D511" s="81"/>
+      <c r="B511" s="82"/>
+      <c r="C511" s="82"/>
+      <c r="D511" s="82"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="3" t="s">
@@ -56657,12 +56900,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="81" t="s">
+      <c r="A522" s="82" t="s">
         <v>288</v>
       </c>
-      <c r="B522" s="81"/>
-      <c r="C522" s="81"/>
-      <c r="D522" s="81"/>
+      <c r="B522" s="82"/>
+      <c r="C522" s="82"/>
+      <c r="D522" s="82"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="3" t="s">
@@ -56777,12 +57020,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="81" t="s">
+      <c r="A533" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="B533" s="81"/>
-      <c r="C533" s="81"/>
-      <c r="D533" s="81"/>
+      <c r="B533" s="82"/>
+      <c r="C533" s="82"/>
+      <c r="D533" s="82"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="3" t="s">
@@ -56897,12 +57140,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="81" t="s">
+      <c r="A544" s="82" t="s">
         <v>291</v>
       </c>
-      <c r="B544" s="81"/>
-      <c r="C544" s="81"/>
-      <c r="D544" s="81"/>
+      <c r="B544" s="82"/>
+      <c r="C544" s="82"/>
+      <c r="D544" s="82"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="3" t="s">
@@ -57017,12 +57260,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="81" t="s">
+      <c r="A555" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B555" s="81"/>
-      <c r="C555" s="81"/>
-      <c r="D555" s="81"/>
+      <c r="B555" s="82"/>
+      <c r="C555" s="82"/>
+      <c r="D555" s="82"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="3" t="s">
@@ -57179,12 +57422,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="81" t="s">
+      <c r="A567" s="82" t="s">
         <v>294</v>
       </c>
-      <c r="B567" s="81"/>
-      <c r="C567" s="81"/>
-      <c r="D567" s="81"/>
+      <c r="B567" s="82"/>
+      <c r="C567" s="82"/>
+      <c r="D567" s="82"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="3" t="s">
@@ -57283,12 +57526,12 @@
       <c r="D575" s="3"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="81" t="s">
+      <c r="A579" s="82" t="s">
         <v>301</v>
       </c>
-      <c r="B579" s="81"/>
-      <c r="C579" s="81"/>
-      <c r="D579" s="81"/>
+      <c r="B579" s="82"/>
+      <c r="C579" s="82"/>
+      <c r="D579" s="82"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="3" t="s">
@@ -57405,12 +57648,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="81" t="s">
+      <c r="A590" s="82" t="s">
         <v>302</v>
       </c>
-      <c r="B590" s="81"/>
-      <c r="C590" s="81"/>
-      <c r="D590" s="81"/>
+      <c r="B590" s="82"/>
+      <c r="C590" s="82"/>
+      <c r="D590" s="82"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="3" t="s">
@@ -57527,12 +57770,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="81" t="s">
+      <c r="A601" s="82" t="s">
         <v>305</v>
       </c>
-      <c r="B601" s="81"/>
-      <c r="C601" s="81"/>
-      <c r="D601" s="81"/>
+      <c r="B601" s="82"/>
+      <c r="C601" s="82"/>
+      <c r="D601" s="82"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="3" t="s">
@@ -57647,12 +57890,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="81" t="s">
+      <c r="A612" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="B612" s="81"/>
-      <c r="C612" s="81"/>
-      <c r="D612" s="81"/>
+      <c r="B612" s="82"/>
+      <c r="C612" s="82"/>
+      <c r="D612" s="82"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="3" t="s">
@@ -57767,12 +58010,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="81" t="s">
+      <c r="A623" s="82" t="s">
         <v>309</v>
       </c>
-      <c r="B623" s="81"/>
-      <c r="C623" s="81"/>
-      <c r="D623" s="81"/>
+      <c r="B623" s="82"/>
+      <c r="C623" s="82"/>
+      <c r="D623" s="82"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="3" t="s">
@@ -57887,12 +58130,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="81" t="s">
+      <c r="A635" s="82" t="s">
         <v>310</v>
       </c>
-      <c r="B635" s="81"/>
-      <c r="C635" s="81"/>
-      <c r="D635" s="81"/>
+      <c r="B635" s="82"/>
+      <c r="C635" s="82"/>
+      <c r="D635" s="82"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="3" t="s">
@@ -57968,12 +58211,12 @@
       <c r="C643" s="3"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="81" t="s">
+      <c r="A647" s="82" t="s">
         <v>314</v>
       </c>
-      <c r="B647" s="81"/>
-      <c r="C647" s="81"/>
-      <c r="D647" s="81"/>
+      <c r="B647" s="82"/>
+      <c r="C647" s="82"/>
+      <c r="D647" s="82"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="3" t="s">
@@ -58088,12 +58331,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="81" t="s">
+      <c r="A658" s="82" t="s">
         <v>316</v>
       </c>
-      <c r="B658" s="81"/>
-      <c r="C658" s="81"/>
-      <c r="D658" s="81"/>
+      <c r="B658" s="82"/>
+      <c r="C658" s="82"/>
+      <c r="D658" s="82"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="3" t="s">
@@ -58208,12 +58451,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="81" t="s">
+      <c r="A670" s="82" t="s">
         <v>318</v>
       </c>
-      <c r="B670" s="81"/>
-      <c r="C670" s="81"/>
-      <c r="D670" s="81"/>
+      <c r="B670" s="82"/>
+      <c r="C670" s="82"/>
+      <c r="D670" s="82"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="3" t="s">
@@ -58328,12 +58571,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="81" t="s">
+      <c r="A681" s="82" t="s">
         <v>319</v>
       </c>
-      <c r="B681" s="81"/>
-      <c r="C681" s="81"/>
-      <c r="D681" s="81"/>
+      <c r="B681" s="82"/>
+      <c r="C681" s="82"/>
+      <c r="D681" s="82"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="3" t="s">
@@ -58448,12 +58691,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="81" t="s">
+      <c r="A692" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="B692" s="81"/>
-      <c r="C692" s="81"/>
-      <c r="D692" s="81"/>
+      <c r="B692" s="82"/>
+      <c r="C692" s="82"/>
+      <c r="D692" s="82"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="3" t="s">
@@ -58568,12 +58811,12 @@
       </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="81" t="s">
+      <c r="A703" s="82" t="s">
         <v>323</v>
       </c>
-      <c r="B703" s="81"/>
-      <c r="C703" s="81"/>
-      <c r="D703" s="81"/>
+      <c r="B703" s="82"/>
+      <c r="C703" s="82"/>
+      <c r="D703" s="82"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="3" t="s">
@@ -58659,12 +58902,12 @@
       <c r="C711" s="3"/>
     </row>
     <row r="715" spans="1:6">
-      <c r="A715" s="81" t="s">
+      <c r="A715" s="82" t="s">
         <v>330</v>
       </c>
-      <c r="B715" s="81"/>
-      <c r="C715" s="81"/>
-      <c r="D715" s="81"/>
+      <c r="B715" s="82"/>
+      <c r="C715" s="82"/>
+      <c r="D715" s="82"/>
     </row>
     <row r="716" spans="1:6">
       <c r="A716" s="3" t="s">
@@ -58779,12 +59022,12 @@
       </c>
     </row>
     <row r="726" spans="1:4">
-      <c r="A726" s="81" t="s">
+      <c r="A726" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="B726" s="81"/>
-      <c r="C726" s="81"/>
-      <c r="D726" s="81"/>
+      <c r="B726" s="82"/>
+      <c r="C726" s="82"/>
+      <c r="D726" s="82"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="3" t="s">
@@ -58898,15 +59141,15 @@
         <v>11990000</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
-      <c r="A738" s="81" t="s">
+    <row r="738" spans="1:4">
+      <c r="A738" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="B738" s="81"/>
-      <c r="C738" s="81"/>
-      <c r="D738" s="81"/>
-    </row>
-    <row r="739" spans="1:5">
+      <c r="B738" s="82"/>
+      <c r="C738" s="82"/>
+      <c r="D738" s="82"/>
+    </row>
+    <row r="739" spans="1:4">
       <c r="A739" s="3" t="s">
         <v>148</v>
       </c>
@@ -58920,7 +59163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:4">
       <c r="A740" s="43">
         <v>0.45833333333333331</v>
       </c>
@@ -58934,7 +59177,7 @@
         <v>11770000</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:4">
       <c r="A741" s="44" t="s">
         <v>158</v>
       </c>
@@ -58948,7 +59191,7 @@
         <v>11780000</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:4">
       <c r="A742" s="45" t="s">
         <v>157</v>
       </c>
@@ -58962,7 +59205,7 @@
         <v>11790000</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:4">
       <c r="A743" s="43" t="s">
         <v>156</v>
       </c>
@@ -58976,7 +59219,7 @@
         <v>11810000</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:4">
       <c r="A744" s="43">
         <v>0.625</v>
       </c>
@@ -58990,7 +59233,7 @@
         <v>11840000</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:4">
       <c r="A745" s="44" t="s">
         <v>159</v>
       </c>
@@ -59004,7 +59247,7 @@
         <v>11840000</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:4">
       <c r="A746" s="44" t="s">
         <v>160</v>
       </c>
@@ -59018,29 +59261,128 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
-      <c r="B749">
-        <v>3.673</v>
-      </c>
-      <c r="C749">
-        <f>B749*C746</f>
-        <v>27363.85</v>
-      </c>
-    </row>
-    <row r="750" spans="1:5">
-      <c r="E750" t="e">
-        <f>(D734-E740)/E740</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="751" spans="1:5">
-      <c r="B751">
-        <f>(B734-B740)/B734</f>
-        <v>1.9272727272727271E-2</v>
+    <row r="749" spans="1:4">
+      <c r="A749" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="B749" s="82"/>
+      <c r="C749" s="82"/>
+      <c r="D749" s="82"/>
+    </row>
+    <row r="750" spans="1:4">
+      <c r="A750" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4">
+      <c r="A751" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B751" s="3">
+        <v>27410</v>
+      </c>
+      <c r="C751" s="3">
+        <v>7520</v>
+      </c>
+      <c r="D751">
+        <v>11890000</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4">
+      <c r="A752" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B752" s="3">
+        <v>27390</v>
+      </c>
+      <c r="C752" s="3">
+        <v>7520</v>
+      </c>
+      <c r="D752">
+        <v>11880000</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4">
+      <c r="A753" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B753" s="3">
+        <v>27420</v>
+      </c>
+      <c r="C753" s="3">
+        <v>7500</v>
+      </c>
+      <c r="D753">
+        <v>11870000</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4">
+      <c r="A754" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B754" s="3">
+        <v>27370</v>
+      </c>
+      <c r="C754" s="3">
+        <v>7510</v>
+      </c>
+      <c r="D754">
+        <v>11830000</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4">
+      <c r="A755" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B755" s="3">
+        <v>27370</v>
+      </c>
+      <c r="C755" s="3">
+        <v>7520</v>
+      </c>
+      <c r="D755">
+        <v>11840000</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4">
+      <c r="A756" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B756" s="3">
+        <v>27370</v>
+      </c>
+      <c r="C756" s="3">
+        <v>7535</v>
+      </c>
+      <c r="D756">
+        <v>11940000</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4">
+      <c r="A757" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B757" s="3">
+        <v>27370</v>
+      </c>
+      <c r="C757" s="3">
+        <v>7535</v>
+      </c>
+      <c r="D757">
+        <v>11930000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="70">
+  <mergeCells count="71">
     <mergeCell ref="A738:D738"/>
     <mergeCell ref="A715:D715"/>
     <mergeCell ref="A703:D703"/>
@@ -59052,7 +59394,6 @@
     <mergeCell ref="A623:D623"/>
     <mergeCell ref="A681:D681"/>
     <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A612:D612"/>
     <mergeCell ref="A478:D478"/>
     <mergeCell ref="A522:D522"/>
     <mergeCell ref="A555:D555"/>
@@ -59097,6 +59438,7 @@
     <mergeCell ref="A335:D335"/>
     <mergeCell ref="A324:D324"/>
     <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A749:D749"/>
     <mergeCell ref="A456:D456"/>
     <mergeCell ref="A303:D303"/>
     <mergeCell ref="A445:D445"/>
@@ -59111,6 +59453,7 @@
     <mergeCell ref="A467:D467"/>
     <mergeCell ref="A500:D500"/>
     <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A612:D612"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -59119,10 +59462,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I68"/>
+  <dimension ref="B1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59186,7 +59529,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H68" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H69" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -59215,7 +59558,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F68" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F69" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -60964,7 +61307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:13">
       <c r="B65">
         <v>14000617</v>
       </c>
@@ -60993,7 +61336,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:13">
       <c r="B66">
         <v>14000620</v>
       </c>
@@ -61022,7 +61365,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:13">
       <c r="B67">
         <v>14000621</v>
       </c>
@@ -61051,7 +61394,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:13">
       <c r="B68">
         <v>14000622</v>
       </c>
@@ -61078,6 +61421,47 @@
       </c>
       <c r="I68">
         <v>-0.99</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13">
+      <c r="B69">
+        <v>14000623</v>
+      </c>
+      <c r="C69" s="54">
+        <v>27370</v>
+      </c>
+      <c r="D69">
+        <v>11930000</v>
+      </c>
+      <c r="E69">
+        <v>1161636</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0.99630996309963105</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="0"/>
+        <v>0.67510548523206748</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>1.3697936801173536</v>
+      </c>
+      <c r="I69">
+        <v>1.47</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>0.68</v>
+      </c>
+      <c r="L69">
+        <v>1.37</v>
+      </c>
+      <c r="M69">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$134</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="340">
   <si>
     <t>7فروردین 1400</t>
   </si>
@@ -1044,6 +1044,12 @@
   </si>
   <si>
     <t>23شهریور1400</t>
+  </si>
+  <si>
+    <t>24شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز سه‌شنبه 24 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -4367,11 +4373,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805026496"/>
-        <c:axId val="-1805023776"/>
+        <c:axId val="-1462540544"/>
+        <c:axId val="-1462543264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805026496"/>
+        <c:axId val="-1462540544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,7 +4420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805023776"/>
+        <c:crossAx val="-1462543264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4422,7 +4428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805023776"/>
+        <c:axId val="-1462543264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4473,7 +4479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805026496"/>
+        <c:crossAx val="-1462540544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7579,8 +7585,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805024320"/>
-        <c:axId val="-1805028672"/>
+        <c:axId val="-1462529664"/>
+        <c:axId val="-1462532384"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -7873,7 +7879,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805024320"/>
+        <c:axId val="-1462529664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,7 +7922,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805028672"/>
+        <c:crossAx val="-1462532384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7924,7 +7930,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805028672"/>
+        <c:axId val="-1462532384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7975,7 +7981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805024320"/>
+        <c:crossAx val="-1462529664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11089,8 +11095,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805028128"/>
-        <c:axId val="-1805025952"/>
+        <c:axId val="-1462533472"/>
+        <c:axId val="-1462542176"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -11383,7 +11389,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805028128"/>
+        <c:axId val="-1462533472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11426,7 +11432,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805025952"/>
+        <c:crossAx val="-1462542176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11434,7 +11440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805025952"/>
+        <c:axId val="-1462542176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11485,7 +11491,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805028128"/>
+        <c:crossAx val="-1462533472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14596,11 +14602,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805025408"/>
-        <c:axId val="-1805023232"/>
+        <c:axId val="-1462534560"/>
+        <c:axId val="-1462541632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805025408"/>
+        <c:axId val="-1462534560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14643,7 +14649,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805023232"/>
+        <c:crossAx val="-1462541632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14651,7 +14657,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805023232"/>
+        <c:axId val="-1462541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14702,7 +14708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805025408"/>
+        <c:crossAx val="-1462534560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17824,11 +17830,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805022688"/>
-        <c:axId val="-1805024864"/>
+        <c:axId val="-1462544352"/>
+        <c:axId val="-1462536192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805022688"/>
+        <c:axId val="-1462544352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17871,7 +17877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805024864"/>
+        <c:crossAx val="-1462536192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17879,7 +17885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805024864"/>
+        <c:axId val="-1462536192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17930,7 +17936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805022688"/>
+        <c:crossAx val="-1462544352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21031,11 +21037,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1805022144"/>
-        <c:axId val="-1805027584"/>
+        <c:axId val="-1462544896"/>
+        <c:axId val="-1462531840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1805022144"/>
+        <c:axId val="-1462544896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21078,7 +21084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805027584"/>
+        <c:crossAx val="-1462531840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21086,7 +21092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1805027584"/>
+        <c:axId val="-1462531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21137,7 +21143,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1805022144"/>
+        <c:crossAx val="-1462544896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21263,7 +21269,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fa-IR" baseline="0"/>
-              <a:t> بازارها( سه‌شنبه23 شهریور 1400)</a:t>
+              <a:t> بازارها( چهارشنبه 24 شهریور 1400)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -21314,11 +21320,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="67"/>
-          <c:order val="67"/>
+          <c:idx val="68"/>
+          <c:order val="68"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
+              <a:schemeClr val="accent3">
                 <a:lumMod val="80000"/>
                 <a:lumOff val="20000"/>
               </a:schemeClr>
@@ -21410,21 +21416,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$69:$I$69</c:f>
+              <c:f>'price change'!$F$70:$I$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.99630996309963105</c:v>
+                  <c:v>-0.18268176835951772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67510548523206748</c:v>
+                  <c:v>-0.7544006705783739</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3697936801173536</c:v>
+                  <c:v>-0.25834254448037081</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.47</c:v>
+                  <c:v>-0.57999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21441,8 +21447,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-57945456"/>
-        <c:axId val="-57944912"/>
+        <c:axId val="-1462538912"/>
+        <c:axId val="-1462536736"/>
         <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -21519,7 +21525,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21545,7 +21551,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+                    <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$2:$I$2</c15:sqref>
@@ -21639,7 +21645,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21665,7 +21671,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$3:$I$3</c15:sqref>
@@ -21771,7 +21777,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21797,7 +21803,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$4:$I$4</c15:sqref>
@@ -21903,7 +21909,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -21929,7 +21935,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$5:$I$5</c15:sqref>
@@ -22035,7 +22041,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22061,7 +22067,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$6:$I$6</c15:sqref>
@@ -22167,7 +22173,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22193,7 +22199,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$7:$I$7</c15:sqref>
@@ -22301,7 +22307,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22327,7 +22333,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$8:$I$8</c15:sqref>
@@ -22435,7 +22441,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22461,7 +22467,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$9:$I$9</c15:sqref>
@@ -22569,7 +22575,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22595,7 +22601,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$10:$I$10</c15:sqref>
@@ -22703,7 +22709,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22729,7 +22735,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$11:$I$11</c15:sqref>
@@ -22837,7 +22843,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22863,7 +22869,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$12:$I$12</c15:sqref>
@@ -22971,7 +22977,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -22997,7 +23003,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$13:$I$13</c15:sqref>
@@ -23103,7 +23109,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23129,7 +23135,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$14:$I$14</c15:sqref>
@@ -23235,7 +23241,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23261,7 +23267,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$15:$I$15</c15:sqref>
@@ -23370,7 +23376,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23396,7 +23402,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$16:$I$16</c15:sqref>
@@ -23505,7 +23511,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23531,7 +23537,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$17:$I$17</c15:sqref>
@@ -23640,7 +23646,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23666,7 +23672,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$18:$I$18</c15:sqref>
@@ -23775,7 +23781,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23801,7 +23807,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$19:$I$19</c15:sqref>
@@ -23909,7 +23915,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -23935,7 +23941,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$20:$I$20</c15:sqref>
@@ -24043,7 +24049,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24069,7 +24075,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$21:$I$21</c15:sqref>
@@ -24177,7 +24183,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24203,7 +24209,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$22:$I$22</c15:sqref>
@@ -24311,7 +24317,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24337,7 +24343,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$23:$I$23</c15:sqref>
@@ -24445,7 +24451,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24471,7 +24477,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$24:$I$24</c15:sqref>
@@ -24579,7 +24585,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24605,7 +24611,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$25:$I$25</c15:sqref>
@@ -24714,7 +24720,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24740,7 +24746,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$26:$I$26</c15:sqref>
@@ -24849,7 +24855,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -24875,7 +24881,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$27:$I$27</c15:sqref>
@@ -24984,7 +24990,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25010,7 +25016,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$28:$I$28</c15:sqref>
@@ -25119,7 +25125,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25145,7 +25151,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$29:$I$29</c15:sqref>
@@ -25254,7 +25260,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25280,7 +25286,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$30:$I$30</c15:sqref>
@@ -25389,7 +25395,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25415,7 +25421,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$31:$I$31</c15:sqref>
@@ -25523,7 +25529,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25549,7 +25555,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$32:$I$32</c15:sqref>
@@ -25657,7 +25663,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25683,7 +25689,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$33:$I$33</c15:sqref>
@@ -25791,7 +25797,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25817,7 +25823,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$34:$I$34</c15:sqref>
@@ -25925,7 +25931,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -25951,7 +25957,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$35:$I$35</c15:sqref>
@@ -26059,7 +26065,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26085,7 +26091,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$36:$I$36</c15:sqref>
@@ -26193,7 +26199,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26219,7 +26225,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$37:$I$37</c15:sqref>
@@ -26328,7 +26334,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26354,7 +26360,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$38:$I$38</c15:sqref>
@@ -26463,7 +26469,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26489,7 +26495,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$39:$I$39</c15:sqref>
@@ -26598,7 +26604,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26624,7 +26630,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$40:$I$40</c15:sqref>
@@ -26733,7 +26739,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26759,7 +26765,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$41:$I$41</c15:sqref>
@@ -26868,7 +26874,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -26894,7 +26900,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$42:$I$42</c15:sqref>
@@ -27003,7 +27009,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27029,7 +27035,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$43:$I$43</c15:sqref>
@@ -27137,7 +27143,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27163,7 +27169,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$44:$I$44</c15:sqref>
@@ -27271,7 +27277,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27297,7 +27303,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$45:$I$45</c15:sqref>
@@ -27405,7 +27411,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27431,7 +27437,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$46:$I$46</c15:sqref>
@@ -27539,7 +27545,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27565,7 +27571,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$47:$I$47</c15:sqref>
@@ -27673,7 +27679,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27699,7 +27705,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$48:$I$48</c15:sqref>
@@ -27807,7 +27813,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27833,7 +27839,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$49:$I$49</c15:sqref>
@@ -27942,7 +27948,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -27968,7 +27974,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$50:$I$50</c15:sqref>
@@ -28077,7 +28083,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28103,7 +28109,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$51:$I$51</c15:sqref>
@@ -28212,7 +28218,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28238,7 +28244,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$52:$I$52</c15:sqref>
@@ -28347,7 +28353,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28373,7 +28379,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$53:$I$53</c15:sqref>
@@ -28482,7 +28488,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28508,7 +28514,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$54:$I$54</c15:sqref>
@@ -28617,7 +28623,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28643,7 +28649,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$55:$I$55</c15:sqref>
@@ -28749,7 +28755,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28775,7 +28781,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$56:$I$56</c15:sqref>
@@ -28881,7 +28887,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -28907,7 +28913,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$57:$I$57</c15:sqref>
@@ -29013,7 +29019,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29039,7 +29045,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$58:$I$58</c15:sqref>
@@ -29145,7 +29151,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29171,7 +29177,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$59:$I$59</c15:sqref>
@@ -29277,7 +29283,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29303,7 +29309,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$60:$I$60</c15:sqref>
@@ -29409,7 +29415,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29435,7 +29441,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$61:$I$61</c15:sqref>
@@ -29543,7 +29549,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29569,7 +29575,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$62:$I$62</c15:sqref>
@@ -29677,7 +29683,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29703,7 +29709,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$63:$I$63</c15:sqref>
@@ -29811,7 +29817,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29837,7 +29843,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$64:$I$64</c15:sqref>
@@ -29945,7 +29951,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -29971,7 +29977,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$65:$I$65</c15:sqref>
@@ -30079,7 +30085,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -30105,7 +30111,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$66:$I$66</c15:sqref>
@@ -30208,7 +30214,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -30234,7 +30240,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$67:$I$67</c15:sqref>
@@ -30338,7 +30344,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -30364,7 +30370,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$68:$I$68</c15:sqref>
@@ -30391,11 +30397,142 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="67"/>
+                <c:order val="67"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="en-US"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$69:$I$69</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.99630996309963105</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.67510548523206748</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.3697936801173536</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.47</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-57945456"/>
+        <c:axId val="-1462538912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30438,7 +30575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-57944912"/>
+        <c:crossAx val="-1462536736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30446,7 +30583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-57944912"/>
+        <c:axId val="-1462536736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30497,7 +30634,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-57945456"/>
+        <c:crossAx val="-1462538912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34614,16 +34751,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>150495</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34914,10 +35051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM138"/>
+  <dimension ref="A1:BM139"/>
   <sheetViews>
-    <sheetView topLeftCell="F121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G134" sqref="G134"/>
+    <sheetView topLeftCell="W122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z129" sqref="Z129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -35004,15 +35141,15 @@
         <v>31</v>
       </c>
       <c r="S1" s="9">
-        <f>L129/G129</f>
-        <v>3067425.3844669689</v>
+        <f>L130/G130</f>
+        <v>3107650.0783231677</v>
       </c>
       <c r="T1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="U1" s="9">
-        <f>M129/K129</f>
-        <v>28851.496995172205</v>
+        <f>M130/K130</f>
+        <v>29031.720234843258</v>
       </c>
       <c r="V1" s="9" t="s">
         <v>33</v>
@@ -35132,7 +35269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" customHeight="1">
+    <row r="2" spans="1:65" ht="21.6" hidden="1" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -35242,7 +35379,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="18">
+    <row r="3" spans="1:65" ht="18" hidden="1">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -35336,7 +35473,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="e">
-        <f t="shared" ref="BJ3:BJ129" si="3">(Y3-O3)/O3</f>
+        <f t="shared" ref="BJ3:BJ130" si="3">(Y3-O3)/O3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="BK3">
@@ -35352,7 +35489,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="18">
+    <row r="4" spans="1:65" ht="18" hidden="1">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -35462,7 +35599,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="18">
+    <row r="5" spans="1:65" ht="18" hidden="1">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -35572,7 +35709,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="18.75" customHeight="1">
+    <row r="6" spans="1:65" ht="18.75" hidden="1" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -35682,7 +35819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="18">
+    <row r="7" spans="1:65" ht="18" hidden="1">
       <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
@@ -35792,7 +35929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="18">
+    <row r="8" spans="1:65" ht="18" hidden="1">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -35902,7 +36039,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="18">
+    <row r="9" spans="1:65" ht="18" hidden="1">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -36012,7 +36149,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="18">
+    <row r="10" spans="1:65" ht="18" hidden="1">
       <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
@@ -36122,7 +36259,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="18">
+    <row r="11" spans="1:65" ht="18" hidden="1">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -36232,7 +36369,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="12" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -36354,7 +36491,7 @@
         <v>2.6256936966785389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="13" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>39</v>
@@ -36531,7 +36668,7 @@
         <v>3.8371899450640921E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="14" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="s">
         <v>58</v>
@@ -36706,7 +36843,7 @@
         <v>3.6598002238156423E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="15" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A15" s="14"/>
       <c r="B15" s="15" t="s">
         <v>64</v>
@@ -36873,7 +37010,7 @@
         <v>3.6088474970896393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="16" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>65</v>
@@ -37008,7 +37145,7 @@
         <v>3.9324668811901879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="17" customFormat="1" ht="18">
+    <row r="17" spans="1:65" s="17" customFormat="1" ht="18" hidden="1">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="s">
         <v>66</v>
@@ -37137,7 +37274,7 @@
         <v>4.4976317223456429E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="23" customFormat="1" ht="18">
+    <row r="18" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
         <v>77</v>
@@ -37289,7 +37426,7 @@
         <v>4.2640063981142402E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="23" customFormat="1" ht="18">
+    <row r="19" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
         <v>90</v>
@@ -37441,7 +37578,7 @@
         <v>3.4891097483611758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="23" customFormat="1" ht="18">
+    <row r="20" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
         <v>91</v>
@@ -37591,7 +37728,7 @@
         <v>2.1503105065269739E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="23" customFormat="1" ht="18">
+    <row r="21" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
         <v>92</v>
@@ -37741,7 +37878,7 @@
         <v>1.94008069362177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="23" customFormat="1" ht="18">
+    <row r="22" spans="1:65" s="23" customFormat="1" ht="18" hidden="1">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
         <v>94</v>
@@ -37889,7 +38026,7 @@
         <v>3.8086190517315828E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" customHeight="1">
+    <row r="23" spans="1:65" s="23" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
         <v>95</v>
@@ -38039,7 +38176,7 @@
         <v>2.9494321371507537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="24" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A24" s="24"/>
       <c r="B24" s="25" t="s">
         <v>99</v>
@@ -38189,7 +38326,7 @@
         <v>2.9875913355527691E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="25" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A25" s="24"/>
       <c r="B25" s="25" t="s">
         <v>100</v>
@@ -38339,7 +38476,7 @@
         <v>3.2037701586752565E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="26" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A26" s="24"/>
       <c r="B26" s="25" t="s">
         <v>101</v>
@@ -38489,7 +38626,7 @@
         <v>2.1493750810880941E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="27" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A27" s="24"/>
       <c r="B27" s="25" t="s">
         <v>102</v>
@@ -38641,7 +38778,7 @@
         <v>2.0628344553771792E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="28" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A28" s="24"/>
       <c r="B28" s="25" t="s">
         <v>103</v>
@@ -38791,7 +38928,7 @@
         <v>2.5052011095700415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="29" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A29" s="24"/>
       <c r="B29" s="25" t="s">
         <v>106</v>
@@ -38941,7 +39078,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="30" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>109</v>
@@ -39095,7 +39232,7 @@
         <v>5.9974609289497873E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="31" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A31" s="30"/>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -39245,7 +39382,7 @@
         <v>-1.470983944748408E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="32" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A32" s="30"/>
       <c r="B32" s="4" t="s">
         <v>111</v>
@@ -39369,7 +39506,7 @@
         <v>9.9138330399332897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="33" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A33" s="30"/>
       <c r="B33" s="4" t="s">
         <v>112</v>
@@ -39507,7 +39644,7 @@
         <v>-1.8682770334025288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="34" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A34" s="30"/>
       <c r="B34" s="4" t="s">
         <v>113</v>
@@ -39635,7 +39772,7 @@
         <v>3.1361612603356327E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="35" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>115</v>
@@ -39776,7 +39913,7 @@
         <v>5.0932041685013946E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="36" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>116</v>
@@ -39911,7 +40048,7 @@
         <v>3.7201877025784917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="37" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>117</v>
@@ -40041,7 +40178,7 @@
         <v>4.660045836516425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="38" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
         <v>118</v>
@@ -40163,7 +40300,7 @@
         <v>3.2269893656032271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="39" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
         <v>119</v>
@@ -40285,7 +40422,7 @@
         <v>3.0200265799000963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="40" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A40" s="24"/>
       <c r="B40" s="25" t="s">
         <v>121</v>
@@ -40407,7 +40544,7 @@
         <v>3.7372593431483581E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="41" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A41" s="24"/>
       <c r="B41" s="25" t="s">
         <v>122</v>
@@ -40531,7 +40668,7 @@
         <v>4.6139995498537027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="42" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A42" s="24"/>
       <c r="B42" s="25" t="s">
         <v>123</v>
@@ -40657,7 +40794,7 @@
         <v>2.4709628234449974E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="43" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A43" s="24"/>
       <c r="B43" s="25" t="s">
         <v>124</v>
@@ -40775,7 +40912,7 @@
         <v>4.1844961938651414E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="44" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A44" s="24"/>
       <c r="B44" s="25" t="s">
         <v>125</v>
@@ -40897,7 +41034,7 @@
         <v>2.2023244245466467E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="45" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A45" s="24"/>
       <c r="B45" s="25" t="s">
         <v>126</v>
@@ -41017,7 +41154,7 @@
         <v>3.4451659451659448E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="46" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A46" s="38"/>
       <c r="B46" s="39" t="s">
         <v>128</v>
@@ -41135,7 +41272,7 @@
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="47" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="39" t="s">
         <v>129</v>
@@ -41255,7 +41392,7 @@
         <v>3.3689622513868221E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="48" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A48" s="38"/>
       <c r="B48" s="39" t="s">
         <v>130</v>
@@ -41381,7 +41518,7 @@
         <v>4.1601220661490822E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="49" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A49" s="38"/>
       <c r="B49" s="39" t="s">
         <v>131</v>
@@ -41507,7 +41644,7 @@
         <v>3.6582615363796291E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="50" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A50" s="38"/>
       <c r="B50" s="39" t="s">
         <v>132</v>
@@ -41631,7 +41768,7 @@
         <v>4.8256649892163911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" customHeight="1">
+    <row r="51" spans="1:65" s="41" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A51" s="38"/>
       <c r="B51" s="39" t="s">
         <v>133</v>
@@ -41751,7 +41888,7 @@
         <v>3.9659421913511093E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="52" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A52" s="30"/>
       <c r="B52" s="4" t="s">
         <v>135</v>
@@ -41875,7 +42012,7 @@
         <v>4.2074576861158244E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="53" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A53" s="30"/>
       <c r="B53" s="4" t="s">
         <v>136</v>
@@ -41997,7 +42134,7 @@
         <v>1.6349794067479304E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="54" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A54" s="24"/>
       <c r="B54" s="25" t="s">
         <v>137</v>
@@ -42119,7 +42256,7 @@
         <v>2.2913256955810146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="55" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A55" s="30"/>
       <c r="B55" s="4" t="s">
         <v>138</v>
@@ -42237,7 +42374,7 @@
         <v>2.8963741686333404E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="56" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A56" s="30"/>
       <c r="B56" s="4" t="s">
         <v>139</v>
@@ -42355,7 +42492,7 @@
         <v>3.3635187580853813E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="57" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A57" s="30"/>
       <c r="B57" s="4" t="s">
         <v>140</v>
@@ -42473,7 +42610,7 @@
         <v>2.8795924534818461E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="58" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
         <v>142</v>
@@ -42591,7 +42728,7 @@
         <v>2.671690357938003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="59" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A59" s="33"/>
       <c r="B59" s="34" t="s">
         <v>143</v>
@@ -42709,7 +42846,7 @@
         <v>2.4057635404605687E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="60" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A60" s="33"/>
       <c r="B60" s="34" t="s">
         <v>144</v>
@@ -42827,7 +42964,7 @@
         <v>3.2539072508326931E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="61" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A61" s="33"/>
       <c r="B61" s="34" t="s">
         <v>145</v>
@@ -42945,7 +43082,7 @@
         <v>2.8253424657534245E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="62" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A62" s="30"/>
       <c r="B62" s="4" t="s">
         <v>147</v>
@@ -43049,7 +43186,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="32">
-        <f>K129/K62</f>
+        <f>K130/K62</f>
         <v>144.72637159981559</v>
       </c>
       <c r="BL62">
@@ -43061,7 +43198,7 @@
         <v>2.3155161220515041E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="63" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A63" s="30"/>
       <c r="B63" s="4" t="s">
         <v>161</v>
@@ -43173,7 +43310,7 @@
         <v>2.9020348587619128E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="64" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A64" s="30"/>
       <c r="B64" s="4" t="s">
         <v>166</v>
@@ -43285,7 +43422,7 @@
         <v>2.4806135127029689E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="65" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A65" s="30"/>
       <c r="B65" s="4" t="s">
         <v>168</v>
@@ -43397,7 +43534,7 @@
         <v>3.0344591119492541E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="66" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A66" s="30"/>
       <c r="B66" s="4" t="s">
         <v>171</v>
@@ -43509,7 +43646,7 @@
         <v>3.1046869654464591E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="67" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A67" s="30"/>
       <c r="B67" s="4" t="s">
         <v>174</v>
@@ -43621,7 +43758,7 @@
         <v>3.9105191256830603E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="68" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A68" s="33"/>
       <c r="B68" s="34" t="s">
         <v>178</v>
@@ -43733,7 +43870,7 @@
         <v>6.2370062370062374E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="69" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A69" s="33"/>
       <c r="B69" s="34" t="s">
         <v>180</v>
@@ -43845,7 +43982,7 @@
         <v>1.5050453223875491E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="70" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A70" s="33"/>
       <c r="B70" s="34" t="s">
         <v>181</v>
@@ -43953,7 +44090,7 @@
         <v>2.6553987387928447E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="71" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A71" s="33"/>
       <c r="B71" s="34" t="s">
         <v>183</v>
@@ -44061,7 +44198,7 @@
         <v>3.0769885517300082E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="72" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A72" s="33"/>
       <c r="B72" s="34" t="s">
         <v>185</v>
@@ -44166,7 +44303,7 @@
         <v>2.1202759321173135E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="73" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A73" s="33"/>
       <c r="B73" s="34" t="s">
         <v>186</v>
@@ -44271,7 +44408,7 @@
         <v>2.0840393087089123E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="74" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A74" s="30"/>
       <c r="B74" s="4" t="s">
         <v>187</v>
@@ -44379,7 +44516,7 @@
         <v>3.0037494207355606E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="75" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A75" s="30"/>
       <c r="B75" s="4" t="s">
         <v>193</v>
@@ -44487,7 +44624,7 @@
         <v>2.4134312696747113E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="76" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A76" s="30"/>
       <c r="B76" s="4" t="s">
         <v>195</v>
@@ -44595,7 +44732,7 @@
         <v>3.5059827629487075E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="77" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A77" s="30"/>
       <c r="B77" s="4" t="s">
         <v>196</v>
@@ -44699,7 +44836,7 @@
         <v>3.1143572278527758E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="78" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A78" s="30"/>
       <c r="B78" s="4" t="s">
         <v>198</v>
@@ -44736,7 +44873,7 @@
         <v>121124707800</v>
       </c>
       <c r="M78" s="4">
-        <f t="shared" ref="M78:M128" si="13">J78*K78</f>
+        <f t="shared" ref="M78:M129" si="13">J78*K78</f>
         <v>13715379600</v>
       </c>
       <c r="N78" s="32">
@@ -44803,7 +44940,7 @@
         <v>3.008315669329855E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="79" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A79" s="30"/>
       <c r="B79" s="4" t="s">
         <v>200</v>
@@ -44907,7 +45044,7 @@
         <v>1.8148013419021058E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="80" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A80" s="33"/>
       <c r="B80" s="34" t="s">
         <v>204</v>
@@ -45011,7 +45148,7 @@
         <v>1.5234563920683539E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="81" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A81" s="33"/>
       <c r="B81" s="34" t="s">
         <v>206</v>
@@ -45115,7 +45252,7 @@
         <v>1.6552280985062576E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="82" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A82" s="33"/>
       <c r="B82" s="34" t="s">
         <v>208</v>
@@ -45215,7 +45352,7 @@
       <c r="BG82" s="37"/>
       <c r="BH82" s="37"/>
     </row>
-    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="83" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A83" s="33"/>
       <c r="B83" s="34" t="s">
         <v>211</v>
@@ -45315,7 +45452,7 @@
       <c r="BG83" s="37"/>
       <c r="BH83" s="37"/>
     </row>
-    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="84" spans="1:65" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A84" s="33"/>
       <c r="B84" s="34" t="s">
         <v>213</v>
@@ -45415,7 +45552,7 @@
       <c r="BG84" s="37"/>
       <c r="BH84" s="37"/>
     </row>
-    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="85" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A85" s="30"/>
       <c r="B85" s="4" t="s">
         <v>219</v>
@@ -45515,7 +45652,7 @@
       <c r="BG85" s="31"/>
       <c r="BH85" s="31"/>
     </row>
-    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" customHeight="1">
+    <row r="86" spans="1:65" s="27" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A86" s="24"/>
       <c r="B86" s="25" t="s">
         <v>218</v>
@@ -45615,7 +45752,7 @@
       <c r="BG86" s="26"/>
       <c r="BH86" s="26"/>
     </row>
-    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="87" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A87" s="30"/>
       <c r="B87" s="4" t="s">
         <v>220</v>
@@ -45715,7 +45852,7 @@
       <c r="BG87" s="31"/>
       <c r="BH87" s="31"/>
     </row>
-    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="88" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A88" s="30"/>
       <c r="B88" s="4" t="s">
         <v>223</v>
@@ -45815,7 +45952,7 @@
       <c r="BG88" s="31"/>
       <c r="BH88" s="31"/>
     </row>
-    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="89" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A89" s="30"/>
       <c r="B89" s="4" t="s">
         <v>225</v>
@@ -45848,7 +45985,7 @@
         <v>78000</v>
       </c>
       <c r="L89" s="4">
-        <f t="shared" ref="L89:L128" si="14">F89*G89</f>
+        <f t="shared" ref="L89:L129" si="14">F89*G89</f>
         <v>81295333000</v>
       </c>
       <c r="M89" s="4">
@@ -45915,7 +46052,7 @@
       <c r="BG89" s="31"/>
       <c r="BH89" s="31"/>
     </row>
-    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="90" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="15" t="s">
         <v>228</v>
@@ -46015,7 +46152,7 @@
       <c r="BG90" s="16"/>
       <c r="BH90" s="16"/>
     </row>
-    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="91" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="15" t="s">
         <v>230</v>
@@ -46115,7 +46252,7 @@
       <c r="BG91" s="16"/>
       <c r="BH91" s="16"/>
     </row>
-    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="92" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="15" t="s">
         <v>233</v>
@@ -46215,7 +46352,7 @@
       <c r="BG92" s="16"/>
       <c r="BH92" s="16"/>
     </row>
-    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="93" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A93" s="30"/>
       <c r="B93" s="4" t="s">
         <v>264</v>
@@ -46315,7 +46452,7 @@
       <c r="BG93" s="31"/>
       <c r="BH93" s="31"/>
     </row>
-    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="94" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A94" s="30"/>
       <c r="B94" s="4" t="s">
         <v>265</v>
@@ -46415,7 +46552,7 @@
       <c r="BG94" s="31"/>
       <c r="BH94" s="31"/>
     </row>
-    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="95" spans="1:65" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A95" s="30"/>
       <c r="B95" s="4" t="s">
         <v>266</v>
@@ -46515,7 +46652,7 @@
       <c r="BG95" s="31"/>
       <c r="BH95" s="31"/>
     </row>
-    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="96" spans="1:65" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="15" t="s">
         <v>267</v>
@@ -46615,7 +46752,7 @@
       <c r="BG96" s="16"/>
       <c r="BH96" s="16"/>
     </row>
-    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="97" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="15" t="s">
         <v>268</v>
@@ -46715,7 +46852,7 @@
       <c r="BG97" s="16"/>
       <c r="BH97" s="16"/>
     </row>
-    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="98" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="15" t="s">
         <v>269</v>
@@ -46815,7 +46952,7 @@
       <c r="BG98" s="16"/>
       <c r="BH98" s="16"/>
     </row>
-    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="99" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="15" t="s">
         <v>270</v>
@@ -46915,7 +47052,7 @@
       <c r="BG99" s="16"/>
       <c r="BH99" s="16"/>
     </row>
-    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="100" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="15" t="s">
         <v>271</v>
@@ -47015,7 +47152,7 @@
       <c r="BG100" s="16"/>
       <c r="BH100" s="16"/>
     </row>
-    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="101" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A101" s="30"/>
       <c r="B101" s="4" t="s">
         <v>272</v>
@@ -47115,7 +47252,7 @@
       <c r="BG101" s="31"/>
       <c r="BH101" s="31"/>
     </row>
-    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="102" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A102" s="30"/>
       <c r="B102" s="4" t="s">
         <v>273</v>
@@ -47215,7 +47352,7 @@
       <c r="BG102" s="31"/>
       <c r="BH102" s="31"/>
     </row>
-    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="103" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A103" s="30"/>
       <c r="B103" s="4" t="s">
         <v>274</v>
@@ -47315,7 +47452,7 @@
       <c r="BG103" s="31"/>
       <c r="BH103" s="31"/>
     </row>
-    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="104" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A104" s="30"/>
       <c r="B104" s="4" t="s">
         <v>275</v>
@@ -47415,7 +47552,7 @@
       <c r="BG104" s="31"/>
       <c r="BH104" s="31"/>
     </row>
-    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="105" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A105" s="30"/>
       <c r="B105" s="4" t="s">
         <v>276</v>
@@ -47515,7 +47652,7 @@
       <c r="BG105" s="31"/>
       <c r="BH105" s="31"/>
     </row>
-    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="106" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A106" s="33"/>
       <c r="B106" s="34" t="s">
         <v>283</v>
@@ -47615,7 +47752,7 @@
       <c r="BG106" s="37"/>
       <c r="BH106" s="37"/>
     </row>
-    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" customHeight="1">
+    <row r="107" spans="1:60" s="36" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A107" s="33"/>
       <c r="B107" s="34" t="s">
         <v>284</v>
@@ -47715,7 +47852,7 @@
       <c r="BG107" s="37"/>
       <c r="BH107" s="37"/>
     </row>
-    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="108" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A108" s="30"/>
       <c r="B108" s="4" t="s">
         <v>286</v>
@@ -47815,7 +47952,7 @@
       <c r="BG108" s="31"/>
       <c r="BH108" s="31"/>
     </row>
-    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="109" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A109" s="30"/>
       <c r="B109" s="4" t="s">
         <v>289</v>
@@ -47915,7 +48052,7 @@
       <c r="BG109" s="31"/>
       <c r="BH109" s="31"/>
     </row>
-    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="110" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A110" s="30"/>
       <c r="B110" s="4" t="s">
         <v>292</v>
@@ -48015,7 +48152,7 @@
       <c r="BG110" s="31"/>
       <c r="BH110" s="31"/>
     </row>
-    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" customHeight="1">
+    <row r="111" spans="1:60" s="32" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A111" s="30"/>
       <c r="B111" s="4" t="s">
         <v>293</v>
@@ -48115,7 +48252,7 @@
       <c r="BG111" s="31"/>
       <c r="BH111" s="31"/>
     </row>
-    <row r="112" spans="1:60" s="70" customFormat="1" ht="21" customHeight="1">
+    <row r="112" spans="1:60" s="70" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A112" s="67"/>
       <c r="B112" s="68" t="s">
         <v>327</v>
@@ -48212,7 +48349,7 @@
       <c r="BG112" s="71"/>
       <c r="BH112" s="71"/>
     </row>
-    <row r="113" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="113" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="15" t="s">
         <v>300</v>
@@ -48312,7 +48449,7 @@
       <c r="BG113" s="16"/>
       <c r="BH113" s="16"/>
     </row>
-    <row r="114" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="114" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="15" t="s">
         <v>303</v>
@@ -48412,7 +48549,7 @@
       <c r="BG114" s="16"/>
       <c r="BH114" s="16"/>
     </row>
-    <row r="115" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="115" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="15" t="s">
         <v>304</v>
@@ -48512,7 +48649,7 @@
       <c r="BG115" s="16"/>
       <c r="BH115" s="16"/>
     </row>
-    <row r="116" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="116" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="15" t="s">
         <v>307</v>
@@ -48612,7 +48749,7 @@
       <c r="BG116" s="16"/>
       <c r="BH116" s="16"/>
     </row>
-    <row r="117" spans="1:60" s="17" customFormat="1" ht="21" customHeight="1">
+    <row r="117" spans="1:60" s="17" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="15" t="s">
         <v>308</v>
@@ -48712,7 +48849,7 @@
       <c r="BG117" s="16"/>
       <c r="BH117" s="16"/>
     </row>
-    <row r="118" spans="1:60" s="70" customFormat="1" ht="21" customHeight="1">
+    <row r="118" spans="1:60" s="70" customFormat="1" ht="21" hidden="1" customHeight="1">
       <c r="A118" s="67"/>
       <c r="B118" s="68" t="s">
         <v>328</v>
@@ -49701,36 +49838,36 @@
       <c r="BG127" s="80"/>
       <c r="BH127" s="80"/>
     </row>
-    <row r="128" spans="1:60" s="77" customFormat="1" ht="21" customHeight="1">
-      <c r="A128" s="74"/>
-      <c r="B128" s="75" t="s">
+    <row r="128" spans="1:60" s="79" customFormat="1" ht="21" customHeight="1">
+      <c r="A128" s="14"/>
+      <c r="B128" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C128" s="75">
+      <c r="C128" s="15">
         <v>23</v>
       </c>
-      <c r="D128" s="76">
+      <c r="D128" s="50">
         <v>26313</v>
       </c>
-      <c r="E128" s="75">
+      <c r="E128" s="15">
         <v>26516</v>
       </c>
-      <c r="F128" s="75">
+      <c r="F128" s="15">
         <v>26379</v>
       </c>
-      <c r="G128" s="75">
+      <c r="G128" s="15">
         <v>9028800</v>
       </c>
-      <c r="H128" s="75">
+      <c r="H128" s="15">
         <v>31378</v>
       </c>
-      <c r="I128" s="75">
+      <c r="I128" s="15">
         <v>31373</v>
       </c>
-      <c r="J128" s="75">
+      <c r="J128" s="15">
         <v>31146</v>
       </c>
-      <c r="K128" s="75">
+      <c r="K128" s="15">
         <v>1286100</v>
       </c>
       <c r="L128" s="15">
@@ -49741,220 +49878,316 @@
         <f t="shared" si="13"/>
         <v>40056870600</v>
       </c>
-      <c r="N128" s="77">
+      <c r="N128" s="79">
         <v>26781</v>
       </c>
-      <c r="O128" s="77">
+      <c r="O128" s="79">
         <v>31687</v>
       </c>
-      <c r="P128" s="77">
+      <c r="P128" s="79">
         <v>26577</v>
       </c>
-      <c r="Q128" s="77">
+      <c r="Q128" s="79">
         <v>31692</v>
       </c>
-      <c r="R128" s="75"/>
-      <c r="S128" s="75"/>
-      <c r="T128" s="75"/>
-      <c r="U128" s="75"/>
-      <c r="V128" s="77">
+      <c r="R128" s="15"/>
+      <c r="S128" s="15"/>
+      <c r="T128" s="15"/>
+      <c r="U128" s="15"/>
+      <c r="V128" s="79">
         <v>27410</v>
       </c>
-      <c r="X128" s="77">
+      <c r="X128" s="79">
         <v>27370</v>
       </c>
-      <c r="Y128" s="77">
+      <c r="Y128" s="79">
         <v>32420</v>
       </c>
-      <c r="Z128" s="75"/>
-      <c r="AA128" s="75"/>
-      <c r="AB128" s="75"/>
-      <c r="AC128" s="75"/>
-      <c r="AD128" s="75"/>
-      <c r="AE128" s="75"/>
-      <c r="AF128" s="75"/>
-      <c r="AG128" s="75"/>
-      <c r="AH128" s="75"/>
-      <c r="AI128" s="75"/>
-      <c r="AJ128" s="75"/>
-      <c r="AK128" s="75"/>
-      <c r="AL128" s="75"/>
-      <c r="AM128" s="75"/>
-      <c r="AN128" s="75"/>
-      <c r="AO128" s="75"/>
-      <c r="AP128" s="75"/>
-      <c r="AQ128" s="75"/>
-      <c r="AR128" s="75"/>
-      <c r="AS128" s="76"/>
-      <c r="AT128" s="76"/>
-      <c r="AU128" s="76"/>
-      <c r="AV128" s="76"/>
-      <c r="AW128" s="76"/>
-      <c r="AX128" s="76"/>
-      <c r="AY128" s="75"/>
-      <c r="AZ128" s="75"/>
-      <c r="BA128" s="75"/>
-      <c r="BB128" s="75"/>
-      <c r="BC128" s="75"/>
-      <c r="BE128" s="78"/>
-      <c r="BF128" s="78"/>
-      <c r="BG128" s="78"/>
-      <c r="BH128" s="78"/>
-    </row>
-    <row r="129" spans="1:62" ht="18">
-      <c r="A129" s="6"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7">
+      <c r="Z128" s="15"/>
+      <c r="AA128" s="15"/>
+      <c r="AB128" s="15"/>
+      <c r="AC128" s="15"/>
+      <c r="AD128" s="15"/>
+      <c r="AE128" s="15"/>
+      <c r="AF128" s="15"/>
+      <c r="AG128" s="15"/>
+      <c r="AH128" s="15"/>
+      <c r="AI128" s="15"/>
+      <c r="AJ128" s="15"/>
+      <c r="AK128" s="15"/>
+      <c r="AL128" s="15"/>
+      <c r="AM128" s="15"/>
+      <c r="AN128" s="15"/>
+      <c r="AO128" s="15"/>
+      <c r="AP128" s="15"/>
+      <c r="AQ128" s="15"/>
+      <c r="AR128" s="15"/>
+      <c r="AS128" s="50"/>
+      <c r="AT128" s="50"/>
+      <c r="AU128" s="50"/>
+      <c r="AV128" s="50"/>
+      <c r="AW128" s="50"/>
+      <c r="AX128" s="50"/>
+      <c r="AY128" s="15"/>
+      <c r="AZ128" s="15"/>
+      <c r="BA128" s="15"/>
+      <c r="BB128" s="15"/>
+      <c r="BC128" s="15"/>
+      <c r="BE128" s="80"/>
+      <c r="BF128" s="80"/>
+      <c r="BG128" s="80"/>
+      <c r="BH128" s="80"/>
+    </row>
+    <row r="129" spans="1:62" s="77" customFormat="1" ht="21" customHeight="1">
+      <c r="A129" s="74"/>
+      <c r="B129" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="C129" s="75">
+        <v>24</v>
+      </c>
+      <c r="D129" s="76">
+        <v>26423</v>
+      </c>
+      <c r="E129" s="75">
+        <v>26372</v>
+      </c>
+      <c r="F129" s="75">
+        <v>26372</v>
+      </c>
+      <c r="G129" s="75">
+        <v>9040900</v>
+      </c>
+      <c r="H129" s="75">
+        <v>31425</v>
+      </c>
+      <c r="I129" s="75">
+        <v>31224</v>
+      </c>
+      <c r="J129" s="75">
+        <v>31330</v>
+      </c>
+      <c r="K129" s="75">
+        <v>722300</v>
+      </c>
+      <c r="L129" s="75">
+        <f t="shared" si="14"/>
+        <v>238426614800</v>
+      </c>
+      <c r="M129" s="75">
+        <f t="shared" si="13"/>
+        <v>22629659000</v>
+      </c>
+      <c r="N129" s="77">
+        <v>26636</v>
+      </c>
+      <c r="O129" s="77">
+        <v>31537</v>
+      </c>
+      <c r="P129" s="77">
+        <v>26687</v>
+      </c>
+      <c r="Q129" s="77">
+        <v>31739</v>
+      </c>
+      <c r="R129" s="75"/>
+      <c r="S129" s="75"/>
+      <c r="T129" s="75"/>
+      <c r="U129" s="75"/>
+      <c r="V129" s="77">
+        <v>27250</v>
+      </c>
+      <c r="X129" s="77">
+        <v>27320</v>
+      </c>
+      <c r="Y129" s="77">
+        <v>32233</v>
+      </c>
+      <c r="Z129" s="75"/>
+      <c r="AA129" s="75"/>
+      <c r="AB129" s="75"/>
+      <c r="AC129" s="75"/>
+      <c r="AD129" s="75"/>
+      <c r="AE129" s="75"/>
+      <c r="AF129" s="75"/>
+      <c r="AG129" s="75"/>
+      <c r="AH129" s="75"/>
+      <c r="AI129" s="75"/>
+      <c r="AJ129" s="75"/>
+      <c r="AK129" s="75"/>
+      <c r="AL129" s="75"/>
+      <c r="AM129" s="75"/>
+      <c r="AN129" s="75"/>
+      <c r="AO129" s="75"/>
+      <c r="AP129" s="75"/>
+      <c r="AQ129" s="75"/>
+      <c r="AR129" s="75"/>
+      <c r="AS129" s="76"/>
+      <c r="AT129" s="76"/>
+      <c r="AU129" s="76"/>
+      <c r="AV129" s="76"/>
+      <c r="AW129" s="76"/>
+      <c r="AX129" s="76"/>
+      <c r="AY129" s="75"/>
+      <c r="AZ129" s="75"/>
+      <c r="BA129" s="75"/>
+      <c r="BB129" s="75"/>
+      <c r="BC129" s="75"/>
+      <c r="BE129" s="78"/>
+      <c r="BF129" s="78"/>
+      <c r="BG129" s="78"/>
+      <c r="BH129" s="78"/>
+    </row>
+    <row r="130" spans="1:62" ht="18">
+      <c r="A130" s="6"/>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="19"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7">
         <f>SUM(G2:G128)/127</f>
         <v>5927369.2834645668</v>
       </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7">
+      <c r="H130" s="7"/>
+      <c r="I130" s="7"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="7">
         <f>SUM(K2:K126)</f>
         <v>125564600</v>
       </c>
-      <c r="L129" s="7">
-        <f>SUM(L2:L128)</f>
-        <v>18181763003209</v>
-      </c>
-      <c r="M129" s="4">
-        <f>SUM(M2:M128)</f>
-        <v>3622726679600</v>
-      </c>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="64">
-        <v>27400</v>
-      </c>
-      <c r="W129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
-      <c r="AA129" s="4"/>
-      <c r="AB129" s="4"/>
-      <c r="AC129" s="4"/>
-      <c r="AD129" s="4"/>
-      <c r="AE129" s="4"/>
-      <c r="AF129" s="4"/>
-      <c r="AG129" s="4"/>
-      <c r="AH129" s="4"/>
-      <c r="AI129" s="4"/>
-      <c r="AJ129" s="4"/>
-      <c r="AK129" s="4"/>
-      <c r="AL129" s="4"/>
-      <c r="AM129" s="4"/>
-      <c r="AN129" s="4"/>
-      <c r="AO129" s="4"/>
-      <c r="AP129" s="4"/>
-      <c r="AQ129" s="4"/>
-      <c r="AR129" s="4"/>
-      <c r="AY129" s="4"/>
-      <c r="AZ129" s="4"/>
-      <c r="BA129" s="4"/>
-      <c r="BB129" s="4"/>
-      <c r="BC129" s="4"/>
-      <c r="BD129" s="4"/>
-      <c r="BE129" s="3"/>
-      <c r="BF129" s="3"/>
-      <c r="BG129" s="3"/>
-      <c r="BH129" s="3"/>
-      <c r="BI129" t="e">
-        <f>#REF!-N129</f>
+      <c r="L130" s="7">
+        <f>SUM(L2:L129)</f>
+        <v>18420189618009</v>
+      </c>
+      <c r="M130" s="4">
+        <f>SUM(M2:M129)</f>
+        <v>3645356338600</v>
+      </c>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="64">
+        <v>27300</v>
+      </c>
+      <c r="W130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="4"/>
+      <c r="AE130" s="4"/>
+      <c r="AF130" s="4"/>
+      <c r="AG130" s="4"/>
+      <c r="AH130" s="4"/>
+      <c r="AI130" s="4"/>
+      <c r="AJ130" s="4"/>
+      <c r="AK130" s="4"/>
+      <c r="AL130" s="4"/>
+      <c r="AM130" s="4"/>
+      <c r="AN130" s="4"/>
+      <c r="AO130" s="4"/>
+      <c r="AP130" s="4"/>
+      <c r="AQ130" s="4"/>
+      <c r="AR130" s="4"/>
+      <c r="AY130" s="4"/>
+      <c r="AZ130" s="4"/>
+      <c r="BA130" s="4"/>
+      <c r="BB130" s="4"/>
+      <c r="BC130" s="4"/>
+      <c r="BD130" s="4"/>
+      <c r="BE130" s="3"/>
+      <c r="BF130" s="3"/>
+      <c r="BG130" s="3"/>
+      <c r="BH130" s="3"/>
+      <c r="BI130" t="e">
+        <f>#REF!-N130</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ129" t="e">
+      <c r="BJ130" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="130" spans="1:62" ht="18">
-      <c r="D130" s="19"/>
-      <c r="V130" s="81">
-        <v>27390</v>
-      </c>
-      <c r="Z130" s="12"/>
-      <c r="AB130" s="12"/>
-      <c r="AS130" s="12"/>
-      <c r="AW130" s="29"/>
-    </row>
     <row r="131" spans="1:62" ht="18">
       <c r="D131" s="19"/>
+      <c r="V131" s="81">
+        <v>27270</v>
+      </c>
       <c r="Z131" s="12"/>
-      <c r="AS131" s="19"/>
+      <c r="AB131" s="12"/>
+      <c r="AS131" s="12"/>
       <c r="AW131" s="29"/>
-      <c r="AY131">
+    </row>
+    <row r="132" spans="1:62" ht="18">
+      <c r="D132" s="19"/>
+      <c r="Z132" s="12"/>
+      <c r="AS132" s="19"/>
+      <c r="AW132" s="29"/>
+      <c r="AY132">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="132" spans="1:62" ht="18">
-      <c r="Z132" s="12"/>
-      <c r="AS132" s="19">
+    <row r="133" spans="1:62" ht="18">
+      <c r="Z133" s="12"/>
+      <c r="AS133" s="19">
         <v>10290000</v>
       </c>
-      <c r="AW132" s="29"/>
-      <c r="BB132">
+      <c r="AW133" s="29"/>
+      <c r="BB133">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="133" spans="1:62" ht="18">
-      <c r="V133" s="12"/>
-      <c r="Z133" s="12"/>
-      <c r="AS133" s="19"/>
-      <c r="AU133">
-        <f>AS132-AS49</f>
+    <row r="134" spans="1:62" ht="18">
+      <c r="V134" s="12"/>
+      <c r="Z134" s="12"/>
+      <c r="AS134" s="19"/>
+      <c r="AU134">
+        <f>AS133-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW133" s="29">
+      <c r="AW134" s="29">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="134" spans="1:62" ht="18">
-      <c r="G134">
-        <f>(G128-G129)/G129</f>
-        <v>0.52323898988163542</v>
-      </c>
-      <c r="V134" s="12"/>
-      <c r="Z134" s="12"/>
-      <c r="AW134" s="29"/>
-    </row>
-    <row r="135" spans="1:62" ht="17.25" customHeight="1">
+    <row r="135" spans="1:62" ht="18">
       <c r="V135" s="12"/>
       <c r="Z135" s="12"/>
-    </row>
-    <row r="136" spans="1:62" ht="18">
-      <c r="D136">
+      <c r="AW135" s="29"/>
+    </row>
+    <row r="136" spans="1:62" ht="17.25" customHeight="1">
+      <c r="V136" s="12"/>
+      <c r="Z136" s="12"/>
+    </row>
+    <row r="137" spans="1:62" ht="18">
+      <c r="D137">
         <f>(D113-F111)/F111</f>
         <v>3.7955768081291093E-2</v>
       </c>
-      <c r="V136" s="12"/>
-      <c r="Z136" s="12"/>
-      <c r="AW136">
-        <f>AW133/AY51</f>
+      <c r="V137" s="12"/>
+      <c r="Z137" s="12"/>
+      <c r="AW137">
+        <f>AW134/AY51</f>
         <v>2.9539951573849879E-2</v>
       </c>
-    </row>
-    <row r="137" spans="1:62" ht="18">
-      <c r="V137" s="12"/>
     </row>
     <row r="138" spans="1:62" ht="18">
       <c r="V138" s="12"/>
     </row>
+    <row r="139" spans="1:62" ht="18">
+      <c r="V139" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL133"/>
+  <autoFilter ref="A1:BL134"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -50923,10 +51156,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K757"/>
+  <dimension ref="A1:K768"/>
   <sheetViews>
-    <sheetView topLeftCell="A743" workbookViewId="0">
-      <selection activeCell="A749" sqref="A749:D757"/>
+    <sheetView topLeftCell="A749" workbookViewId="0">
+      <selection activeCell="C768" sqref="C768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59381,27 +59614,133 @@
         <v>11930000</v>
       </c>
     </row>
+    <row r="760" spans="1:4">
+      <c r="A760" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="B760" s="82"/>
+      <c r="C760" s="82"/>
+      <c r="D760" s="82"/>
+    </row>
+    <row r="761" spans="1:4">
+      <c r="A761" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4">
+      <c r="A762" s="43">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="B762" s="3">
+        <v>27250</v>
+      </c>
+      <c r="C762" s="3">
+        <v>7540</v>
+      </c>
+      <c r="D762">
+        <v>11900000</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4">
+      <c r="A763" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B763" s="3">
+        <v>27380</v>
+      </c>
+      <c r="C763" s="3">
+        <v>7520</v>
+      </c>
+      <c r="D763">
+        <v>11880000</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4">
+      <c r="A764" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="B764" s="3">
+        <v>27350</v>
+      </c>
+      <c r="C764" s="3">
+        <v>7495</v>
+      </c>
+      <c r="D764">
+        <v>11890000</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4">
+      <c r="A765" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="B765" s="3">
+        <v>27320</v>
+      </c>
+      <c r="C765" s="3">
+        <v>7485</v>
+      </c>
+      <c r="D765">
+        <v>11840000</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4">
+      <c r="A766" s="43">
+        <v>0.625</v>
+      </c>
+      <c r="B766" s="3">
+        <v>27320</v>
+      </c>
+      <c r="C766" s="3">
+        <v>7485</v>
+      </c>
+      <c r="D766">
+        <v>11830000</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4">
+      <c r="A767" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B767" s="3">
+        <v>27320</v>
+      </c>
+      <c r="C767" s="3">
+        <v>7485</v>
+      </c>
+      <c r="D767">
+        <v>11840000</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4">
+      <c r="A768" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B768" s="3">
+        <v>27320</v>
+      </c>
+      <c r="C768" s="3">
+        <v>7485</v>
+      </c>
+      <c r="D768">
+        <v>11840000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="A670:D670"/>
     <mergeCell ref="A738:D738"/>
     <mergeCell ref="A715:D715"/>
     <mergeCell ref="A703:D703"/>
     <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A726:D726"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A544:D544"/>
     <mergeCell ref="A243:D243"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -59427,7 +59766,6 @@
     <mergeCell ref="A193:D193"/>
     <mergeCell ref="A203:D203"/>
     <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A273:D273"/>
     <mergeCell ref="A263:D263"/>
     <mergeCell ref="A253:D253"/>
     <mergeCell ref="A379:D379"/>
@@ -59438,7 +59776,22 @@
     <mergeCell ref="A335:D335"/>
     <mergeCell ref="A324:D324"/>
     <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A760:D760"/>
     <mergeCell ref="A749:D749"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A726:D726"/>
+    <mergeCell ref="A681:D681"/>
     <mergeCell ref="A456:D456"/>
     <mergeCell ref="A303:D303"/>
     <mergeCell ref="A445:D445"/>
@@ -59453,7 +59806,8 @@
     <mergeCell ref="A467:D467"/>
     <mergeCell ref="A500:D500"/>
     <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A522:D522"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -59462,10 +59816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M69"/>
+  <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -59529,7 +59883,7 @@
         <v>1060293</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:H69" si="0">(C3-C2)*100/C2</f>
+        <f t="shared" ref="F3:H70" si="0">(C3-C2)*100/C2</f>
         <v>-1.5820149875104079</v>
       </c>
       <c r="G3">
@@ -59558,7 +59912,7 @@
         <v>1074144</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F69" si="1">(C4-C3)*100/C3</f>
+        <f t="shared" ref="F4:F70" si="1">(C4-C3)*100/C3</f>
         <v>1.3959390862944163</v>
       </c>
       <c r="G4">
@@ -61451,17 +61805,46 @@
       <c r="I69">
         <v>1.47</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0.68</v>
-      </c>
-      <c r="L69">
-        <v>1.37</v>
-      </c>
-      <c r="M69">
-        <v>1.47</v>
+    </row>
+    <row r="70" spans="2:13">
+      <c r="B70">
+        <v>14000624</v>
+      </c>
+      <c r="C70" s="54">
+        <v>27320</v>
+      </c>
+      <c r="D70">
+        <v>11840000</v>
+      </c>
+      <c r="E70">
+        <v>1158635</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-0.18268176835951772</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="0"/>
+        <v>-0.7544006705783739</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>-0.25834254448037081</v>
+      </c>
+      <c r="I70">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="J70">
+        <v>-0.18</v>
+      </c>
+      <c r="K70">
+        <v>-0.75</v>
+      </c>
+      <c r="L70">
+        <v>-0.26</v>
+      </c>
+      <c r="M70">
+        <v>-0.57999999999999996</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$137</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="348">
   <si>
     <t>نرخ ابتدای روز دلار  متشکل</t>
   </si>
@@ -1068,6 +1068,12 @@
   </si>
   <si>
     <t>27شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز  یکشنبه 28 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>28شهریور1400</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1139,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1200,6 +1206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1261,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1374,6 +1386,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1747,11 +1764,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990497024"/>
-        <c:axId val="990509536"/>
+        <c:axId val="-1306750304"/>
+        <c:axId val="-1306741056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990497024"/>
+        <c:axId val="-1306750304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1784,7 +1801,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990509536"/>
+        <c:crossAx val="-1306741056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1792,7 +1809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990509536"/>
+        <c:axId val="-1306741056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1832,7 +1849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990497024"/>
+        <c:crossAx val="-1306750304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2660,11 +2677,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990498656"/>
-        <c:axId val="990499200"/>
+        <c:axId val="-1306751936"/>
+        <c:axId val="-1306742688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990498656"/>
+        <c:axId val="-1306751936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2717,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990499200"/>
+        <c:crossAx val="-1306742688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990499200"/>
+        <c:axId val="-1306742688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28000"/>
@@ -2750,7 +2767,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990498656"/>
+        <c:crossAx val="-1306751936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3578,11 +3595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990503008"/>
-        <c:axId val="990510624"/>
+        <c:axId val="-1306740512"/>
+        <c:axId val="-1306749216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990503008"/>
+        <c:axId val="-1306740512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,7 +3632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990510624"/>
+        <c:crossAx val="-1306749216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3623,7 +3640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990510624"/>
+        <c:axId val="-1306749216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34000"/>
@@ -3665,7 +3682,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990503008"/>
+        <c:crossAx val="-1306740512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -3876,6 +3893,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4057,11 +4075,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990502464"/>
-        <c:axId val="990498112"/>
+        <c:axId val="-1306743232"/>
+        <c:axId val="-1306752480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990502464"/>
+        <c:axId val="-1306743232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,7 +4112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990498112"/>
+        <c:crossAx val="-1306752480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4102,7 +4120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990498112"/>
+        <c:axId val="-1306752480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4142,7 +4160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990502464"/>
+        <c:crossAx val="-1306743232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4533,11 +4551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990500288"/>
-        <c:axId val="990503552"/>
+        <c:axId val="-1306747584"/>
+        <c:axId val="-1306742144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990500288"/>
+        <c:axId val="-1306747584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4570,7 +4588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990503552"/>
+        <c:crossAx val="-1306742144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4578,7 +4596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990503552"/>
+        <c:axId val="-1306742144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4618,7 +4636,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990500288"/>
+        <c:crossAx val="-1306747584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4753,6 +4771,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="21"/>
+              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4763,7 +4782,9 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A01E-4112-8990-9EBADE87EF32}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4800,6 +4821,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4981,11 +5003,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="990510080"/>
-        <c:axId val="990504640"/>
+        <c:axId val="-1306755744"/>
+        <c:axId val="-1306743776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="990510080"/>
+        <c:axId val="-1306755744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,7 +5040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990504640"/>
+        <c:crossAx val="-1306743776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5026,7 +5048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="990504640"/>
+        <c:axId val="-1306743776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,7 +5088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="990510080"/>
+        <c:crossAx val="-1306755744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5107,6 +5129,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5181,7 +5204,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>بازدهی بازارها(شنبه 27 شهریور نسبت به چهارشنبه هفته گذشته)</a:t>
+              <a:t>بازدهی بازارها(یکشنبه 28 شهریور سال 1400)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5210,8 +5233,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5258,21 +5281,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$71:$I$71</c:f>
+              <c:f>'price change'!$F$72:$I$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0248901903367496</c:v>
+                  <c:v>-0.94202898550724634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.097972972972973</c:v>
+                  <c:v>8.5397096498719044E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.0122816935445589</c:v>
+                  <c:v>-0.12208011838072086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.5499999999999998</c:v>
+                  <c:v>-2.0499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5289,8 +5312,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1081536416"/>
-        <c:axId val="1081534240"/>
+        <c:axId val="-1306745408"/>
+        <c:axId val="-1306755200"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5340,7 +5363,6 @@
                   <c:showLeaderLines val="0"/>
                   <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="0"/>
                     </c:ext>
                   </c:extLst>
@@ -5405,11 +5427,94 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$71:$I$71</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>1.0248901903367496</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-1.097972972972973</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-2.0122816935445589</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2.5499999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1081536416"/>
+        <c:axId val="-1306745408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5442,7 +5547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081534240"/>
+        <c:crossAx val="-1306755200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5450,7 +5555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1081534240"/>
+        <c:axId val="-1306755200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5490,7 +5595,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1081536416"/>
+        <c:crossAx val="-1306745408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5544,7 +5649,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5580,7 +5685,7 @@
         <xdr:cNvPr id="3" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5616,7 +5721,7 @@
         <xdr:cNvPr id="4" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5652,7 +5757,7 @@
         <xdr:cNvPr id="5" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5688,7 +5793,7 @@
         <xdr:cNvPr id="6" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +5829,7 @@
         <xdr:cNvPr id="7" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5765,7 +5870,7 @@
         <xdr:cNvPr id="6" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6083,10 +6188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM141"/>
+  <dimension ref="A1:BM142"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X130" sqref="X130"/>
+    <sheetView topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6173,15 +6278,15 @@
         <v>14</v>
       </c>
       <c r="S1" s="4">
-        <f>L132/G132</f>
-        <v>3148739.1853293423</v>
+        <f>L133/G133</f>
+        <v>3175944.4588843882</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="4">
-        <f>M132/K132</f>
-        <v>29447.499795324478</v>
+        <f>M133/K133</f>
+        <v>29566.96971598683</v>
       </c>
       <c r="V1" s="4" t="s">
         <v>16</v>
@@ -6301,7 +6406,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:65" ht="21.6" hidden="1" customHeight="1">
+    <row r="2" spans="1:65" ht="21.6" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>55</v>
       </c>
@@ -6411,7 +6516,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:65" ht="18" hidden="1">
+    <row r="3" spans="1:65" ht="18">
       <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
@@ -6521,7 +6626,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="18" hidden="1">
+    <row r="4" spans="1:65" ht="18">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -6631,7 +6736,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:65" ht="18" hidden="1">
+    <row r="5" spans="1:65" ht="18">
       <c r="A5" s="8" t="s">
         <v>61</v>
       </c>
@@ -6741,7 +6846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:65" ht="18.75" hidden="1" customHeight="1">
+    <row r="6" spans="1:65" ht="18.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
@@ -6851,7 +6956,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:65" ht="18" hidden="1">
+    <row r="7" spans="1:65" ht="18">
       <c r="A7" s="8" t="s">
         <v>65</v>
       </c>
@@ -6961,7 +7066,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="18" hidden="1">
+    <row r="8" spans="1:65" ht="18">
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
@@ -7071,7 +7176,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="18" hidden="1">
+    <row r="9" spans="1:65" ht="18">
       <c r="A9" s="8" t="s">
         <v>69</v>
       </c>
@@ -7181,7 +7286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:65" ht="18" hidden="1">
+    <row r="10" spans="1:65" ht="18">
       <c r="A10" s="8" t="s">
         <v>71</v>
       </c>
@@ -7291,7 +7396,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:65" ht="18" hidden="1">
+    <row r="11" spans="1:65" ht="18">
       <c r="A11" s="8" t="s">
         <v>73</v>
       </c>
@@ -7401,7 +7506,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="12" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A12" s="12" t="s">
         <v>75</v>
       </c>
@@ -7523,7 +7628,7 @@
         <v>2.6256936966785389E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="13" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
         <v>77</v>
@@ -7700,7 +7805,7 @@
         <v>3.8371899450640921E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="14" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
         <v>78</v>
@@ -7875,7 +7980,7 @@
         <v>3.6598002238156423E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="15" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
         <v>79</v>
@@ -8042,7 +8147,7 @@
         <v>3.6088474970896393E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="16" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
         <v>80</v>
@@ -8177,7 +8282,7 @@
         <v>3.9324668811901879E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="15" customFormat="1" ht="18" hidden="1">
+    <row r="17" spans="1:65" s="15" customFormat="1" ht="18">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
         <v>81</v>
@@ -8306,7 +8411,7 @@
         <v>4.4976317223456429E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="20" customFormat="1" ht="18" hidden="1">
+    <row r="18" spans="1:65" s="20" customFormat="1" ht="18">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
         <v>82</v>
@@ -8458,7 +8563,7 @@
         <v>4.2640063981142402E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="20" customFormat="1" ht="18" hidden="1">
+    <row r="19" spans="1:65" s="20" customFormat="1" ht="18">
       <c r="A19" s="17"/>
       <c r="B19" s="18" t="s">
         <v>83</v>
@@ -8610,7 +8715,7 @@
         <v>3.4891097483611758E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="20" customFormat="1" ht="18" hidden="1">
+    <row r="20" spans="1:65" s="20" customFormat="1" ht="18">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
         <v>84</v>
@@ -8760,7 +8865,7 @@
         <v>2.1503105065269739E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="20" customFormat="1" ht="18" hidden="1">
+    <row r="21" spans="1:65" s="20" customFormat="1" ht="18">
       <c r="A21" s="17"/>
       <c r="B21" s="18" t="s">
         <v>85</v>
@@ -8910,7 +9015,7 @@
         <v>1.94008069362177E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="20" customFormat="1" ht="18" hidden="1">
+    <row r="22" spans="1:65" s="20" customFormat="1" ht="18">
       <c r="A22" s="17"/>
       <c r="B22" s="18" t="s">
         <v>86</v>
@@ -9058,7 +9163,7 @@
         <v>3.8086190517315828E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="20" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="23" spans="1:65" s="20" customFormat="1" ht="21" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
         <v>87</v>
@@ -9208,7 +9313,7 @@
         <v>2.9494321371507537E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="24" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A24" s="21"/>
       <c r="B24" s="22" t="s">
         <v>88</v>
@@ -9358,7 +9463,7 @@
         <v>2.9875913355527691E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="25" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A25" s="21"/>
       <c r="B25" s="22" t="s">
         <v>89</v>
@@ -9508,7 +9613,7 @@
         <v>3.2037701586752565E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="26" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="22" t="s">
         <v>90</v>
@@ -9658,7 +9763,7 @@
         <v>2.1493750810880941E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="27" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="22" t="s">
         <v>91</v>
@@ -9810,7 +9915,7 @@
         <v>2.0628344553771792E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="28" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="22" t="s">
         <v>92</v>
@@ -9960,7 +10065,7 @@
         <v>2.5052011095700415E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="29" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
         <v>93</v>
@@ -10110,7 +10215,7 @@
         <v>2.0408163265306121E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="30" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A30" s="28"/>
       <c r="B30" s="10" t="s">
         <v>94</v>
@@ -10264,7 +10369,7 @@
         <v>5.9974609289497873E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="31" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A31" s="28"/>
       <c r="B31" s="10" t="s">
         <v>95</v>
@@ -10414,7 +10519,7 @@
         <v>-1.470983944748408E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="32" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A32" s="28"/>
       <c r="B32" s="10" t="s">
         <v>96</v>
@@ -10538,7 +10643,7 @@
         <v>9.9138330399332897E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="33" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A33" s="28"/>
       <c r="B33" s="10" t="s">
         <v>97</v>
@@ -10676,7 +10781,7 @@
         <v>-1.8682770334025288E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="34" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A34" s="28"/>
       <c r="B34" s="10" t="s">
         <v>98</v>
@@ -10804,7 +10909,7 @@
         <v>3.1361612603356327E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="35" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="33" t="s">
         <v>99</v>
@@ -10945,7 +11050,7 @@
         <v>5.0932041685013946E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="36" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A36" s="32"/>
       <c r="B36" s="33" t="s">
         <v>100</v>
@@ -11080,7 +11185,7 @@
         <v>3.7201877025784917E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="37" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="33" t="s">
         <v>101</v>
@@ -11210,7 +11315,7 @@
         <v>4.660045836516425E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="38" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="33" t="s">
         <v>102</v>
@@ -11332,7 +11437,7 @@
         <v>3.2269893656032271E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="39" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="33" t="s">
         <v>103</v>
@@ -11454,7 +11559,7 @@
         <v>3.0200265799000963E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="40" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A40" s="21"/>
       <c r="B40" s="22" t="s">
         <v>104</v>
@@ -11576,7 +11681,7 @@
         <v>3.7372593431483581E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="41" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A41" s="21"/>
       <c r="B41" s="22" t="s">
         <v>105</v>
@@ -11700,7 +11805,7 @@
         <v>4.6139995498537027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="42" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A42" s="21"/>
       <c r="B42" s="22" t="s">
         <v>106</v>
@@ -11826,7 +11931,7 @@
         <v>2.4709628234449974E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="43" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A43" s="21"/>
       <c r="B43" s="22" t="s">
         <v>107</v>
@@ -11944,7 +12049,7 @@
         <v>4.1844961938651414E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="44" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A44" s="21"/>
       <c r="B44" s="22" t="s">
         <v>108</v>
@@ -12066,7 +12171,7 @@
         <v>2.2023244245466467E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="45" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A45" s="21"/>
       <c r="B45" s="22" t="s">
         <v>109</v>
@@ -12186,7 +12291,7 @@
         <v>3.4451659451659448E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="46" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A46" s="37"/>
       <c r="B46" s="38" t="s">
         <v>110</v>
@@ -12304,7 +12409,7 @@
         <v>3.6231884057971016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="47" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A47" s="37"/>
       <c r="B47" s="38" t="s">
         <v>111</v>
@@ -12424,7 +12529,7 @@
         <v>3.3689622513868221E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="48" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A48" s="37"/>
       <c r="B48" s="38" t="s">
         <v>112</v>
@@ -12550,7 +12655,7 @@
         <v>4.1601220661490822E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="49" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A49" s="37"/>
       <c r="B49" s="38" t="s">
         <v>113</v>
@@ -12676,7 +12781,7 @@
         <v>3.6582615363796291E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="50" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A50" s="37"/>
       <c r="B50" s="38" t="s">
         <v>114</v>
@@ -12800,7 +12905,7 @@
         <v>4.8256649892163911E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:65" s="40" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="51" spans="1:65" s="40" customFormat="1" ht="21" customHeight="1">
       <c r="A51" s="37"/>
       <c r="B51" s="38" t="s">
         <v>115</v>
@@ -12920,7 +13025,7 @@
         <v>3.9659421913511093E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="52" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A52" s="28"/>
       <c r="B52" s="10" t="s">
         <v>116</v>
@@ -13044,7 +13149,7 @@
         <v>4.2074576861158244E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="53" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="28"/>
       <c r="B53" s="10" t="s">
         <v>117</v>
@@ -13166,7 +13271,7 @@
         <v>1.6349794067479304E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="54" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A54" s="21"/>
       <c r="B54" s="22" t="s">
         <v>118</v>
@@ -13288,7 +13393,7 @@
         <v>2.2913256955810146E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="55" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A55" s="28"/>
       <c r="B55" s="10" t="s">
         <v>119</v>
@@ -13406,7 +13511,7 @@
         <v>2.8963741686333404E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="56" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A56" s="28"/>
       <c r="B56" s="10" t="s">
         <v>120</v>
@@ -13524,7 +13629,7 @@
         <v>3.3635187580853813E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="57" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A57" s="28"/>
       <c r="B57" s="10" t="s">
         <v>121</v>
@@ -13642,7 +13747,7 @@
         <v>2.8795924534818461E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="58" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="33" t="s">
         <v>122</v>
@@ -13760,7 +13865,7 @@
         <v>2.671690357938003E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="59" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="33" t="s">
         <v>123</v>
@@ -13878,7 +13983,7 @@
         <v>2.4057635404605687E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="60" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="33" t="s">
         <v>124</v>
@@ -13996,7 +14101,7 @@
         <v>3.2539072508326931E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="61" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="33" t="s">
         <v>125</v>
@@ -14114,7 +14219,7 @@
         <v>2.8253424657534245E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="62" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A62" s="28"/>
       <c r="B62" s="10" t="s">
         <v>126</v>
@@ -14218,7 +14323,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="29">
-        <f>K132/K62</f>
+        <f>K133/K62</f>
         <v>144.72637159981559</v>
       </c>
       <c r="BL62" s="29">
@@ -14230,7 +14335,7 @@
         <v>2.3155161220515041E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="63" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A63" s="28"/>
       <c r="B63" s="10" t="s">
         <v>127</v>
@@ -14342,7 +14447,7 @@
         <v>2.9020348587619128E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="64" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A64" s="28"/>
       <c r="B64" s="10" t="s">
         <v>128</v>
@@ -14454,7 +14559,7 @@
         <v>2.4806135127029689E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="65" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A65" s="28"/>
       <c r="B65" s="10" t="s">
         <v>129</v>
@@ -14566,7 +14671,7 @@
         <v>3.0344591119492541E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="66" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A66" s="28"/>
       <c r="B66" s="10" t="s">
         <v>130</v>
@@ -14678,7 +14783,7 @@
         <v>3.1046869654464591E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="67" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A67" s="28"/>
       <c r="B67" s="10" t="s">
         <v>131</v>
@@ -14790,7 +14895,7 @@
         <v>3.9105191256830603E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="68" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A68" s="32"/>
       <c r="B68" s="33" t="s">
         <v>132</v>
@@ -14902,7 +15007,7 @@
         <v>6.2370062370062374E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="69" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A69" s="32"/>
       <c r="B69" s="33" t="s">
         <v>133</v>
@@ -15014,7 +15119,7 @@
         <v>1.5050453223875491E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="70" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A70" s="32"/>
       <c r="B70" s="33" t="s">
         <v>134</v>
@@ -15122,7 +15227,7 @@
         <v>2.6553987387928447E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="71" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A71" s="32"/>
       <c r="B71" s="33" t="s">
         <v>135</v>
@@ -15230,7 +15335,7 @@
         <v>3.0769885517300082E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="72" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A72" s="32"/>
       <c r="B72" s="33" t="s">
         <v>136</v>
@@ -15335,7 +15440,7 @@
         <v>2.1202759321173135E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="73" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A73" s="32"/>
       <c r="B73" s="33" t="s">
         <v>137</v>
@@ -15440,7 +15545,7 @@
         <v>2.0840393087089123E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="74" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A74" s="28"/>
       <c r="B74" s="10" t="s">
         <v>138</v>
@@ -15548,7 +15653,7 @@
         <v>3.0037494207355606E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="75" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A75" s="28"/>
       <c r="B75" s="10" t="s">
         <v>139</v>
@@ -15656,7 +15761,7 @@
         <v>2.4134312696747113E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="76" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A76" s="28"/>
       <c r="B76" s="10" t="s">
         <v>140</v>
@@ -15764,7 +15869,7 @@
         <v>3.5059827629487075E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="77" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A77" s="28"/>
       <c r="B77" s="10" t="s">
         <v>141</v>
@@ -15868,7 +15973,7 @@
         <v>3.1143572278527758E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="78" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A78" s="28"/>
       <c r="B78" s="10" t="s">
         <v>142</v>
@@ -15972,7 +16077,7 @@
         <v>3.008315669329855E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="79" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A79" s="28"/>
       <c r="B79" s="10" t="s">
         <v>143</v>
@@ -16076,7 +16181,7 @@
         <v>1.8148013419021058E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="80" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A80" s="32"/>
       <c r="B80" s="33" t="s">
         <v>144</v>
@@ -16180,7 +16285,7 @@
         <v>1.5234563920683539E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="81" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A81" s="32"/>
       <c r="B81" s="33" t="s">
         <v>145</v>
@@ -16284,7 +16389,7 @@
         <v>1.6552280985062576E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="82" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A82" s="32"/>
       <c r="B82" s="33" t="s">
         <v>146</v>
@@ -16384,7 +16489,7 @@
       <c r="BG82" s="36"/>
       <c r="BH82" s="36"/>
     </row>
-    <row r="83" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="83" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A83" s="32"/>
       <c r="B83" s="33" t="s">
         <v>147</v>
@@ -16484,7 +16589,7 @@
       <c r="BG83" s="36"/>
       <c r="BH83" s="36"/>
     </row>
-    <row r="84" spans="1:65" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="84" spans="1:65" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A84" s="32"/>
       <c r="B84" s="33" t="s">
         <v>148</v>
@@ -16584,7 +16689,7 @@
       <c r="BG84" s="36"/>
       <c r="BH84" s="36"/>
     </row>
-    <row r="85" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="85" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A85" s="28"/>
       <c r="B85" s="10" t="s">
         <v>149</v>
@@ -16684,7 +16789,7 @@
       <c r="BG85" s="30"/>
       <c r="BH85" s="30"/>
     </row>
-    <row r="86" spans="1:65" s="24" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="86" spans="1:65" s="24" customFormat="1" ht="21" customHeight="1">
       <c r="A86" s="21"/>
       <c r="B86" s="22" t="s">
         <v>150</v>
@@ -16784,7 +16889,7 @@
       <c r="BG86" s="23"/>
       <c r="BH86" s="23"/>
     </row>
-    <row r="87" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="87" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A87" s="28"/>
       <c r="B87" s="10" t="s">
         <v>151</v>
@@ -16884,7 +16989,7 @@
       <c r="BG87" s="30"/>
       <c r="BH87" s="30"/>
     </row>
-    <row r="88" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="88" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A88" s="28"/>
       <c r="B88" s="10" t="s">
         <v>152</v>
@@ -16984,7 +17089,7 @@
       <c r="BG88" s="30"/>
       <c r="BH88" s="30"/>
     </row>
-    <row r="89" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="89" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A89" s="28"/>
       <c r="B89" s="10" t="s">
         <v>153</v>
@@ -17084,7 +17189,7 @@
       <c r="BG89" s="30"/>
       <c r="BH89" s="30"/>
     </row>
-    <row r="90" spans="1:65" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="90" spans="1:65" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A90" s="12"/>
       <c r="B90" s="13" t="s">
         <v>154</v>
@@ -17184,7 +17289,7 @@
       <c r="BG90" s="14"/>
       <c r="BH90" s="14"/>
     </row>
-    <row r="91" spans="1:65" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="91" spans="1:65" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A91" s="12"/>
       <c r="B91" s="13" t="s">
         <v>155</v>
@@ -17284,7 +17389,7 @@
       <c r="BG91" s="14"/>
       <c r="BH91" s="14"/>
     </row>
-    <row r="92" spans="1:65" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="92" spans="1:65" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A92" s="12"/>
       <c r="B92" s="13" t="s">
         <v>156</v>
@@ -17384,7 +17489,7 @@
       <c r="BG92" s="14"/>
       <c r="BH92" s="14"/>
     </row>
-    <row r="93" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="93" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A93" s="28"/>
       <c r="B93" s="10" t="s">
         <v>157</v>
@@ -17484,7 +17589,7 @@
       <c r="BG93" s="30"/>
       <c r="BH93" s="30"/>
     </row>
-    <row r="94" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="94" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A94" s="28"/>
       <c r="B94" s="10" t="s">
         <v>158</v>
@@ -17584,7 +17689,7 @@
       <c r="BG94" s="30"/>
       <c r="BH94" s="30"/>
     </row>
-    <row r="95" spans="1:65" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="95" spans="1:65" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A95" s="28"/>
       <c r="B95" s="10" t="s">
         <v>159</v>
@@ -17684,7 +17789,7 @@
       <c r="BG95" s="30"/>
       <c r="BH95" s="30"/>
     </row>
-    <row r="96" spans="1:65" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="96" spans="1:65" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A96" s="12"/>
       <c r="B96" s="13" t="s">
         <v>160</v>
@@ -17784,7 +17889,7 @@
       <c r="BG96" s="14"/>
       <c r="BH96" s="14"/>
     </row>
-    <row r="97" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="97" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A97" s="12"/>
       <c r="B97" s="13" t="s">
         <v>161</v>
@@ -17884,7 +17989,7 @@
       <c r="BG97" s="14"/>
       <c r="BH97" s="14"/>
     </row>
-    <row r="98" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="98" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A98" s="12"/>
       <c r="B98" s="13" t="s">
         <v>162</v>
@@ -17917,11 +18022,11 @@
         <v>1558800</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" ref="L98:L131" si="19">F98*G98</f>
+        <f t="shared" ref="L98:L132" si="19">F98*G98</f>
         <v>92308365600</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M131" si="20">J98*K98</f>
+        <f t="shared" ref="M98:M132" si="20">J98*K98</f>
         <v>45518518800</v>
       </c>
       <c r="N98" s="15">
@@ -17984,7 +18089,7 @@
       <c r="BG98" s="14"/>
       <c r="BH98" s="14"/>
     </row>
-    <row r="99" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="99" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A99" s="12"/>
       <c r="B99" s="13" t="s">
         <v>163</v>
@@ -18084,7 +18189,7 @@
       <c r="BG99" s="14"/>
       <c r="BH99" s="14"/>
     </row>
-    <row r="100" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="100" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A100" s="12"/>
       <c r="B100" s="13" t="s">
         <v>164</v>
@@ -18184,7 +18289,7 @@
       <c r="BG100" s="14"/>
       <c r="BH100" s="14"/>
     </row>
-    <row r="101" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="101" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A101" s="28"/>
       <c r="B101" s="10" t="s">
         <v>165</v>
@@ -18284,7 +18389,7 @@
       <c r="BG101" s="30"/>
       <c r="BH101" s="30"/>
     </row>
-    <row r="102" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="102" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A102" s="28"/>
       <c r="B102" s="10" t="s">
         <v>166</v>
@@ -18384,7 +18489,7 @@
       <c r="BG102" s="30"/>
       <c r="BH102" s="30"/>
     </row>
-    <row r="103" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="103" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A103" s="28"/>
       <c r="B103" s="10" t="s">
         <v>167</v>
@@ -18484,7 +18589,7 @@
       <c r="BG103" s="30"/>
       <c r="BH103" s="30"/>
     </row>
-    <row r="104" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="104" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A104" s="28"/>
       <c r="B104" s="10" t="s">
         <v>168</v>
@@ -18584,7 +18689,7 @@
       <c r="BG104" s="30"/>
       <c r="BH104" s="30"/>
     </row>
-    <row r="105" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="105" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A105" s="28"/>
       <c r="B105" s="10" t="s">
         <v>169</v>
@@ -18684,7 +18789,7 @@
       <c r="BG105" s="30"/>
       <c r="BH105" s="30"/>
     </row>
-    <row r="106" spans="1:60" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="106" spans="1:60" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A106" s="32"/>
       <c r="B106" s="33" t="s">
         <v>170</v>
@@ -18784,7 +18889,7 @@
       <c r="BG106" s="36"/>
       <c r="BH106" s="36"/>
     </row>
-    <row r="107" spans="1:60" s="35" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="107" spans="1:60" s="35" customFormat="1" ht="21" customHeight="1">
       <c r="A107" s="32"/>
       <c r="B107" s="33" t="s">
         <v>171</v>
@@ -18884,7 +18989,7 @@
       <c r="BG107" s="36"/>
       <c r="BH107" s="36"/>
     </row>
-    <row r="108" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="108" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A108" s="28"/>
       <c r="B108" s="10" t="s">
         <v>172</v>
@@ -18984,7 +19089,7 @@
       <c r="BG108" s="30"/>
       <c r="BH108" s="30"/>
     </row>
-    <row r="109" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="109" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A109" s="28"/>
       <c r="B109" s="10" t="s">
         <v>173</v>
@@ -19084,7 +19189,7 @@
       <c r="BG109" s="30"/>
       <c r="BH109" s="30"/>
     </row>
-    <row r="110" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="110" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A110" s="28"/>
       <c r="B110" s="10" t="s">
         <v>174</v>
@@ -19184,7 +19289,7 @@
       <c r="BG110" s="30"/>
       <c r="BH110" s="30"/>
     </row>
-    <row r="111" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="111" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A111" s="28"/>
       <c r="B111" s="10" t="s">
         <v>175</v>
@@ -19284,7 +19389,7 @@
       <c r="BG111" s="30"/>
       <c r="BH111" s="30"/>
     </row>
-    <row r="112" spans="1:60" s="46" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="112" spans="1:60" s="46" customFormat="1" ht="21" customHeight="1">
       <c r="A112" s="43"/>
       <c r="B112" s="44" t="s">
         <v>176</v>
@@ -19381,7 +19486,7 @@
       <c r="BG112" s="47"/>
       <c r="BH112" s="47"/>
     </row>
-    <row r="113" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="113" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A113" s="12"/>
       <c r="B113" s="13" t="s">
         <v>177</v>
@@ -19481,7 +19586,7 @@
       <c r="BG113" s="14"/>
       <c r="BH113" s="14"/>
     </row>
-    <row r="114" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="114" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A114" s="12"/>
       <c r="B114" s="13" t="s">
         <v>178</v>
@@ -19581,7 +19686,7 @@
       <c r="BG114" s="14"/>
       <c r="BH114" s="14"/>
     </row>
-    <row r="115" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="115" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A115" s="12"/>
       <c r="B115" s="13" t="s">
         <v>179</v>
@@ -19681,7 +19786,7 @@
       <c r="BG115" s="14"/>
       <c r="BH115" s="14"/>
     </row>
-    <row r="116" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="116" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A116" s="12"/>
       <c r="B116" s="13" t="s">
         <v>180</v>
@@ -19781,7 +19886,7 @@
       <c r="BG116" s="14"/>
       <c r="BH116" s="14"/>
     </row>
-    <row r="117" spans="1:60" s="15" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="117" spans="1:60" s="15" customFormat="1" ht="21" customHeight="1">
       <c r="A117" s="12"/>
       <c r="B117" s="13" t="s">
         <v>181</v>
@@ -19881,7 +19986,7 @@
       <c r="BG117" s="14"/>
       <c r="BH117" s="14"/>
     </row>
-    <row r="118" spans="1:60" s="46" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="118" spans="1:60" s="46" customFormat="1" ht="21" customHeight="1">
       <c r="A118" s="43"/>
       <c r="B118" s="44" t="s">
         <v>182</v>
@@ -19979,7 +20084,7 @@
       <c r="BG118" s="47"/>
       <c r="BH118" s="47"/>
     </row>
-    <row r="119" spans="1:60" s="29" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="119" spans="1:60" s="29" customFormat="1" ht="21" customHeight="1">
       <c r="A119" s="28"/>
       <c r="B119" s="10" t="s">
         <v>183</v>
@@ -20079,7 +20184,7 @@
       <c r="BG119" s="30"/>
       <c r="BH119" s="30"/>
     </row>
-    <row r="120" spans="1:60" s="54" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="120" spans="1:60" s="54" customFormat="1" ht="21" customHeight="1">
       <c r="A120" s="51"/>
       <c r="B120" s="52" t="s">
         <v>184</v>
@@ -20179,7 +20284,7 @@
       <c r="BG120" s="56"/>
       <c r="BH120" s="56"/>
     </row>
-    <row r="121" spans="1:60" s="60" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="121" spans="1:60" s="60" customFormat="1" ht="21" customHeight="1">
       <c r="A121" s="57"/>
       <c r="B121" s="58" t="s">
         <v>185</v>
@@ -20279,7 +20384,7 @@
       <c r="BG121" s="62"/>
       <c r="BH121" s="62"/>
     </row>
-    <row r="122" spans="1:60" s="60" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="122" spans="1:60" s="60" customFormat="1" ht="21" customHeight="1">
       <c r="A122" s="57"/>
       <c r="B122" s="58" t="s">
         <v>186</v>
@@ -20379,7 +20484,7 @@
       <c r="BG122" s="62"/>
       <c r="BH122" s="62"/>
     </row>
-    <row r="123" spans="1:60" s="60" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="123" spans="1:60" s="60" customFormat="1" ht="21" customHeight="1">
       <c r="A123" s="57"/>
       <c r="B123" s="58" t="s">
         <v>187</v>
@@ -20479,7 +20584,7 @@
       <c r="BG123" s="62"/>
       <c r="BH123" s="62"/>
     </row>
-    <row r="124" spans="1:60" s="54" customFormat="1" ht="21" hidden="1" customHeight="1">
+    <row r="124" spans="1:60" s="54" customFormat="1" ht="21" customHeight="1">
       <c r="A124" s="51"/>
       <c r="B124" s="52" t="s">
         <v>188</v>
@@ -21170,252 +21275,352 @@
       <c r="BG130" s="81"/>
       <c r="BH130" s="81"/>
     </row>
-    <row r="131" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
-      <c r="A131" s="83"/>
-      <c r="B131" s="84" t="s">
+    <row r="131" spans="1:62" s="93" customFormat="1" ht="21" customHeight="1">
+      <c r="A131" s="90"/>
+      <c r="B131" s="91" t="s">
         <v>345</v>
       </c>
-      <c r="C131" s="84">
+      <c r="C131" s="91">
         <v>27</v>
       </c>
-      <c r="D131" s="85">
+      <c r="D131" s="92">
         <v>26628</v>
       </c>
-      <c r="E131" s="84">
+      <c r="E131" s="91">
         <v>26507</v>
       </c>
-      <c r="F131" s="84">
+      <c r="F131" s="91">
         <v>26561</v>
       </c>
-      <c r="G131" s="84">
+      <c r="G131" s="91">
         <v>8861800</v>
       </c>
-      <c r="H131" s="84">
+      <c r="H131" s="91">
         <v>31295</v>
       </c>
-      <c r="I131" s="84">
+      <c r="I131" s="91">
         <v>31039</v>
       </c>
-      <c r="J131" s="84">
+      <c r="J131" s="91">
         <v>31112</v>
       </c>
-      <c r="K131" s="84">
+      <c r="K131" s="91">
         <v>1048900</v>
       </c>
-      <c r="L131" s="84">
+      <c r="L131" s="91">
         <f t="shared" si="19"/>
         <v>235378269800</v>
       </c>
-      <c r="M131" s="84">
+      <c r="M131" s="91">
         <f t="shared" si="20"/>
         <v>32633376800</v>
       </c>
-      <c r="N131" s="86">
+      <c r="N131" s="93">
         <v>26772</v>
       </c>
-      <c r="O131" s="86">
+      <c r="O131" s="93">
         <v>31349</v>
       </c>
-      <c r="P131" s="86">
+      <c r="P131" s="93">
         <v>26894</v>
       </c>
-      <c r="Q131" s="86">
+      <c r="Q131" s="93">
         <v>31608</v>
       </c>
-      <c r="R131" s="84"/>
-      <c r="S131" s="84"/>
-      <c r="T131" s="84"/>
-      <c r="U131" s="84"/>
-      <c r="V131" s="86">
+      <c r="R131" s="91"/>
+      <c r="S131" s="91"/>
+      <c r="T131" s="91"/>
+      <c r="U131" s="91"/>
+      <c r="V131" s="93">
         <v>27470</v>
       </c>
-      <c r="X131" s="86">
+      <c r="X131" s="93">
         <v>27600</v>
       </c>
-      <c r="Y131" s="86">
+      <c r="Y131" s="93">
         <v>32263</v>
       </c>
-      <c r="Z131" s="84"/>
-      <c r="AA131" s="84"/>
-      <c r="AB131" s="84"/>
-      <c r="AC131" s="84"/>
-      <c r="AD131" s="84"/>
-      <c r="AE131" s="84"/>
-      <c r="AF131" s="84"/>
-      <c r="AG131" s="84"/>
-      <c r="AH131" s="84"/>
-      <c r="AI131" s="84"/>
-      <c r="AJ131" s="84"/>
-      <c r="AK131" s="84"/>
-      <c r="AL131" s="84"/>
-      <c r="AM131" s="84"/>
-      <c r="AN131" s="84"/>
-      <c r="AO131" s="84"/>
-      <c r="AP131" s="84"/>
-      <c r="AQ131" s="84"/>
-      <c r="AR131" s="84"/>
-      <c r="AS131" s="85"/>
-      <c r="AT131" s="85"/>
-      <c r="AU131" s="85"/>
-      <c r="AV131" s="85"/>
-      <c r="AW131" s="85"/>
-      <c r="AX131" s="85"/>
-      <c r="AY131" s="84"/>
-      <c r="AZ131" s="84"/>
-      <c r="BA131" s="84"/>
-      <c r="BB131" s="84"/>
-      <c r="BC131" s="84"/>
-      <c r="BE131" s="87"/>
-      <c r="BF131" s="87"/>
-      <c r="BG131" s="87"/>
-      <c r="BH131" s="87"/>
-    </row>
-    <row r="132" spans="1:62" ht="18">
-      <c r="A132" s="8"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="27"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9">
-        <f>SUM(G2:G131)/130</f>
-        <v>5967584.6076923078</v>
-      </c>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9">
+      <c r="Z131" s="91"/>
+      <c r="AA131" s="91"/>
+      <c r="AB131" s="91"/>
+      <c r="AC131" s="91"/>
+      <c r="AD131" s="91"/>
+      <c r="AE131" s="91"/>
+      <c r="AF131" s="91"/>
+      <c r="AG131" s="91"/>
+      <c r="AH131" s="91"/>
+      <c r="AI131" s="91"/>
+      <c r="AJ131" s="91"/>
+      <c r="AK131" s="91"/>
+      <c r="AL131" s="91"/>
+      <c r="AM131" s="91"/>
+      <c r="AN131" s="91"/>
+      <c r="AO131" s="91"/>
+      <c r="AP131" s="91"/>
+      <c r="AQ131" s="91"/>
+      <c r="AR131" s="91"/>
+      <c r="AS131" s="92"/>
+      <c r="AT131" s="92"/>
+      <c r="AU131" s="92"/>
+      <c r="AV131" s="92"/>
+      <c r="AW131" s="92"/>
+      <c r="AX131" s="92"/>
+      <c r="AY131" s="91"/>
+      <c r="AZ131" s="91"/>
+      <c r="BA131" s="91"/>
+      <c r="BB131" s="91"/>
+      <c r="BC131" s="91"/>
+      <c r="BE131" s="94"/>
+      <c r="BF131" s="94"/>
+      <c r="BG131" s="94"/>
+      <c r="BH131" s="94"/>
+    </row>
+    <row r="132" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
+      <c r="A132" s="83"/>
+      <c r="B132" s="84" t="s">
+        <v>347</v>
+      </c>
+      <c r="C132" s="84">
+        <v>28</v>
+      </c>
+      <c r="D132" s="85">
+        <v>26507</v>
+      </c>
+      <c r="E132" s="84">
+        <v>26395</v>
+      </c>
+      <c r="F132" s="84">
+        <v>26391</v>
+      </c>
+      <c r="G132" s="84">
+        <v>8230700</v>
+      </c>
+      <c r="H132" s="84">
+        <v>31039</v>
+      </c>
+      <c r="I132" s="84">
+        <v>31069</v>
+      </c>
+      <c r="J132" s="84">
+        <v>31097</v>
+      </c>
+      <c r="K132" s="84">
+        <v>482400</v>
+      </c>
+      <c r="L132" s="91">
+        <f t="shared" si="19"/>
+        <v>217216403700</v>
+      </c>
+      <c r="M132" s="91">
+        <f t="shared" si="20"/>
+        <v>15001192800</v>
+      </c>
+      <c r="N132" s="86">
+        <v>26659</v>
+      </c>
+      <c r="O132" s="86">
+        <v>31380</v>
+      </c>
+      <c r="P132" s="86">
+        <v>26772</v>
+      </c>
+      <c r="Q132" s="86">
+        <v>31349</v>
+      </c>
+      <c r="R132" s="84"/>
+      <c r="S132" s="84"/>
+      <c r="T132" s="84"/>
+      <c r="U132" s="84"/>
+      <c r="V132" s="86">
+        <v>27300</v>
+      </c>
+      <c r="X132" s="86">
+        <v>27340</v>
+      </c>
+      <c r="Y132" s="86">
+        <v>32028</v>
+      </c>
+      <c r="Z132" s="84"/>
+      <c r="AA132" s="84"/>
+      <c r="AB132" s="84"/>
+      <c r="AC132" s="84"/>
+      <c r="AD132" s="84"/>
+      <c r="AE132" s="84"/>
+      <c r="AF132" s="84"/>
+      <c r="AG132" s="84"/>
+      <c r="AH132" s="84"/>
+      <c r="AI132" s="84"/>
+      <c r="AJ132" s="84"/>
+      <c r="AK132" s="84"/>
+      <c r="AL132" s="84"/>
+      <c r="AM132" s="84"/>
+      <c r="AN132" s="84"/>
+      <c r="AO132" s="84"/>
+      <c r="AP132" s="84"/>
+      <c r="AQ132" s="84"/>
+      <c r="AR132" s="84"/>
+      <c r="AS132" s="85"/>
+      <c r="AT132" s="85"/>
+      <c r="AU132" s="85"/>
+      <c r="AV132" s="85"/>
+      <c r="AW132" s="85"/>
+      <c r="AX132" s="85"/>
+      <c r="AY132" s="84"/>
+      <c r="AZ132" s="84"/>
+      <c r="BA132" s="84"/>
+      <c r="BB132" s="84"/>
+      <c r="BC132" s="84"/>
+      <c r="BE132" s="87"/>
+      <c r="BF132" s="87"/>
+      <c r="BG132" s="87"/>
+      <c r="BH132" s="87"/>
+    </row>
+    <row r="133" spans="1:62" ht="18">
+      <c r="A133" s="8"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="27"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9">
+        <f>SUM(G2:G132)/131</f>
+        <v>5984860.2977099232</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9">
         <f>SUM(K2:K126)</f>
         <v>125564600</v>
       </c>
-      <c r="L132" s="9">
-        <f>SUM(L2:L131)</f>
-        <v>18790367496009</v>
-      </c>
-      <c r="M132" s="10">
-        <f>SUM(M2:M131)</f>
-        <v>3697563532800</v>
-      </c>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="10"/>
-      <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="10"/>
-      <c r="V132" s="60"/>
-      <c r="W132" s="10"/>
-      <c r="Y132" s="10"/>
-      <c r="Z132" s="10"/>
-      <c r="AA132" s="10"/>
-      <c r="AB132" s="10"/>
-      <c r="AC132" s="10"/>
-      <c r="AD132" s="10"/>
-      <c r="AE132" s="10"/>
-      <c r="AF132" s="10"/>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="10"/>
-      <c r="AI132" s="10"/>
-      <c r="AJ132" s="10"/>
-      <c r="AK132" s="10"/>
-      <c r="AL132" s="10"/>
-      <c r="AM132" s="10"/>
-      <c r="AN132" s="10"/>
-      <c r="AO132" s="10"/>
-      <c r="AP132" s="10"/>
-      <c r="AQ132" s="10"/>
-      <c r="AR132" s="10"/>
-      <c r="AY132" s="10"/>
-      <c r="AZ132" s="10"/>
-      <c r="BA132" s="10"/>
-      <c r="BB132" s="10"/>
-      <c r="BC132" s="10"/>
-      <c r="BD132" s="10"/>
-      <c r="BE132" s="11"/>
-      <c r="BF132" s="11"/>
-      <c r="BG132" s="11"/>
-      <c r="BH132" s="11"/>
-      <c r="BI132" t="e">
-        <f>#REF!-N132</f>
+      <c r="L133" s="9">
+        <f>SUM(L2:L132)</f>
+        <v>19007583899709</v>
+      </c>
+      <c r="M133" s="10">
+        <f>SUM(M2:M132)</f>
+        <v>3712564725600</v>
+      </c>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="60"/>
+      <c r="W133" s="10"/>
+      <c r="Y133" s="10"/>
+      <c r="Z133" s="10"/>
+      <c r="AA133" s="10"/>
+      <c r="AB133" s="10"/>
+      <c r="AC133" s="10"/>
+      <c r="AD133" s="10"/>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
+      <c r="AI133" s="10"/>
+      <c r="AJ133" s="10"/>
+      <c r="AK133" s="10"/>
+      <c r="AL133" s="10"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="10"/>
+      <c r="AP133" s="10"/>
+      <c r="AQ133" s="10"/>
+      <c r="AR133" s="10"/>
+      <c r="AY133" s="10"/>
+      <c r="AZ133" s="10"/>
+      <c r="BA133" s="10"/>
+      <c r="BB133" s="10"/>
+      <c r="BC133" s="10"/>
+      <c r="BD133" s="10"/>
+      <c r="BE133" s="11"/>
+      <c r="BF133" s="11"/>
+      <c r="BG133" s="11"/>
+      <c r="BH133" s="11"/>
+      <c r="BI133" t="e">
+        <f>#REF!-N133</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ132" t="e">
-        <f>(Y132-O132)/O132</f>
+      <c r="BJ133" t="e">
+        <f>(Y133-O133)/O133</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="133" spans="1:62" ht="18">
-      <c r="D133" s="27"/>
-      <c r="V133" s="66"/>
-      <c r="Z133" s="26"/>
-      <c r="AB133" s="26"/>
-      <c r="AS133" s="26"/>
-      <c r="AW133" s="31"/>
     </row>
     <row r="134" spans="1:62" ht="18">
       <c r="D134" s="27"/>
-      <c r="G134">
-        <f>(G131-G132)/G132</f>
-        <v>0.48498941909880999</v>
-      </c>
+      <c r="V134" s="66"/>
       <c r="Z134" s="26"/>
-      <c r="AS134" s="27"/>
+      <c r="AB134" s="26"/>
+      <c r="AS134" s="26"/>
       <c r="AW134" s="31"/>
-      <c r="AY134">
+    </row>
+    <row r="135" spans="1:62" ht="18">
+      <c r="D135" s="27"/>
+      <c r="Z135" s="26"/>
+      <c r="AS135" s="27"/>
+      <c r="AW135" s="31"/>
+      <c r="AY135">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="135" spans="1:62" ht="18">
-      <c r="Z135" s="26"/>
-      <c r="AS135" s="27">
+    <row r="136" spans="1:62" ht="18">
+      <c r="G136">
+        <f>(G132-G133)/G133</f>
+        <v>0.37525348806377923</v>
+      </c>
+      <c r="Z136" s="26"/>
+      <c r="AS136" s="27">
         <v>10290000</v>
       </c>
-      <c r="AW135" s="31"/>
-      <c r="BB135">
+      <c r="AW136" s="31"/>
+      <c r="BB136">
         <f>AY60-AY59</f>
         <v>70000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:62" ht="18">
-      <c r="V136" s="26"/>
-      <c r="Z136" s="26"/>
-      <c r="AS136" s="27"/>
-      <c r="AU136">
-        <f>AS135-AS49</f>
-        <v>195000</v>
-      </c>
-      <c r="AW136" s="31">
-        <f>AC52-AY51</f>
-        <v>305000</v>
       </c>
     </row>
     <row r="137" spans="1:62" ht="18">
       <c r="V137" s="26"/>
       <c r="Z137" s="26"/>
-      <c r="AW137" s="31"/>
-    </row>
-    <row r="138" spans="1:62" ht="17.25" customHeight="1">
+      <c r="AS137" s="27"/>
+      <c r="AU137">
+        <f>AS136-AS49</f>
+        <v>195000</v>
+      </c>
+      <c r="AW137" s="31">
+        <f>AC52-AY51</f>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:62" ht="18">
       <c r="V138" s="26"/>
       <c r="Z138" s="26"/>
-    </row>
-    <row r="139" spans="1:62" ht="18">
+      <c r="AW138" s="31"/>
+    </row>
+    <row r="139" spans="1:62" ht="17.25" customHeight="1">
       <c r="V139" s="26"/>
       <c r="Z139" s="26"/>
-      <c r="AW139">
-        <f>AW136/AY51</f>
-        <v>2.9539951573849879E-2</v>
-      </c>
     </row>
     <row r="140" spans="1:62" ht="18">
       <c r="V140" s="26"/>
+      <c r="Z140" s="26"/>
+      <c r="AW140">
+        <f>AW137/AY51</f>
+        <v>2.9539951573849879E-2</v>
+      </c>
     </row>
     <row r="141" spans="1:62" ht="18">
       <c r="V141" s="26"/>
     </row>
+    <row r="142" spans="1:62" ht="18">
+      <c r="V142" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL136"/>
+  <autoFilter ref="A1:BL137"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21425,8 +21630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView topLeftCell="A124" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -22420,10 +22625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K803"/>
+  <dimension ref="A1:K805"/>
   <sheetViews>
-    <sheetView topLeftCell="A773" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C787" sqref="C787"/>
+    <sheetView topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C801" sqref="C801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -31233,49 +31438,197 @@
       <c r="C795" s="1"/>
     </row>
     <row r="796" spans="1:5">
-      <c r="B796" s="1"/>
-      <c r="C796" s="1"/>
+      <c r="A796" s="89" t="s">
+        <v>346</v>
+      </c>
+      <c r="B796" s="89"/>
+      <c r="C796" s="89"/>
+      <c r="D796" s="89"/>
     </row>
     <row r="797" spans="1:5">
-      <c r="B797" s="1"/>
-      <c r="C797" s="1"/>
+      <c r="A797" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B797" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C797" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D797" s="11" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="798" spans="1:5">
-      <c r="B798" s="1"/>
-      <c r="C798" s="1"/>
+      <c r="A798" s="68">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B798" s="11">
+        <v>27300</v>
+      </c>
+      <c r="C798" s="11">
+        <v>7500</v>
+      </c>
+      <c r="D798" s="1">
+        <v>11620000</v>
+      </c>
     </row>
     <row r="799" spans="1:5">
-      <c r="B799" s="1"/>
-      <c r="C799" s="1"/>
+      <c r="A799" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B799" s="11">
+        <v>27340</v>
+      </c>
+      <c r="C799" s="11">
+        <v>7490</v>
+      </c>
+      <c r="D799" s="1">
+        <v>11670000</v>
+      </c>
     </row>
     <row r="800" spans="1:5">
-      <c r="B800" s="1"/>
-      <c r="C800" s="1"/>
-    </row>
-    <row r="801" spans="2:3">
-      <c r="B801" s="1"/>
-      <c r="C801" s="1"/>
-    </row>
-    <row r="802" spans="2:3">
-      <c r="B802" s="1">
-        <f t="shared" ref="B802:B803" si="0">C802*C794</f>
-        <v>0</v>
-      </c>
-      <c r="C802" s="1">
+      <c r="A800" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B800" s="11">
+        <v>27280</v>
+      </c>
+      <c r="C800" s="11">
+        <v>7475</v>
+      </c>
+      <c r="D800" s="1">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B801" s="11">
+        <v>27350</v>
+      </c>
+      <c r="C801" s="11">
+        <v>7485</v>
+      </c>
+      <c r="D801" s="1">
+        <v>11710000</v>
+      </c>
+      <c r="H801">
+        <f>H805*C804</f>
+        <v>27510.77</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802" s="68">
+        <v>0.625</v>
+      </c>
+      <c r="B802" s="11">
+        <v>27340</v>
+      </c>
+      <c r="C802" s="11">
+        <v>7490</v>
+      </c>
+      <c r="D802" s="1">
+        <v>11710000</v>
+      </c>
+      <c r="E802" s="88"/>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B803" s="11">
+        <v>27340</v>
+      </c>
+      <c r="C803" s="11">
+        <v>7490</v>
+      </c>
+      <c r="D803" s="88">
+        <v>11720000</v>
+      </c>
+      <c r="E803" s="88"/>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B804" s="11">
+        <v>27340</v>
+      </c>
+      <c r="C804" s="11">
+        <v>7490</v>
+      </c>
+      <c r="D804" s="88">
+        <v>11720000</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="H805">
         <v>3.673</v>
       </c>
     </row>
-    <row r="803" spans="2:3">
-      <c r="B803" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="C803" s="1">
-        <v>3.673</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="74">
+  <mergeCells count="75">
+    <mergeCell ref="A796:D796"/>
+    <mergeCell ref="A749:D749"/>
+    <mergeCell ref="A760:D760"/>
+    <mergeCell ref="A772:D772"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A703:D703"/>
+    <mergeCell ref="A715:D715"/>
+    <mergeCell ref="A726:D726"/>
+    <mergeCell ref="A738:D738"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A193:D193"/>
     <mergeCell ref="A784:D784"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
@@ -31292,64 +31645,6 @@
     <mergeCell ref="A123:D123"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A749:D749"/>
-    <mergeCell ref="A760:D760"/>
-    <mergeCell ref="A772:D772"/>
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A703:D703"/>
-    <mergeCell ref="A715:D715"/>
-    <mergeCell ref="A726:D726"/>
-    <mergeCell ref="A738:D738"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31358,10 +31653,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M71"/>
+  <dimension ref="B1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J71" sqref="J71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L73" sqref="L73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32348,15 +32643,15 @@
         <v>1045981</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F71" si="3">(C35-C34)*100/C34</f>
+        <f t="shared" ref="F35:F72" si="3">(C35-C34)*100/C34</f>
         <v>-1.0141987829614605</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G71" si="4">(D35-D34)*100/D34</f>
+        <f t="shared" ref="G35:G72" si="4">(D35-D34)*100/D34</f>
         <v>-9.5057034220532313E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H71" si="5">(E35-E34)*100/E34</f>
+        <f t="shared" ref="H35:H72" si="5">(E35-E34)*100/E34</f>
         <v>-0.46135003887406989</v>
       </c>
       <c r="I35">
@@ -33406,17 +33701,46 @@
       <c r="I71">
         <v>-2.5499999999999998</v>
       </c>
-      <c r="J71">
-        <v>1.02</v>
-      </c>
-      <c r="K71">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="L71">
-        <v>-2.0099999999999998</v>
-      </c>
-      <c r="M71">
-        <v>-2.5499999999999998</v>
+    </row>
+    <row r="72" spans="2:13">
+      <c r="B72">
+        <v>14000628</v>
+      </c>
+      <c r="C72" s="88">
+        <v>27340</v>
+      </c>
+      <c r="D72">
+        <v>11720000</v>
+      </c>
+      <c r="E72">
+        <v>1133934</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.94202898550724634</v>
+      </c>
+      <c r="G72" s="1">
+        <f t="shared" si="4"/>
+        <v>8.5397096498719044E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.12208011838072086</v>
+      </c>
+      <c r="I72">
+        <v>-2.0499999999999998</v>
+      </c>
+      <c r="J72">
+        <v>-0.94</v>
+      </c>
+      <c r="K72">
+        <v>0.09</v>
+      </c>
+      <c r="L72">
+        <v>-0.12</v>
+      </c>
+      <c r="M72">
+        <v>-2.0499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$138</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="350">
   <si>
     <t>نرخ ابتدای روز دلار  متشکل</t>
   </si>
@@ -1074,6 +1074,12 @@
   </si>
   <si>
     <t>28شهریور1400</t>
+  </si>
+  <si>
+    <t>29شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز  یکشنبه 29 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -1273,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1383,14 +1389,17 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1764,11 +1773,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306750304"/>
-        <c:axId val="-1306741056"/>
+        <c:axId val="-1315714032"/>
+        <c:axId val="-1315712944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306750304"/>
+        <c:axId val="-1315714032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306741056"/>
+        <c:crossAx val="-1315712944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306741056"/>
+        <c:axId val="-1315712944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,7 +1858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306750304"/>
+        <c:crossAx val="-1315714032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,11 +2686,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306751936"/>
-        <c:axId val="-1306742688"/>
+        <c:axId val="-1315708592"/>
+        <c:axId val="-1315717840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306751936"/>
+        <c:axId val="-1315708592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2726,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306742688"/>
+        <c:crossAx val="-1315717840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2725,7 +2734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306742688"/>
+        <c:axId val="-1315717840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28000"/>
@@ -2767,7 +2776,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306751936"/>
+        <c:crossAx val="-1315708592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3595,11 +3604,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306740512"/>
-        <c:axId val="-1306749216"/>
+        <c:axId val="-1315707504"/>
+        <c:axId val="-1315706960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306740512"/>
+        <c:axId val="-1315707504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3632,7 +3641,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306749216"/>
+        <c:crossAx val="-1315706960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3640,7 +3649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306749216"/>
+        <c:axId val="-1315706960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34000"/>
@@ -3682,7 +3691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306740512"/>
+        <c:crossAx val="-1315707504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -4075,11 +4084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306743232"/>
-        <c:axId val="-1306752480"/>
+        <c:axId val="-1315710224"/>
+        <c:axId val="-1315715120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306743232"/>
+        <c:axId val="-1315710224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4112,7 +4121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306752480"/>
+        <c:crossAx val="-1315715120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4120,7 +4129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306752480"/>
+        <c:axId val="-1315715120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,7 +4169,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306743232"/>
+        <c:crossAx val="-1315710224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4551,11 +4560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306747584"/>
-        <c:axId val="-1306742144"/>
+        <c:axId val="-1315711312"/>
+        <c:axId val="-1315710768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306747584"/>
+        <c:axId val="-1315711312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4588,7 +4597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306742144"/>
+        <c:crossAx val="-1315710768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4596,7 +4605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306742144"/>
+        <c:axId val="-1315710768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,7 +4645,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306747584"/>
+        <c:crossAx val="-1315711312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5003,11 +5012,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1306755744"/>
-        <c:axId val="-1306743776"/>
+        <c:axId val="-1315708048"/>
+        <c:axId val="-1315721104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1306755744"/>
+        <c:axId val="-1315708048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5040,7 +5049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306743776"/>
+        <c:crossAx val="-1315721104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5048,7 +5057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306743776"/>
+        <c:axId val="-1315721104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5088,7 +5097,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306755744"/>
+        <c:crossAx val="-1315708048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5204,7 +5213,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>بازدهی بازارها(یکشنبه 28 شهریور سال 1400)</a:t>
+              <a:t>بازدهی بازارها(دوشنبه 29 شهریور سال 1400)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5233,8 +5242,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5281,21 +5290,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$72:$I$72</c:f>
+              <c:f>'price change'!$F$73:$I$73</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>-0.94202898550724634</c:v>
+                  <c:v>0.14630577907827358</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5397096498719044E-2</c:v>
+                  <c:v>-0.76791808873720135</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.12208011838072086</c:v>
+                  <c:v>-0.48856459017896986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.0499999999999998</c:v>
+                  <c:v>0.51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5312,8 +5321,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1306745408"/>
-        <c:axId val="-1306755200"/>
+        <c:axId val="-1315706416"/>
+        <c:axId val="-1315705872"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5448,9 +5457,8 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                     </c:ext>
                   </c:extLst>
@@ -5510,11 +5518,94 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$72:$I$72</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>-0.94202898550724634</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.5397096498719044E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.12208011838072086</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-2.0499999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1306745408"/>
+        <c:axId val="-1315706416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5547,7 +5638,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306755200"/>
+        <c:crossAx val="-1315705872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5555,7 +5646,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1306755200"/>
+        <c:axId val="-1315705872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5595,7 +5686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1306745408"/>
+        <c:crossAx val="-1315706416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6188,10 +6279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM142"/>
+  <dimension ref="A1:BM143"/>
   <sheetViews>
-    <sheetView topLeftCell="B118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView topLeftCell="B127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -6278,14 +6369,14 @@
         <v>14</v>
       </c>
       <c r="S1" s="4">
-        <f>L133/G133</f>
-        <v>3175944.4588843882</v>
+        <f>L134/G134</f>
+        <v>3163887.9082857207</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="4">
-        <f>M133/K133</f>
+        <f>M134/K134</f>
         <v>29566.96971598683</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -14323,7 +14414,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="29">
-        <f>K133/K62</f>
+        <f>K134/K62</f>
         <v>144.72637159981559</v>
       </c>
       <c r="BL62" s="29">
@@ -21275,352 +21366,456 @@
       <c r="BG130" s="81"/>
       <c r="BH130" s="81"/>
     </row>
-    <row r="131" spans="1:62" s="93" customFormat="1" ht="21" customHeight="1">
-      <c r="A131" s="90"/>
-      <c r="B131" s="91" t="s">
+    <row r="131" spans="1:62" s="92" customFormat="1" ht="21" customHeight="1">
+      <c r="A131" s="89"/>
+      <c r="B131" s="90" t="s">
         <v>345</v>
       </c>
-      <c r="C131" s="91">
+      <c r="C131" s="90">
         <v>27</v>
       </c>
-      <c r="D131" s="92">
+      <c r="D131" s="91">
         <v>26628</v>
       </c>
-      <c r="E131" s="91">
+      <c r="E131" s="90">
         <v>26507</v>
       </c>
-      <c r="F131" s="91">
+      <c r="F131" s="90">
         <v>26561</v>
       </c>
-      <c r="G131" s="91">
+      <c r="G131" s="90">
         <v>8861800</v>
       </c>
-      <c r="H131" s="91">
+      <c r="H131" s="90">
         <v>31295</v>
       </c>
-      <c r="I131" s="91">
+      <c r="I131" s="90">
         <v>31039</v>
       </c>
-      <c r="J131" s="91">
+      <c r="J131" s="90">
         <v>31112</v>
       </c>
-      <c r="K131" s="91">
+      <c r="K131" s="90">
         <v>1048900</v>
       </c>
-      <c r="L131" s="91">
+      <c r="L131" s="90">
         <f t="shared" si="19"/>
         <v>235378269800</v>
       </c>
-      <c r="M131" s="91">
+      <c r="M131" s="90">
         <f t="shared" si="20"/>
         <v>32633376800</v>
       </c>
-      <c r="N131" s="93">
+      <c r="N131" s="92">
         <v>26772</v>
       </c>
-      <c r="O131" s="93">
+      <c r="O131" s="92">
         <v>31349</v>
       </c>
-      <c r="P131" s="93">
+      <c r="P131" s="92">
         <v>26894</v>
       </c>
-      <c r="Q131" s="93">
+      <c r="Q131" s="92">
         <v>31608</v>
       </c>
-      <c r="R131" s="91"/>
-      <c r="S131" s="91"/>
-      <c r="T131" s="91"/>
-      <c r="U131" s="91"/>
-      <c r="V131" s="93">
+      <c r="R131" s="90"/>
+      <c r="S131" s="90"/>
+      <c r="T131" s="90"/>
+      <c r="U131" s="90"/>
+      <c r="V131" s="92">
         <v>27470</v>
       </c>
-      <c r="X131" s="93">
+      <c r="X131" s="92">
         <v>27600</v>
       </c>
-      <c r="Y131" s="93">
+      <c r="Y131" s="92">
         <v>32263</v>
       </c>
-      <c r="Z131" s="91"/>
-      <c r="AA131" s="91"/>
-      <c r="AB131" s="91"/>
-      <c r="AC131" s="91"/>
-      <c r="AD131" s="91"/>
-      <c r="AE131" s="91"/>
-      <c r="AF131" s="91"/>
-      <c r="AG131" s="91"/>
-      <c r="AH131" s="91"/>
-      <c r="AI131" s="91"/>
-      <c r="AJ131" s="91"/>
-      <c r="AK131" s="91"/>
-      <c r="AL131" s="91"/>
-      <c r="AM131" s="91"/>
-      <c r="AN131" s="91"/>
-      <c r="AO131" s="91"/>
-      <c r="AP131" s="91"/>
-      <c r="AQ131" s="91"/>
-      <c r="AR131" s="91"/>
-      <c r="AS131" s="92"/>
-      <c r="AT131" s="92"/>
-      <c r="AU131" s="92"/>
-      <c r="AV131" s="92"/>
-      <c r="AW131" s="92"/>
-      <c r="AX131" s="92"/>
-      <c r="AY131" s="91"/>
-      <c r="AZ131" s="91"/>
-      <c r="BA131" s="91"/>
-      <c r="BB131" s="91"/>
-      <c r="BC131" s="91"/>
-      <c r="BE131" s="94"/>
-      <c r="BF131" s="94"/>
-      <c r="BG131" s="94"/>
-      <c r="BH131" s="94"/>
-    </row>
-    <row r="132" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
-      <c r="A132" s="83"/>
-      <c r="B132" s="84" t="s">
+      <c r="Z131" s="90"/>
+      <c r="AA131" s="90"/>
+      <c r="AB131" s="90"/>
+      <c r="AC131" s="90"/>
+      <c r="AD131" s="90"/>
+      <c r="AE131" s="90"/>
+      <c r="AF131" s="90"/>
+      <c r="AG131" s="90"/>
+      <c r="AH131" s="90"/>
+      <c r="AI131" s="90"/>
+      <c r="AJ131" s="90"/>
+      <c r="AK131" s="90"/>
+      <c r="AL131" s="90"/>
+      <c r="AM131" s="90"/>
+      <c r="AN131" s="90"/>
+      <c r="AO131" s="90"/>
+      <c r="AP131" s="90"/>
+      <c r="AQ131" s="90"/>
+      <c r="AR131" s="90"/>
+      <c r="AS131" s="91"/>
+      <c r="AT131" s="91"/>
+      <c r="AU131" s="91"/>
+      <c r="AV131" s="91"/>
+      <c r="AW131" s="91"/>
+      <c r="AX131" s="91"/>
+      <c r="AY131" s="90"/>
+      <c r="AZ131" s="90"/>
+      <c r="BA131" s="90"/>
+      <c r="BB131" s="90"/>
+      <c r="BC131" s="90"/>
+      <c r="BE131" s="93"/>
+      <c r="BF131" s="93"/>
+      <c r="BG131" s="93"/>
+      <c r="BH131" s="93"/>
+    </row>
+    <row r="132" spans="1:62" s="92" customFormat="1" ht="21" customHeight="1">
+      <c r="A132" s="89"/>
+      <c r="B132" s="90" t="s">
         <v>347</v>
       </c>
-      <c r="C132" s="84">
+      <c r="C132" s="90">
         <v>28</v>
       </c>
-      <c r="D132" s="85">
+      <c r="D132" s="91">
         <v>26507</v>
       </c>
-      <c r="E132" s="84">
+      <c r="E132" s="90">
         <v>26395</v>
       </c>
-      <c r="F132" s="84">
+      <c r="F132" s="90">
         <v>26391</v>
       </c>
-      <c r="G132" s="84">
+      <c r="G132" s="90">
         <v>8230700</v>
       </c>
-      <c r="H132" s="84">
+      <c r="H132" s="90">
         <v>31039</v>
       </c>
-      <c r="I132" s="84">
+      <c r="I132" s="90">
         <v>31069</v>
       </c>
-      <c r="J132" s="84">
+      <c r="J132" s="90">
         <v>31097</v>
       </c>
-      <c r="K132" s="84">
+      <c r="K132" s="90">
         <v>482400</v>
       </c>
-      <c r="L132" s="91">
+      <c r="L132" s="90">
         <f t="shared" si="19"/>
         <v>217216403700</v>
       </c>
-      <c r="M132" s="91">
+      <c r="M132" s="90">
         <f t="shared" si="20"/>
         <v>15001192800</v>
       </c>
-      <c r="N132" s="86">
+      <c r="N132" s="92">
         <v>26659</v>
       </c>
-      <c r="O132" s="86">
+      <c r="O132" s="92">
         <v>31380</v>
       </c>
-      <c r="P132" s="86">
+      <c r="P132" s="92">
         <v>26772</v>
       </c>
-      <c r="Q132" s="86">
+      <c r="Q132" s="92">
         <v>31349</v>
       </c>
-      <c r="R132" s="84"/>
-      <c r="S132" s="84"/>
-      <c r="T132" s="84"/>
-      <c r="U132" s="84"/>
-      <c r="V132" s="86">
+      <c r="R132" s="90"/>
+      <c r="S132" s="90"/>
+      <c r="T132" s="90"/>
+      <c r="U132" s="90"/>
+      <c r="V132" s="92">
         <v>27300</v>
       </c>
-      <c r="X132" s="86">
+      <c r="X132" s="92">
         <v>27340</v>
       </c>
-      <c r="Y132" s="86">
+      <c r="Y132" s="92">
         <v>32028</v>
       </c>
-      <c r="Z132" s="84"/>
-      <c r="AA132" s="84"/>
-      <c r="AB132" s="84"/>
-      <c r="AC132" s="84"/>
-      <c r="AD132" s="84"/>
-      <c r="AE132" s="84"/>
-      <c r="AF132" s="84"/>
-      <c r="AG132" s="84"/>
-      <c r="AH132" s="84"/>
-      <c r="AI132" s="84"/>
-      <c r="AJ132" s="84"/>
-      <c r="AK132" s="84"/>
-      <c r="AL132" s="84"/>
-      <c r="AM132" s="84"/>
-      <c r="AN132" s="84"/>
-      <c r="AO132" s="84"/>
-      <c r="AP132" s="84"/>
-      <c r="AQ132" s="84"/>
-      <c r="AR132" s="84"/>
-      <c r="AS132" s="85"/>
-      <c r="AT132" s="85"/>
-      <c r="AU132" s="85"/>
-      <c r="AV132" s="85"/>
-      <c r="AW132" s="85"/>
-      <c r="AX132" s="85"/>
-      <c r="AY132" s="84"/>
-      <c r="AZ132" s="84"/>
-      <c r="BA132" s="84"/>
-      <c r="BB132" s="84"/>
-      <c r="BC132" s="84"/>
-      <c r="BE132" s="87"/>
-      <c r="BF132" s="87"/>
-      <c r="BG132" s="87"/>
-      <c r="BH132" s="87"/>
-    </row>
-    <row r="133" spans="1:62" ht="18">
-      <c r="A133" s="8"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9">
-        <f>SUM(G2:G132)/131</f>
-        <v>5984860.2977099232</v>
-      </c>
-      <c r="H133" s="9"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="9">
+      <c r="Z132" s="90"/>
+      <c r="AA132" s="90"/>
+      <c r="AB132" s="90"/>
+      <c r="AC132" s="90"/>
+      <c r="AD132" s="90"/>
+      <c r="AE132" s="90"/>
+      <c r="AF132" s="90"/>
+      <c r="AG132" s="90"/>
+      <c r="AH132" s="90"/>
+      <c r="AI132" s="90"/>
+      <c r="AJ132" s="90"/>
+      <c r="AK132" s="90"/>
+      <c r="AL132" s="90"/>
+      <c r="AM132" s="90"/>
+      <c r="AN132" s="90"/>
+      <c r="AO132" s="90"/>
+      <c r="AP132" s="90"/>
+      <c r="AQ132" s="90"/>
+      <c r="AR132" s="90"/>
+      <c r="AS132" s="91"/>
+      <c r="AT132" s="91"/>
+      <c r="AU132" s="91"/>
+      <c r="AV132" s="91"/>
+      <c r="AW132" s="91"/>
+      <c r="AX132" s="91"/>
+      <c r="AY132" s="90"/>
+      <c r="AZ132" s="90"/>
+      <c r="BA132" s="90"/>
+      <c r="BB132" s="90"/>
+      <c r="BC132" s="90"/>
+      <c r="BE132" s="93"/>
+      <c r="BF132" s="93"/>
+      <c r="BG132" s="93"/>
+      <c r="BH132" s="93"/>
+    </row>
+    <row r="133" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
+      <c r="A133" s="83"/>
+      <c r="B133" s="94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C133" s="84">
+        <v>29</v>
+      </c>
+      <c r="D133" s="85">
+        <v>26376</v>
+      </c>
+      <c r="E133" s="84">
+        <v>26232</v>
+      </c>
+      <c r="F133" s="84">
+        <v>26276</v>
+      </c>
+      <c r="G133" s="84">
+        <v>8995300</v>
+      </c>
+      <c r="H133" s="84">
+        <v>31069</v>
+      </c>
+      <c r="I133" s="84">
+        <v>31447</v>
+      </c>
+      <c r="J133" s="84">
+        <v>31304</v>
+      </c>
+      <c r="K133" s="84">
+        <v>356800</v>
+      </c>
+      <c r="L133" s="90"/>
+      <c r="M133" s="90"/>
+      <c r="N133" s="86">
+        <v>26494</v>
+      </c>
+      <c r="O133" s="86">
+        <v>31761</v>
+      </c>
+      <c r="P133" s="86">
+        <v>26639</v>
+      </c>
+      <c r="Q133" s="86">
+        <v>31380</v>
+      </c>
+      <c r="R133" s="84"/>
+      <c r="S133" s="84"/>
+      <c r="T133" s="84"/>
+      <c r="U133" s="84"/>
+      <c r="V133" s="86">
+        <v>27400</v>
+      </c>
+      <c r="X133" s="86">
+        <v>27380</v>
+      </c>
+      <c r="Y133" s="86">
+        <v>32093</v>
+      </c>
+      <c r="Z133" s="84"/>
+      <c r="AA133" s="84"/>
+      <c r="AB133" s="84"/>
+      <c r="AC133" s="84"/>
+      <c r="AD133" s="84"/>
+      <c r="AE133" s="84"/>
+      <c r="AF133" s="84"/>
+      <c r="AG133" s="84"/>
+      <c r="AH133" s="84"/>
+      <c r="AI133" s="84"/>
+      <c r="AJ133" s="84"/>
+      <c r="AK133" s="84"/>
+      <c r="AL133" s="84"/>
+      <c r="AM133" s="84"/>
+      <c r="AN133" s="84"/>
+      <c r="AO133" s="84"/>
+      <c r="AP133" s="84"/>
+      <c r="AQ133" s="84"/>
+      <c r="AR133" s="84"/>
+      <c r="AS133" s="85"/>
+      <c r="AT133" s="85"/>
+      <c r="AU133" s="85"/>
+      <c r="AV133" s="85"/>
+      <c r="AW133" s="85"/>
+      <c r="AX133" s="85"/>
+      <c r="AY133" s="84"/>
+      <c r="AZ133" s="84"/>
+      <c r="BA133" s="84"/>
+      <c r="BB133" s="84"/>
+      <c r="BC133" s="84"/>
+      <c r="BE133" s="87"/>
+      <c r="BF133" s="87"/>
+      <c r="BG133" s="87"/>
+      <c r="BH133" s="87"/>
+    </row>
+    <row r="134" spans="1:62" ht="18">
+      <c r="A134" s="8"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="9">
+        <f>SUM(G2:G133)/132</f>
+        <v>6007666.6590909092</v>
+      </c>
+      <c r="H134" s="9"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9">
         <f>SUM(K2:K126)</f>
         <v>125564600</v>
       </c>
-      <c r="L133" s="9">
+      <c r="L134" s="9">
         <f>SUM(L2:L132)</f>
         <v>19007583899709</v>
       </c>
-      <c r="M133" s="10">
+      <c r="M134" s="10">
         <f>SUM(M2:M132)</f>
         <v>3712564725600</v>
       </c>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="10"/>
-      <c r="V133" s="60"/>
-      <c r="W133" s="10"/>
-      <c r="Y133" s="10"/>
-      <c r="Z133" s="10"/>
-      <c r="AA133" s="10"/>
-      <c r="AB133" s="10"/>
-      <c r="AC133" s="10"/>
-      <c r="AD133" s="10"/>
-      <c r="AE133" s="10"/>
-      <c r="AF133" s="10"/>
-      <c r="AG133" s="10"/>
-      <c r="AH133" s="10"/>
-      <c r="AI133" s="10"/>
-      <c r="AJ133" s="10"/>
-      <c r="AK133" s="10"/>
-      <c r="AL133" s="10"/>
-      <c r="AM133" s="10"/>
-      <c r="AN133" s="10"/>
-      <c r="AO133" s="10"/>
-      <c r="AP133" s="10"/>
-      <c r="AQ133" s="10"/>
-      <c r="AR133" s="10"/>
-      <c r="AY133" s="10"/>
-      <c r="AZ133" s="10"/>
-      <c r="BA133" s="10"/>
-      <c r="BB133" s="10"/>
-      <c r="BC133" s="10"/>
-      <c r="BD133" s="10"/>
-      <c r="BE133" s="11"/>
-      <c r="BF133" s="11"/>
-      <c r="BG133" s="11"/>
-      <c r="BH133" s="11"/>
-      <c r="BI133" t="e">
-        <f>#REF!-N133</f>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="60">
+        <v>27410</v>
+      </c>
+      <c r="W134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="10"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="10"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AI134" s="10"/>
+      <c r="AJ134" s="10"/>
+      <c r="AK134" s="10"/>
+      <c r="AL134" s="10"/>
+      <c r="AM134" s="10"/>
+      <c r="AN134" s="10"/>
+      <c r="AO134" s="10"/>
+      <c r="AP134" s="10"/>
+      <c r="AQ134" s="10"/>
+      <c r="AR134" s="10"/>
+      <c r="AY134" s="10"/>
+      <c r="AZ134" s="10"/>
+      <c r="BA134" s="10"/>
+      <c r="BB134" s="10"/>
+      <c r="BC134" s="10"/>
+      <c r="BD134" s="10"/>
+      <c r="BE134" s="11"/>
+      <c r="BF134" s="11"/>
+      <c r="BG134" s="11"/>
+      <c r="BH134" s="11"/>
+      <c r="BI134" t="e">
+        <f>#REF!-N134</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ133" t="e">
-        <f>(Y133-O133)/O133</f>
+      <c r="BJ134" t="e">
+        <f>(Y134-O134)/O134</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="134" spans="1:62" ht="18">
-      <c r="D134" s="27"/>
-      <c r="V134" s="66"/>
-      <c r="Z134" s="26"/>
-      <c r="AB134" s="26"/>
-      <c r="AS134" s="26"/>
-      <c r="AW134" s="31"/>
     </row>
     <row r="135" spans="1:62" ht="18">
       <c r="D135" s="27"/>
+      <c r="V135" s="66">
+        <v>27380</v>
+      </c>
       <c r="Z135" s="26"/>
-      <c r="AS135" s="27"/>
+      <c r="AB135" s="26"/>
+      <c r="AS135" s="26"/>
       <c r="AW135" s="31"/>
-      <c r="AY135">
+    </row>
+    <row r="136" spans="1:62" ht="18">
+      <c r="D136" s="27"/>
+      <c r="V136">
+        <v>27360</v>
+      </c>
+      <c r="Z136" s="26"/>
+      <c r="AS136" s="27"/>
+      <c r="AW136" s="31"/>
+      <c r="AY136">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="136" spans="1:62" ht="18">
-      <c r="G136">
-        <f>(G132-G133)/G133</f>
-        <v>0.37525348806377923</v>
-      </c>
-      <c r="Z136" s="26"/>
-      <c r="AS136" s="27">
+    <row r="137" spans="1:62" ht="18">
+      <c r="V137">
+        <v>27370</v>
+      </c>
+      <c r="Z137" s="26"/>
+      <c r="AS137" s="27">
         <v>10290000</v>
       </c>
-      <c r="AW136" s="31"/>
-      <c r="BB136">
+      <c r="AW137" s="31"/>
+      <c r="BB137">
         <f>AY60-AY59</f>
         <v>70000</v>
       </c>
     </row>
-    <row r="137" spans="1:62" ht="18">
-      <c r="V137" s="26"/>
-      <c r="Z137" s="26"/>
-      <c r="AS137" s="27"/>
-      <c r="AU137">
-        <f>AS136-AS49</f>
+    <row r="138" spans="1:62" ht="18">
+      <c r="G138">
+        <f>(G133-G134)/G134</f>
+        <v>0.49730344748541438</v>
+      </c>
+      <c r="V138" s="26"/>
+      <c r="Z138" s="26"/>
+      <c r="AS138" s="27"/>
+      <c r="AU138">
+        <f>AS137-AS49</f>
         <v>195000</v>
       </c>
-      <c r="AW137" s="31">
+      <c r="AW138" s="31">
         <f>AC52-AY51</f>
         <v>305000</v>
       </c>
     </row>
-    <row r="138" spans="1:62" ht="18">
-      <c r="V138" s="26"/>
-      <c r="Z138" s="26"/>
-      <c r="AW138" s="31"/>
-    </row>
-    <row r="139" spans="1:62" ht="17.25" customHeight="1">
+    <row r="139" spans="1:62" ht="18">
       <c r="V139" s="26"/>
       <c r="Z139" s="26"/>
-    </row>
-    <row r="140" spans="1:62" ht="18">
+      <c r="AW139" s="31"/>
+    </row>
+    <row r="140" spans="1:62" ht="17.25" customHeight="1">
       <c r="V140" s="26"/>
       <c r="Z140" s="26"/>
-      <c r="AW140">
-        <f>AW137/AY51</f>
-        <v>2.9539951573849879E-2</v>
-      </c>
     </row>
     <row r="141" spans="1:62" ht="18">
       <c r="V141" s="26"/>
+      <c r="Z141" s="26"/>
+      <c r="AW141">
+        <f>AW138/AY51</f>
+        <v>2.9539951573849879E-2</v>
+      </c>
     </row>
     <row r="142" spans="1:62" ht="18">
       <c r="V142" s="26"/>
     </row>
+    <row r="143" spans="1:62" ht="18">
+      <c r="V143" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL137"/>
+  <autoFilter ref="A1:BL138"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -21630,7 +21825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
@@ -22625,10 +22820,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K805"/>
+  <dimension ref="A1:K822"/>
   <sheetViews>
-    <sheetView topLeftCell="A785" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C801" sqref="C801"/>
+    <sheetView topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C820" sqref="C820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -22642,12 +22837,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -22768,12 +22963,12 @@
       <c r="D10" s="72"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
@@ -22893,12 +23088,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
@@ -23013,12 +23208,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="89"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="89"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
@@ -23133,12 +23328,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="89" t="s">
+      <c r="A41" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="89"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
@@ -23253,12 +23448,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="95" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -23381,12 +23576,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11" t="s">
@@ -23501,12 +23696,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="89" t="s">
+      <c r="A71" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="89"/>
-      <c r="C71" s="89"/>
-      <c r="D71" s="89"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="95"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
@@ -23621,12 +23816,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="89" t="s">
+      <c r="A81" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="89"/>
-      <c r="C81" s="89"/>
-      <c r="D81" s="89"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="95"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="11" t="s">
@@ -23763,12 +23958,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="89" t="s">
+      <c r="A93" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="95"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="11" t="s">
@@ -23883,12 +24078,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="89" t="s">
+      <c r="A103" s="95" t="s">
         <v>251</v>
       </c>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
@@ -24006,12 +24201,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="89" t="s">
+      <c r="A113" s="95" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="89"/>
-      <c r="C113" s="89"/>
-      <c r="D113" s="89"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="95"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="11" t="s">
@@ -24130,12 +24325,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="89" t="s">
+      <c r="A123" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="89"/>
-      <c r="C123" s="89"/>
-      <c r="D123" s="89"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="95"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="11" t="s">
@@ -24250,12 +24445,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="89" t="s">
+      <c r="A133" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="B133" s="89"/>
-      <c r="C133" s="89"/>
-      <c r="D133" s="89"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="95"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="11" t="s">
@@ -24370,12 +24565,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="89" t="s">
+      <c r="A143" s="95" t="s">
         <v>256</v>
       </c>
-      <c r="B143" s="89"/>
-      <c r="C143" s="89"/>
-      <c r="D143" s="89"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="95"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="11" t="s">
@@ -24490,12 +24685,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="89" t="s">
+      <c r="A153" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="89"/>
-      <c r="C153" s="89"/>
-      <c r="D153" s="89"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="95"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="11" t="s">
@@ -24620,12 +24815,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="89" t="s">
+      <c r="A163" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="B163" s="89"/>
-      <c r="C163" s="89"/>
-      <c r="D163" s="89"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="95"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="11" t="s">
@@ -24740,12 +24935,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="89" t="s">
+      <c r="A173" s="95" t="s">
         <v>260</v>
       </c>
-      <c r="B173" s="89"/>
-      <c r="C173" s="89"/>
-      <c r="D173" s="89"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="11" t="s">
@@ -24879,12 +25074,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="89" t="s">
+      <c r="A183" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="89"/>
-      <c r="C183" s="89"/>
-      <c r="D183" s="89"/>
+      <c r="B183" s="95"/>
+      <c r="C183" s="95"/>
+      <c r="D183" s="95"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -25006,12 +25201,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="89" t="s">
+      <c r="A193" s="95" t="s">
         <v>262</v>
       </c>
-      <c r="B193" s="89"/>
-      <c r="C193" s="89"/>
-      <c r="D193" s="89"/>
+      <c r="B193" s="95"/>
+      <c r="C193" s="95"/>
+      <c r="D193" s="95"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="11" t="s">
@@ -25126,12 +25321,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="89" t="s">
+      <c r="A203" s="95" t="s">
         <v>263</v>
       </c>
-      <c r="B203" s="89"/>
-      <c r="C203" s="89"/>
-      <c r="D203" s="89"/>
+      <c r="B203" s="95"/>
+      <c r="C203" s="95"/>
+      <c r="D203" s="95"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="11" t="s">
@@ -25246,12 +25441,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="89" t="s">
+      <c r="A213" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="B213" s="89"/>
-      <c r="C213" s="89"/>
-      <c r="D213" s="89"/>
+      <c r="B213" s="95"/>
+      <c r="C213" s="95"/>
+      <c r="D213" s="95"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="11" t="s">
@@ -25366,12 +25561,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="89" t="s">
+      <c r="A223" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="B223" s="89"/>
-      <c r="C223" s="89"/>
-      <c r="D223" s="89"/>
+      <c r="B223" s="95"/>
+      <c r="C223" s="95"/>
+      <c r="D223" s="95"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="11" t="s">
@@ -25486,12 +25681,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="89" t="s">
+      <c r="A233" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="B233" s="89"/>
-      <c r="C233" s="89"/>
-      <c r="D233" s="89"/>
+      <c r="B233" s="95"/>
+      <c r="C233" s="95"/>
+      <c r="D233" s="95"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="11" t="s">
@@ -25607,12 +25802,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="89" t="s">
+      <c r="A243" s="95" t="s">
         <v>267</v>
       </c>
-      <c r="B243" s="89"/>
-      <c r="C243" s="89"/>
-      <c r="D243" s="89"/>
+      <c r="B243" s="95"/>
+      <c r="C243" s="95"/>
+      <c r="D243" s="95"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="11" t="s">
@@ -25730,12 +25925,12 @@
       <c r="D252" s="73"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="89" t="s">
+      <c r="A253" s="95" t="s">
         <v>268</v>
       </c>
-      <c r="B253" s="89"/>
-      <c r="C253" s="89"/>
-      <c r="D253" s="89"/>
+      <c r="B253" s="95"/>
+      <c r="C253" s="95"/>
+      <c r="D253" s="95"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="11" t="s">
@@ -25850,12 +26045,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="89" t="s">
+      <c r="A263" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="89"/>
-      <c r="C263" s="89"/>
-      <c r="D263" s="89"/>
+      <c r="B263" s="95"/>
+      <c r="C263" s="95"/>
+      <c r="D263" s="95"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="11" t="s">
@@ -25970,12 +26165,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="89" t="s">
+      <c r="A273" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="89"/>
-      <c r="C273" s="89"/>
-      <c r="D273" s="89"/>
+      <c r="B273" s="95"/>
+      <c r="C273" s="95"/>
+      <c r="D273" s="95"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="11" t="s">
@@ -26090,12 +26285,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="89" t="s">
+      <c r="A283" s="95" t="s">
         <v>271</v>
       </c>
-      <c r="B283" s="89"/>
-      <c r="C283" s="89"/>
-      <c r="D283" s="89"/>
+      <c r="B283" s="95"/>
+      <c r="C283" s="95"/>
+      <c r="D283" s="95"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="11" t="s">
@@ -26210,12 +26405,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="89" t="s">
+      <c r="A293" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="B293" s="89"/>
-      <c r="C293" s="89"/>
-      <c r="D293" s="89"/>
+      <c r="B293" s="95"/>
+      <c r="C293" s="95"/>
+      <c r="D293" s="95"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
@@ -26334,12 +26529,12 @@
       <c r="F301" s="74"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="89" t="s">
+      <c r="A303" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="B303" s="89"/>
-      <c r="C303" s="89"/>
-      <c r="D303" s="89"/>
+      <c r="B303" s="95"/>
+      <c r="C303" s="95"/>
+      <c r="D303" s="95"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
@@ -26424,12 +26619,12 @@
       <c r="D311" s="11"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="89" t="s">
+      <c r="A313" s="95" t="s">
         <v>277</v>
       </c>
-      <c r="B313" s="89"/>
-      <c r="C313" s="89"/>
-      <c r="D313" s="89"/>
+      <c r="B313" s="95"/>
+      <c r="C313" s="95"/>
+      <c r="D313" s="95"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
@@ -26522,12 +26717,12 @@
       <c r="D321" s="11"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="89" t="s">
+      <c r="A324" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="B324" s="89"/>
-      <c r="C324" s="89"/>
-      <c r="D324" s="89"/>
+      <c r="B324" s="95"/>
+      <c r="C324" s="95"/>
+      <c r="D324" s="95"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
@@ -26612,12 +26807,12 @@
       <c r="D332" s="11"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="89" t="s">
+      <c r="A335" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="B335" s="89"/>
-      <c r="C335" s="89"/>
-      <c r="D335" s="89"/>
+      <c r="B335" s="95"/>
+      <c r="C335" s="95"/>
+      <c r="D335" s="95"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
@@ -26732,12 +26927,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="89" t="s">
+      <c r="A346" s="95" t="s">
         <v>285</v>
       </c>
-      <c r="B346" s="89"/>
-      <c r="C346" s="89"/>
-      <c r="D346" s="89"/>
+      <c r="B346" s="95"/>
+      <c r="C346" s="95"/>
+      <c r="D346" s="95"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="11" t="s">
@@ -26852,12 +27047,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="89" t="s">
+      <c r="A357" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="B357" s="89"/>
-      <c r="C357" s="89"/>
-      <c r="D357" s="89"/>
+      <c r="B357" s="95"/>
+      <c r="C357" s="95"/>
+      <c r="D357" s="95"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="11" t="s">
@@ -26972,12 +27167,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="89" t="s">
+      <c r="A368" s="95" t="s">
         <v>287</v>
       </c>
-      <c r="B368" s="89"/>
-      <c r="C368" s="89"/>
-      <c r="D368" s="89"/>
+      <c r="B368" s="95"/>
+      <c r="C368" s="95"/>
+      <c r="D368" s="95"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="11" t="s">
@@ -27096,12 +27291,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="89" t="s">
+      <c r="A379" s="95" t="s">
         <v>288</v>
       </c>
-      <c r="B379" s="89"/>
-      <c r="C379" s="89"/>
-      <c r="D379" s="89"/>
+      <c r="B379" s="95"/>
+      <c r="C379" s="95"/>
+      <c r="D379" s="95"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="11" t="s">
@@ -27216,12 +27411,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="89" t="s">
+      <c r="A390" s="95" t="s">
         <v>289</v>
       </c>
-      <c r="B390" s="89"/>
-      <c r="C390" s="89"/>
-      <c r="D390" s="89"/>
+      <c r="B390" s="95"/>
+      <c r="C390" s="95"/>
+      <c r="D390" s="95"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="11" t="s">
@@ -27336,12 +27531,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="89" t="s">
+      <c r="A401" s="95" t="s">
         <v>290</v>
       </c>
-      <c r="B401" s="89"/>
-      <c r="C401" s="89"/>
-      <c r="D401" s="89"/>
+      <c r="B401" s="95"/>
+      <c r="C401" s="95"/>
+      <c r="D401" s="95"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="11" t="s">
@@ -27456,12 +27651,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="89" t="s">
+      <c r="A412" s="95" t="s">
         <v>291</v>
       </c>
-      <c r="B412" s="89"/>
-      <c r="C412" s="89"/>
-      <c r="D412" s="89"/>
+      <c r="B412" s="95"/>
+      <c r="C412" s="95"/>
+      <c r="D412" s="95"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="11" t="s">
@@ -27576,12 +27771,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="89" t="s">
+      <c r="A423" s="95" t="s">
         <v>292</v>
       </c>
-      <c r="B423" s="89"/>
-      <c r="C423" s="89"/>
-      <c r="D423" s="89"/>
+      <c r="B423" s="95"/>
+      <c r="C423" s="95"/>
+      <c r="D423" s="95"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="11" t="s">
@@ -27672,12 +27867,12 @@
       <c r="D431" s="11"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="89" t="s">
+      <c r="A434" s="95" t="s">
         <v>296</v>
       </c>
-      <c r="B434" s="89"/>
-      <c r="C434" s="89"/>
-      <c r="D434" s="89"/>
+      <c r="B434" s="95"/>
+      <c r="C434" s="95"/>
+      <c r="D434" s="95"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="11" t="s">
@@ -27792,12 +27987,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="89" t="s">
+      <c r="A445" s="95" t="s">
         <v>297</v>
       </c>
-      <c r="B445" s="89"/>
-      <c r="C445" s="89"/>
-      <c r="D445" s="89"/>
+      <c r="B445" s="95"/>
+      <c r="C445" s="95"/>
+      <c r="D445" s="95"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="11" t="s">
@@ -27912,12 +28107,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="89" t="s">
+      <c r="A456" s="95" t="s">
         <v>298</v>
       </c>
-      <c r="B456" s="89"/>
-      <c r="C456" s="89"/>
-      <c r="D456" s="89"/>
+      <c r="B456" s="95"/>
+      <c r="C456" s="95"/>
+      <c r="D456" s="95"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="11" t="s">
@@ -28032,12 +28227,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="89" t="s">
+      <c r="A467" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="B467" s="89"/>
-      <c r="C467" s="89"/>
-      <c r="D467" s="89"/>
+      <c r="B467" s="95"/>
+      <c r="C467" s="95"/>
+      <c r="D467" s="95"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="11" t="s">
@@ -28152,12 +28347,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="89" t="s">
+      <c r="A478" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="B478" s="89"/>
-      <c r="C478" s="89"/>
-      <c r="D478" s="89"/>
+      <c r="B478" s="95"/>
+      <c r="C478" s="95"/>
+      <c r="D478" s="95"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="11" t="s">
@@ -28272,12 +28467,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="89" t="s">
+      <c r="A489" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="B489" s="89"/>
-      <c r="C489" s="89"/>
-      <c r="D489" s="89"/>
+      <c r="B489" s="95"/>
+      <c r="C489" s="95"/>
+      <c r="D489" s="95"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="11" t="s">
@@ -28362,12 +28557,12 @@
       <c r="D497" s="11"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="89" t="s">
+      <c r="A500" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="B500" s="89"/>
-      <c r="C500" s="89"/>
-      <c r="D500" s="89"/>
+      <c r="B500" s="95"/>
+      <c r="C500" s="95"/>
+      <c r="D500" s="95"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="11" t="s">
@@ -28482,12 +28677,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="89" t="s">
+      <c r="A511" s="95" t="s">
         <v>305</v>
       </c>
-      <c r="B511" s="89"/>
-      <c r="C511" s="89"/>
-      <c r="D511" s="89"/>
+      <c r="B511" s="95"/>
+      <c r="C511" s="95"/>
+      <c r="D511" s="95"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="11" t="s">
@@ -28602,12 +28797,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="89" t="s">
+      <c r="A522" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="B522" s="89"/>
-      <c r="C522" s="89"/>
-      <c r="D522" s="89"/>
+      <c r="B522" s="95"/>
+      <c r="C522" s="95"/>
+      <c r="D522" s="95"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="11" t="s">
@@ -28722,12 +28917,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="89" t="s">
+      <c r="A533" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="B533" s="89"/>
-      <c r="C533" s="89"/>
-      <c r="D533" s="89"/>
+      <c r="B533" s="95"/>
+      <c r="C533" s="95"/>
+      <c r="D533" s="95"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="11" t="s">
@@ -28842,12 +29037,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="89" t="s">
+      <c r="A544" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="B544" s="89"/>
-      <c r="C544" s="89"/>
-      <c r="D544" s="89"/>
+      <c r="B544" s="95"/>
+      <c r="C544" s="95"/>
+      <c r="D544" s="95"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="11" t="s">
@@ -28962,12 +29157,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="89" t="s">
+      <c r="A555" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="B555" s="89"/>
-      <c r="C555" s="89"/>
-      <c r="D555" s="89"/>
+      <c r="B555" s="95"/>
+      <c r="C555" s="95"/>
+      <c r="D555" s="95"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="11" t="s">
@@ -29124,12 +29319,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="89" t="s">
+      <c r="A567" s="95" t="s">
         <v>309</v>
       </c>
-      <c r="B567" s="89"/>
-      <c r="C567" s="89"/>
-      <c r="D567" s="89"/>
+      <c r="B567" s="95"/>
+      <c r="C567" s="95"/>
+      <c r="D567" s="95"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="11" t="s">
@@ -29228,12 +29423,12 @@
       <c r="D575" s="11"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="89" t="s">
+      <c r="A579" s="95" t="s">
         <v>314</v>
       </c>
-      <c r="B579" s="89"/>
-      <c r="C579" s="89"/>
-      <c r="D579" s="89"/>
+      <c r="B579" s="95"/>
+      <c r="C579" s="95"/>
+      <c r="D579" s="95"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="11" t="s">
@@ -29350,12 +29545,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="89" t="s">
+      <c r="A590" s="95" t="s">
         <v>315</v>
       </c>
-      <c r="B590" s="89"/>
-      <c r="C590" s="89"/>
-      <c r="D590" s="89"/>
+      <c r="B590" s="95"/>
+      <c r="C590" s="95"/>
+      <c r="D590" s="95"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="11" t="s">
@@ -29472,12 +29667,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="89" t="s">
+      <c r="A601" s="95" t="s">
         <v>316</v>
       </c>
-      <c r="B601" s="89"/>
-      <c r="C601" s="89"/>
-      <c r="D601" s="89"/>
+      <c r="B601" s="95"/>
+      <c r="C601" s="95"/>
+      <c r="D601" s="95"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="11" t="s">
@@ -29592,12 +29787,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="89" t="s">
+      <c r="A612" s="95" t="s">
         <v>317</v>
       </c>
-      <c r="B612" s="89"/>
-      <c r="C612" s="89"/>
-      <c r="D612" s="89"/>
+      <c r="B612" s="95"/>
+      <c r="C612" s="95"/>
+      <c r="D612" s="95"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="11" t="s">
@@ -29712,12 +29907,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="89" t="s">
+      <c r="A623" s="95" t="s">
         <v>318</v>
       </c>
-      <c r="B623" s="89"/>
-      <c r="C623" s="89"/>
-      <c r="D623" s="89"/>
+      <c r="B623" s="95"/>
+      <c r="C623" s="95"/>
+      <c r="D623" s="95"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="11" t="s">
@@ -29832,12 +30027,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="89" t="s">
+      <c r="A635" s="95" t="s">
         <v>319</v>
       </c>
-      <c r="B635" s="89"/>
-      <c r="C635" s="89"/>
-      <c r="D635" s="89"/>
+      <c r="B635" s="95"/>
+      <c r="C635" s="95"/>
+      <c r="D635" s="95"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="11" t="s">
@@ -29913,12 +30108,12 @@
       <c r="C643" s="11"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="89" t="s">
+      <c r="A647" s="95" t="s">
         <v>321</v>
       </c>
-      <c r="B647" s="89"/>
-      <c r="C647" s="89"/>
-      <c r="D647" s="89"/>
+      <c r="B647" s="95"/>
+      <c r="C647" s="95"/>
+      <c r="D647" s="95"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="11" t="s">
@@ -30033,12 +30228,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="89" t="s">
+      <c r="A658" s="95" t="s">
         <v>322</v>
       </c>
-      <c r="B658" s="89"/>
-      <c r="C658" s="89"/>
-      <c r="D658" s="89"/>
+      <c r="B658" s="95"/>
+      <c r="C658" s="95"/>
+      <c r="D658" s="95"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="11" t="s">
@@ -30153,12 +30348,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="89" t="s">
+      <c r="A670" s="95" t="s">
         <v>323</v>
       </c>
-      <c r="B670" s="89"/>
-      <c r="C670" s="89"/>
-      <c r="D670" s="89"/>
+      <c r="B670" s="95"/>
+      <c r="C670" s="95"/>
+      <c r="D670" s="95"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="11" t="s">
@@ -30273,12 +30468,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="89" t="s">
+      <c r="A681" s="95" t="s">
         <v>324</v>
       </c>
-      <c r="B681" s="89"/>
-      <c r="C681" s="89"/>
-      <c r="D681" s="89"/>
+      <c r="B681" s="95"/>
+      <c r="C681" s="95"/>
+      <c r="D681" s="95"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="11" t="s">
@@ -30393,12 +30588,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="89" t="s">
+      <c r="A692" s="95" t="s">
         <v>325</v>
       </c>
-      <c r="B692" s="89"/>
-      <c r="C692" s="89"/>
-      <c r="D692" s="89"/>
+      <c r="B692" s="95"/>
+      <c r="C692" s="95"/>
+      <c r="D692" s="95"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="11" t="s">
@@ -30513,12 +30708,12 @@
       </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="89" t="s">
+      <c r="A703" s="95" t="s">
         <v>326</v>
       </c>
-      <c r="B703" s="89"/>
-      <c r="C703" s="89"/>
-      <c r="D703" s="89"/>
+      <c r="B703" s="95"/>
+      <c r="C703" s="95"/>
+      <c r="D703" s="95"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="11" t="s">
@@ -30604,12 +30799,12 @@
       <c r="C711" s="11"/>
     </row>
     <row r="715" spans="1:6">
-      <c r="A715" s="89" t="s">
+      <c r="A715" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="B715" s="89"/>
-      <c r="C715" s="89"/>
-      <c r="D715" s="89"/>
+      <c r="B715" s="95"/>
+      <c r="C715" s="95"/>
+      <c r="D715" s="95"/>
     </row>
     <row r="716" spans="1:6">
       <c r="A716" s="11" t="s">
@@ -30724,12 +30919,12 @@
       </c>
     </row>
     <row r="726" spans="1:4">
-      <c r="A726" s="89" t="s">
+      <c r="A726" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="B726" s="89"/>
-      <c r="C726" s="89"/>
-      <c r="D726" s="89"/>
+      <c r="B726" s="95"/>
+      <c r="C726" s="95"/>
+      <c r="D726" s="95"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="11" t="s">
@@ -30844,12 +31039,12 @@
       </c>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="89" t="s">
+      <c r="A738" s="95" t="s">
         <v>331</v>
       </c>
-      <c r="B738" s="89"/>
-      <c r="C738" s="89"/>
-      <c r="D738" s="89"/>
+      <c r="B738" s="95"/>
+      <c r="C738" s="95"/>
+      <c r="D738" s="95"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="11" t="s">
@@ -30964,12 +31159,12 @@
       </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="89" t="s">
+      <c r="A749" s="95" t="s">
         <v>332</v>
       </c>
-      <c r="B749" s="89"/>
-      <c r="C749" s="89"/>
-      <c r="D749" s="89"/>
+      <c r="B749" s="95"/>
+      <c r="C749" s="95"/>
+      <c r="D749" s="95"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="11" t="s">
@@ -31084,12 +31279,12 @@
       </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="89" t="s">
+      <c r="A760" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="B760" s="89"/>
-      <c r="C760" s="89"/>
-      <c r="D760" s="89"/>
+      <c r="B760" s="95"/>
+      <c r="C760" s="95"/>
+      <c r="D760" s="95"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="11" t="s">
@@ -31204,12 +31399,12 @@
       </c>
     </row>
     <row r="772" spans="1:6">
-      <c r="A772" s="89" t="s">
+      <c r="A772" s="95" t="s">
         <v>341</v>
       </c>
-      <c r="B772" s="89"/>
-      <c r="C772" s="89"/>
-      <c r="D772" s="89"/>
+      <c r="B772" s="95"/>
+      <c r="C772" s="95"/>
+      <c r="D772" s="95"/>
     </row>
     <row r="773" spans="1:6">
       <c r="A773" s="11" t="s">
@@ -31293,12 +31488,12 @@
       <c r="C780" s="11"/>
     </row>
     <row r="784" spans="1:6">
-      <c r="A784" s="89" t="s">
+      <c r="A784" s="95" t="s">
         <v>344</v>
       </c>
-      <c r="B784" s="89"/>
-      <c r="C784" s="89"/>
-      <c r="D784" s="89"/>
+      <c r="B784" s="95"/>
+      <c r="C784" s="95"/>
+      <c r="D784" s="95"/>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="11" t="s">
@@ -31438,12 +31633,12 @@
       <c r="C795" s="1"/>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="89" t="s">
+      <c r="A796" s="95" t="s">
         <v>346</v>
       </c>
-      <c r="B796" s="89"/>
-      <c r="C796" s="89"/>
-      <c r="D796" s="89"/>
+      <c r="B796" s="95"/>
+      <c r="C796" s="95"/>
+      <c r="D796" s="95"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="11" t="s">
@@ -31564,12 +31759,150 @@
       </c>
     </row>
     <row r="805" spans="1:8">
+      <c r="E805">
+        <f>7470*3.673</f>
+        <v>27437.31</v>
+      </c>
       <c r="H805">
         <v>3.673</v>
       </c>
     </row>
+    <row r="809" spans="1:8">
+      <c r="A809" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="B809" s="95"/>
+      <c r="C809" s="95"/>
+      <c r="D809" s="95"/>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B810" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C810" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D810" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811" s="68">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B811" s="11">
+        <v>27400</v>
+      </c>
+      <c r="C811" s="11">
+        <v>7480</v>
+      </c>
+      <c r="D811" s="1">
+        <v>11730000</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B812" s="11">
+        <v>27380</v>
+      </c>
+      <c r="C812" s="11">
+        <v>7475</v>
+      </c>
+      <c r="D812" s="1">
+        <v>11720000</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B813" s="11">
+        <v>27370</v>
+      </c>
+      <c r="C813" s="11">
+        <v>7470</v>
+      </c>
+      <c r="D813" s="1">
+        <v>11730000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B814" s="11">
+        <v>27380</v>
+      </c>
+      <c r="C814" s="11">
+        <v>7480</v>
+      </c>
+      <c r="D814" s="1">
+        <v>11720000</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815" s="68">
+        <v>0.625</v>
+      </c>
+      <c r="B815" s="11">
+        <v>27380</v>
+      </c>
+      <c r="C815" s="11">
+        <v>7465</v>
+      </c>
+      <c r="D815" s="88">
+        <v>11720000</v>
+      </c>
+      <c r="E815" s="88"/>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B816" s="11">
+        <v>27380</v>
+      </c>
+      <c r="C816" s="11">
+        <v>7465</v>
+      </c>
+      <c r="D816" s="88">
+        <v>11610000</v>
+      </c>
+      <c r="E816" s="88"/>
+    </row>
+    <row r="817" spans="1:5">
+      <c r="A817" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B817" s="11">
+        <v>27380</v>
+      </c>
+      <c r="C817" s="11">
+        <v>7465</v>
+      </c>
+      <c r="D817" s="88">
+        <v>11630000</v>
+      </c>
+      <c r="E817" s="88"/>
+    </row>
+    <row r="821" spans="1:5">
+      <c r="D821">
+        <v>3.673</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5">
+      <c r="D822">
+        <f>C817*D821</f>
+        <v>27418.945</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="76">
     <mergeCell ref="A796:D796"/>
     <mergeCell ref="A749:D749"/>
     <mergeCell ref="A760:D760"/>
@@ -31579,6 +31912,7 @@
     <mergeCell ref="A715:D715"/>
     <mergeCell ref="A726:D726"/>
     <mergeCell ref="A738:D738"/>
+    <mergeCell ref="A784:D784"/>
     <mergeCell ref="A635:D635"/>
     <mergeCell ref="A647:D647"/>
     <mergeCell ref="A658:D658"/>
@@ -31619,17 +31953,6 @@
     <mergeCell ref="A273:D273"/>
     <mergeCell ref="A283:D283"/>
     <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A213:D213"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="A233:D233"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A173:D173"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A784:D784"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A21:D21"/>
@@ -31640,11 +31963,22 @@
     <mergeCell ref="A71:D71"/>
     <mergeCell ref="A81:D81"/>
     <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A809:D809"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A113:D113"/>
     <mergeCell ref="A123:D123"/>
     <mergeCell ref="A133:D133"/>
     <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A213:D213"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="A233:D233"/>
+    <mergeCell ref="A243:D243"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31653,10 +31987,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M72"/>
+  <dimension ref="B1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L73" sqref="L73"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72:H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32643,15 +32977,15 @@
         <v>1045981</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F72" si="3">(C35-C34)*100/C34</f>
+        <f t="shared" ref="F35:F73" si="3">(C35-C34)*100/C34</f>
         <v>-1.0141987829614605</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G72" si="4">(D35-D34)*100/D34</f>
+        <f t="shared" ref="G35:G73" si="4">(D35-D34)*100/D34</f>
         <v>-9.5057034220532313E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H72" si="5">(E35-E34)*100/E34</f>
+        <f t="shared" ref="H35:H73" si="5">(E35-E34)*100/E34</f>
         <v>-0.46135003887406989</v>
       </c>
       <c r="I35">
@@ -33499,7 +33833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:13">
+    <row r="65" spans="2:9">
       <c r="B65">
         <v>14000617</v>
       </c>
@@ -33528,7 +33862,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="66" spans="2:13">
+    <row r="66" spans="2:9">
       <c r="B66">
         <v>14000620</v>
       </c>
@@ -33557,7 +33891,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="2:13">
+    <row r="67" spans="2:9">
       <c r="B67">
         <v>14000621</v>
       </c>
@@ -33586,7 +33920,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="68" spans="2:13">
+    <row r="68" spans="2:9">
       <c r="B68">
         <v>14000622</v>
       </c>
@@ -33615,7 +33949,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="69" spans="2:13">
+    <row r="69" spans="2:9">
       <c r="B69">
         <v>14000623</v>
       </c>
@@ -33644,7 +33978,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="70" spans="2:13">
+    <row r="70" spans="2:9">
       <c r="B70">
         <v>14000624</v>
       </c>
@@ -33673,7 +34007,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:13">
+    <row r="71" spans="2:9">
       <c r="B71">
         <v>14000627</v>
       </c>
@@ -33702,7 +34036,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:13">
+    <row r="72" spans="2:9">
       <c r="B72">
         <v>14000628</v>
       </c>
@@ -33730,17 +34064,34 @@
       <c r="I72">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="J72">
-        <v>-0.94</v>
-      </c>
-      <c r="K72">
-        <v>0.09</v>
-      </c>
-      <c r="L72">
-        <v>-0.12</v>
-      </c>
-      <c r="M72">
-        <v>-2.0499999999999998</v>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73">
+        <v>14000629</v>
+      </c>
+      <c r="C73" s="88">
+        <v>27380</v>
+      </c>
+      <c r="D73">
+        <v>11630000</v>
+      </c>
+      <c r="E73">
+        <v>1128394</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14630577907827358</v>
+      </c>
+      <c r="G73" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.76791808873720135</v>
+      </c>
+      <c r="H73" s="1">
+        <f t="shared" si="5"/>
+        <v>-0.48856459017896986</v>
+      </c>
+      <c r="I73">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="7680" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data set" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$139</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="352">
   <si>
     <t>نرخ ابتدای روز دلار  متشکل</t>
   </si>
@@ -1080,6 +1080,12 @@
   </si>
   <si>
     <t>روند روزانه بهای سکه و ارز  یکشنبه 29 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>30شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز  یکشنبه 30 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1151,7 @@
       <charset val="178"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1218,6 +1224,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1279,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1397,6 +1409,14 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1773,11 +1793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315714032"/>
-        <c:axId val="-1315712944"/>
+        <c:axId val="-1699627616"/>
+        <c:axId val="-1699625440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315714032"/>
+        <c:axId val="-1699627616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1810,7 +1830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315712944"/>
+        <c:crossAx val="-1699625440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,7 +1838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315712944"/>
+        <c:axId val="-1699625440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,7 +1878,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315714032"/>
+        <c:crossAx val="-1699627616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2686,11 +2706,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315708592"/>
-        <c:axId val="-1315717840"/>
+        <c:axId val="-1699633600"/>
+        <c:axId val="-1699634688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315708592"/>
+        <c:axId val="-1699633600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315717840"/>
+        <c:crossAx val="-1699634688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2734,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315717840"/>
+        <c:axId val="-1699634688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28000"/>
@@ -2776,7 +2796,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315708592"/>
+        <c:crossAx val="-1699633600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3604,11 +3624,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315707504"/>
-        <c:axId val="-1315706960"/>
+        <c:axId val="-1699629248"/>
+        <c:axId val="-1699628704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315707504"/>
+        <c:axId val="-1699629248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,7 +3661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315706960"/>
+        <c:crossAx val="-1699628704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3649,7 +3669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315706960"/>
+        <c:axId val="-1699628704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="34000"/>
@@ -3691,7 +3711,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315707504"/>
+        <c:crossAx val="-1699629248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2000"/>
@@ -3902,7 +3922,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4084,11 +4103,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315710224"/>
-        <c:axId val="-1315715120"/>
+        <c:axId val="-1699624896"/>
+        <c:axId val="-1699629792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315710224"/>
+        <c:axId val="-1699624896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,7 +4140,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315715120"/>
+        <c:crossAx val="-1699629792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4129,7 +4148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315715120"/>
+        <c:axId val="-1699629792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,7 +4188,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315710224"/>
+        <c:crossAx val="-1699624896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4560,11 +4579,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315711312"/>
-        <c:axId val="-1315710768"/>
+        <c:axId val="-1699621632"/>
+        <c:axId val="-1699626528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315711312"/>
+        <c:axId val="-1699621632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315710768"/>
+        <c:crossAx val="-1699626528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4605,7 +4624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315710768"/>
+        <c:axId val="-1699626528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4645,7 +4664,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315711312"/>
+        <c:crossAx val="-1699621632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4780,7 +4799,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -4791,9 +4809,7 @@
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A01E-4112-8990-9EBADE87EF32}"/>
                 </c:ext>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4830,7 +4846,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5012,11 +5027,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1315708048"/>
-        <c:axId val="-1315721104"/>
+        <c:axId val="-1699625984"/>
+        <c:axId val="-1699624352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1315708048"/>
+        <c:axId val="-1699625984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5064,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315721104"/>
+        <c:crossAx val="-1699624352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5057,7 +5072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315721104"/>
+        <c:axId val="-1699624352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,7 +5112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315708048"/>
+        <c:crossAx val="-1699625984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5138,7 +5153,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5213,7 +5227,7 @@
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>بازدهی بازارها(دوشنبه 29 شهریور سال 1400)</a:t>
+              <a:t>بازدهی بازارها(سه‌شنبه 30 شهریور سال 1400)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5242,8 +5256,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
@@ -5290,21 +5304,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'price change'!$F$73:$I$73</c:f>
+              <c:f>'price change'!$F$74:$I$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.14630577907827358</c:v>
+                  <c:v>0.58436815193571945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.76791808873720135</c:v>
+                  <c:v>0.17196904557179707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.48856459017896986</c:v>
+                  <c:v>1.0229582929366869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51</c:v>
+                  <c:v>-2.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5321,8 +5335,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1315706416"/>
-        <c:axId val="-1315705872"/>
+        <c:axId val="-1699622176"/>
+        <c:axId val="-1699620000"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -5465,7 +5479,7 @@
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -5491,7 +5505,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$71:$I$71</c15:sqref>
@@ -5539,16 +5553,15 @@
                   <c:showPercent val="0"/>
                   <c:showBubbleSize val="0"/>
                   <c:showLeaderLines val="0"/>
-                  <c:extLst>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                     <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                     </c:ext>
                   </c:extLst>
                 </c:dLbls>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
@@ -5574,7 +5587,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'price change'!$F$72:$I$72</c15:sqref>
@@ -5601,11 +5614,93 @@
                 </c:val>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:dLblPos val="ctr"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$1:$I$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>دلار</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>سکه</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>طلای 18 عیار</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>شاخص کل بورس</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'price change'!$F$73:$I$73</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.14630577907827358</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-0.76791808873720135</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-0.48856459017896986</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.51</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1315706416"/>
+        <c:axId val="-1699622176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5638,7 +5733,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315705872"/>
+        <c:crossAx val="-1699620000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5646,7 +5741,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1315705872"/>
+        <c:axId val="-1699620000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5686,7 +5781,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1315706416"/>
+        <c:crossAx val="-1699622176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5740,7 +5835,7 @@
         <xdr:cNvPr id="2" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5776,7 +5871,7 @@
         <xdr:cNvPr id="3" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5812,7 +5907,7 @@
         <xdr:cNvPr id="4" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5848,7 +5943,7 @@
         <xdr:cNvPr id="5" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5884,7 +5979,7 @@
         <xdr:cNvPr id="6" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5920,7 +6015,7 @@
         <xdr:cNvPr id="7" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5961,7 +6056,7 @@
         <xdr:cNvPr id="6" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6279,9 +6374,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM143"/>
+  <dimension ref="A1:BM144"/>
   <sheetViews>
-    <sheetView topLeftCell="B127" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E127" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
@@ -6369,14 +6464,14 @@
         <v>14</v>
       </c>
       <c r="S1" s="4">
-        <f>L134/G134</f>
-        <v>3163887.9082857207</v>
+        <f>L135/G135</f>
+        <v>3147914.5720291706</v>
       </c>
       <c r="T1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="4">
-        <f>M134/K134</f>
+        <f>M135/K135</f>
         <v>29566.96971598683</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -14414,7 +14509,7 @@
         <v>1.6382373845060413E-2</v>
       </c>
       <c r="BK62" s="29">
-        <f>K134/K62</f>
+        <f>K135/K62</f>
         <v>144.72637159981559</v>
       </c>
       <c r="BL62" s="29">
@@ -18113,11 +18208,11 @@
         <v>1558800</v>
       </c>
       <c r="L98" s="13">
-        <f t="shared" ref="L98:L132" si="19">F98*G98</f>
+        <f t="shared" ref="L98:L134" si="19">F98*G98</f>
         <v>92308365600</v>
       </c>
       <c r="M98" s="13">
-        <f t="shared" ref="M98:M132" si="20">J98*K98</f>
+        <f t="shared" ref="M98:M134" si="20">J98*K98</f>
         <v>45518518800</v>
       </c>
       <c r="N98" s="15">
@@ -21566,256 +21661,354 @@
       <c r="BG132" s="93"/>
       <c r="BH132" s="93"/>
     </row>
-    <row r="133" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
-      <c r="A133" s="83"/>
-      <c r="B133" s="94" t="s">
+    <row r="133" spans="1:62" s="99" customFormat="1" ht="21" customHeight="1">
+      <c r="A133" s="95"/>
+      <c r="B133" s="96" t="s">
         <v>348</v>
       </c>
-      <c r="C133" s="84">
+      <c r="C133" s="97">
         <v>29</v>
       </c>
-      <c r="D133" s="85">
+      <c r="D133" s="98">
         <v>26376</v>
       </c>
-      <c r="E133" s="84">
+      <c r="E133" s="97">
         <v>26232</v>
       </c>
-      <c r="F133" s="84">
+      <c r="F133" s="97">
         <v>26276</v>
       </c>
-      <c r="G133" s="84">
+      <c r="G133" s="97">
         <v>8995300</v>
       </c>
-      <c r="H133" s="84">
+      <c r="H133" s="97">
         <v>31069</v>
       </c>
-      <c r="I133" s="84">
+      <c r="I133" s="97">
         <v>31447</v>
       </c>
-      <c r="J133" s="84">
+      <c r="J133" s="97">
         <v>31304</v>
       </c>
-      <c r="K133" s="84">
+      <c r="K133" s="97">
         <v>356800</v>
       </c>
-      <c r="L133" s="90"/>
-      <c r="M133" s="90"/>
-      <c r="N133" s="86">
+      <c r="L133" s="90">
+        <f t="shared" si="19"/>
+        <v>236360502800</v>
+      </c>
+      <c r="M133" s="90">
+        <f t="shared" si="20"/>
+        <v>11169267200</v>
+      </c>
+      <c r="N133" s="99">
         <v>26494</v>
       </c>
-      <c r="O133" s="86">
+      <c r="O133" s="99">
         <v>31761</v>
       </c>
-      <c r="P133" s="86">
+      <c r="P133" s="99">
         <v>26639</v>
       </c>
-      <c r="Q133" s="86">
+      <c r="Q133" s="99">
         <v>31380</v>
       </c>
-      <c r="R133" s="84"/>
-      <c r="S133" s="84"/>
-      <c r="T133" s="84"/>
-      <c r="U133" s="84"/>
-      <c r="V133" s="86">
+      <c r="R133" s="97"/>
+      <c r="S133" s="97"/>
+      <c r="T133" s="97"/>
+      <c r="U133" s="97"/>
+      <c r="V133" s="99">
         <v>27400</v>
       </c>
-      <c r="X133" s="86">
+      <c r="X133" s="99">
         <v>27380</v>
       </c>
-      <c r="Y133" s="86">
+      <c r="Y133" s="99">
         <v>32093</v>
       </c>
-      <c r="Z133" s="84"/>
-      <c r="AA133" s="84"/>
-      <c r="AB133" s="84"/>
-      <c r="AC133" s="84"/>
-      <c r="AD133" s="84"/>
-      <c r="AE133" s="84"/>
-      <c r="AF133" s="84"/>
-      <c r="AG133" s="84"/>
-      <c r="AH133" s="84"/>
-      <c r="AI133" s="84"/>
-      <c r="AJ133" s="84"/>
-      <c r="AK133" s="84"/>
-      <c r="AL133" s="84"/>
-      <c r="AM133" s="84"/>
-      <c r="AN133" s="84"/>
-      <c r="AO133" s="84"/>
-      <c r="AP133" s="84"/>
-      <c r="AQ133" s="84"/>
-      <c r="AR133" s="84"/>
-      <c r="AS133" s="85"/>
-      <c r="AT133" s="85"/>
-      <c r="AU133" s="85"/>
-      <c r="AV133" s="85"/>
-      <c r="AW133" s="85"/>
-      <c r="AX133" s="85"/>
-      <c r="AY133" s="84"/>
-      <c r="AZ133" s="84"/>
-      <c r="BA133" s="84"/>
-      <c r="BB133" s="84"/>
-      <c r="BC133" s="84"/>
-      <c r="BE133" s="87"/>
-      <c r="BF133" s="87"/>
-      <c r="BG133" s="87"/>
-      <c r="BH133" s="87"/>
-    </row>
-    <row r="134" spans="1:62" ht="18">
-      <c r="A134" s="8"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9">
-        <f>SUM(G2:G133)/132</f>
-        <v>6007666.6590909092</v>
-      </c>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="9">
+      <c r="Z133" s="97"/>
+      <c r="AA133" s="97"/>
+      <c r="AB133" s="97"/>
+      <c r="AC133" s="97"/>
+      <c r="AD133" s="97"/>
+      <c r="AE133" s="97"/>
+      <c r="AF133" s="97"/>
+      <c r="AG133" s="97"/>
+      <c r="AH133" s="97"/>
+      <c r="AI133" s="97"/>
+      <c r="AJ133" s="97"/>
+      <c r="AK133" s="97"/>
+      <c r="AL133" s="97"/>
+      <c r="AM133" s="97"/>
+      <c r="AN133" s="97"/>
+      <c r="AO133" s="97"/>
+      <c r="AP133" s="97"/>
+      <c r="AQ133" s="97"/>
+      <c r="AR133" s="97"/>
+      <c r="AS133" s="98"/>
+      <c r="AT133" s="98"/>
+      <c r="AU133" s="98"/>
+      <c r="AV133" s="98"/>
+      <c r="AW133" s="98"/>
+      <c r="AX133" s="98"/>
+      <c r="AY133" s="97"/>
+      <c r="AZ133" s="97"/>
+      <c r="BA133" s="97"/>
+      <c r="BB133" s="97"/>
+      <c r="BC133" s="97"/>
+      <c r="BE133" s="100"/>
+      <c r="BF133" s="100"/>
+      <c r="BG133" s="100"/>
+      <c r="BH133" s="100"/>
+    </row>
+    <row r="134" spans="1:62" s="86" customFormat="1" ht="21" customHeight="1">
+      <c r="A134" s="83"/>
+      <c r="B134" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="C134" s="84">
+        <v>30</v>
+      </c>
+      <c r="D134" s="85">
+        <v>26270</v>
+      </c>
+      <c r="E134" s="84">
+        <v>26232</v>
+      </c>
+      <c r="F134" s="84">
+        <v>26287</v>
+      </c>
+      <c r="G134" s="84">
+        <v>10062100</v>
+      </c>
+      <c r="H134" s="84">
+        <v>31447</v>
+      </c>
+      <c r="I134" s="84">
+        <v>31280</v>
+      </c>
+      <c r="J134" s="84">
+        <v>31273</v>
+      </c>
+      <c r="K134" s="84">
+        <v>878800</v>
+      </c>
+      <c r="L134" s="90">
+        <f t="shared" si="19"/>
+        <v>264502422700</v>
+      </c>
+      <c r="M134" s="90">
+        <f t="shared" si="20"/>
+        <v>27482712400</v>
+      </c>
+      <c r="N134" s="86">
+        <v>26494</v>
+      </c>
+      <c r="O134" s="86">
+        <v>31593</v>
+      </c>
+      <c r="P134" s="86">
+        <v>26532</v>
+      </c>
+      <c r="Q134" s="86">
+        <v>31761</v>
+      </c>
+      <c r="R134" s="84"/>
+      <c r="S134" s="84"/>
+      <c r="T134" s="84"/>
+      <c r="U134" s="84"/>
+      <c r="V134" s="86">
+        <v>27400</v>
+      </c>
+      <c r="X134" s="86">
+        <v>27540</v>
+      </c>
+      <c r="Y134" s="86">
+        <v>32181</v>
+      </c>
+      <c r="Z134" s="84"/>
+      <c r="AA134" s="84"/>
+      <c r="AB134" s="84"/>
+      <c r="AC134" s="84"/>
+      <c r="AD134" s="84"/>
+      <c r="AE134" s="84"/>
+      <c r="AF134" s="84"/>
+      <c r="AG134" s="84"/>
+      <c r="AH134" s="84"/>
+      <c r="AI134" s="84"/>
+      <c r="AJ134" s="84"/>
+      <c r="AK134" s="84"/>
+      <c r="AL134" s="84"/>
+      <c r="AM134" s="84"/>
+      <c r="AN134" s="84"/>
+      <c r="AO134" s="84"/>
+      <c r="AP134" s="84"/>
+      <c r="AQ134" s="84"/>
+      <c r="AR134" s="84"/>
+      <c r="AS134" s="85"/>
+      <c r="AT134" s="85"/>
+      <c r="AU134" s="85"/>
+      <c r="AV134" s="85"/>
+      <c r="AW134" s="85"/>
+      <c r="AX134" s="85"/>
+      <c r="AY134" s="84"/>
+      <c r="AZ134" s="84"/>
+      <c r="BA134" s="84"/>
+      <c r="BB134" s="84"/>
+      <c r="BC134" s="84"/>
+      <c r="BE134" s="87"/>
+      <c r="BF134" s="87"/>
+      <c r="BG134" s="87"/>
+      <c r="BH134" s="87"/>
+    </row>
+    <row r="135" spans="1:62" ht="18">
+      <c r="A135" s="8"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="27"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="9">
+        <f>SUM(G2:G134)/133</f>
+        <v>6038151.1203007521</v>
+      </c>
+      <c r="H135" s="9"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9">
         <f>SUM(K2:K126)</f>
         <v>125564600</v>
       </c>
-      <c r="L134" s="9">
+      <c r="L135" s="9">
         <f>SUM(L2:L132)</f>
         <v>19007583899709</v>
       </c>
-      <c r="M134" s="10">
+      <c r="M135" s="10">
         <f>SUM(M2:M132)</f>
         <v>3712564725600</v>
       </c>
-      <c r="N134" s="10"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-      <c r="R134" s="10"/>
-      <c r="S134" s="10"/>
-      <c r="T134" s="10"/>
-      <c r="U134" s="10"/>
-      <c r="V134" s="60">
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="60">
         <v>27410</v>
       </c>
-      <c r="W134" s="10"/>
-      <c r="Y134" s="10"/>
-      <c r="Z134" s="10"/>
-      <c r="AA134" s="10"/>
-      <c r="AB134" s="10"/>
-      <c r="AC134" s="10"/>
-      <c r="AD134" s="10"/>
-      <c r="AE134" s="10"/>
-      <c r="AF134" s="10"/>
-      <c r="AG134" s="10"/>
-      <c r="AH134" s="10"/>
-      <c r="AI134" s="10"/>
-      <c r="AJ134" s="10"/>
-      <c r="AK134" s="10"/>
-      <c r="AL134" s="10"/>
-      <c r="AM134" s="10"/>
-      <c r="AN134" s="10"/>
-      <c r="AO134" s="10"/>
-      <c r="AP134" s="10"/>
-      <c r="AQ134" s="10"/>
-      <c r="AR134" s="10"/>
-      <c r="AY134" s="10"/>
-      <c r="AZ134" s="10"/>
-      <c r="BA134" s="10"/>
-      <c r="BB134" s="10"/>
-      <c r="BC134" s="10"/>
-      <c r="BD134" s="10"/>
-      <c r="BE134" s="11"/>
-      <c r="BF134" s="11"/>
-      <c r="BG134" s="11"/>
-      <c r="BH134" s="11"/>
-      <c r="BI134" t="e">
-        <f>#REF!-N134</f>
+      <c r="W135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+      <c r="AA135" s="10"/>
+      <c r="AB135" s="10"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="10"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="10"/>
+      <c r="AI135" s="10"/>
+      <c r="AJ135" s="10"/>
+      <c r="AK135" s="10"/>
+      <c r="AL135" s="10"/>
+      <c r="AM135" s="10"/>
+      <c r="AN135" s="10"/>
+      <c r="AO135" s="10"/>
+      <c r="AP135" s="10"/>
+      <c r="AQ135" s="10"/>
+      <c r="AR135" s="10"/>
+      <c r="AY135" s="10"/>
+      <c r="AZ135" s="10"/>
+      <c r="BA135" s="10"/>
+      <c r="BB135" s="10"/>
+      <c r="BC135" s="10"/>
+      <c r="BD135" s="10"/>
+      <c r="BE135" s="11"/>
+      <c r="BF135" s="11"/>
+      <c r="BG135" s="11"/>
+      <c r="BH135" s="11"/>
+      <c r="BI135" t="e">
+        <f>#REF!-N135</f>
         <v>#REF!</v>
       </c>
-      <c r="BJ134" t="e">
-        <f>(Y134-O134)/O134</f>
+      <c r="BJ135" t="e">
+        <f>(Y135-O135)/O135</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="135" spans="1:62" ht="18">
-      <c r="D135" s="27"/>
-      <c r="V135" s="66">
-        <v>27380</v>
-      </c>
-      <c r="Z135" s="26"/>
-      <c r="AB135" s="26"/>
-      <c r="AS135" s="26"/>
-      <c r="AW135" s="31"/>
     </row>
     <row r="136" spans="1:62" ht="18">
       <c r="D136" s="27"/>
-      <c r="V136">
-        <v>27360</v>
-      </c>
+      <c r="V136" s="66"/>
       <c r="Z136" s="26"/>
-      <c r="AS136" s="27"/>
+      <c r="AB136" s="26"/>
+      <c r="AS136" s="26"/>
       <c r="AW136" s="31"/>
-      <c r="AY136">
+    </row>
+    <row r="137" spans="1:62" ht="18">
+      <c r="D137" s="27"/>
+      <c r="Z137" s="26"/>
+      <c r="AS137" s="27"/>
+      <c r="AW137" s="31"/>
+      <c r="AY137">
         <f>AY51-AY50</f>
         <v>35000</v>
       </c>
     </row>
-    <row r="137" spans="1:62" ht="18">
-      <c r="V137">
-        <v>27370</v>
-      </c>
-      <c r="Z137" s="26"/>
-      <c r="AS137" s="27">
+    <row r="138" spans="1:62" ht="18">
+      <c r="G138">
+        <f>(G134-G135)/G135</f>
+        <v>0.66642069725125075</v>
+      </c>
+      <c r="Z138" s="26"/>
+      <c r="AS138" s="27">
         <v>10290000</v>
       </c>
-      <c r="AW137" s="31"/>
-      <c r="BB137">
+      <c r="AW138" s="31"/>
+      <c r="BB138">
         <f>AY60-AY59</f>
         <v>70000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:62" ht="18">
-      <c r="G138">
-        <f>(G133-G134)/G134</f>
-        <v>0.49730344748541438</v>
-      </c>
-      <c r="V138" s="26"/>
-      <c r="Z138" s="26"/>
-      <c r="AS138" s="27"/>
-      <c r="AU138">
-        <f>AS137-AS49</f>
-        <v>195000</v>
-      </c>
-      <c r="AW138" s="31">
-        <f>AC52-AY51</f>
-        <v>305000</v>
       </c>
     </row>
     <row r="139" spans="1:62" ht="18">
       <c r="V139" s="26"/>
       <c r="Z139" s="26"/>
-      <c r="AW139" s="31"/>
-    </row>
-    <row r="140" spans="1:62" ht="17.25" customHeight="1">
+      <c r="AS139" s="27"/>
+      <c r="AU139">
+        <f>AS138-AS49</f>
+        <v>195000</v>
+      </c>
+      <c r="AW139" s="31">
+        <f>AC52-AY51</f>
+        <v>305000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:62" ht="18">
       <c r="V140" s="26"/>
       <c r="Z140" s="26"/>
-    </row>
-    <row r="141" spans="1:62" ht="18">
+      <c r="AW140" s="31"/>
+    </row>
+    <row r="141" spans="1:62" ht="17.25" customHeight="1">
       <c r="V141" s="26"/>
       <c r="Z141" s="26"/>
-      <c r="AW141">
-        <f>AW138/AY51</f>
-        <v>2.9539951573849879E-2</v>
-      </c>
     </row>
     <row r="142" spans="1:62" ht="18">
       <c r="V142" s="26"/>
+      <c r="Z142" s="26"/>
+      <c r="AW142">
+        <f>AW139/AY51</f>
+        <v>2.9539951573849879E-2</v>
+      </c>
     </row>
     <row r="143" spans="1:62" ht="18">
       <c r="V143" s="26"/>
     </row>
+    <row r="144" spans="1:62" ht="18">
+      <c r="V144" s="26"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BL138"/>
+  <autoFilter ref="A1:BL139"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -22820,10 +23013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K822"/>
+  <dimension ref="A1:K828"/>
   <sheetViews>
-    <sheetView topLeftCell="A806" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C820" sqref="C820"/>
+    <sheetView topLeftCell="A809" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A820" sqref="A820:D820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -22837,12 +23030,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -22963,12 +23156,12 @@
       <c r="D10" s="72"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="11" t="s">
@@ -23088,12 +23281,12 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="101" t="s">
         <v>239</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="11" t="s">
@@ -23208,12 +23401,12 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="101" t="s">
         <v>240</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="11" t="s">
@@ -23328,12 +23521,12 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="95" t="s">
+      <c r="A41" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="101"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="11" t="s">
@@ -23448,12 +23641,12 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="95" t="s">
+      <c r="A51" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
       <c r="J51">
         <f>D46-D59</f>
         <v>580000</v>
@@ -23576,12 +23769,12 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="95" t="s">
+      <c r="A61" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="11" t="s">
@@ -23696,12 +23889,12 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="95" t="s">
+      <c r="A71" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="95"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="11" t="s">
@@ -23816,12 +24009,12 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="95" t="s">
+      <c r="A81" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="11" t="s">
@@ -23958,12 +24151,12 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="95" t="s">
+      <c r="A93" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="B93" s="95"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="95"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="11" t="s">
@@ -24078,12 +24271,12 @@
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="95" t="s">
+      <c r="A103" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
+      <c r="B103" s="101"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
@@ -24201,12 +24394,12 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="95" t="s">
+      <c r="A113" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="95"/>
+      <c r="B113" s="101"/>
+      <c r="C113" s="101"/>
+      <c r="D113" s="101"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="11" t="s">
@@ -24325,12 +24518,12 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="95" t="s">
+      <c r="A123" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="95"/>
+      <c r="B123" s="101"/>
+      <c r="C123" s="101"/>
+      <c r="D123" s="101"/>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="11" t="s">
@@ -24445,12 +24638,12 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="95" t="s">
+      <c r="A133" s="101" t="s">
         <v>255</v>
       </c>
-      <c r="B133" s="95"/>
-      <c r="C133" s="95"/>
-      <c r="D133" s="95"/>
+      <c r="B133" s="101"/>
+      <c r="C133" s="101"/>
+      <c r="D133" s="101"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="11" t="s">
@@ -24565,12 +24758,12 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="95" t="s">
+      <c r="A143" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="95"/>
+      <c r="B143" s="101"/>
+      <c r="C143" s="101"/>
+      <c r="D143" s="101"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="11" t="s">
@@ -24685,12 +24878,12 @@
       </c>
     </row>
     <row r="153" spans="1:7">
-      <c r="A153" s="95" t="s">
+      <c r="A153" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
+      <c r="B153" s="101"/>
+      <c r="C153" s="101"/>
+      <c r="D153" s="101"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="11" t="s">
@@ -24815,12 +25008,12 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="95" t="s">
+      <c r="A163" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="95"/>
+      <c r="B163" s="101"/>
+      <c r="C163" s="101"/>
+      <c r="D163" s="101"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="11" t="s">
@@ -24935,12 +25128,12 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="B173" s="95"/>
-      <c r="C173" s="95"/>
-      <c r="D173" s="95"/>
+      <c r="B173" s="101"/>
+      <c r="C173" s="101"/>
+      <c r="D173" s="101"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="11" t="s">
@@ -25074,12 +25267,12 @@
       </c>
     </row>
     <row r="183" spans="1:7">
-      <c r="A183" s="95" t="s">
+      <c r="A183" s="101" t="s">
         <v>261</v>
       </c>
-      <c r="B183" s="95"/>
-      <c r="C183" s="95"/>
-      <c r="D183" s="95"/>
+      <c r="B183" s="101"/>
+      <c r="C183" s="101"/>
+      <c r="D183" s="101"/>
       <c r="F183">
         <v>2346</v>
       </c>
@@ -25201,12 +25394,12 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="95" t="s">
+      <c r="A193" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="B193" s="95"/>
-      <c r="C193" s="95"/>
-      <c r="D193" s="95"/>
+      <c r="B193" s="101"/>
+      <c r="C193" s="101"/>
+      <c r="D193" s="101"/>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="11" t="s">
@@ -25321,12 +25514,12 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="95" t="s">
+      <c r="A203" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="B203" s="95"/>
-      <c r="C203" s="95"/>
-      <c r="D203" s="95"/>
+      <c r="B203" s="101"/>
+      <c r="C203" s="101"/>
+      <c r="D203" s="101"/>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="11" t="s">
@@ -25441,12 +25634,12 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="95" t="s">
+      <c r="A213" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="B213" s="95"/>
-      <c r="C213" s="95"/>
-      <c r="D213" s="95"/>
+      <c r="B213" s="101"/>
+      <c r="C213" s="101"/>
+      <c r="D213" s="101"/>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="11" t="s">
@@ -25561,12 +25754,12 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="95" t="s">
+      <c r="A223" s="101" t="s">
         <v>265</v>
       </c>
-      <c r="B223" s="95"/>
-      <c r="C223" s="95"/>
-      <c r="D223" s="95"/>
+      <c r="B223" s="101"/>
+      <c r="C223" s="101"/>
+      <c r="D223" s="101"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="11" t="s">
@@ -25681,12 +25874,12 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="95" t="s">
+      <c r="A233" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="B233" s="95"/>
-      <c r="C233" s="95"/>
-      <c r="D233" s="95"/>
+      <c r="B233" s="101"/>
+      <c r="C233" s="101"/>
+      <c r="D233" s="101"/>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="11" t="s">
@@ -25802,12 +25995,12 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="95" t="s">
+      <c r="A243" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="B243" s="95"/>
-      <c r="C243" s="95"/>
-      <c r="D243" s="95"/>
+      <c r="B243" s="101"/>
+      <c r="C243" s="101"/>
+      <c r="D243" s="101"/>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="11" t="s">
@@ -25925,12 +26118,12 @@
       <c r="D252" s="73"/>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="95" t="s">
+      <c r="A253" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="B253" s="95"/>
-      <c r="C253" s="95"/>
-      <c r="D253" s="95"/>
+      <c r="B253" s="101"/>
+      <c r="C253" s="101"/>
+      <c r="D253" s="101"/>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="11" t="s">
@@ -26045,12 +26238,12 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="95" t="s">
+      <c r="A263" s="101" t="s">
         <v>269</v>
       </c>
-      <c r="B263" s="95"/>
-      <c r="C263" s="95"/>
-      <c r="D263" s="95"/>
+      <c r="B263" s="101"/>
+      <c r="C263" s="101"/>
+      <c r="D263" s="101"/>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="11" t="s">
@@ -26165,12 +26358,12 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="95" t="s">
+      <c r="A273" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="B273" s="95"/>
-      <c r="C273" s="95"/>
-      <c r="D273" s="95"/>
+      <c r="B273" s="101"/>
+      <c r="C273" s="101"/>
+      <c r="D273" s="101"/>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="11" t="s">
@@ -26285,12 +26478,12 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="95" t="s">
+      <c r="A283" s="101" t="s">
         <v>271</v>
       </c>
-      <c r="B283" s="95"/>
-      <c r="C283" s="95"/>
-      <c r="D283" s="95"/>
+      <c r="B283" s="101"/>
+      <c r="C283" s="101"/>
+      <c r="D283" s="101"/>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="11" t="s">
@@ -26405,12 +26598,12 @@
       </c>
     </row>
     <row r="293" spans="1:6">
-      <c r="A293" s="95" t="s">
+      <c r="A293" s="101" t="s">
         <v>272</v>
       </c>
-      <c r="B293" s="95"/>
-      <c r="C293" s="95"/>
-      <c r="D293" s="95"/>
+      <c r="B293" s="101"/>
+      <c r="C293" s="101"/>
+      <c r="D293" s="101"/>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" s="11" t="s">
@@ -26529,12 +26722,12 @@
       <c r="F301" s="74"/>
     </row>
     <row r="303" spans="1:6">
-      <c r="A303" s="95" t="s">
+      <c r="A303" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="B303" s="95"/>
-      <c r="C303" s="95"/>
-      <c r="D303" s="95"/>
+      <c r="B303" s="101"/>
+      <c r="C303" s="101"/>
+      <c r="D303" s="101"/>
     </row>
     <row r="304" spans="1:6">
       <c r="A304" s="11" t="s">
@@ -26619,12 +26812,12 @@
       <c r="D311" s="11"/>
     </row>
     <row r="313" spans="1:6">
-      <c r="A313" s="95" t="s">
+      <c r="A313" s="101" t="s">
         <v>277</v>
       </c>
-      <c r="B313" s="95"/>
-      <c r="C313" s="95"/>
-      <c r="D313" s="95"/>
+      <c r="B313" s="101"/>
+      <c r="C313" s="101"/>
+      <c r="D313" s="101"/>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" s="11" t="s">
@@ -26717,12 +26910,12 @@
       <c r="D321" s="11"/>
     </row>
     <row r="324" spans="1:6">
-      <c r="A324" s="95" t="s">
+      <c r="A324" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="B324" s="95"/>
-      <c r="C324" s="95"/>
-      <c r="D324" s="95"/>
+      <c r="B324" s="101"/>
+      <c r="C324" s="101"/>
+      <c r="D324" s="101"/>
     </row>
     <row r="325" spans="1:6">
       <c r="A325" s="11" t="s">
@@ -26807,12 +27000,12 @@
       <c r="D332" s="11"/>
     </row>
     <row r="335" spans="1:6">
-      <c r="A335" s="95" t="s">
+      <c r="A335" s="101" t="s">
         <v>284</v>
       </c>
-      <c r="B335" s="95"/>
-      <c r="C335" s="95"/>
-      <c r="D335" s="95"/>
+      <c r="B335" s="101"/>
+      <c r="C335" s="101"/>
+      <c r="D335" s="101"/>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" s="11" t="s">
@@ -26927,12 +27120,12 @@
       </c>
     </row>
     <row r="346" spans="1:4">
-      <c r="A346" s="95" t="s">
+      <c r="A346" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="B346" s="95"/>
-      <c r="C346" s="95"/>
-      <c r="D346" s="95"/>
+      <c r="B346" s="101"/>
+      <c r="C346" s="101"/>
+      <c r="D346" s="101"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="11" t="s">
@@ -27047,12 +27240,12 @@
       </c>
     </row>
     <row r="357" spans="1:4">
-      <c r="A357" s="95" t="s">
+      <c r="A357" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="B357" s="95"/>
-      <c r="C357" s="95"/>
-      <c r="D357" s="95"/>
+      <c r="B357" s="101"/>
+      <c r="C357" s="101"/>
+      <c r="D357" s="101"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="11" t="s">
@@ -27167,12 +27360,12 @@
       </c>
     </row>
     <row r="368" spans="1:4">
-      <c r="A368" s="95" t="s">
+      <c r="A368" s="101" t="s">
         <v>287</v>
       </c>
-      <c r="B368" s="95"/>
-      <c r="C368" s="95"/>
-      <c r="D368" s="95"/>
+      <c r="B368" s="101"/>
+      <c r="C368" s="101"/>
+      <c r="D368" s="101"/>
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="11" t="s">
@@ -27291,12 +27484,12 @@
       </c>
     </row>
     <row r="379" spans="1:7">
-      <c r="A379" s="95" t="s">
+      <c r="A379" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="B379" s="95"/>
-      <c r="C379" s="95"/>
-      <c r="D379" s="95"/>
+      <c r="B379" s="101"/>
+      <c r="C379" s="101"/>
+      <c r="D379" s="101"/>
     </row>
     <row r="380" spans="1:7">
       <c r="A380" s="11" t="s">
@@ -27411,12 +27604,12 @@
       </c>
     </row>
     <row r="390" spans="1:4">
-      <c r="A390" s="95" t="s">
+      <c r="A390" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="B390" s="95"/>
-      <c r="C390" s="95"/>
-      <c r="D390" s="95"/>
+      <c r="B390" s="101"/>
+      <c r="C390" s="101"/>
+      <c r="D390" s="101"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="11" t="s">
@@ -27531,12 +27724,12 @@
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="95" t="s">
+      <c r="A401" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="B401" s="95"/>
-      <c r="C401" s="95"/>
-      <c r="D401" s="95"/>
+      <c r="B401" s="101"/>
+      <c r="C401" s="101"/>
+      <c r="D401" s="101"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="11" t="s">
@@ -27651,12 +27844,12 @@
       </c>
     </row>
     <row r="412" spans="1:4">
-      <c r="A412" s="95" t="s">
+      <c r="A412" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="B412" s="95"/>
-      <c r="C412" s="95"/>
-      <c r="D412" s="95"/>
+      <c r="B412" s="101"/>
+      <c r="C412" s="101"/>
+      <c r="D412" s="101"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="11" t="s">
@@ -27771,12 +27964,12 @@
       </c>
     </row>
     <row r="423" spans="1:6">
-      <c r="A423" s="95" t="s">
+      <c r="A423" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="B423" s="95"/>
-      <c r="C423" s="95"/>
-      <c r="D423" s="95"/>
+      <c r="B423" s="101"/>
+      <c r="C423" s="101"/>
+      <c r="D423" s="101"/>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="11" t="s">
@@ -27867,12 +28060,12 @@
       <c r="D431" s="11"/>
     </row>
     <row r="434" spans="1:4">
-      <c r="A434" s="95" t="s">
+      <c r="A434" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="B434" s="95"/>
-      <c r="C434" s="95"/>
-      <c r="D434" s="95"/>
+      <c r="B434" s="101"/>
+      <c r="C434" s="101"/>
+      <c r="D434" s="101"/>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="11" t="s">
@@ -27987,12 +28180,12 @@
       </c>
     </row>
     <row r="445" spans="1:4">
-      <c r="A445" s="95" t="s">
+      <c r="A445" s="101" t="s">
         <v>297</v>
       </c>
-      <c r="B445" s="95"/>
-      <c r="C445" s="95"/>
-      <c r="D445" s="95"/>
+      <c r="B445" s="101"/>
+      <c r="C445" s="101"/>
+      <c r="D445" s="101"/>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="11" t="s">
@@ -28107,12 +28300,12 @@
       </c>
     </row>
     <row r="456" spans="1:4">
-      <c r="A456" s="95" t="s">
+      <c r="A456" s="101" t="s">
         <v>298</v>
       </c>
-      <c r="B456" s="95"/>
-      <c r="C456" s="95"/>
-      <c r="D456" s="95"/>
+      <c r="B456" s="101"/>
+      <c r="C456" s="101"/>
+      <c r="D456" s="101"/>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="11" t="s">
@@ -28227,12 +28420,12 @@
       </c>
     </row>
     <row r="467" spans="1:4">
-      <c r="A467" s="95" t="s">
+      <c r="A467" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="B467" s="95"/>
-      <c r="C467" s="95"/>
-      <c r="D467" s="95"/>
+      <c r="B467" s="101"/>
+      <c r="C467" s="101"/>
+      <c r="D467" s="101"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="11" t="s">
@@ -28347,12 +28540,12 @@
       </c>
     </row>
     <row r="478" spans="1:4">
-      <c r="A478" s="95" t="s">
+      <c r="A478" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="B478" s="95"/>
-      <c r="C478" s="95"/>
-      <c r="D478" s="95"/>
+      <c r="B478" s="101"/>
+      <c r="C478" s="101"/>
+      <c r="D478" s="101"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="11" t="s">
@@ -28467,12 +28660,12 @@
       </c>
     </row>
     <row r="489" spans="1:6">
-      <c r="A489" s="95" t="s">
+      <c r="A489" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="B489" s="95"/>
-      <c r="C489" s="95"/>
-      <c r="D489" s="95"/>
+      <c r="B489" s="101"/>
+      <c r="C489" s="101"/>
+      <c r="D489" s="101"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="11" t="s">
@@ -28557,12 +28750,12 @@
       <c r="D497" s="11"/>
     </row>
     <row r="500" spans="1:4">
-      <c r="A500" s="95" t="s">
+      <c r="A500" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="B500" s="95"/>
-      <c r="C500" s="95"/>
-      <c r="D500" s="95"/>
+      <c r="B500" s="101"/>
+      <c r="C500" s="101"/>
+      <c r="D500" s="101"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="11" t="s">
@@ -28677,12 +28870,12 @@
       </c>
     </row>
     <row r="511" spans="1:4">
-      <c r="A511" s="95" t="s">
+      <c r="A511" s="101" t="s">
         <v>305</v>
       </c>
-      <c r="B511" s="95"/>
-      <c r="C511" s="95"/>
-      <c r="D511" s="95"/>
+      <c r="B511" s="101"/>
+      <c r="C511" s="101"/>
+      <c r="D511" s="101"/>
     </row>
     <row r="512" spans="1:4">
       <c r="A512" s="11" t="s">
@@ -28797,12 +28990,12 @@
       </c>
     </row>
     <row r="522" spans="1:4">
-      <c r="A522" s="95" t="s">
+      <c r="A522" s="101" t="s">
         <v>306</v>
       </c>
-      <c r="B522" s="95"/>
-      <c r="C522" s="95"/>
-      <c r="D522" s="95"/>
+      <c r="B522" s="101"/>
+      <c r="C522" s="101"/>
+      <c r="D522" s="101"/>
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="11" t="s">
@@ -28917,12 +29110,12 @@
       </c>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="95" t="s">
+      <c r="A533" s="101" t="s">
         <v>307</v>
       </c>
-      <c r="B533" s="95"/>
-      <c r="C533" s="95"/>
-      <c r="D533" s="95"/>
+      <c r="B533" s="101"/>
+      <c r="C533" s="101"/>
+      <c r="D533" s="101"/>
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="11" t="s">
@@ -29037,12 +29230,12 @@
       </c>
     </row>
     <row r="544" spans="1:4">
-      <c r="A544" s="95" t="s">
+      <c r="A544" s="101" t="s">
         <v>308</v>
       </c>
-      <c r="B544" s="95"/>
-      <c r="C544" s="95"/>
-      <c r="D544" s="95"/>
+      <c r="B544" s="101"/>
+      <c r="C544" s="101"/>
+      <c r="D544" s="101"/>
     </row>
     <row r="545" spans="1:6">
       <c r="A545" s="11" t="s">
@@ -29157,12 +29350,12 @@
       </c>
     </row>
     <row r="555" spans="1:6">
-      <c r="A555" s="95" t="s">
+      <c r="A555" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="B555" s="95"/>
-      <c r="C555" s="95"/>
-      <c r="D555" s="95"/>
+      <c r="B555" s="101"/>
+      <c r="C555" s="101"/>
+      <c r="D555" s="101"/>
     </row>
     <row r="556" spans="1:6">
       <c r="A556" s="11" t="s">
@@ -29319,12 +29512,12 @@
       </c>
     </row>
     <row r="567" spans="1:6">
-      <c r="A567" s="95" t="s">
+      <c r="A567" s="101" t="s">
         <v>309</v>
       </c>
-      <c r="B567" s="95"/>
-      <c r="C567" s="95"/>
-      <c r="D567" s="95"/>
+      <c r="B567" s="101"/>
+      <c r="C567" s="101"/>
+      <c r="D567" s="101"/>
     </row>
     <row r="568" spans="1:6">
       <c r="A568" s="11" t="s">
@@ -29423,12 +29616,12 @@
       <c r="D575" s="11"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="95" t="s">
+      <c r="A579" s="101" t="s">
         <v>314</v>
       </c>
-      <c r="B579" s="95"/>
-      <c r="C579" s="95"/>
-      <c r="D579" s="95"/>
+      <c r="B579" s="101"/>
+      <c r="C579" s="101"/>
+      <c r="D579" s="101"/>
     </row>
     <row r="580" spans="1:5">
       <c r="A580" s="11" t="s">
@@ -29545,12 +29738,12 @@
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="95" t="s">
+      <c r="A590" s="101" t="s">
         <v>315</v>
       </c>
-      <c r="B590" s="95"/>
-      <c r="C590" s="95"/>
-      <c r="D590" s="95"/>
+      <c r="B590" s="101"/>
+      <c r="C590" s="101"/>
+      <c r="D590" s="101"/>
     </row>
     <row r="591" spans="1:5">
       <c r="A591" s="11" t="s">
@@ -29667,12 +29860,12 @@
       </c>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="95" t="s">
+      <c r="A601" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="B601" s="95"/>
-      <c r="C601" s="95"/>
-      <c r="D601" s="95"/>
+      <c r="B601" s="101"/>
+      <c r="C601" s="101"/>
+      <c r="D601" s="101"/>
     </row>
     <row r="602" spans="1:5">
       <c r="A602" s="11" t="s">
@@ -29787,12 +29980,12 @@
       </c>
     </row>
     <row r="612" spans="1:4">
-      <c r="A612" s="95" t="s">
+      <c r="A612" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="B612" s="95"/>
-      <c r="C612" s="95"/>
-      <c r="D612" s="95"/>
+      <c r="B612" s="101"/>
+      <c r="C612" s="101"/>
+      <c r="D612" s="101"/>
     </row>
     <row r="613" spans="1:4">
       <c r="A613" s="11" t="s">
@@ -29907,12 +30100,12 @@
       </c>
     </row>
     <row r="623" spans="1:4">
-      <c r="A623" s="95" t="s">
+      <c r="A623" s="101" t="s">
         <v>318</v>
       </c>
-      <c r="B623" s="95"/>
-      <c r="C623" s="95"/>
-      <c r="D623" s="95"/>
+      <c r="B623" s="101"/>
+      <c r="C623" s="101"/>
+      <c r="D623" s="101"/>
     </row>
     <row r="624" spans="1:4">
       <c r="A624" s="11" t="s">
@@ -30027,12 +30220,12 @@
       </c>
     </row>
     <row r="635" spans="1:6">
-      <c r="A635" s="95" t="s">
+      <c r="A635" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="B635" s="95"/>
-      <c r="C635" s="95"/>
-      <c r="D635" s="95"/>
+      <c r="B635" s="101"/>
+      <c r="C635" s="101"/>
+      <c r="D635" s="101"/>
     </row>
     <row r="636" spans="1:6">
       <c r="A636" s="11" t="s">
@@ -30108,12 +30301,12 @@
       <c r="C643" s="11"/>
     </row>
     <row r="647" spans="1:4">
-      <c r="A647" s="95" t="s">
+      <c r="A647" s="101" t="s">
         <v>321</v>
       </c>
-      <c r="B647" s="95"/>
-      <c r="C647" s="95"/>
-      <c r="D647" s="95"/>
+      <c r="B647" s="101"/>
+      <c r="C647" s="101"/>
+      <c r="D647" s="101"/>
     </row>
     <row r="648" spans="1:4">
       <c r="A648" s="11" t="s">
@@ -30228,12 +30421,12 @@
       </c>
     </row>
     <row r="658" spans="1:4">
-      <c r="A658" s="95" t="s">
+      <c r="A658" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="B658" s="95"/>
-      <c r="C658" s="95"/>
-      <c r="D658" s="95"/>
+      <c r="B658" s="101"/>
+      <c r="C658" s="101"/>
+      <c r="D658" s="101"/>
     </row>
     <row r="659" spans="1:4">
       <c r="A659" s="11" t="s">
@@ -30348,12 +30541,12 @@
       </c>
     </row>
     <row r="670" spans="1:4">
-      <c r="A670" s="95" t="s">
+      <c r="A670" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="B670" s="95"/>
-      <c r="C670" s="95"/>
-      <c r="D670" s="95"/>
+      <c r="B670" s="101"/>
+      <c r="C670" s="101"/>
+      <c r="D670" s="101"/>
     </row>
     <row r="671" spans="1:4">
       <c r="A671" s="11" t="s">
@@ -30468,12 +30661,12 @@
       </c>
     </row>
     <row r="681" spans="1:4">
-      <c r="A681" s="95" t="s">
+      <c r="A681" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="B681" s="95"/>
-      <c r="C681" s="95"/>
-      <c r="D681" s="95"/>
+      <c r="B681" s="101"/>
+      <c r="C681" s="101"/>
+      <c r="D681" s="101"/>
     </row>
     <row r="682" spans="1:4">
       <c r="A682" s="11" t="s">
@@ -30588,12 +30781,12 @@
       </c>
     </row>
     <row r="692" spans="1:4">
-      <c r="A692" s="95" t="s">
+      <c r="A692" s="101" t="s">
         <v>325</v>
       </c>
-      <c r="B692" s="95"/>
-      <c r="C692" s="95"/>
-      <c r="D692" s="95"/>
+      <c r="B692" s="101"/>
+      <c r="C692" s="101"/>
+      <c r="D692" s="101"/>
     </row>
     <row r="693" spans="1:4">
       <c r="A693" s="11" t="s">
@@ -30708,12 +30901,12 @@
       </c>
     </row>
     <row r="703" spans="1:4">
-      <c r="A703" s="95" t="s">
+      <c r="A703" s="101" t="s">
         <v>326</v>
       </c>
-      <c r="B703" s="95"/>
-      <c r="C703" s="95"/>
-      <c r="D703" s="95"/>
+      <c r="B703" s="101"/>
+      <c r="C703" s="101"/>
+      <c r="D703" s="101"/>
     </row>
     <row r="704" spans="1:4">
       <c r="A704" s="11" t="s">
@@ -30799,12 +30992,12 @@
       <c r="C711" s="11"/>
     </row>
     <row r="715" spans="1:6">
-      <c r="A715" s="95" t="s">
+      <c r="A715" s="101" t="s">
         <v>329</v>
       </c>
-      <c r="B715" s="95"/>
-      <c r="C715" s="95"/>
-      <c r="D715" s="95"/>
+      <c r="B715" s="101"/>
+      <c r="C715" s="101"/>
+      <c r="D715" s="101"/>
     </row>
     <row r="716" spans="1:6">
       <c r="A716" s="11" t="s">
@@ -30919,12 +31112,12 @@
       </c>
     </row>
     <row r="726" spans="1:4">
-      <c r="A726" s="95" t="s">
+      <c r="A726" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="B726" s="95"/>
-      <c r="C726" s="95"/>
-      <c r="D726" s="95"/>
+      <c r="B726" s="101"/>
+      <c r="C726" s="101"/>
+      <c r="D726" s="101"/>
     </row>
     <row r="727" spans="1:4">
       <c r="A727" s="11" t="s">
@@ -31039,12 +31232,12 @@
       </c>
     </row>
     <row r="738" spans="1:4">
-      <c r="A738" s="95" t="s">
+      <c r="A738" s="101" t="s">
         <v>331</v>
       </c>
-      <c r="B738" s="95"/>
-      <c r="C738" s="95"/>
-      <c r="D738" s="95"/>
+      <c r="B738" s="101"/>
+      <c r="C738" s="101"/>
+      <c r="D738" s="101"/>
     </row>
     <row r="739" spans="1:4">
       <c r="A739" s="11" t="s">
@@ -31159,12 +31352,12 @@
       </c>
     </row>
     <row r="749" spans="1:4">
-      <c r="A749" s="95" t="s">
+      <c r="A749" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="B749" s="95"/>
-      <c r="C749" s="95"/>
-      <c r="D749" s="95"/>
+      <c r="B749" s="101"/>
+      <c r="C749" s="101"/>
+      <c r="D749" s="101"/>
     </row>
     <row r="750" spans="1:4">
       <c r="A750" s="11" t="s">
@@ -31279,12 +31472,12 @@
       </c>
     </row>
     <row r="760" spans="1:4">
-      <c r="A760" s="95" t="s">
+      <c r="A760" s="101" t="s">
         <v>333</v>
       </c>
-      <c r="B760" s="95"/>
-      <c r="C760" s="95"/>
-      <c r="D760" s="95"/>
+      <c r="B760" s="101"/>
+      <c r="C760" s="101"/>
+      <c r="D760" s="101"/>
     </row>
     <row r="761" spans="1:4">
       <c r="A761" s="11" t="s">
@@ -31399,12 +31592,12 @@
       </c>
     </row>
     <row r="772" spans="1:6">
-      <c r="A772" s="95" t="s">
+      <c r="A772" s="101" t="s">
         <v>341</v>
       </c>
-      <c r="B772" s="95"/>
-      <c r="C772" s="95"/>
-      <c r="D772" s="95"/>
+      <c r="B772" s="101"/>
+      <c r="C772" s="101"/>
+      <c r="D772" s="101"/>
     </row>
     <row r="773" spans="1:6">
       <c r="A773" s="11" t="s">
@@ -31488,12 +31681,12 @@
       <c r="C780" s="11"/>
     </row>
     <row r="784" spans="1:6">
-      <c r="A784" s="95" t="s">
+      <c r="A784" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="B784" s="95"/>
-      <c r="C784" s="95"/>
-      <c r="D784" s="95"/>
+      <c r="B784" s="101"/>
+      <c r="C784" s="101"/>
+      <c r="D784" s="101"/>
     </row>
     <row r="785" spans="1:5">
       <c r="A785" s="11" t="s">
@@ -31633,12 +31826,12 @@
       <c r="C795" s="1"/>
     </row>
     <row r="796" spans="1:5">
-      <c r="A796" s="95" t="s">
+      <c r="A796" s="101" t="s">
         <v>346</v>
       </c>
-      <c r="B796" s="95"/>
-      <c r="C796" s="95"/>
-      <c r="D796" s="95"/>
+      <c r="B796" s="101"/>
+      <c r="C796" s="101"/>
+      <c r="D796" s="101"/>
     </row>
     <row r="797" spans="1:5">
       <c r="A797" s="11" t="s">
@@ -31768,12 +31961,12 @@
       </c>
     </row>
     <row r="809" spans="1:8">
-      <c r="A809" s="95" t="s">
+      <c r="A809" s="101" t="s">
         <v>349</v>
       </c>
-      <c r="B809" s="95"/>
-      <c r="C809" s="95"/>
-      <c r="D809" s="95"/>
+      <c r="B809" s="101"/>
+      <c r="C809" s="101"/>
+      <c r="D809" s="101"/>
     </row>
     <row r="810" spans="1:8">
       <c r="A810" s="11" t="s">
@@ -31890,79 +32083,129 @@
       </c>
       <c r="E817" s="88"/>
     </row>
+    <row r="820" spans="1:5">
+      <c r="A820" s="101" t="s">
+        <v>351</v>
+      </c>
+      <c r="B820" s="101"/>
+      <c r="C820" s="101"/>
+      <c r="D820" s="101"/>
+    </row>
     <row r="821" spans="1:5">
-      <c r="D821">
-        <v>3.673</v>
+      <c r="A821" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B821" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C821" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="D821" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="822" spans="1:5">
-      <c r="D822">
-        <f>C817*D821</f>
-        <v>27418.945</v>
+      <c r="A822" s="68">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B822" s="11">
+        <v>27400</v>
+      </c>
+      <c r="C822" s="11">
+        <v>7510</v>
+      </c>
+      <c r="D822" s="1">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5">
+      <c r="A823" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="B823" s="11">
+        <v>27540</v>
+      </c>
+      <c r="C823" s="11">
+        <v>7500</v>
+      </c>
+      <c r="D823" s="1">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5">
+      <c r="A824" s="70" t="s">
+        <v>233</v>
+      </c>
+      <c r="B824" s="11">
+        <v>27550</v>
+      </c>
+      <c r="C824" s="11">
+        <v>7510</v>
+      </c>
+      <c r="D824" s="1">
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5">
+      <c r="A825" s="68" t="s">
+        <v>234</v>
+      </c>
+      <c r="B825" s="11">
+        <v>27540</v>
+      </c>
+      <c r="C825" s="11">
+        <v>7520</v>
+      </c>
+      <c r="D825" s="88">
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5">
+      <c r="A826" s="68">
+        <v>0.625</v>
+      </c>
+      <c r="B826" s="11">
+        <v>27540</v>
+      </c>
+      <c r="C826" s="11">
+        <v>7510</v>
+      </c>
+      <c r="D826" s="88">
+        <v>11700000</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5">
+      <c r="A827" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B827" s="11">
+        <v>27540</v>
+      </c>
+      <c r="C827" s="11">
+        <v>7510</v>
+      </c>
+      <c r="D827" s="88">
+        <v>11650000</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5">
+      <c r="A828" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="B828" s="11">
+        <v>27540</v>
+      </c>
+      <c r="C828" s="11">
+        <v>7510</v>
+      </c>
+      <c r="D828" s="88">
+        <v>11650000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A796:D796"/>
-    <mergeCell ref="A749:D749"/>
-    <mergeCell ref="A760:D760"/>
-    <mergeCell ref="A772:D772"/>
-    <mergeCell ref="A692:D692"/>
-    <mergeCell ref="A703:D703"/>
-    <mergeCell ref="A715:D715"/>
-    <mergeCell ref="A726:D726"/>
-    <mergeCell ref="A738:D738"/>
-    <mergeCell ref="A784:D784"/>
-    <mergeCell ref="A635:D635"/>
-    <mergeCell ref="A647:D647"/>
-    <mergeCell ref="A658:D658"/>
-    <mergeCell ref="A670:D670"/>
-    <mergeCell ref="A681:D681"/>
-    <mergeCell ref="A579:D579"/>
-    <mergeCell ref="A590:D590"/>
-    <mergeCell ref="A601:D601"/>
-    <mergeCell ref="A612:D612"/>
-    <mergeCell ref="A623:D623"/>
-    <mergeCell ref="A522:D522"/>
-    <mergeCell ref="A533:D533"/>
-    <mergeCell ref="A544:D544"/>
-    <mergeCell ref="A555:D555"/>
-    <mergeCell ref="A567:D567"/>
-    <mergeCell ref="A467:D467"/>
-    <mergeCell ref="A478:D478"/>
-    <mergeCell ref="A489:D489"/>
-    <mergeCell ref="A500:D500"/>
-    <mergeCell ref="A511:D511"/>
-    <mergeCell ref="A412:D412"/>
-    <mergeCell ref="A423:D423"/>
-    <mergeCell ref="A434:D434"/>
-    <mergeCell ref="A445:D445"/>
-    <mergeCell ref="A456:D456"/>
-    <mergeCell ref="A357:D357"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A379:D379"/>
-    <mergeCell ref="A390:D390"/>
-    <mergeCell ref="A401:D401"/>
-    <mergeCell ref="A303:D303"/>
-    <mergeCell ref="A313:D313"/>
-    <mergeCell ref="A324:D324"/>
-    <mergeCell ref="A335:D335"/>
-    <mergeCell ref="A346:D346"/>
-    <mergeCell ref="A253:D253"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A293:D293"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A93:D93"/>
+  <mergeCells count="77">
+    <mergeCell ref="A820:D820"/>
     <mergeCell ref="A809:D809"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A113:D113"/>
@@ -31979,6 +32222,66 @@
     <mergeCell ref="A223:D223"/>
     <mergeCell ref="A233:D233"/>
     <mergeCell ref="A243:D243"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A253:D253"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A293:D293"/>
+    <mergeCell ref="A303:D303"/>
+    <mergeCell ref="A313:D313"/>
+    <mergeCell ref="A324:D324"/>
+    <mergeCell ref="A335:D335"/>
+    <mergeCell ref="A346:D346"/>
+    <mergeCell ref="A357:D357"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A379:D379"/>
+    <mergeCell ref="A390:D390"/>
+    <mergeCell ref="A401:D401"/>
+    <mergeCell ref="A412:D412"/>
+    <mergeCell ref="A423:D423"/>
+    <mergeCell ref="A434:D434"/>
+    <mergeCell ref="A445:D445"/>
+    <mergeCell ref="A456:D456"/>
+    <mergeCell ref="A467:D467"/>
+    <mergeCell ref="A478:D478"/>
+    <mergeCell ref="A489:D489"/>
+    <mergeCell ref="A500:D500"/>
+    <mergeCell ref="A511:D511"/>
+    <mergeCell ref="A522:D522"/>
+    <mergeCell ref="A533:D533"/>
+    <mergeCell ref="A544:D544"/>
+    <mergeCell ref="A555:D555"/>
+    <mergeCell ref="A567:D567"/>
+    <mergeCell ref="A579:D579"/>
+    <mergeCell ref="A590:D590"/>
+    <mergeCell ref="A601:D601"/>
+    <mergeCell ref="A612:D612"/>
+    <mergeCell ref="A623:D623"/>
+    <mergeCell ref="A635:D635"/>
+    <mergeCell ref="A647:D647"/>
+    <mergeCell ref="A658:D658"/>
+    <mergeCell ref="A670:D670"/>
+    <mergeCell ref="A681:D681"/>
+    <mergeCell ref="A796:D796"/>
+    <mergeCell ref="A749:D749"/>
+    <mergeCell ref="A760:D760"/>
+    <mergeCell ref="A772:D772"/>
+    <mergeCell ref="A692:D692"/>
+    <mergeCell ref="A703:D703"/>
+    <mergeCell ref="A715:D715"/>
+    <mergeCell ref="A726:D726"/>
+    <mergeCell ref="A738:D738"/>
+    <mergeCell ref="A784:D784"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -31987,10 +32290,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I73"/>
+  <dimension ref="B1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72:H73"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -32977,15 +33280,15 @@
         <v>1045981</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:F73" si="3">(C35-C34)*100/C34</f>
+        <f t="shared" ref="F35:F74" si="3">(C35-C34)*100/C34</f>
         <v>-1.0141987829614605</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G73" si="4">(D35-D34)*100/D34</f>
+        <f t="shared" ref="G35:G74" si="4">(D35-D34)*100/D34</f>
         <v>-9.5057034220532313E-2</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H73" si="5">(E35-E34)*100/E34</f>
+        <f t="shared" ref="H35:H74" si="5">(E35-E34)*100/E34</f>
         <v>-0.46135003887406989</v>
       </c>
       <c r="I35">
@@ -33833,7 +34136,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="2:9">
+    <row r="65" spans="2:13">
       <c r="B65">
         <v>14000617</v>
       </c>
@@ -33862,7 +34165,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
+    <row r="66" spans="2:13">
       <c r="B66">
         <v>14000620</v>
       </c>
@@ -33891,7 +34194,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="67" spans="2:9">
+    <row r="67" spans="2:13">
       <c r="B67">
         <v>14000621</v>
       </c>
@@ -33920,7 +34223,7 @@
         <v>-2.64</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:13">
       <c r="B68">
         <v>14000622</v>
       </c>
@@ -33949,7 +34252,7 @@
         <v>-0.99</v>
       </c>
     </row>
-    <row r="69" spans="2:9">
+    <row r="69" spans="2:13">
       <c r="B69">
         <v>14000623</v>
       </c>
@@ -33978,7 +34281,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="70" spans="2:9">
+    <row r="70" spans="2:13">
       <c r="B70">
         <v>14000624</v>
       </c>
@@ -34007,7 +34310,7 @@
         <v>-0.57999999999999996</v>
       </c>
     </row>
-    <row r="71" spans="2:9">
+    <row r="71" spans="2:13">
       <c r="B71">
         <v>14000627</v>
       </c>
@@ -34036,7 +34339,7 @@
         <v>-2.5499999999999998</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:13">
       <c r="B72">
         <v>14000628</v>
       </c>
@@ -34065,7 +34368,7 @@
         <v>-2.0499999999999998</v>
       </c>
     </row>
-    <row r="73" spans="2:9">
+    <row r="73" spans="2:13">
       <c r="B73">
         <v>14000629</v>
       </c>
@@ -34092,6 +34395,47 @@
       </c>
       <c r="I73">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13">
+      <c r="B74">
+        <v>14000630</v>
+      </c>
+      <c r="C74" s="88">
+        <v>27540</v>
+      </c>
+      <c r="D74">
+        <v>11650000</v>
+      </c>
+      <c r="E74">
+        <v>1139937</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="3"/>
+        <v>0.58436815193571945</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17196904557179707</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0229582929366869</v>
+      </c>
+      <c r="I74">
+        <v>-2.56</v>
+      </c>
+      <c r="J74">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K74">
+        <v>0.17</v>
+      </c>
+      <c r="L74">
+        <v>1.02</v>
+      </c>
+      <c r="M74">
+        <v>-2.56</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -18,7 +18,7 @@
     <sheet name="price change" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'data set'!$A$1:$BL$140</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="354">
   <si>
     <t>نرخ ابتدای روز دلار  متشکل</t>
   </si>
@@ -1086,6 +1086,12 @@
   </si>
   <si>
     <t>روند روزانه بهای سکه و ارز  یکشنبه 30 شهریور 1400)</t>
+  </si>
+  <si>
+    <t>31شهریور1400</t>
+  </si>
+  <si>
+    <t>روند روزانه بهای سکه و ارز  چهارشنبه 31 شهریور 1400)</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="10